--- a/AAII_Financials/Yearly/PCRFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PCRFY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>PCRFY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,155 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43555</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42825</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42460</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42094</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41729</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41364</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40999</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>72744800</v>
+        <v>69587700</v>
       </c>
       <c r="E8" s="3">
-        <v>72557900</v>
+        <v>74345400</v>
       </c>
       <c r="F8" s="3">
-        <v>66754300</v>
+        <v>74154300</v>
       </c>
       <c r="G8" s="3">
-        <v>69323100</v>
+        <v>68223000</v>
       </c>
       <c r="H8" s="3">
-        <v>70129700</v>
+        <v>70848400</v>
       </c>
       <c r="I8" s="3">
-        <v>70325200</v>
+        <v>71672700</v>
       </c>
       <c r="J8" s="3">
+        <v>71872500</v>
+      </c>
+      <c r="K8" s="3">
         <v>66384700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>70929800</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>52142400</v>
+        <v>49604500</v>
       </c>
       <c r="E9" s="3">
-        <v>51294400</v>
+        <v>53289600</v>
       </c>
       <c r="F9" s="3">
-        <v>46878600</v>
+        <v>52423000</v>
       </c>
       <c r="G9" s="3">
-        <v>97332700</v>
+        <v>47910000</v>
       </c>
       <c r="H9" s="3">
-        <v>50242400</v>
+        <v>99474200</v>
       </c>
       <c r="I9" s="3">
-        <v>51257300</v>
+        <v>51347800</v>
       </c>
       <c r="J9" s="3">
+        <v>52385100</v>
+      </c>
+      <c r="K9" s="3">
         <v>49266800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>53015200</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>20602500</v>
+        <v>19983200</v>
       </c>
       <c r="E10" s="3">
-        <v>21263400</v>
+        <v>21055800</v>
       </c>
       <c r="F10" s="3">
-        <v>19875700</v>
+        <v>21731300</v>
       </c>
       <c r="G10" s="3">
-        <v>-28009600</v>
+        <v>20313000</v>
       </c>
       <c r="H10" s="3">
-        <v>19887300</v>
+        <v>-28625800</v>
       </c>
       <c r="I10" s="3">
-        <v>19067800</v>
+        <v>20324900</v>
       </c>
       <c r="J10" s="3">
+        <v>19487400</v>
+      </c>
+      <c r="K10" s="3">
         <v>17117900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>17914600</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,8 +826,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -828,24 +841,27 @@
       <c r="F12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="3">
-        <v>4088900</v>
+      <c r="G12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H12" s="3">
-        <v>4156400</v>
+        <v>4178900</v>
       </c>
       <c r="I12" s="3">
-        <v>4352400</v>
+        <v>4247900</v>
       </c>
       <c r="J12" s="3">
+        <v>4448200</v>
+      </c>
+      <c r="K12" s="3">
         <v>4565200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4702800</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -873,69 +889,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>-272900</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>51800</v>
+        <v>-278900</v>
       </c>
       <c r="F14" s="3">
-        <v>192700</v>
+        <v>52900</v>
       </c>
       <c r="G14" s="3">
-        <v>1278100</v>
+        <v>197000</v>
       </c>
       <c r="H14" s="3">
-        <v>509300</v>
+        <v>1306200</v>
       </c>
       <c r="I14" s="3">
-        <v>1016600</v>
+        <v>520500</v>
       </c>
       <c r="J14" s="3">
+        <v>1038900</v>
+      </c>
+      <c r="K14" s="3">
         <v>3533500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5091000</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>772100</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
-        <v>772200</v>
+        <v>789100</v>
       </c>
       <c r="F15" s="3">
-        <v>749500</v>
+        <v>789200</v>
       </c>
       <c r="G15" s="3">
-        <v>2906500</v>
+        <v>766000</v>
       </c>
       <c r="H15" s="3">
-        <v>2201100</v>
+        <v>2970500</v>
       </c>
       <c r="I15" s="3">
-        <v>2534200</v>
+        <v>2249600</v>
       </c>
       <c r="J15" s="3">
+        <v>2590000</v>
+      </c>
+      <c r="K15" s="3">
         <v>2523200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2342600</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -945,68 +970,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>69004300</v>
+        <v>66858700</v>
       </c>
       <c r="E17" s="3">
-        <v>69098800</v>
+        <v>70522600</v>
       </c>
       <c r="F17" s="3">
-        <v>64238300</v>
+        <v>70619100</v>
       </c>
       <c r="G17" s="3">
-        <v>67229700</v>
+        <v>65651700</v>
       </c>
       <c r="H17" s="3">
-        <v>67167400</v>
+        <v>68708900</v>
       </c>
       <c r="I17" s="3">
-        <v>68568200</v>
+        <v>68645300</v>
       </c>
       <c r="J17" s="3">
+        <v>70076900</v>
+      </c>
+      <c r="K17" s="3">
         <v>68455200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>75625500</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3740500</v>
+        <v>2728900</v>
       </c>
       <c r="E18" s="3">
-        <v>3459100</v>
+        <v>3822800</v>
       </c>
       <c r="F18" s="3">
-        <v>2516000</v>
+        <v>3535200</v>
       </c>
       <c r="G18" s="3">
-        <v>2093400</v>
+        <v>2571300</v>
       </c>
       <c r="H18" s="3">
-        <v>2962200</v>
+        <v>2139500</v>
       </c>
       <c r="I18" s="3">
-        <v>1756900</v>
+        <v>3027400</v>
       </c>
       <c r="J18" s="3">
+        <v>1795600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2070600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4695700</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,158 +1051,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>232700</v>
+        <v>-25100</v>
       </c>
       <c r="E20" s="3">
-        <v>207000</v>
+        <v>237900</v>
       </c>
       <c r="F20" s="3">
-        <v>198500</v>
+        <v>211600</v>
       </c>
       <c r="G20" s="3">
-        <v>369300</v>
+        <v>202800</v>
       </c>
       <c r="H20" s="3">
-        <v>-1144000</v>
+        <v>377400</v>
       </c>
       <c r="I20" s="3">
-        <v>316800</v>
+        <v>-1169200</v>
       </c>
       <c r="J20" s="3">
+        <v>323800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1318100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2395600</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6670200</v>
+        <v>6165100</v>
       </c>
       <c r="E21" s="3">
-        <v>6287500</v>
+        <v>6807900</v>
       </c>
       <c r="F21" s="3">
-        <v>5181100</v>
+        <v>6417100</v>
       </c>
       <c r="G21" s="3">
-        <v>4998800</v>
+        <v>5286900</v>
       </c>
       <c r="H21" s="3">
-        <v>4428500</v>
+        <v>5100400</v>
       </c>
       <c r="I21" s="3">
-        <v>5089900</v>
+        <v>4517200</v>
       </c>
       <c r="J21" s="3">
+        <v>5191800</v>
+      </c>
+      <c r="K21" s="3">
         <v>-297000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4031400</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>187700</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>224700</v>
+        <v>191800</v>
       </c>
       <c r="F22" s="3">
-        <v>214100</v>
+        <v>229700</v>
       </c>
       <c r="G22" s="3">
-        <v>394500</v>
+        <v>218800</v>
       </c>
       <c r="H22" s="3">
-        <v>159700</v>
+        <v>403100</v>
       </c>
       <c r="I22" s="3">
-        <v>199200</v>
+        <v>163200</v>
       </c>
       <c r="J22" s="3">
+        <v>203600</v>
+      </c>
+      <c r="K22" s="3">
         <v>232700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>256800</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3785600</v>
+        <v>2703900</v>
       </c>
       <c r="E23" s="3">
-        <v>3441400</v>
+        <v>3868900</v>
       </c>
       <c r="F23" s="3">
-        <v>2500300</v>
+        <v>3517100</v>
       </c>
       <c r="G23" s="3">
-        <v>2068200</v>
+        <v>2555400</v>
       </c>
       <c r="H23" s="3">
-        <v>1658500</v>
+        <v>2113700</v>
       </c>
       <c r="I23" s="3">
-        <v>1874600</v>
+        <v>1695000</v>
       </c>
       <c r="J23" s="3">
+        <v>1915800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-3621300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7348100</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1033700</v>
+        <v>473900</v>
       </c>
       <c r="E24" s="3">
-        <v>1150500</v>
+        <v>1056400</v>
       </c>
       <c r="F24" s="3">
-        <v>932900</v>
+        <v>1175800</v>
       </c>
       <c r="G24" s="3">
-        <v>329900</v>
+        <v>953400</v>
       </c>
       <c r="H24" s="3">
-        <v>-18000</v>
+        <v>337200</v>
       </c>
       <c r="I24" s="3">
-        <v>815100</v>
+        <v>-18400</v>
       </c>
       <c r="J24" s="3">
+        <v>833000</v>
+      </c>
+      <c r="K24" s="3">
         <v>3496700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>88300</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1198,69 +1246,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2751900</v>
+        <v>2230000</v>
       </c>
       <c r="E26" s="3">
-        <v>2290900</v>
+        <v>2812400</v>
       </c>
       <c r="F26" s="3">
-        <v>1567500</v>
+        <v>2341300</v>
       </c>
       <c r="G26" s="3">
-        <v>1738300</v>
+        <v>1602000</v>
       </c>
       <c r="H26" s="3">
-        <v>1676500</v>
+        <v>1776600</v>
       </c>
       <c r="I26" s="3">
-        <v>1059500</v>
+        <v>1713400</v>
       </c>
       <c r="J26" s="3">
+        <v>1082800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-7118000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7436400</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2582900</v>
+        <v>2096800</v>
       </c>
       <c r="E27" s="3">
-        <v>2145600</v>
+        <v>2639700</v>
       </c>
       <c r="F27" s="3">
-        <v>1357700</v>
+        <v>2192800</v>
       </c>
       <c r="G27" s="3">
-        <v>1417600</v>
+        <v>1387600</v>
       </c>
       <c r="H27" s="3">
-        <v>1631500</v>
+        <v>1448800</v>
       </c>
       <c r="I27" s="3">
-        <v>1094800</v>
+        <v>1667400</v>
       </c>
       <c r="J27" s="3">
+        <v>1118900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-6856100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6980400</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1288,9 +1345,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1318,9 +1378,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1348,9 +1411,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1378,69 +1444,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-232700</v>
+        <v>25100</v>
       </c>
       <c r="E32" s="3">
-        <v>-207000</v>
+        <v>-237900</v>
       </c>
       <c r="F32" s="3">
-        <v>-198500</v>
+        <v>-211600</v>
       </c>
       <c r="G32" s="3">
-        <v>-369300</v>
+        <v>-202800</v>
       </c>
       <c r="H32" s="3">
-        <v>1144000</v>
+        <v>-377400</v>
       </c>
       <c r="I32" s="3">
-        <v>-316800</v>
+        <v>1169200</v>
       </c>
       <c r="J32" s="3">
+        <v>-323800</v>
+      </c>
+      <c r="K32" s="3">
         <v>1318100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2395600</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2582900</v>
+        <v>2096800</v>
       </c>
       <c r="E33" s="3">
-        <v>2145600</v>
+        <v>2639700</v>
       </c>
       <c r="F33" s="3">
-        <v>1357700</v>
+        <v>2192800</v>
       </c>
       <c r="G33" s="3">
-        <v>1417600</v>
+        <v>1387600</v>
       </c>
       <c r="H33" s="3">
-        <v>1631500</v>
+        <v>1448800</v>
       </c>
       <c r="I33" s="3">
-        <v>1094800</v>
+        <v>1667400</v>
       </c>
       <c r="J33" s="3">
+        <v>1118900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-6856100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6980400</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1468,74 +1543,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2582900</v>
+        <v>2096800</v>
       </c>
       <c r="E35" s="3">
-        <v>2145600</v>
+        <v>2639700</v>
       </c>
       <c r="F35" s="3">
-        <v>1357700</v>
+        <v>2192800</v>
       </c>
       <c r="G35" s="3">
-        <v>1417600</v>
+        <v>1387600</v>
       </c>
       <c r="H35" s="3">
-        <v>1631500</v>
+        <v>1448800</v>
       </c>
       <c r="I35" s="3">
-        <v>1094800</v>
+        <v>1667400</v>
       </c>
       <c r="J35" s="3">
+        <v>1118900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-6856100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6980400</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43555</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42825</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42460</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42094</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41729</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41364</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40999</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1548,8 +1632,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1562,278 +1647,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7019900</v>
+        <v>9433200</v>
       </c>
       <c r="E41" s="3">
-        <v>9904300</v>
+        <v>7166600</v>
       </c>
       <c r="F41" s="3">
-        <v>11551500</v>
+        <v>10111300</v>
       </c>
       <c r="G41" s="3">
-        <v>18426100</v>
+        <v>11792900</v>
       </c>
       <c r="H41" s="3">
-        <v>11806800</v>
+        <v>18811300</v>
       </c>
       <c r="I41" s="3">
-        <v>5385500</v>
+        <v>12053600</v>
       </c>
       <c r="J41" s="3">
+        <v>5498100</v>
+      </c>
+      <c r="K41" s="3">
         <v>4526400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5523300</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1193600</v>
+        <v>1377500</v>
       </c>
       <c r="E42" s="3">
-        <v>1850300</v>
+        <v>1218500</v>
       </c>
       <c r="F42" s="3">
-        <v>1304600</v>
+        <v>1889000</v>
       </c>
       <c r="G42" s="3">
-        <v>1504400</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
+        <v>1331900</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1535800</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J42" s="3">
-        <v>0</v>
+      <c r="J42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>4400</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10822700</v>
+        <v>9755200</v>
       </c>
       <c r="E43" s="3">
-        <v>9444400</v>
+        <v>11049000</v>
       </c>
       <c r="F43" s="3">
-        <v>7699300</v>
+        <v>9641800</v>
       </c>
       <c r="G43" s="3">
-        <v>15080400</v>
+        <v>7860200</v>
       </c>
       <c r="H43" s="3">
-        <v>9018100</v>
+        <v>15395600</v>
       </c>
       <c r="I43" s="3">
-        <v>9157600</v>
+        <v>9206600</v>
       </c>
       <c r="J43" s="3">
+        <v>9349000</v>
+      </c>
+      <c r="K43" s="3">
         <v>8538500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9127200</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>9239400</v>
+        <v>7363800</v>
       </c>
       <c r="E44" s="3">
-        <v>8986500</v>
+        <v>9432500</v>
       </c>
       <c r="F44" s="3">
-        <v>7329300</v>
+        <v>9174300</v>
       </c>
       <c r="G44" s="3">
-        <v>13872200</v>
+        <v>7482500</v>
       </c>
       <c r="H44" s="3">
-        <v>6932700</v>
+        <v>14162200</v>
       </c>
       <c r="I44" s="3">
-        <v>6823700</v>
+        <v>7077600</v>
       </c>
       <c r="J44" s="3">
+        <v>6966300</v>
+      </c>
+      <c r="K44" s="3">
         <v>7152400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7505600</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1485900</v>
+        <v>3954900</v>
       </c>
       <c r="E45" s="3">
-        <v>1501900</v>
+        <v>1517000</v>
       </c>
       <c r="F45" s="3">
-        <v>1247200</v>
+        <v>1533300</v>
       </c>
       <c r="G45" s="3">
-        <v>5185300</v>
+        <v>1273200</v>
       </c>
       <c r="H45" s="3">
-        <v>3264200</v>
+        <v>5293700</v>
       </c>
       <c r="I45" s="3">
-        <v>2758000</v>
+        <v>3332400</v>
       </c>
       <c r="J45" s="3">
+        <v>2815700</v>
+      </c>
+      <c r="K45" s="3">
         <v>2453900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4110200</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>29761500</v>
+        <v>31884500</v>
       </c>
       <c r="E46" s="3">
-        <v>31687400</v>
+        <v>30383600</v>
       </c>
       <c r="F46" s="3">
-        <v>29131800</v>
+        <v>32349700</v>
       </c>
       <c r="G46" s="3">
-        <v>26304300</v>
+        <v>29740700</v>
       </c>
       <c r="H46" s="3">
-        <v>31021800</v>
+        <v>26854100</v>
       </c>
       <c r="I46" s="3">
-        <v>24124800</v>
+        <v>31670200</v>
       </c>
       <c r="J46" s="3">
+        <v>24629000</v>
+      </c>
+      <c r="K46" s="3">
         <v>22671200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>26270600</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3206100</v>
+        <v>4845600</v>
       </c>
       <c r="E47" s="3">
-        <v>2858100</v>
+        <v>3273200</v>
       </c>
       <c r="F47" s="3">
-        <v>2890400</v>
+        <v>2917900</v>
       </c>
       <c r="G47" s="3">
-        <v>5950200</v>
+        <v>2950800</v>
       </c>
       <c r="H47" s="3">
-        <v>2851300</v>
+        <v>6074600</v>
       </c>
       <c r="I47" s="3">
-        <v>2470700</v>
+        <v>2910800</v>
       </c>
       <c r="J47" s="3">
+        <v>2522300</v>
+      </c>
+      <c r="K47" s="3">
         <v>2517700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4085000</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12038600</v>
+        <v>12024200</v>
       </c>
       <c r="E48" s="3">
-        <v>12490300</v>
+        <v>12290200</v>
       </c>
       <c r="F48" s="3">
-        <v>12028600</v>
+        <v>12751300</v>
       </c>
       <c r="G48" s="3">
-        <v>23537700</v>
+        <v>12280100</v>
       </c>
       <c r="H48" s="3">
-        <v>12497200</v>
+        <v>24029700</v>
       </c>
       <c r="I48" s="3">
-        <v>12957300</v>
+        <v>12758400</v>
       </c>
       <c r="J48" s="3">
+        <v>13228200</v>
+      </c>
+      <c r="K48" s="3">
         <v>15229600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15677900</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>6540800</v>
+      <c r="D49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E49" s="3">
-        <v>6710700</v>
+        <v>6677500</v>
       </c>
       <c r="F49" s="3">
-        <v>6046000</v>
+        <v>6851000</v>
       </c>
       <c r="G49" s="3">
-        <v>9924800</v>
+        <v>6172400</v>
       </c>
       <c r="H49" s="3">
-        <v>5726700</v>
+        <v>10132300</v>
       </c>
       <c r="I49" s="3">
-        <v>6136400</v>
+        <v>5846400</v>
       </c>
       <c r="J49" s="3">
+        <v>6264600</v>
+      </c>
+      <c r="K49" s="3">
         <v>6682600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9972600</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1861,9 +1974,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1891,39 +2007,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3119700</v>
+        <v>8953500</v>
       </c>
       <c r="E52" s="3">
-        <v>3440100</v>
+        <v>3184900</v>
       </c>
       <c r="F52" s="3">
-        <v>4288300</v>
+        <v>3512000</v>
       </c>
       <c r="G52" s="3">
-        <v>7281500</v>
+        <v>4377900</v>
       </c>
       <c r="H52" s="3">
-        <v>2051700</v>
+        <v>7433700</v>
       </c>
       <c r="I52" s="3">
-        <v>1696900</v>
+        <v>2094600</v>
       </c>
       <c r="J52" s="3">
+        <v>1732400</v>
+      </c>
+      <c r="K52" s="3">
         <v>1964900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3667400</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1951,39 +2073,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>54666600</v>
+        <v>57707800</v>
       </c>
       <c r="E54" s="3">
-        <v>57186500</v>
+        <v>55809300</v>
       </c>
       <c r="F54" s="3">
-        <v>54385100</v>
+        <v>58381900</v>
       </c>
       <c r="G54" s="3">
-        <v>49886100</v>
+        <v>55521900</v>
       </c>
       <c r="H54" s="3">
-        <v>54148600</v>
+        <v>50928900</v>
       </c>
       <c r="I54" s="3">
-        <v>47386100</v>
+        <v>55280500</v>
       </c>
       <c r="J54" s="3">
+        <v>48376600</v>
+      </c>
+      <c r="K54" s="3">
         <v>49066100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>59673500</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1996,8 +2124,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2010,188 +2139,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10464200</v>
+        <v>8998800</v>
       </c>
       <c r="E57" s="3">
-        <v>10421500</v>
+        <v>10682900</v>
       </c>
       <c r="F57" s="3">
-        <v>8689700</v>
+        <v>10639300</v>
       </c>
       <c r="G57" s="3">
-        <v>16699900</v>
+        <v>8871400</v>
       </c>
       <c r="H57" s="3">
-        <v>8938200</v>
+        <v>17048900</v>
       </c>
       <c r="I57" s="3">
-        <v>8517500</v>
+        <v>9125100</v>
       </c>
       <c r="J57" s="3">
+        <v>8695500</v>
+      </c>
+      <c r="K57" s="3">
         <v>7197300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7693200</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3544700</v>
+        <v>2923200</v>
       </c>
       <c r="E58" s="3">
-        <v>3412300</v>
+        <v>3618800</v>
       </c>
       <c r="F58" s="3">
-        <v>1609300</v>
+        <v>3483600</v>
       </c>
       <c r="G58" s="3">
-        <v>395000</v>
+        <v>1642900</v>
       </c>
       <c r="H58" s="3">
-        <v>2368200</v>
+        <v>403300</v>
       </c>
       <c r="I58" s="3">
-        <v>770300</v>
+        <v>2417700</v>
       </c>
       <c r="J58" s="3">
+        <v>786400</v>
+      </c>
+      <c r="K58" s="3">
         <v>4366000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5730000</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13165200</v>
+        <v>12355600</v>
       </c>
       <c r="E59" s="3">
-        <v>14326400</v>
+        <v>13440400</v>
       </c>
       <c r="F59" s="3">
-        <v>14353700</v>
+        <v>14625900</v>
       </c>
       <c r="G59" s="3">
-        <v>27121000</v>
+        <v>14653700</v>
       </c>
       <c r="H59" s="3">
-        <v>13534700</v>
+        <v>27687900</v>
       </c>
       <c r="I59" s="3">
-        <v>12872400</v>
+        <v>13817600</v>
       </c>
       <c r="J59" s="3">
+        <v>13141500</v>
+      </c>
+      <c r="K59" s="3">
         <v>12063100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12607600</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>27174100</v>
+        <v>24277500</v>
       </c>
       <c r="E60" s="3">
-        <v>28160200</v>
+        <v>27742100</v>
       </c>
       <c r="F60" s="3">
-        <v>24652700</v>
+        <v>28748800</v>
       </c>
       <c r="G60" s="3">
-        <v>22573600</v>
+        <v>25167900</v>
       </c>
       <c r="H60" s="3">
-        <v>24841200</v>
+        <v>23045400</v>
       </c>
       <c r="I60" s="3">
-        <v>22160100</v>
+        <v>25360400</v>
       </c>
       <c r="J60" s="3">
+        <v>22623300</v>
+      </c>
+      <c r="K60" s="3">
         <v>23626400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>26030700</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5533700</v>
+        <v>10730600</v>
       </c>
       <c r="E61" s="3">
-        <v>7854200</v>
+        <v>5649300</v>
       </c>
       <c r="F61" s="3">
-        <v>8607900</v>
+        <v>8018400</v>
       </c>
       <c r="G61" s="3">
-        <v>6391300</v>
+        <v>8787800</v>
       </c>
       <c r="H61" s="3">
-        <v>6475600</v>
+        <v>6524900</v>
       </c>
       <c r="I61" s="3">
-        <v>5066500</v>
+        <v>6610900</v>
       </c>
       <c r="J61" s="3">
+        <v>5172400</v>
+      </c>
+      <c r="K61" s="3">
         <v>6027500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8513600</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3009700</v>
+        <v>2693300</v>
       </c>
       <c r="E62" s="3">
-        <v>4062100</v>
+        <v>3072600</v>
       </c>
       <c r="F62" s="3">
-        <v>5126700</v>
+        <v>4147000</v>
       </c>
       <c r="G62" s="3">
-        <v>11925300</v>
+        <v>5233900</v>
       </c>
       <c r="H62" s="3">
-        <v>4719600</v>
+        <v>12174600</v>
       </c>
       <c r="I62" s="3">
-        <v>5738700</v>
+        <v>4818300</v>
       </c>
       <c r="J62" s="3">
+        <v>5858700</v>
+      </c>
+      <c r="K62" s="3">
         <v>7556400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7252000</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2219,9 +2367,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2249,9 +2400,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2279,39 +2433,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>37272800</v>
+        <v>39163200</v>
       </c>
       <c r="E66" s="3">
-        <v>41664900</v>
+        <v>38051900</v>
       </c>
       <c r="F66" s="3">
-        <v>40096600</v>
+        <v>42535800</v>
       </c>
       <c r="G66" s="3">
-        <v>36756200</v>
+        <v>40934700</v>
       </c>
       <c r="H66" s="3">
-        <v>37574900</v>
+        <v>37524400</v>
       </c>
       <c r="I66" s="3">
-        <v>33313400</v>
+        <v>38360300</v>
       </c>
       <c r="J66" s="3">
+        <v>34009700</v>
+      </c>
+      <c r="K66" s="3">
         <v>37576100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>42228300</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2324,8 +2484,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2353,9 +2514,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2383,9 +2547,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2413,9 +2580,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2443,39 +2613,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13642900</v>
+        <v>15278600</v>
       </c>
       <c r="E72" s="3">
-        <v>11820100</v>
+        <v>13928100</v>
       </c>
       <c r="F72" s="3">
-        <v>9557600</v>
+        <v>12067100</v>
       </c>
       <c r="G72" s="3">
-        <v>18575300</v>
+        <v>9757400</v>
       </c>
       <c r="H72" s="3">
-        <v>9283100</v>
+        <v>18963600</v>
       </c>
       <c r="I72" s="3">
-        <v>7987800</v>
+        <v>9477100</v>
       </c>
       <c r="J72" s="3">
+        <v>8154700</v>
+      </c>
+      <c r="K72" s="3">
         <v>6998100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13882600</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2503,9 +2679,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2533,9 +2712,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2563,39 +2745,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17393800</v>
+        <v>18544700</v>
       </c>
       <c r="E76" s="3">
-        <v>15521600</v>
+        <v>17757400</v>
       </c>
       <c r="F76" s="3">
-        <v>14288500</v>
+        <v>15846100</v>
       </c>
       <c r="G76" s="3">
-        <v>13130000</v>
+        <v>14587100</v>
       </c>
       <c r="H76" s="3">
-        <v>16573700</v>
+        <v>13404400</v>
       </c>
       <c r="I76" s="3">
-        <v>14072700</v>
+        <v>16920200</v>
       </c>
       <c r="J76" s="3">
+        <v>14366900</v>
+      </c>
+      <c r="K76" s="3">
         <v>11490100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17445300</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2623,74 +2811,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43555</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42825</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42460</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42094</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41729</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41364</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40999</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2582900</v>
+        <v>2096800</v>
       </c>
       <c r="E81" s="3">
-        <v>2145600</v>
+        <v>2639700</v>
       </c>
       <c r="F81" s="3">
-        <v>1357700</v>
+        <v>2192800</v>
       </c>
       <c r="G81" s="3">
-        <v>1417600</v>
+        <v>1387600</v>
       </c>
       <c r="H81" s="3">
-        <v>1631500</v>
+        <v>1448800</v>
       </c>
       <c r="I81" s="3">
-        <v>1094800</v>
+        <v>1667400</v>
       </c>
       <c r="J81" s="3">
+        <v>1118900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-6856100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6980400</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2703,38 +2900,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2691000</v>
+        <v>3464900</v>
       </c>
       <c r="E83" s="3">
-        <v>2615700</v>
+        <v>2750200</v>
       </c>
       <c r="F83" s="3">
-        <v>2461300</v>
+        <v>2673200</v>
       </c>
       <c r="G83" s="3">
-        <v>2530600</v>
+        <v>2515400</v>
       </c>
       <c r="H83" s="3">
-        <v>2604500</v>
+        <v>2586300</v>
       </c>
       <c r="I83" s="3">
-        <v>3009500</v>
+        <v>2661800</v>
       </c>
       <c r="J83" s="3">
+        <v>3075800</v>
+      </c>
+      <c r="K83" s="3">
         <v>3084800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3056500</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2762,9 +2963,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2792,9 +2996,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2822,9 +3029,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2852,9 +3062,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2882,39 +3095,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1851400</v>
+        <v>3997500</v>
       </c>
       <c r="E89" s="3">
-        <v>3846700</v>
+        <v>1892200</v>
       </c>
       <c r="F89" s="3">
-        <v>3503400</v>
+        <v>3931400</v>
       </c>
       <c r="G89" s="3">
-        <v>3811900</v>
+        <v>3580500</v>
       </c>
       <c r="H89" s="3">
-        <v>4467400</v>
+        <v>3895800</v>
       </c>
       <c r="I89" s="3">
-        <v>5289900</v>
+        <v>4565700</v>
       </c>
       <c r="J89" s="3">
+        <v>5406300</v>
+      </c>
+      <c r="K89" s="3">
         <v>3079200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-333500</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2927,38 +3146,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2873200</v>
+        <v>-2544700</v>
       </c>
       <c r="E91" s="3">
-        <v>-3585900</v>
+        <v>-2936400</v>
       </c>
       <c r="F91" s="3">
-        <v>-2532400</v>
+        <v>-3664800</v>
       </c>
       <c r="G91" s="3">
-        <v>-4427800</v>
+        <v>-2588100</v>
       </c>
       <c r="H91" s="3">
-        <v>-2037600</v>
+        <v>-4525200</v>
       </c>
       <c r="I91" s="3">
-        <v>-1833800</v>
+        <v>-2082500</v>
       </c>
       <c r="J91" s="3">
+        <v>-1874100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2910300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4126500</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2986,9 +3209,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3016,39 +3242,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1757900</v>
+        <v>-1914600</v>
       </c>
       <c r="E94" s="3">
-        <v>-4170700</v>
+        <v>-1796600</v>
       </c>
       <c r="F94" s="3">
-        <v>-3819200</v>
+        <v>-4262500</v>
       </c>
       <c r="G94" s="3">
-        <v>-2670700</v>
+        <v>-3903200</v>
       </c>
       <c r="H94" s="3">
-        <v>-1254500</v>
+        <v>-2729400</v>
       </c>
       <c r="I94" s="3">
-        <v>110200</v>
+        <v>-1282100</v>
       </c>
       <c r="J94" s="3">
+        <v>112700</v>
+      </c>
+      <c r="K94" s="3">
         <v>149100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2739100</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3061,38 +3293,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-742000</v>
+        <v>-650100</v>
       </c>
       <c r="E96" s="3">
-        <v>-530000</v>
+        <v>-758400</v>
       </c>
       <c r="F96" s="3">
-        <v>-527400</v>
+        <v>-541700</v>
       </c>
       <c r="G96" s="3">
-        <v>-421100</v>
+        <v>-539100</v>
       </c>
       <c r="H96" s="3">
-        <v>-336200</v>
+        <v>-430300</v>
       </c>
       <c r="I96" s="3">
+        <v>-343600</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-107400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-105100</v>
       </c>
-      <c r="J96" s="3">
-        <v>-105100</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-198100</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3120,9 +3356,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3150,9 +3389,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3180,97 +3422,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3106600</v>
+        <v>448000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1170500</v>
+        <v>-3175000</v>
       </c>
       <c r="F100" s="3">
-        <v>2677900</v>
+        <v>-1196200</v>
       </c>
       <c r="G100" s="3">
-        <v>-2813900</v>
+        <v>2736800</v>
       </c>
       <c r="H100" s="3">
-        <v>2341700</v>
+        <v>-2875900</v>
       </c>
       <c r="I100" s="3">
-        <v>-4838700</v>
+        <v>2393200</v>
       </c>
       <c r="J100" s="3">
+        <v>-4945200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-4463700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-480000</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>128600</v>
+        <v>-261900</v>
       </c>
       <c r="E101" s="3">
-        <v>-152600</v>
+        <v>131500</v>
       </c>
       <c r="F101" s="3">
-        <v>-15700</v>
+        <v>-156000</v>
       </c>
       <c r="G101" s="3">
-        <v>-756900</v>
+        <v>-16100</v>
       </c>
       <c r="H101" s="3">
-        <v>698800</v>
+        <v>-773500</v>
       </c>
       <c r="I101" s="3">
-        <v>312900</v>
+        <v>714100</v>
       </c>
       <c r="J101" s="3">
+        <v>319800</v>
+      </c>
+      <c r="K101" s="3">
         <v>525200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-67100</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2884400</v>
+        <v>2269000</v>
       </c>
       <c r="E102" s="3">
-        <v>-1647100</v>
+        <v>-2947900</v>
       </c>
       <c r="F102" s="3">
-        <v>2346300</v>
+        <v>-1683400</v>
       </c>
       <c r="G102" s="3">
-        <v>-2429500</v>
+        <v>2397900</v>
       </c>
       <c r="H102" s="3">
-        <v>6253400</v>
+        <v>-2483000</v>
       </c>
       <c r="I102" s="3">
-        <v>874300</v>
+        <v>6391000</v>
       </c>
       <c r="J102" s="3">
+        <v>893500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-710200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3619800</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PCRFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PCRFY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <t>PCRFY</t>
   </si>
@@ -666,7 +666,7 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -719,25 +719,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>69587700</v>
+        <v>70711300</v>
       </c>
       <c r="E8" s="3">
-        <v>74345400</v>
+        <v>75545800</v>
       </c>
       <c r="F8" s="3">
-        <v>74154300</v>
+        <v>75351600</v>
       </c>
       <c r="G8" s="3">
-        <v>68223000</v>
+        <v>69324600</v>
       </c>
       <c r="H8" s="3">
-        <v>70848400</v>
+        <v>71992300</v>
       </c>
       <c r="I8" s="3">
-        <v>71672700</v>
+        <v>72829900</v>
       </c>
       <c r="J8" s="3">
-        <v>71872500</v>
+        <v>73032900</v>
       </c>
       <c r="K8" s="3">
         <v>66384700</v>
@@ -752,25 +752,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>49604500</v>
+        <v>50405400</v>
       </c>
       <c r="E9" s="3">
-        <v>53289600</v>
+        <v>54150000</v>
       </c>
       <c r="F9" s="3">
-        <v>52423000</v>
+        <v>53269500</v>
       </c>
       <c r="G9" s="3">
-        <v>47910000</v>
+        <v>48683600</v>
       </c>
       <c r="H9" s="3">
-        <v>99474200</v>
+        <v>101080400</v>
       </c>
       <c r="I9" s="3">
-        <v>51347800</v>
+        <v>52176900</v>
       </c>
       <c r="J9" s="3">
-        <v>52385100</v>
+        <v>53230900</v>
       </c>
       <c r="K9" s="3">
         <v>49266800</v>
@@ -785,25 +785,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>19983200</v>
+        <v>20305900</v>
       </c>
       <c r="E10" s="3">
-        <v>21055800</v>
+        <v>21395800</v>
       </c>
       <c r="F10" s="3">
-        <v>21731300</v>
+        <v>22082200</v>
       </c>
       <c r="G10" s="3">
-        <v>20313000</v>
+        <v>20641000</v>
       </c>
       <c r="H10" s="3">
-        <v>-28625800</v>
+        <v>-29088000</v>
       </c>
       <c r="I10" s="3">
-        <v>20324900</v>
+        <v>20653100</v>
       </c>
       <c r="J10" s="3">
-        <v>19487400</v>
+        <v>19802000</v>
       </c>
       <c r="K10" s="3">
         <v>17117900</v>
@@ -845,13 +845,13 @@
         <v>8</v>
       </c>
       <c r="H12" s="3">
-        <v>4178900</v>
+        <v>4246400</v>
       </c>
       <c r="I12" s="3">
-        <v>4247900</v>
+        <v>4316400</v>
       </c>
       <c r="J12" s="3">
-        <v>4448200</v>
+        <v>4520000</v>
       </c>
       <c r="K12" s="3">
         <v>4565200</v>
@@ -902,22 +902,22 @@
         <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>-278900</v>
+        <v>-283400</v>
       </c>
       <c r="F14" s="3">
-        <v>52900</v>
+        <v>53800</v>
       </c>
       <c r="G14" s="3">
-        <v>197000</v>
+        <v>200200</v>
       </c>
       <c r="H14" s="3">
-        <v>1306200</v>
+        <v>1327300</v>
       </c>
       <c r="I14" s="3">
-        <v>520500</v>
+        <v>529000</v>
       </c>
       <c r="J14" s="3">
-        <v>1038900</v>
+        <v>1055700</v>
       </c>
       <c r="K14" s="3">
         <v>3533500</v>
@@ -931,26 +931,26 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>1248400</v>
       </c>
       <c r="E15" s="3">
-        <v>789100</v>
+        <v>801900</v>
       </c>
       <c r="F15" s="3">
-        <v>789200</v>
+        <v>801900</v>
       </c>
       <c r="G15" s="3">
-        <v>766000</v>
+        <v>778300</v>
       </c>
       <c r="H15" s="3">
-        <v>2970500</v>
+        <v>3018400</v>
       </c>
       <c r="I15" s="3">
-        <v>2249600</v>
+        <v>2285900</v>
       </c>
       <c r="J15" s="3">
-        <v>2590000</v>
+        <v>2631800</v>
       </c>
       <c r="K15" s="3">
         <v>2523200</v>
@@ -977,25 +977,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>66858700</v>
+        <v>67938300</v>
       </c>
       <c r="E17" s="3">
-        <v>70522600</v>
+        <v>71661300</v>
       </c>
       <c r="F17" s="3">
-        <v>70619100</v>
+        <v>71759300</v>
       </c>
       <c r="G17" s="3">
-        <v>65651700</v>
+        <v>66711800</v>
       </c>
       <c r="H17" s="3">
-        <v>68708900</v>
+        <v>69818300</v>
       </c>
       <c r="I17" s="3">
-        <v>68645300</v>
+        <v>69753600</v>
       </c>
       <c r="J17" s="3">
-        <v>70076900</v>
+        <v>71208400</v>
       </c>
       <c r="K17" s="3">
         <v>68455200</v>
@@ -1010,25 +1010,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2728900</v>
+        <v>2773000</v>
       </c>
       <c r="E18" s="3">
-        <v>3822800</v>
+        <v>3884500</v>
       </c>
       <c r="F18" s="3">
-        <v>3535200</v>
+        <v>3592300</v>
       </c>
       <c r="G18" s="3">
-        <v>2571300</v>
+        <v>2612800</v>
       </c>
       <c r="H18" s="3">
-        <v>2139500</v>
+        <v>2174000</v>
       </c>
       <c r="I18" s="3">
-        <v>3027400</v>
+        <v>3076300</v>
       </c>
       <c r="J18" s="3">
-        <v>1795600</v>
+        <v>1824600</v>
       </c>
       <c r="K18" s="3">
         <v>-2070600</v>
@@ -1058,25 +1058,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-25100</v>
+        <v>296000</v>
       </c>
       <c r="E20" s="3">
-        <v>237900</v>
+        <v>241700</v>
       </c>
       <c r="F20" s="3">
-        <v>211600</v>
+        <v>215000</v>
       </c>
       <c r="G20" s="3">
-        <v>202800</v>
+        <v>206100</v>
       </c>
       <c r="H20" s="3">
-        <v>377400</v>
+        <v>383500</v>
       </c>
       <c r="I20" s="3">
-        <v>-1169200</v>
+        <v>-1188100</v>
       </c>
       <c r="J20" s="3">
-        <v>323800</v>
+        <v>329000</v>
       </c>
       <c r="K20" s="3">
         <v>-1318100</v>
@@ -1091,25 +1091,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6165100</v>
+        <v>6575000</v>
       </c>
       <c r="E21" s="3">
-        <v>6807900</v>
+        <v>6909000</v>
       </c>
       <c r="F21" s="3">
-        <v>6417100</v>
+        <v>6512100</v>
       </c>
       <c r="G21" s="3">
-        <v>5286900</v>
+        <v>5364100</v>
       </c>
       <c r="H21" s="3">
-        <v>5100400</v>
+        <v>5174400</v>
       </c>
       <c r="I21" s="3">
-        <v>4517200</v>
+        <v>4581600</v>
       </c>
       <c r="J21" s="3">
-        <v>5191800</v>
+        <v>5265800</v>
       </c>
       <c r="K21" s="3">
         <v>-297000</v>
@@ -1123,26 +1123,26 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>321500</v>
       </c>
       <c r="E22" s="3">
-        <v>191800</v>
+        <v>194900</v>
       </c>
       <c r="F22" s="3">
-        <v>229700</v>
+        <v>233400</v>
       </c>
       <c r="G22" s="3">
-        <v>218800</v>
+        <v>222300</v>
       </c>
       <c r="H22" s="3">
-        <v>403100</v>
+        <v>409600</v>
       </c>
       <c r="I22" s="3">
-        <v>163200</v>
+        <v>165800</v>
       </c>
       <c r="J22" s="3">
-        <v>203600</v>
+        <v>206800</v>
       </c>
       <c r="K22" s="3">
         <v>232700</v>
@@ -1157,25 +1157,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2703900</v>
+        <v>2747500</v>
       </c>
       <c r="E23" s="3">
-        <v>3868900</v>
+        <v>3931300</v>
       </c>
       <c r="F23" s="3">
-        <v>3517100</v>
+        <v>3573900</v>
       </c>
       <c r="G23" s="3">
-        <v>2555400</v>
+        <v>2596600</v>
       </c>
       <c r="H23" s="3">
-        <v>2113700</v>
+        <v>2147900</v>
       </c>
       <c r="I23" s="3">
-        <v>1695000</v>
+        <v>1722400</v>
       </c>
       <c r="J23" s="3">
-        <v>1915800</v>
+        <v>1946800</v>
       </c>
       <c r="K23" s="3">
         <v>-3621300</v>
@@ -1190,25 +1190,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>473900</v>
+        <v>481600</v>
       </c>
       <c r="E24" s="3">
-        <v>1056400</v>
+        <v>1073500</v>
       </c>
       <c r="F24" s="3">
-        <v>1175800</v>
+        <v>1194800</v>
       </c>
       <c r="G24" s="3">
-        <v>953400</v>
+        <v>968800</v>
       </c>
       <c r="H24" s="3">
-        <v>337200</v>
+        <v>342600</v>
       </c>
       <c r="I24" s="3">
-        <v>-18400</v>
+        <v>-18700</v>
       </c>
       <c r="J24" s="3">
-        <v>833000</v>
+        <v>846400</v>
       </c>
       <c r="K24" s="3">
         <v>3496700</v>
@@ -1256,25 +1256,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2230000</v>
+        <v>2266000</v>
       </c>
       <c r="E26" s="3">
-        <v>2812400</v>
+        <v>2857800</v>
       </c>
       <c r="F26" s="3">
-        <v>2341300</v>
+        <v>2379100</v>
       </c>
       <c r="G26" s="3">
-        <v>1602000</v>
+        <v>1627900</v>
       </c>
       <c r="H26" s="3">
-        <v>1776600</v>
+        <v>1805200</v>
       </c>
       <c r="I26" s="3">
-        <v>1713400</v>
+        <v>1741100</v>
       </c>
       <c r="J26" s="3">
-        <v>1082800</v>
+        <v>1100300</v>
       </c>
       <c r="K26" s="3">
         <v>-7118000</v>
@@ -1289,25 +1289,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2096800</v>
+        <v>2130600</v>
       </c>
       <c r="E27" s="3">
-        <v>2639700</v>
+        <v>2682400</v>
       </c>
       <c r="F27" s="3">
-        <v>2192800</v>
+        <v>2228200</v>
       </c>
       <c r="G27" s="3">
-        <v>1387600</v>
+        <v>1410000</v>
       </c>
       <c r="H27" s="3">
-        <v>1448800</v>
+        <v>1472200</v>
       </c>
       <c r="I27" s="3">
-        <v>1667400</v>
+        <v>1694300</v>
       </c>
       <c r="J27" s="3">
-        <v>1118900</v>
+        <v>1137000</v>
       </c>
       <c r="K27" s="3">
         <v>-6856100</v>
@@ -1454,25 +1454,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>25100</v>
+        <v>-296000</v>
       </c>
       <c r="E32" s="3">
-        <v>-237900</v>
+        <v>-241700</v>
       </c>
       <c r="F32" s="3">
-        <v>-211600</v>
+        <v>-215000</v>
       </c>
       <c r="G32" s="3">
-        <v>-202800</v>
+        <v>-206100</v>
       </c>
       <c r="H32" s="3">
-        <v>-377400</v>
+        <v>-383500</v>
       </c>
       <c r="I32" s="3">
-        <v>1169200</v>
+        <v>1188100</v>
       </c>
       <c r="J32" s="3">
-        <v>-323800</v>
+        <v>-329000</v>
       </c>
       <c r="K32" s="3">
         <v>1318100</v>
@@ -1487,25 +1487,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2096800</v>
+        <v>2130600</v>
       </c>
       <c r="E33" s="3">
-        <v>2639700</v>
+        <v>2682400</v>
       </c>
       <c r="F33" s="3">
-        <v>2192800</v>
+        <v>2228200</v>
       </c>
       <c r="G33" s="3">
-        <v>1387600</v>
+        <v>1410000</v>
       </c>
       <c r="H33" s="3">
-        <v>1448800</v>
+        <v>1472200</v>
       </c>
       <c r="I33" s="3">
-        <v>1667400</v>
+        <v>1694300</v>
       </c>
       <c r="J33" s="3">
-        <v>1118900</v>
+        <v>1137000</v>
       </c>
       <c r="K33" s="3">
         <v>-6856100</v>
@@ -1553,25 +1553,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2096800</v>
+        <v>2130600</v>
       </c>
       <c r="E35" s="3">
-        <v>2639700</v>
+        <v>2682400</v>
       </c>
       <c r="F35" s="3">
-        <v>2192800</v>
+        <v>2228200</v>
       </c>
       <c r="G35" s="3">
-        <v>1387600</v>
+        <v>1410000</v>
       </c>
       <c r="H35" s="3">
-        <v>1448800</v>
+        <v>1472200</v>
       </c>
       <c r="I35" s="3">
-        <v>1667400</v>
+        <v>1694300</v>
       </c>
       <c r="J35" s="3">
-        <v>1118900</v>
+        <v>1137000</v>
       </c>
       <c r="K35" s="3">
         <v>-6856100</v>
@@ -1654,25 +1654,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9433200</v>
+        <v>9595800</v>
       </c>
       <c r="E41" s="3">
-        <v>7166600</v>
+        <v>7290200</v>
       </c>
       <c r="F41" s="3">
-        <v>10111300</v>
+        <v>10285700</v>
       </c>
       <c r="G41" s="3">
-        <v>11792900</v>
+        <v>11996200</v>
       </c>
       <c r="H41" s="3">
-        <v>18811300</v>
+        <v>19135600</v>
       </c>
       <c r="I41" s="3">
-        <v>12053600</v>
+        <v>12261400</v>
       </c>
       <c r="J41" s="3">
-        <v>5498100</v>
+        <v>5592900</v>
       </c>
       <c r="K41" s="3">
         <v>4526400</v>
@@ -1687,19 +1687,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1377500</v>
+        <v>1401200</v>
       </c>
       <c r="E42" s="3">
-        <v>1218500</v>
+        <v>1239500</v>
       </c>
       <c r="F42" s="3">
-        <v>1889000</v>
+        <v>1921600</v>
       </c>
       <c r="G42" s="3">
-        <v>1331900</v>
+        <v>1354800</v>
       </c>
       <c r="H42" s="3">
-        <v>1535800</v>
+        <v>1562300</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
@@ -1720,25 +1720,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9755200</v>
+        <v>9923400</v>
       </c>
       <c r="E43" s="3">
-        <v>11049000</v>
+        <v>11239500</v>
       </c>
       <c r="F43" s="3">
-        <v>9641800</v>
+        <v>9808000</v>
       </c>
       <c r="G43" s="3">
-        <v>7860200</v>
+        <v>7995700</v>
       </c>
       <c r="H43" s="3">
-        <v>15395600</v>
+        <v>15661000</v>
       </c>
       <c r="I43" s="3">
-        <v>9206600</v>
+        <v>9365400</v>
       </c>
       <c r="J43" s="3">
-        <v>9349000</v>
+        <v>9510200</v>
       </c>
       <c r="K43" s="3">
         <v>8538500</v>
@@ -1753,25 +1753,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7363800</v>
+        <v>7490800</v>
       </c>
       <c r="E44" s="3">
-        <v>9432500</v>
+        <v>9595200</v>
       </c>
       <c r="F44" s="3">
-        <v>9174300</v>
+        <v>9332500</v>
       </c>
       <c r="G44" s="3">
-        <v>7482500</v>
+        <v>7611600</v>
       </c>
       <c r="H44" s="3">
-        <v>14162200</v>
+        <v>14406400</v>
       </c>
       <c r="I44" s="3">
-        <v>7077600</v>
+        <v>7199600</v>
       </c>
       <c r="J44" s="3">
-        <v>6966300</v>
+        <v>7086400</v>
       </c>
       <c r="K44" s="3">
         <v>7152400</v>
@@ -1786,25 +1786,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3954900</v>
+        <v>4023100</v>
       </c>
       <c r="E45" s="3">
-        <v>1517000</v>
+        <v>1543100</v>
       </c>
       <c r="F45" s="3">
-        <v>1533300</v>
+        <v>1559700</v>
       </c>
       <c r="G45" s="3">
-        <v>1273200</v>
+        <v>1295200</v>
       </c>
       <c r="H45" s="3">
-        <v>5293700</v>
+        <v>5385000</v>
       </c>
       <c r="I45" s="3">
-        <v>3332400</v>
+        <v>3389900</v>
       </c>
       <c r="J45" s="3">
-        <v>2815700</v>
+        <v>2864200</v>
       </c>
       <c r="K45" s="3">
         <v>2453900</v>
@@ -1819,25 +1819,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>31884500</v>
+        <v>32434300</v>
       </c>
       <c r="E46" s="3">
-        <v>30383600</v>
+        <v>30907400</v>
       </c>
       <c r="F46" s="3">
-        <v>32349700</v>
+        <v>32907400</v>
       </c>
       <c r="G46" s="3">
-        <v>29740700</v>
+        <v>30253500</v>
       </c>
       <c r="H46" s="3">
-        <v>26854100</v>
+        <v>27317100</v>
       </c>
       <c r="I46" s="3">
-        <v>31670200</v>
+        <v>32216300</v>
       </c>
       <c r="J46" s="3">
-        <v>24629000</v>
+        <v>25053700</v>
       </c>
       <c r="K46" s="3">
         <v>22671200</v>
@@ -1852,25 +1852,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4845600</v>
+        <v>4929200</v>
       </c>
       <c r="E47" s="3">
-        <v>3273200</v>
+        <v>3329600</v>
       </c>
       <c r="F47" s="3">
-        <v>2917900</v>
+        <v>2968200</v>
       </c>
       <c r="G47" s="3">
-        <v>2950800</v>
+        <v>3001700</v>
       </c>
       <c r="H47" s="3">
-        <v>6074600</v>
+        <v>6179300</v>
       </c>
       <c r="I47" s="3">
-        <v>2910800</v>
+        <v>2961000</v>
       </c>
       <c r="J47" s="3">
-        <v>2522300</v>
+        <v>2565800</v>
       </c>
       <c r="K47" s="3">
         <v>2517700</v>
@@ -1885,25 +1885,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12024200</v>
+        <v>12231500</v>
       </c>
       <c r="E48" s="3">
-        <v>12290200</v>
+        <v>12502100</v>
       </c>
       <c r="F48" s="3">
-        <v>12751300</v>
+        <v>12971200</v>
       </c>
       <c r="G48" s="3">
-        <v>12280100</v>
+        <v>12491800</v>
       </c>
       <c r="H48" s="3">
-        <v>24029700</v>
+        <v>24444000</v>
       </c>
       <c r="I48" s="3">
-        <v>12758400</v>
+        <v>12978400</v>
       </c>
       <c r="J48" s="3">
-        <v>13228200</v>
+        <v>13456200</v>
       </c>
       <c r="K48" s="3">
         <v>15229600</v>
@@ -1917,26 +1917,26 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
+      <c r="D49" s="3">
+        <v>5858600</v>
       </c>
       <c r="E49" s="3">
-        <v>6677500</v>
+        <v>6792600</v>
       </c>
       <c r="F49" s="3">
-        <v>6851000</v>
+        <v>6969100</v>
       </c>
       <c r="G49" s="3">
-        <v>6172400</v>
+        <v>6278800</v>
       </c>
       <c r="H49" s="3">
-        <v>10132300</v>
+        <v>10307000</v>
       </c>
       <c r="I49" s="3">
-        <v>5846400</v>
+        <v>5947200</v>
       </c>
       <c r="J49" s="3">
-        <v>6264600</v>
+        <v>6372700</v>
       </c>
       <c r="K49" s="3">
         <v>6682600</v>
@@ -2017,25 +2017,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8953500</v>
+        <v>3249300</v>
       </c>
       <c r="E52" s="3">
-        <v>3184900</v>
+        <v>3239800</v>
       </c>
       <c r="F52" s="3">
-        <v>3512000</v>
+        <v>3572500</v>
       </c>
       <c r="G52" s="3">
-        <v>4377900</v>
+        <v>4453400</v>
       </c>
       <c r="H52" s="3">
-        <v>7433700</v>
+        <v>7561900</v>
       </c>
       <c r="I52" s="3">
-        <v>2094600</v>
+        <v>2130700</v>
       </c>
       <c r="J52" s="3">
-        <v>1732400</v>
+        <v>1762300</v>
       </c>
       <c r="K52" s="3">
         <v>1964900</v>
@@ -2083,25 +2083,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>57707800</v>
+        <v>58702800</v>
       </c>
       <c r="E54" s="3">
-        <v>55809300</v>
+        <v>56771500</v>
       </c>
       <c r="F54" s="3">
-        <v>58381900</v>
+        <v>59388400</v>
       </c>
       <c r="G54" s="3">
-        <v>55521900</v>
+        <v>56479200</v>
       </c>
       <c r="H54" s="3">
-        <v>50928900</v>
+        <v>51806900</v>
       </c>
       <c r="I54" s="3">
-        <v>55280500</v>
+        <v>56233600</v>
       </c>
       <c r="J54" s="3">
-        <v>48376600</v>
+        <v>49210700</v>
       </c>
       <c r="K54" s="3">
         <v>49066100</v>
@@ -2146,25 +2146,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8998800</v>
+        <v>9153900</v>
       </c>
       <c r="E57" s="3">
-        <v>10682900</v>
+        <v>10867100</v>
       </c>
       <c r="F57" s="3">
-        <v>10639300</v>
+        <v>10822700</v>
       </c>
       <c r="G57" s="3">
-        <v>8871400</v>
+        <v>9024300</v>
       </c>
       <c r="H57" s="3">
-        <v>17048900</v>
+        <v>17342900</v>
       </c>
       <c r="I57" s="3">
-        <v>9125100</v>
+        <v>9282400</v>
       </c>
       <c r="J57" s="3">
-        <v>8695500</v>
+        <v>8845400</v>
       </c>
       <c r="K57" s="3">
         <v>7197300</v>
@@ -2179,25 +2179,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2923200</v>
+        <v>2973600</v>
       </c>
       <c r="E58" s="3">
-        <v>3618800</v>
+        <v>3681200</v>
       </c>
       <c r="F58" s="3">
-        <v>3483600</v>
+        <v>3543700</v>
       </c>
       <c r="G58" s="3">
-        <v>1642900</v>
+        <v>1671200</v>
       </c>
       <c r="H58" s="3">
-        <v>403300</v>
+        <v>410200</v>
       </c>
       <c r="I58" s="3">
-        <v>2417700</v>
+        <v>2459400</v>
       </c>
       <c r="J58" s="3">
-        <v>786400</v>
+        <v>799900</v>
       </c>
       <c r="K58" s="3">
         <v>4366000</v>
@@ -2212,25 +2212,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12355600</v>
+        <v>12568600</v>
       </c>
       <c r="E59" s="3">
-        <v>13440400</v>
+        <v>13672200</v>
       </c>
       <c r="F59" s="3">
-        <v>14625900</v>
+        <v>14878100</v>
       </c>
       <c r="G59" s="3">
-        <v>14653700</v>
+        <v>14906300</v>
       </c>
       <c r="H59" s="3">
-        <v>27687900</v>
+        <v>28165300</v>
       </c>
       <c r="I59" s="3">
-        <v>13817600</v>
+        <v>14055800</v>
       </c>
       <c r="J59" s="3">
-        <v>13141500</v>
+        <v>13368000</v>
       </c>
       <c r="K59" s="3">
         <v>12063100</v>
@@ -2245,25 +2245,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>24277500</v>
+        <v>24696100</v>
       </c>
       <c r="E60" s="3">
-        <v>27742100</v>
+        <v>28220400</v>
       </c>
       <c r="F60" s="3">
-        <v>28748800</v>
+        <v>29244500</v>
       </c>
       <c r="G60" s="3">
-        <v>25167900</v>
+        <v>25601900</v>
       </c>
       <c r="H60" s="3">
-        <v>23045400</v>
+        <v>23442700</v>
       </c>
       <c r="I60" s="3">
-        <v>25360400</v>
+        <v>25797600</v>
       </c>
       <c r="J60" s="3">
-        <v>22623300</v>
+        <v>23013400</v>
       </c>
       <c r="K60" s="3">
         <v>23626400</v>
@@ -2278,25 +2278,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10730600</v>
+        <v>10915600</v>
       </c>
       <c r="E61" s="3">
-        <v>5649300</v>
+        <v>5746800</v>
       </c>
       <c r="F61" s="3">
-        <v>8018400</v>
+        <v>8156700</v>
       </c>
       <c r="G61" s="3">
-        <v>8787800</v>
+        <v>8939400</v>
       </c>
       <c r="H61" s="3">
-        <v>6524900</v>
+        <v>6637400</v>
       </c>
       <c r="I61" s="3">
-        <v>6610900</v>
+        <v>6724900</v>
       </c>
       <c r="J61" s="3">
-        <v>5172400</v>
+        <v>5261600</v>
       </c>
       <c r="K61" s="3">
         <v>6027500</v>
@@ -2311,25 +2311,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2693300</v>
+        <v>2739700</v>
       </c>
       <c r="E62" s="3">
-        <v>3072600</v>
+        <v>3125600</v>
       </c>
       <c r="F62" s="3">
-        <v>4147000</v>
+        <v>4218500</v>
       </c>
       <c r="G62" s="3">
-        <v>5233900</v>
+        <v>5324100</v>
       </c>
       <c r="H62" s="3">
-        <v>12174600</v>
+        <v>12384500</v>
       </c>
       <c r="I62" s="3">
-        <v>4818300</v>
+        <v>4901300</v>
       </c>
       <c r="J62" s="3">
-        <v>5858700</v>
+        <v>5959700</v>
       </c>
       <c r="K62" s="3">
         <v>7556400</v>
@@ -2443,25 +2443,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>39163200</v>
+        <v>39838400</v>
       </c>
       <c r="E66" s="3">
-        <v>38051900</v>
+        <v>38707900</v>
       </c>
       <c r="F66" s="3">
-        <v>42535800</v>
+        <v>43269200</v>
       </c>
       <c r="G66" s="3">
-        <v>40934700</v>
+        <v>41640500</v>
       </c>
       <c r="H66" s="3">
-        <v>37524400</v>
+        <v>38171400</v>
       </c>
       <c r="I66" s="3">
-        <v>38360300</v>
+        <v>39021700</v>
       </c>
       <c r="J66" s="3">
-        <v>34009700</v>
+        <v>34596100</v>
       </c>
       <c r="K66" s="3">
         <v>37576100</v>
@@ -2623,25 +2623,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15278600</v>
+        <v>15542000</v>
       </c>
       <c r="E72" s="3">
-        <v>13928100</v>
+        <v>14168200</v>
       </c>
       <c r="F72" s="3">
-        <v>12067100</v>
+        <v>12275200</v>
       </c>
       <c r="G72" s="3">
-        <v>9757400</v>
+        <v>9925600</v>
       </c>
       <c r="H72" s="3">
-        <v>18963600</v>
+        <v>19290500</v>
       </c>
       <c r="I72" s="3">
-        <v>9477100</v>
+        <v>9640500</v>
       </c>
       <c r="J72" s="3">
-        <v>8154700</v>
+        <v>8295300</v>
       </c>
       <c r="K72" s="3">
         <v>6998100</v>
@@ -2755,25 +2755,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18544700</v>
+        <v>18864400</v>
       </c>
       <c r="E76" s="3">
-        <v>17757400</v>
+        <v>18063600</v>
       </c>
       <c r="F76" s="3">
-        <v>15846100</v>
+        <v>16119300</v>
       </c>
       <c r="G76" s="3">
-        <v>14587100</v>
+        <v>14838600</v>
       </c>
       <c r="H76" s="3">
-        <v>13404400</v>
+        <v>13635500</v>
       </c>
       <c r="I76" s="3">
-        <v>16920200</v>
+        <v>17211900</v>
       </c>
       <c r="J76" s="3">
-        <v>14366900</v>
+        <v>14614600</v>
       </c>
       <c r="K76" s="3">
         <v>11490100</v>
@@ -2859,25 +2859,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2096800</v>
+        <v>2130600</v>
       </c>
       <c r="E81" s="3">
-        <v>2639700</v>
+        <v>2682400</v>
       </c>
       <c r="F81" s="3">
-        <v>2192800</v>
+        <v>2228200</v>
       </c>
       <c r="G81" s="3">
-        <v>1387600</v>
+        <v>1410000</v>
       </c>
       <c r="H81" s="3">
-        <v>1448800</v>
+        <v>1472200</v>
       </c>
       <c r="I81" s="3">
-        <v>1667400</v>
+        <v>1694300</v>
       </c>
       <c r="J81" s="3">
-        <v>1118900</v>
+        <v>1137000</v>
       </c>
       <c r="K81" s="3">
         <v>-6856100</v>
@@ -2907,25 +2907,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3464900</v>
+        <v>3520900</v>
       </c>
       <c r="E83" s="3">
-        <v>2750200</v>
+        <v>2794600</v>
       </c>
       <c r="F83" s="3">
-        <v>2673200</v>
+        <v>2716400</v>
       </c>
       <c r="G83" s="3">
-        <v>2515400</v>
+        <v>2556000</v>
       </c>
       <c r="H83" s="3">
-        <v>2586300</v>
+        <v>2628000</v>
       </c>
       <c r="I83" s="3">
-        <v>2661800</v>
+        <v>2704800</v>
       </c>
       <c r="J83" s="3">
-        <v>3075800</v>
+        <v>3125400</v>
       </c>
       <c r="K83" s="3">
         <v>3084800</v>
@@ -3105,25 +3105,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3997500</v>
+        <v>4060700</v>
       </c>
       <c r="E89" s="3">
-        <v>1892200</v>
+        <v>1922700</v>
       </c>
       <c r="F89" s="3">
-        <v>3931400</v>
+        <v>3994800</v>
       </c>
       <c r="G89" s="3">
-        <v>3580500</v>
+        <v>3638300</v>
       </c>
       <c r="H89" s="3">
-        <v>3895800</v>
+        <v>3958700</v>
       </c>
       <c r="I89" s="3">
-        <v>4565700</v>
+        <v>4639400</v>
       </c>
       <c r="J89" s="3">
-        <v>5406300</v>
+        <v>5493600</v>
       </c>
       <c r="K89" s="3">
         <v>3079200</v>
@@ -3153,25 +3153,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2544700</v>
+        <v>-2585800</v>
       </c>
       <c r="E91" s="3">
-        <v>-2936400</v>
+        <v>-2983800</v>
       </c>
       <c r="F91" s="3">
-        <v>-3664800</v>
+        <v>-3723900</v>
       </c>
       <c r="G91" s="3">
-        <v>-2588100</v>
+        <v>-2629900</v>
       </c>
       <c r="H91" s="3">
-        <v>-4525200</v>
+        <v>-4598300</v>
       </c>
       <c r="I91" s="3">
-        <v>-2082500</v>
+        <v>-2116100</v>
       </c>
       <c r="J91" s="3">
-        <v>-1874100</v>
+        <v>-1904400</v>
       </c>
       <c r="K91" s="3">
         <v>-2910300</v>
@@ -3252,25 +3252,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1914600</v>
+        <v>-1945500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1796600</v>
+        <v>-1825600</v>
       </c>
       <c r="F94" s="3">
-        <v>-4262500</v>
+        <v>-4331300</v>
       </c>
       <c r="G94" s="3">
-        <v>-3903200</v>
+        <v>-3966300</v>
       </c>
       <c r="H94" s="3">
-        <v>-2729400</v>
+        <v>-2773500</v>
       </c>
       <c r="I94" s="3">
-        <v>-1282100</v>
+        <v>-1302800</v>
       </c>
       <c r="J94" s="3">
-        <v>112700</v>
+        <v>114500</v>
       </c>
       <c r="K94" s="3">
         <v>149100</v>
@@ -3300,25 +3300,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-650100</v>
+        <v>-660600</v>
       </c>
       <c r="E96" s="3">
-        <v>-758400</v>
+        <v>-770600</v>
       </c>
       <c r="F96" s="3">
-        <v>-541700</v>
+        <v>-550400</v>
       </c>
       <c r="G96" s="3">
-        <v>-539100</v>
+        <v>-547800</v>
       </c>
       <c r="H96" s="3">
-        <v>-430300</v>
+        <v>-437300</v>
       </c>
       <c r="I96" s="3">
-        <v>-343600</v>
+        <v>-349100</v>
       </c>
       <c r="J96" s="3">
-        <v>-107400</v>
+        <v>-109100</v>
       </c>
       <c r="K96" s="3">
         <v>-105100</v>
@@ -3432,25 +3432,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>448000</v>
+        <v>455200</v>
       </c>
       <c r="E100" s="3">
-        <v>-3175000</v>
+        <v>-3226200</v>
       </c>
       <c r="F100" s="3">
-        <v>-1196200</v>
+        <v>-1215500</v>
       </c>
       <c r="G100" s="3">
-        <v>2736800</v>
+        <v>2781000</v>
       </c>
       <c r="H100" s="3">
-        <v>-2875900</v>
+        <v>-2922300</v>
       </c>
       <c r="I100" s="3">
-        <v>2393200</v>
+        <v>2431900</v>
       </c>
       <c r="J100" s="3">
-        <v>-4945200</v>
+        <v>-5025100</v>
       </c>
       <c r="K100" s="3">
         <v>-4463700</v>
@@ -3465,25 +3465,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-261900</v>
+        <v>-264800</v>
       </c>
       <c r="E101" s="3">
-        <v>131500</v>
+        <v>133600</v>
       </c>
       <c r="F101" s="3">
-        <v>-156000</v>
+        <v>-158500</v>
       </c>
       <c r="G101" s="3">
-        <v>-16100</v>
+        <v>-16300</v>
       </c>
       <c r="H101" s="3">
-        <v>-773500</v>
+        <v>-786000</v>
       </c>
       <c r="I101" s="3">
-        <v>714100</v>
+        <v>725700</v>
       </c>
       <c r="J101" s="3">
-        <v>319800</v>
+        <v>324900</v>
       </c>
       <c r="K101" s="3">
         <v>525200</v>
@@ -3498,25 +3498,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2269000</v>
+        <v>2305600</v>
       </c>
       <c r="E102" s="3">
-        <v>-2947900</v>
+        <v>-2995500</v>
       </c>
       <c r="F102" s="3">
-        <v>-1683400</v>
+        <v>-1710500</v>
       </c>
       <c r="G102" s="3">
-        <v>2397900</v>
+        <v>2436700</v>
       </c>
       <c r="H102" s="3">
-        <v>-2483000</v>
+        <v>-2523100</v>
       </c>
       <c r="I102" s="3">
-        <v>6391000</v>
+        <v>6494200</v>
       </c>
       <c r="J102" s="3">
-        <v>893500</v>
+        <v>908000</v>
       </c>
       <c r="K102" s="3">
         <v>-710200</v>

--- a/AAII_Financials/Yearly/PCRFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PCRFY_YR_FIN.xlsx
@@ -719,25 +719,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>70711300</v>
+        <v>71984700</v>
       </c>
       <c r="E8" s="3">
-        <v>75545800</v>
+        <v>76906300</v>
       </c>
       <c r="F8" s="3">
-        <v>75351600</v>
+        <v>76708600</v>
       </c>
       <c r="G8" s="3">
-        <v>69324600</v>
+        <v>70573000</v>
       </c>
       <c r="H8" s="3">
-        <v>71992300</v>
+        <v>73288800</v>
       </c>
       <c r="I8" s="3">
-        <v>72829900</v>
+        <v>74141500</v>
       </c>
       <c r="J8" s="3">
-        <v>73032900</v>
+        <v>74348200</v>
       </c>
       <c r="K8" s="3">
         <v>66384700</v>
@@ -752,25 +752,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>50405400</v>
+        <v>51313100</v>
       </c>
       <c r="E9" s="3">
-        <v>54150000</v>
+        <v>55125200</v>
       </c>
       <c r="F9" s="3">
-        <v>53269500</v>
+        <v>54228800</v>
       </c>
       <c r="G9" s="3">
-        <v>48683600</v>
+        <v>49560300</v>
       </c>
       <c r="H9" s="3">
-        <v>101080400</v>
+        <v>102900700</v>
       </c>
       <c r="I9" s="3">
-        <v>52176900</v>
+        <v>53116500</v>
       </c>
       <c r="J9" s="3">
-        <v>53230900</v>
+        <v>54189500</v>
       </c>
       <c r="K9" s="3">
         <v>49266800</v>
@@ -785,25 +785,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>20305900</v>
+        <v>20671500</v>
       </c>
       <c r="E10" s="3">
-        <v>21395800</v>
+        <v>21781100</v>
       </c>
       <c r="F10" s="3">
-        <v>22082200</v>
+        <v>22479800</v>
       </c>
       <c r="G10" s="3">
-        <v>20641000</v>
+        <v>21012700</v>
       </c>
       <c r="H10" s="3">
-        <v>-29088000</v>
+        <v>-29611900</v>
       </c>
       <c r="I10" s="3">
-        <v>20653100</v>
+        <v>21025000</v>
       </c>
       <c r="J10" s="3">
-        <v>19802000</v>
+        <v>20158600</v>
       </c>
       <c r="K10" s="3">
         <v>17117900</v>
@@ -845,13 +845,13 @@
         <v>8</v>
       </c>
       <c r="H12" s="3">
-        <v>4246400</v>
+        <v>4322800</v>
       </c>
       <c r="I12" s="3">
-        <v>4316400</v>
+        <v>4394200</v>
       </c>
       <c r="J12" s="3">
-        <v>4520000</v>
+        <v>4601400</v>
       </c>
       <c r="K12" s="3">
         <v>4565200</v>
@@ -902,22 +902,22 @@
         <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>-283400</v>
+        <v>-288500</v>
       </c>
       <c r="F14" s="3">
-        <v>53800</v>
+        <v>54700</v>
       </c>
       <c r="G14" s="3">
-        <v>200200</v>
+        <v>203800</v>
       </c>
       <c r="H14" s="3">
-        <v>1327300</v>
+        <v>1351200</v>
       </c>
       <c r="I14" s="3">
-        <v>529000</v>
+        <v>538500</v>
       </c>
       <c r="J14" s="3">
-        <v>1055700</v>
+        <v>1074700</v>
       </c>
       <c r="K14" s="3">
         <v>3533500</v>
@@ -932,25 +932,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1248400</v>
+        <v>1270800</v>
       </c>
       <c r="E15" s="3">
-        <v>801900</v>
+        <v>816300</v>
       </c>
       <c r="F15" s="3">
-        <v>801900</v>
+        <v>816300</v>
       </c>
       <c r="G15" s="3">
-        <v>778300</v>
+        <v>792300</v>
       </c>
       <c r="H15" s="3">
-        <v>3018400</v>
+        <v>3072800</v>
       </c>
       <c r="I15" s="3">
-        <v>2285900</v>
+        <v>2327100</v>
       </c>
       <c r="J15" s="3">
-        <v>2631800</v>
+        <v>2679200</v>
       </c>
       <c r="K15" s="3">
         <v>2523200</v>
@@ -977,25 +977,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>67938300</v>
+        <v>69161700</v>
       </c>
       <c r="E17" s="3">
-        <v>71661300</v>
+        <v>72951800</v>
       </c>
       <c r="F17" s="3">
-        <v>71759300</v>
+        <v>73051600</v>
       </c>
       <c r="G17" s="3">
-        <v>66711800</v>
+        <v>67913100</v>
       </c>
       <c r="H17" s="3">
-        <v>69818300</v>
+        <v>71075600</v>
       </c>
       <c r="I17" s="3">
-        <v>69753600</v>
+        <v>71009800</v>
       </c>
       <c r="J17" s="3">
-        <v>71208400</v>
+        <v>72490700</v>
       </c>
       <c r="K17" s="3">
         <v>68455200</v>
@@ -1010,25 +1010,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2773000</v>
+        <v>2822900</v>
       </c>
       <c r="E18" s="3">
-        <v>3884500</v>
+        <v>3954500</v>
       </c>
       <c r="F18" s="3">
-        <v>3592300</v>
+        <v>3657000</v>
       </c>
       <c r="G18" s="3">
-        <v>2612800</v>
+        <v>2659900</v>
       </c>
       <c r="H18" s="3">
-        <v>2174000</v>
+        <v>2213200</v>
       </c>
       <c r="I18" s="3">
-        <v>3076300</v>
+        <v>3131700</v>
       </c>
       <c r="J18" s="3">
-        <v>1824600</v>
+        <v>1857400</v>
       </c>
       <c r="K18" s="3">
         <v>-2070600</v>
@@ -1058,25 +1058,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>296000</v>
+        <v>301400</v>
       </c>
       <c r="E20" s="3">
-        <v>241700</v>
+        <v>246000</v>
       </c>
       <c r="F20" s="3">
-        <v>215000</v>
+        <v>218800</v>
       </c>
       <c r="G20" s="3">
-        <v>206100</v>
+        <v>209800</v>
       </c>
       <c r="H20" s="3">
-        <v>383500</v>
+        <v>390400</v>
       </c>
       <c r="I20" s="3">
-        <v>-1188100</v>
+        <v>-1209500</v>
       </c>
       <c r="J20" s="3">
-        <v>329000</v>
+        <v>334900</v>
       </c>
       <c r="K20" s="3">
         <v>-1318100</v>
@@ -1091,25 +1091,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6575000</v>
+        <v>6701100</v>
       </c>
       <c r="E21" s="3">
-        <v>6909000</v>
+        <v>7039600</v>
       </c>
       <c r="F21" s="3">
-        <v>6512100</v>
+        <v>6635400</v>
       </c>
       <c r="G21" s="3">
-        <v>5364100</v>
+        <v>5466400</v>
       </c>
       <c r="H21" s="3">
-        <v>5174400</v>
+        <v>5273300</v>
       </c>
       <c r="I21" s="3">
-        <v>4581600</v>
+        <v>4670000</v>
       </c>
       <c r="J21" s="3">
-        <v>5265800</v>
+        <v>5367500</v>
       </c>
       <c r="K21" s="3">
         <v>-297000</v>
@@ -1124,25 +1124,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>321500</v>
+        <v>327300</v>
       </c>
       <c r="E22" s="3">
-        <v>194900</v>
+        <v>198400</v>
       </c>
       <c r="F22" s="3">
-        <v>233400</v>
+        <v>237600</v>
       </c>
       <c r="G22" s="3">
-        <v>222300</v>
+        <v>226300</v>
       </c>
       <c r="H22" s="3">
-        <v>409600</v>
+        <v>417000</v>
       </c>
       <c r="I22" s="3">
-        <v>165800</v>
+        <v>168800</v>
       </c>
       <c r="J22" s="3">
-        <v>206800</v>
+        <v>210600</v>
       </c>
       <c r="K22" s="3">
         <v>232700</v>
@@ -1157,25 +1157,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2747500</v>
+        <v>2797000</v>
       </c>
       <c r="E23" s="3">
-        <v>3931300</v>
+        <v>4002100</v>
       </c>
       <c r="F23" s="3">
-        <v>3573900</v>
+        <v>3638200</v>
       </c>
       <c r="G23" s="3">
-        <v>2596600</v>
+        <v>2643400</v>
       </c>
       <c r="H23" s="3">
-        <v>2147900</v>
+        <v>2186600</v>
       </c>
       <c r="I23" s="3">
-        <v>1722400</v>
+        <v>1753400</v>
       </c>
       <c r="J23" s="3">
-        <v>1946800</v>
+        <v>1981800</v>
       </c>
       <c r="K23" s="3">
         <v>-3621300</v>
@@ -1190,25 +1190,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>481600</v>
+        <v>490200</v>
       </c>
       <c r="E24" s="3">
-        <v>1073500</v>
+        <v>1092800</v>
       </c>
       <c r="F24" s="3">
-        <v>1194800</v>
+        <v>1216300</v>
       </c>
       <c r="G24" s="3">
-        <v>968800</v>
+        <v>986200</v>
       </c>
       <c r="H24" s="3">
-        <v>342600</v>
+        <v>348800</v>
       </c>
       <c r="I24" s="3">
-        <v>-18700</v>
+        <v>-19000</v>
       </c>
       <c r="J24" s="3">
-        <v>846400</v>
+        <v>861700</v>
       </c>
       <c r="K24" s="3">
         <v>3496700</v>
@@ -1256,25 +1256,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2266000</v>
+        <v>2306800</v>
       </c>
       <c r="E26" s="3">
-        <v>2857800</v>
+        <v>2909300</v>
       </c>
       <c r="F26" s="3">
-        <v>2379100</v>
+        <v>2422000</v>
       </c>
       <c r="G26" s="3">
-        <v>1627900</v>
+        <v>1657200</v>
       </c>
       <c r="H26" s="3">
-        <v>1805200</v>
+        <v>1837700</v>
       </c>
       <c r="I26" s="3">
-        <v>1741100</v>
+        <v>1772400</v>
       </c>
       <c r="J26" s="3">
-        <v>1100300</v>
+        <v>1120100</v>
       </c>
       <c r="K26" s="3">
         <v>-7118000</v>
@@ -1289,25 +1289,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2130600</v>
+        <v>2169000</v>
       </c>
       <c r="E27" s="3">
-        <v>2682400</v>
+        <v>2730700</v>
       </c>
       <c r="F27" s="3">
-        <v>2228200</v>
+        <v>2268300</v>
       </c>
       <c r="G27" s="3">
-        <v>1410000</v>
+        <v>1435300</v>
       </c>
       <c r="H27" s="3">
-        <v>1472200</v>
+        <v>1498700</v>
       </c>
       <c r="I27" s="3">
-        <v>1694300</v>
+        <v>1724900</v>
       </c>
       <c r="J27" s="3">
-        <v>1137000</v>
+        <v>1157400</v>
       </c>
       <c r="K27" s="3">
         <v>-6856100</v>
@@ -1454,25 +1454,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-296000</v>
+        <v>-301400</v>
       </c>
       <c r="E32" s="3">
-        <v>-241700</v>
+        <v>-246000</v>
       </c>
       <c r="F32" s="3">
-        <v>-215000</v>
+        <v>-218800</v>
       </c>
       <c r="G32" s="3">
-        <v>-206100</v>
+        <v>-209800</v>
       </c>
       <c r="H32" s="3">
-        <v>-383500</v>
+        <v>-390400</v>
       </c>
       <c r="I32" s="3">
-        <v>1188100</v>
+        <v>1209500</v>
       </c>
       <c r="J32" s="3">
-        <v>-329000</v>
+        <v>-334900</v>
       </c>
       <c r="K32" s="3">
         <v>1318100</v>
@@ -1487,25 +1487,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2130600</v>
+        <v>2169000</v>
       </c>
       <c r="E33" s="3">
-        <v>2682400</v>
+        <v>2730700</v>
       </c>
       <c r="F33" s="3">
-        <v>2228200</v>
+        <v>2268300</v>
       </c>
       <c r="G33" s="3">
-        <v>1410000</v>
+        <v>1435300</v>
       </c>
       <c r="H33" s="3">
-        <v>1472200</v>
+        <v>1498700</v>
       </c>
       <c r="I33" s="3">
-        <v>1694300</v>
+        <v>1724900</v>
       </c>
       <c r="J33" s="3">
-        <v>1137000</v>
+        <v>1157400</v>
       </c>
       <c r="K33" s="3">
         <v>-6856100</v>
@@ -1553,25 +1553,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2130600</v>
+        <v>2169000</v>
       </c>
       <c r="E35" s="3">
-        <v>2682400</v>
+        <v>2730700</v>
       </c>
       <c r="F35" s="3">
-        <v>2228200</v>
+        <v>2268300</v>
       </c>
       <c r="G35" s="3">
-        <v>1410000</v>
+        <v>1435300</v>
       </c>
       <c r="H35" s="3">
-        <v>1472200</v>
+        <v>1498700</v>
       </c>
       <c r="I35" s="3">
-        <v>1694300</v>
+        <v>1724900</v>
       </c>
       <c r="J35" s="3">
-        <v>1137000</v>
+        <v>1157400</v>
       </c>
       <c r="K35" s="3">
         <v>-6856100</v>
@@ -1654,25 +1654,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9595800</v>
+        <v>9768600</v>
       </c>
       <c r="E41" s="3">
-        <v>7290200</v>
+        <v>7421500</v>
       </c>
       <c r="F41" s="3">
-        <v>10285700</v>
+        <v>10470900</v>
       </c>
       <c r="G41" s="3">
-        <v>11996200</v>
+        <v>12212300</v>
       </c>
       <c r="H41" s="3">
-        <v>19135600</v>
+        <v>19480200</v>
       </c>
       <c r="I41" s="3">
-        <v>12261400</v>
+        <v>12482200</v>
       </c>
       <c r="J41" s="3">
-        <v>5592900</v>
+        <v>5693600</v>
       </c>
       <c r="K41" s="3">
         <v>4526400</v>
@@ -1687,19 +1687,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1401200</v>
+        <v>1426500</v>
       </c>
       <c r="E42" s="3">
-        <v>1239500</v>
+        <v>1261800</v>
       </c>
       <c r="F42" s="3">
-        <v>1921600</v>
+        <v>1956200</v>
       </c>
       <c r="G42" s="3">
-        <v>1354800</v>
+        <v>1379200</v>
       </c>
       <c r="H42" s="3">
-        <v>1562300</v>
+        <v>1590400</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
@@ -1720,25 +1720,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9923400</v>
+        <v>10102100</v>
       </c>
       <c r="E43" s="3">
-        <v>11239500</v>
+        <v>11441900</v>
       </c>
       <c r="F43" s="3">
-        <v>9808000</v>
+        <v>9984600</v>
       </c>
       <c r="G43" s="3">
-        <v>7995700</v>
+        <v>8139700</v>
       </c>
       <c r="H43" s="3">
-        <v>15661000</v>
+        <v>15943100</v>
       </c>
       <c r="I43" s="3">
-        <v>9365400</v>
+        <v>9534000</v>
       </c>
       <c r="J43" s="3">
-        <v>9510200</v>
+        <v>9681400</v>
       </c>
       <c r="K43" s="3">
         <v>8538500</v>
@@ -1753,25 +1753,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7490800</v>
+        <v>7625700</v>
       </c>
       <c r="E44" s="3">
-        <v>9595200</v>
+        <v>9768000</v>
       </c>
       <c r="F44" s="3">
-        <v>9332500</v>
+        <v>9500500</v>
       </c>
       <c r="G44" s="3">
-        <v>7611600</v>
+        <v>7748600</v>
       </c>
       <c r="H44" s="3">
-        <v>14406400</v>
+        <v>14665800</v>
       </c>
       <c r="I44" s="3">
-        <v>7199600</v>
+        <v>7329300</v>
       </c>
       <c r="J44" s="3">
-        <v>7086400</v>
+        <v>7214000</v>
       </c>
       <c r="K44" s="3">
         <v>7152400</v>
@@ -1786,25 +1786,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4023100</v>
+        <v>4095600</v>
       </c>
       <c r="E45" s="3">
-        <v>1543100</v>
+        <v>1570900</v>
       </c>
       <c r="F45" s="3">
-        <v>1559700</v>
+        <v>1587800</v>
       </c>
       <c r="G45" s="3">
-        <v>1295200</v>
+        <v>1318500</v>
       </c>
       <c r="H45" s="3">
-        <v>5385000</v>
+        <v>5482000</v>
       </c>
       <c r="I45" s="3">
-        <v>3389900</v>
+        <v>3450900</v>
       </c>
       <c r="J45" s="3">
-        <v>2864200</v>
+        <v>2915800</v>
       </c>
       <c r="K45" s="3">
         <v>2453900</v>
@@ -1819,25 +1819,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>32434300</v>
+        <v>33018400</v>
       </c>
       <c r="E46" s="3">
-        <v>30907400</v>
+        <v>31464000</v>
       </c>
       <c r="F46" s="3">
-        <v>32907400</v>
+        <v>33500100</v>
       </c>
       <c r="G46" s="3">
-        <v>30253500</v>
+        <v>30798300</v>
       </c>
       <c r="H46" s="3">
-        <v>27317100</v>
+        <v>27809100</v>
       </c>
       <c r="I46" s="3">
-        <v>32216300</v>
+        <v>32796400</v>
       </c>
       <c r="J46" s="3">
-        <v>25053700</v>
+        <v>25504900</v>
       </c>
       <c r="K46" s="3">
         <v>22671200</v>
@@ -1852,25 +1852,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4929200</v>
+        <v>5017900</v>
       </c>
       <c r="E47" s="3">
-        <v>3329600</v>
+        <v>3389600</v>
       </c>
       <c r="F47" s="3">
-        <v>2968200</v>
+        <v>3021600</v>
       </c>
       <c r="G47" s="3">
-        <v>3001700</v>
+        <v>3055700</v>
       </c>
       <c r="H47" s="3">
-        <v>6179300</v>
+        <v>6290600</v>
       </c>
       <c r="I47" s="3">
-        <v>2961000</v>
+        <v>3014400</v>
       </c>
       <c r="J47" s="3">
-        <v>2565800</v>
+        <v>2612000</v>
       </c>
       <c r="K47" s="3">
         <v>2517700</v>
@@ -1885,25 +1885,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12231500</v>
+        <v>12451700</v>
       </c>
       <c r="E48" s="3">
-        <v>12502100</v>
+        <v>12727200</v>
       </c>
       <c r="F48" s="3">
-        <v>12971200</v>
+        <v>13204800</v>
       </c>
       <c r="G48" s="3">
-        <v>12491800</v>
+        <v>12716700</v>
       </c>
       <c r="H48" s="3">
-        <v>24444000</v>
+        <v>24884200</v>
       </c>
       <c r="I48" s="3">
-        <v>12978400</v>
+        <v>13212100</v>
       </c>
       <c r="J48" s="3">
-        <v>13456200</v>
+        <v>13698600</v>
       </c>
       <c r="K48" s="3">
         <v>15229600</v>
@@ -1918,25 +1918,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5858600</v>
+        <v>5964100</v>
       </c>
       <c r="E49" s="3">
-        <v>6792600</v>
+        <v>6914900</v>
       </c>
       <c r="F49" s="3">
-        <v>6969100</v>
+        <v>7094600</v>
       </c>
       <c r="G49" s="3">
-        <v>6278800</v>
+        <v>6391900</v>
       </c>
       <c r="H49" s="3">
-        <v>10307000</v>
+        <v>10492600</v>
       </c>
       <c r="I49" s="3">
-        <v>5947200</v>
+        <v>6054300</v>
       </c>
       <c r="J49" s="3">
-        <v>6372700</v>
+        <v>6487400</v>
       </c>
       <c r="K49" s="3">
         <v>6682600</v>
@@ -2017,25 +2017,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3249300</v>
+        <v>3307800</v>
       </c>
       <c r="E52" s="3">
-        <v>3239800</v>
+        <v>3298100</v>
       </c>
       <c r="F52" s="3">
-        <v>3572500</v>
+        <v>3636900</v>
       </c>
       <c r="G52" s="3">
-        <v>4453400</v>
+        <v>4533600</v>
       </c>
       <c r="H52" s="3">
-        <v>7561900</v>
+        <v>7698100</v>
       </c>
       <c r="I52" s="3">
-        <v>2130700</v>
+        <v>2169000</v>
       </c>
       <c r="J52" s="3">
-        <v>1762300</v>
+        <v>1794000</v>
       </c>
       <c r="K52" s="3">
         <v>1964900</v>
@@ -2083,25 +2083,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>58702800</v>
+        <v>59760000</v>
       </c>
       <c r="E54" s="3">
-        <v>56771500</v>
+        <v>57793900</v>
       </c>
       <c r="F54" s="3">
-        <v>59388400</v>
+        <v>60457900</v>
       </c>
       <c r="G54" s="3">
-        <v>56479200</v>
+        <v>57496300</v>
       </c>
       <c r="H54" s="3">
-        <v>51806900</v>
+        <v>52739900</v>
       </c>
       <c r="I54" s="3">
-        <v>56233600</v>
+        <v>57246300</v>
       </c>
       <c r="J54" s="3">
-        <v>49210700</v>
+        <v>50096900</v>
       </c>
       <c r="K54" s="3">
         <v>49066100</v>
@@ -2146,25 +2146,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9153900</v>
+        <v>9318800</v>
       </c>
       <c r="E57" s="3">
-        <v>10867100</v>
+        <v>11062800</v>
       </c>
       <c r="F57" s="3">
-        <v>10822700</v>
+        <v>11017600</v>
       </c>
       <c r="G57" s="3">
-        <v>9024300</v>
+        <v>9186800</v>
       </c>
       <c r="H57" s="3">
-        <v>17342900</v>
+        <v>17655200</v>
       </c>
       <c r="I57" s="3">
-        <v>9282400</v>
+        <v>9449600</v>
       </c>
       <c r="J57" s="3">
-        <v>8845400</v>
+        <v>9004700</v>
       </c>
       <c r="K57" s="3">
         <v>7197300</v>
@@ -2179,25 +2179,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2973600</v>
+        <v>3027100</v>
       </c>
       <c r="E58" s="3">
-        <v>3681200</v>
+        <v>3747500</v>
       </c>
       <c r="F58" s="3">
-        <v>3543700</v>
+        <v>3607500</v>
       </c>
       <c r="G58" s="3">
-        <v>1671200</v>
+        <v>1701300</v>
       </c>
       <c r="H58" s="3">
-        <v>410200</v>
+        <v>417600</v>
       </c>
       <c r="I58" s="3">
-        <v>2459400</v>
+        <v>2503700</v>
       </c>
       <c r="J58" s="3">
-        <v>799900</v>
+        <v>814300</v>
       </c>
       <c r="K58" s="3">
         <v>4366000</v>
@@ -2212,25 +2212,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12568600</v>
+        <v>12794900</v>
       </c>
       <c r="E59" s="3">
-        <v>13672200</v>
+        <v>13918400</v>
       </c>
       <c r="F59" s="3">
-        <v>14878100</v>
+        <v>15146000</v>
       </c>
       <c r="G59" s="3">
-        <v>14906300</v>
+        <v>15174800</v>
       </c>
       <c r="H59" s="3">
-        <v>28165300</v>
+        <v>28672500</v>
       </c>
       <c r="I59" s="3">
-        <v>14055800</v>
+        <v>14308900</v>
       </c>
       <c r="J59" s="3">
-        <v>13368000</v>
+        <v>13608800</v>
       </c>
       <c r="K59" s="3">
         <v>12063100</v>
@@ -2245,25 +2245,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>24696100</v>
+        <v>25140800</v>
       </c>
       <c r="E60" s="3">
-        <v>28220400</v>
+        <v>28728600</v>
       </c>
       <c r="F60" s="3">
-        <v>29244500</v>
+        <v>29771200</v>
       </c>
       <c r="G60" s="3">
-        <v>25601900</v>
+        <v>26062900</v>
       </c>
       <c r="H60" s="3">
-        <v>23442700</v>
+        <v>23864900</v>
       </c>
       <c r="I60" s="3">
-        <v>25797600</v>
+        <v>26262200</v>
       </c>
       <c r="J60" s="3">
-        <v>23013400</v>
+        <v>23427800</v>
       </c>
       <c r="K60" s="3">
         <v>23626400</v>
@@ -2278,25 +2278,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10915600</v>
+        <v>11112200</v>
       </c>
       <c r="E61" s="3">
-        <v>5746800</v>
+        <v>5850200</v>
       </c>
       <c r="F61" s="3">
-        <v>8156700</v>
+        <v>8303500</v>
       </c>
       <c r="G61" s="3">
-        <v>8939400</v>
+        <v>9100300</v>
       </c>
       <c r="H61" s="3">
-        <v>6637400</v>
+        <v>6756900</v>
       </c>
       <c r="I61" s="3">
-        <v>6724900</v>
+        <v>6846000</v>
       </c>
       <c r="J61" s="3">
-        <v>5261600</v>
+        <v>5356400</v>
       </c>
       <c r="K61" s="3">
         <v>6027500</v>
@@ -2311,25 +2311,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2739700</v>
+        <v>2789100</v>
       </c>
       <c r="E62" s="3">
-        <v>3125600</v>
+        <v>3181900</v>
       </c>
       <c r="F62" s="3">
-        <v>4218500</v>
+        <v>4294500</v>
       </c>
       <c r="G62" s="3">
-        <v>5324100</v>
+        <v>5420000</v>
       </c>
       <c r="H62" s="3">
-        <v>12384500</v>
+        <v>12607500</v>
       </c>
       <c r="I62" s="3">
-        <v>4901300</v>
+        <v>4989600</v>
       </c>
       <c r="J62" s="3">
-        <v>5959700</v>
+        <v>6067000</v>
       </c>
       <c r="K62" s="3">
         <v>7556400</v>
@@ -2443,25 +2443,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>39838400</v>
+        <v>40555800</v>
       </c>
       <c r="E66" s="3">
-        <v>38707900</v>
+        <v>39405000</v>
       </c>
       <c r="F66" s="3">
-        <v>43269200</v>
+        <v>44048400</v>
       </c>
       <c r="G66" s="3">
-        <v>41640500</v>
+        <v>42390400</v>
       </c>
       <c r="H66" s="3">
-        <v>38171400</v>
+        <v>38858800</v>
       </c>
       <c r="I66" s="3">
-        <v>39021700</v>
+        <v>39724400</v>
       </c>
       <c r="J66" s="3">
-        <v>34596100</v>
+        <v>35219100</v>
       </c>
       <c r="K66" s="3">
         <v>37576100</v>
@@ -2623,25 +2623,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15542000</v>
+        <v>15821900</v>
       </c>
       <c r="E72" s="3">
-        <v>14168200</v>
+        <v>14423400</v>
       </c>
       <c r="F72" s="3">
-        <v>12275200</v>
+        <v>12496200</v>
       </c>
       <c r="G72" s="3">
-        <v>9925600</v>
+        <v>10104400</v>
       </c>
       <c r="H72" s="3">
-        <v>19290500</v>
+        <v>19637900</v>
       </c>
       <c r="I72" s="3">
-        <v>9640500</v>
+        <v>9814100</v>
       </c>
       <c r="J72" s="3">
-        <v>8295300</v>
+        <v>8444700</v>
       </c>
       <c r="K72" s="3">
         <v>6998100</v>
@@ -2755,25 +2755,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18864400</v>
+        <v>19204100</v>
       </c>
       <c r="E76" s="3">
-        <v>18063600</v>
+        <v>18388900</v>
       </c>
       <c r="F76" s="3">
-        <v>16119300</v>
+        <v>16409600</v>
       </c>
       <c r="G76" s="3">
-        <v>14838600</v>
+        <v>15105900</v>
       </c>
       <c r="H76" s="3">
-        <v>13635500</v>
+        <v>13881100</v>
       </c>
       <c r="I76" s="3">
-        <v>17211900</v>
+        <v>17521800</v>
       </c>
       <c r="J76" s="3">
-        <v>14614600</v>
+        <v>14877700</v>
       </c>
       <c r="K76" s="3">
         <v>11490100</v>
@@ -2859,25 +2859,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2130600</v>
+        <v>2169000</v>
       </c>
       <c r="E81" s="3">
-        <v>2682400</v>
+        <v>2730700</v>
       </c>
       <c r="F81" s="3">
-        <v>2228200</v>
+        <v>2268300</v>
       </c>
       <c r="G81" s="3">
-        <v>1410000</v>
+        <v>1435300</v>
       </c>
       <c r="H81" s="3">
-        <v>1472200</v>
+        <v>1498700</v>
       </c>
       <c r="I81" s="3">
-        <v>1694300</v>
+        <v>1724900</v>
       </c>
       <c r="J81" s="3">
-        <v>1137000</v>
+        <v>1157400</v>
       </c>
       <c r="K81" s="3">
         <v>-6856100</v>
@@ -2907,25 +2907,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3520900</v>
+        <v>3584300</v>
       </c>
       <c r="E83" s="3">
-        <v>2794600</v>
+        <v>2845000</v>
       </c>
       <c r="F83" s="3">
-        <v>2716400</v>
+        <v>2765300</v>
       </c>
       <c r="G83" s="3">
-        <v>2556000</v>
+        <v>2602100</v>
       </c>
       <c r="H83" s="3">
-        <v>2628000</v>
+        <v>2675300</v>
       </c>
       <c r="I83" s="3">
-        <v>2704800</v>
+        <v>2753500</v>
       </c>
       <c r="J83" s="3">
-        <v>3125400</v>
+        <v>3181700</v>
       </c>
       <c r="K83" s="3">
         <v>3084800</v>
@@ -3105,25 +3105,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4060700</v>
+        <v>4133900</v>
       </c>
       <c r="E89" s="3">
-        <v>1922700</v>
+        <v>1957300</v>
       </c>
       <c r="F89" s="3">
-        <v>3994800</v>
+        <v>4066800</v>
       </c>
       <c r="G89" s="3">
-        <v>3638300</v>
+        <v>3703800</v>
       </c>
       <c r="H89" s="3">
-        <v>3958700</v>
+        <v>4030000</v>
       </c>
       <c r="I89" s="3">
-        <v>4639400</v>
+        <v>4723000</v>
       </c>
       <c r="J89" s="3">
-        <v>5493600</v>
+        <v>5592500</v>
       </c>
       <c r="K89" s="3">
         <v>3079200</v>
@@ -3153,25 +3153,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2585800</v>
+        <v>-2632400</v>
       </c>
       <c r="E91" s="3">
-        <v>-2983800</v>
+        <v>-3037600</v>
       </c>
       <c r="F91" s="3">
-        <v>-3723900</v>
+        <v>-3791000</v>
       </c>
       <c r="G91" s="3">
-        <v>-2629900</v>
+        <v>-2677300</v>
       </c>
       <c r="H91" s="3">
-        <v>-4598300</v>
+        <v>-4681100</v>
       </c>
       <c r="I91" s="3">
-        <v>-2116100</v>
+        <v>-2154200</v>
       </c>
       <c r="J91" s="3">
-        <v>-1904400</v>
+        <v>-1938700</v>
       </c>
       <c r="K91" s="3">
         <v>-2910300</v>
@@ -3252,25 +3252,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1945500</v>
+        <v>-1980600</v>
       </c>
       <c r="E94" s="3">
-        <v>-1825600</v>
+        <v>-1858400</v>
       </c>
       <c r="F94" s="3">
-        <v>-4331300</v>
+        <v>-4409300</v>
       </c>
       <c r="G94" s="3">
-        <v>-3966300</v>
+        <v>-4037700</v>
       </c>
       <c r="H94" s="3">
-        <v>-2773500</v>
+        <v>-2823500</v>
       </c>
       <c r="I94" s="3">
-        <v>-1302800</v>
+        <v>-1326300</v>
       </c>
       <c r="J94" s="3">
-        <v>114500</v>
+        <v>116600</v>
       </c>
       <c r="K94" s="3">
         <v>149100</v>
@@ -3300,25 +3300,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-660600</v>
+        <v>-672500</v>
       </c>
       <c r="E96" s="3">
-        <v>-770600</v>
+        <v>-784500</v>
       </c>
       <c r="F96" s="3">
-        <v>-550400</v>
+        <v>-560400</v>
       </c>
       <c r="G96" s="3">
-        <v>-547800</v>
+        <v>-557600</v>
       </c>
       <c r="H96" s="3">
-        <v>-437300</v>
+        <v>-445200</v>
       </c>
       <c r="I96" s="3">
-        <v>-349100</v>
+        <v>-355400</v>
       </c>
       <c r="J96" s="3">
-        <v>-109100</v>
+        <v>-111100</v>
       </c>
       <c r="K96" s="3">
         <v>-105100</v>
@@ -3432,25 +3432,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>455200</v>
+        <v>463400</v>
       </c>
       <c r="E100" s="3">
-        <v>-3226200</v>
+        <v>-3284300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1215500</v>
+        <v>-1237400</v>
       </c>
       <c r="G100" s="3">
-        <v>2781000</v>
+        <v>2831100</v>
       </c>
       <c r="H100" s="3">
-        <v>-2922300</v>
+        <v>-2974900</v>
       </c>
       <c r="I100" s="3">
-        <v>2431900</v>
+        <v>2475700</v>
       </c>
       <c r="J100" s="3">
-        <v>-5025100</v>
+        <v>-5115500</v>
       </c>
       <c r="K100" s="3">
         <v>-4463700</v>
@@ -3465,25 +3465,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-264800</v>
+        <v>-269600</v>
       </c>
       <c r="E101" s="3">
-        <v>133600</v>
+        <v>136000</v>
       </c>
       <c r="F101" s="3">
-        <v>-158500</v>
+        <v>-161400</v>
       </c>
       <c r="G101" s="3">
-        <v>-16300</v>
+        <v>-16600</v>
       </c>
       <c r="H101" s="3">
-        <v>-786000</v>
+        <v>-800200</v>
       </c>
       <c r="I101" s="3">
-        <v>725700</v>
+        <v>738700</v>
       </c>
       <c r="J101" s="3">
-        <v>324900</v>
+        <v>330800</v>
       </c>
       <c r="K101" s="3">
         <v>525200</v>
@@ -3498,25 +3498,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2305600</v>
+        <v>2347100</v>
       </c>
       <c r="E102" s="3">
-        <v>-2995500</v>
+        <v>-3049500</v>
       </c>
       <c r="F102" s="3">
-        <v>-1710500</v>
+        <v>-1741400</v>
       </c>
       <c r="G102" s="3">
-        <v>2436700</v>
+        <v>2480500</v>
       </c>
       <c r="H102" s="3">
-        <v>-2523100</v>
+        <v>-2568500</v>
       </c>
       <c r="I102" s="3">
-        <v>6494200</v>
+        <v>6611100</v>
       </c>
       <c r="J102" s="3">
-        <v>908000</v>
+        <v>924300</v>
       </c>
       <c r="K102" s="3">
         <v>-710200</v>

--- a/AAII_Financials/Yearly/PCRFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PCRFY_YR_FIN.xlsx
@@ -666,7 +666,7 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -719,25 +719,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>71984700</v>
+        <v>68613900</v>
       </c>
       <c r="E8" s="3">
-        <v>76906300</v>
+        <v>73305000</v>
       </c>
       <c r="F8" s="3">
-        <v>76708600</v>
+        <v>73116600</v>
       </c>
       <c r="G8" s="3">
-        <v>70573000</v>
+        <v>67268400</v>
       </c>
       <c r="H8" s="3">
-        <v>73288800</v>
+        <v>69857000</v>
       </c>
       <c r="I8" s="3">
-        <v>74141500</v>
+        <v>70669700</v>
       </c>
       <c r="J8" s="3">
-        <v>74348200</v>
+        <v>70866700</v>
       </c>
       <c r="K8" s="3">
         <v>66384700</v>
@@ -752,25 +752,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>51313100</v>
+        <v>48910300</v>
       </c>
       <c r="E9" s="3">
-        <v>55125200</v>
+        <v>52543900</v>
       </c>
       <c r="F9" s="3">
-        <v>54228800</v>
+        <v>51689400</v>
       </c>
       <c r="G9" s="3">
-        <v>49560300</v>
+        <v>47239600</v>
       </c>
       <c r="H9" s="3">
-        <v>102900700</v>
+        <v>98082200</v>
       </c>
       <c r="I9" s="3">
-        <v>53116500</v>
+        <v>50629300</v>
       </c>
       <c r="J9" s="3">
-        <v>54189500</v>
+        <v>51652000</v>
       </c>
       <c r="K9" s="3">
         <v>49266800</v>
@@ -785,25 +785,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>20671500</v>
+        <v>19703600</v>
       </c>
       <c r="E10" s="3">
-        <v>21781100</v>
+        <v>20761100</v>
       </c>
       <c r="F10" s="3">
-        <v>22479800</v>
+        <v>21427200</v>
       </c>
       <c r="G10" s="3">
-        <v>21012700</v>
+        <v>20028700</v>
       </c>
       <c r="H10" s="3">
-        <v>-29611900</v>
+        <v>-28225300</v>
       </c>
       <c r="I10" s="3">
-        <v>21025000</v>
+        <v>20040500</v>
       </c>
       <c r="J10" s="3">
-        <v>20158600</v>
+        <v>19214700</v>
       </c>
       <c r="K10" s="3">
         <v>17117900</v>
@@ -845,13 +845,13 @@
         <v>8</v>
       </c>
       <c r="H12" s="3">
-        <v>4322800</v>
+        <v>4120400</v>
       </c>
       <c r="I12" s="3">
-        <v>4394200</v>
+        <v>4188400</v>
       </c>
       <c r="J12" s="3">
-        <v>4601400</v>
+        <v>4386000</v>
       </c>
       <c r="K12" s="3">
         <v>4565200</v>
@@ -902,22 +902,22 @@
         <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>-288500</v>
+        <v>-275000</v>
       </c>
       <c r="F14" s="3">
-        <v>54700</v>
+        <v>52200</v>
       </c>
       <c r="G14" s="3">
-        <v>203800</v>
+        <v>194200</v>
       </c>
       <c r="H14" s="3">
-        <v>1351200</v>
+        <v>1288000</v>
       </c>
       <c r="I14" s="3">
-        <v>538500</v>
+        <v>513300</v>
       </c>
       <c r="J14" s="3">
-        <v>1074700</v>
+        <v>1024400</v>
       </c>
       <c r="K14" s="3">
         <v>3533500</v>
@@ -932,25 +932,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1270800</v>
+        <v>1211300</v>
       </c>
       <c r="E15" s="3">
-        <v>816300</v>
+        <v>778100</v>
       </c>
       <c r="F15" s="3">
-        <v>816300</v>
+        <v>778100</v>
       </c>
       <c r="G15" s="3">
-        <v>792300</v>
+        <v>755200</v>
       </c>
       <c r="H15" s="3">
-        <v>3072800</v>
+        <v>2928900</v>
       </c>
       <c r="I15" s="3">
-        <v>2327100</v>
+        <v>2218100</v>
       </c>
       <c r="J15" s="3">
-        <v>2679200</v>
+        <v>2553700</v>
       </c>
       <c r="K15" s="3">
         <v>2523200</v>
@@ -977,25 +977,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>69161700</v>
+        <v>65923100</v>
       </c>
       <c r="E17" s="3">
-        <v>72951800</v>
+        <v>69535700</v>
       </c>
       <c r="F17" s="3">
-        <v>73051600</v>
+        <v>69630900</v>
       </c>
       <c r="G17" s="3">
-        <v>67913100</v>
+        <v>64733000</v>
       </c>
       <c r="H17" s="3">
-        <v>71075600</v>
+        <v>67747400</v>
       </c>
       <c r="I17" s="3">
-        <v>71009800</v>
+        <v>67684700</v>
       </c>
       <c r="J17" s="3">
-        <v>72490700</v>
+        <v>69096300</v>
       </c>
       <c r="K17" s="3">
         <v>68455200</v>
@@ -1010,25 +1010,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2822900</v>
+        <v>2690800</v>
       </c>
       <c r="E18" s="3">
-        <v>3954500</v>
+        <v>3769300</v>
       </c>
       <c r="F18" s="3">
-        <v>3657000</v>
+        <v>3485700</v>
       </c>
       <c r="G18" s="3">
-        <v>2659900</v>
+        <v>2535300</v>
       </c>
       <c r="H18" s="3">
-        <v>2213200</v>
+        <v>2109500</v>
       </c>
       <c r="I18" s="3">
-        <v>3131700</v>
+        <v>2985100</v>
       </c>
       <c r="J18" s="3">
-        <v>1857400</v>
+        <v>1770500</v>
       </c>
       <c r="K18" s="3">
         <v>-2070600</v>
@@ -1058,25 +1058,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>301400</v>
+        <v>287300</v>
       </c>
       <c r="E20" s="3">
-        <v>246000</v>
+        <v>234500</v>
       </c>
       <c r="F20" s="3">
-        <v>218800</v>
+        <v>208600</v>
       </c>
       <c r="G20" s="3">
-        <v>209800</v>
+        <v>200000</v>
       </c>
       <c r="H20" s="3">
-        <v>390400</v>
+        <v>372100</v>
       </c>
       <c r="I20" s="3">
-        <v>-1209500</v>
+        <v>-1152900</v>
       </c>
       <c r="J20" s="3">
-        <v>334900</v>
+        <v>319300</v>
       </c>
       <c r="K20" s="3">
         <v>-1318100</v>
@@ -1091,25 +1091,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6701100</v>
+        <v>6409400</v>
       </c>
       <c r="E21" s="3">
-        <v>7039600</v>
+        <v>6727400</v>
       </c>
       <c r="F21" s="3">
-        <v>6635400</v>
+        <v>6341700</v>
       </c>
       <c r="G21" s="3">
-        <v>5466400</v>
+        <v>5226400</v>
       </c>
       <c r="H21" s="3">
-        <v>5273300</v>
+        <v>5042900</v>
       </c>
       <c r="I21" s="3">
-        <v>4670000</v>
+        <v>4468300</v>
       </c>
       <c r="J21" s="3">
-        <v>5367500</v>
+        <v>5135700</v>
       </c>
       <c r="K21" s="3">
         <v>-297000</v>
@@ -1124,25 +1124,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>327300</v>
+        <v>312000</v>
       </c>
       <c r="E22" s="3">
-        <v>198400</v>
+        <v>189100</v>
       </c>
       <c r="F22" s="3">
-        <v>237600</v>
+        <v>226400</v>
       </c>
       <c r="G22" s="3">
-        <v>226300</v>
+        <v>215700</v>
       </c>
       <c r="H22" s="3">
-        <v>417000</v>
+        <v>397500</v>
       </c>
       <c r="I22" s="3">
-        <v>168800</v>
+        <v>160900</v>
       </c>
       <c r="J22" s="3">
-        <v>210600</v>
+        <v>200700</v>
       </c>
       <c r="K22" s="3">
         <v>232700</v>
@@ -1157,25 +1157,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2797000</v>
+        <v>2666000</v>
       </c>
       <c r="E23" s="3">
-        <v>4002100</v>
+        <v>3814700</v>
       </c>
       <c r="F23" s="3">
-        <v>3638200</v>
+        <v>3467900</v>
       </c>
       <c r="G23" s="3">
-        <v>2643400</v>
+        <v>2519600</v>
       </c>
       <c r="H23" s="3">
-        <v>2186600</v>
+        <v>2084200</v>
       </c>
       <c r="I23" s="3">
-        <v>1753400</v>
+        <v>1671300</v>
       </c>
       <c r="J23" s="3">
-        <v>1981800</v>
+        <v>1889000</v>
       </c>
       <c r="K23" s="3">
         <v>-3621300</v>
@@ -1190,25 +1190,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>490200</v>
+        <v>467300</v>
       </c>
       <c r="E24" s="3">
-        <v>1092800</v>
+        <v>1041700</v>
       </c>
       <c r="F24" s="3">
-        <v>1216300</v>
+        <v>1159300</v>
       </c>
       <c r="G24" s="3">
-        <v>986200</v>
+        <v>940000</v>
       </c>
       <c r="H24" s="3">
-        <v>348800</v>
+        <v>332500</v>
       </c>
       <c r="I24" s="3">
-        <v>-19000</v>
+        <v>-18100</v>
       </c>
       <c r="J24" s="3">
-        <v>861700</v>
+        <v>821300</v>
       </c>
       <c r="K24" s="3">
         <v>3496700</v>
@@ -1256,25 +1256,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2306800</v>
+        <v>2198700</v>
       </c>
       <c r="E26" s="3">
-        <v>2909300</v>
+        <v>2773100</v>
       </c>
       <c r="F26" s="3">
-        <v>2422000</v>
+        <v>2308600</v>
       </c>
       <c r="G26" s="3">
-        <v>1657200</v>
+        <v>1579600</v>
       </c>
       <c r="H26" s="3">
-        <v>1837700</v>
+        <v>1751700</v>
       </c>
       <c r="I26" s="3">
-        <v>1772400</v>
+        <v>1689400</v>
       </c>
       <c r="J26" s="3">
-        <v>1120100</v>
+        <v>1067700</v>
       </c>
       <c r="K26" s="3">
         <v>-7118000</v>
@@ -1289,25 +1289,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2169000</v>
+        <v>2067400</v>
       </c>
       <c r="E27" s="3">
-        <v>2730700</v>
+        <v>2602800</v>
       </c>
       <c r="F27" s="3">
-        <v>2268300</v>
+        <v>2162100</v>
       </c>
       <c r="G27" s="3">
-        <v>1435300</v>
+        <v>1368100</v>
       </c>
       <c r="H27" s="3">
-        <v>1498700</v>
+        <v>1428600</v>
       </c>
       <c r="I27" s="3">
-        <v>1724900</v>
+        <v>1644100</v>
       </c>
       <c r="J27" s="3">
-        <v>1157400</v>
+        <v>1103200</v>
       </c>
       <c r="K27" s="3">
         <v>-6856100</v>
@@ -1454,25 +1454,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-301400</v>
+        <v>-287300</v>
       </c>
       <c r="E32" s="3">
-        <v>-246000</v>
+        <v>-234500</v>
       </c>
       <c r="F32" s="3">
-        <v>-218800</v>
+        <v>-208600</v>
       </c>
       <c r="G32" s="3">
-        <v>-209800</v>
+        <v>-200000</v>
       </c>
       <c r="H32" s="3">
-        <v>-390400</v>
+        <v>-372100</v>
       </c>
       <c r="I32" s="3">
-        <v>1209500</v>
+        <v>1152900</v>
       </c>
       <c r="J32" s="3">
-        <v>-334900</v>
+        <v>-319300</v>
       </c>
       <c r="K32" s="3">
         <v>1318100</v>
@@ -1487,25 +1487,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2169000</v>
+        <v>2067400</v>
       </c>
       <c r="E33" s="3">
-        <v>2730700</v>
+        <v>2602800</v>
       </c>
       <c r="F33" s="3">
-        <v>2268300</v>
+        <v>2162100</v>
       </c>
       <c r="G33" s="3">
-        <v>1435300</v>
+        <v>1368100</v>
       </c>
       <c r="H33" s="3">
-        <v>1498700</v>
+        <v>1428600</v>
       </c>
       <c r="I33" s="3">
-        <v>1724900</v>
+        <v>1644100</v>
       </c>
       <c r="J33" s="3">
-        <v>1157400</v>
+        <v>1103200</v>
       </c>
       <c r="K33" s="3">
         <v>-6856100</v>
@@ -1553,25 +1553,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2169000</v>
+        <v>2067400</v>
       </c>
       <c r="E35" s="3">
-        <v>2730700</v>
+        <v>2602800</v>
       </c>
       <c r="F35" s="3">
-        <v>2268300</v>
+        <v>2162100</v>
       </c>
       <c r="G35" s="3">
-        <v>1435300</v>
+        <v>1368100</v>
       </c>
       <c r="H35" s="3">
-        <v>1498700</v>
+        <v>1428600</v>
       </c>
       <c r="I35" s="3">
-        <v>1724900</v>
+        <v>1644100</v>
       </c>
       <c r="J35" s="3">
-        <v>1157400</v>
+        <v>1103200</v>
       </c>
       <c r="K35" s="3">
         <v>-6856100</v>
@@ -1654,25 +1654,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9768600</v>
+        <v>9311200</v>
       </c>
       <c r="E41" s="3">
-        <v>7421500</v>
+        <v>7073900</v>
       </c>
       <c r="F41" s="3">
-        <v>10470900</v>
+        <v>9980600</v>
       </c>
       <c r="G41" s="3">
-        <v>12212300</v>
+        <v>11640400</v>
       </c>
       <c r="H41" s="3">
-        <v>19480200</v>
+        <v>18568000</v>
       </c>
       <c r="I41" s="3">
-        <v>12482200</v>
+        <v>11897700</v>
       </c>
       <c r="J41" s="3">
-        <v>5693600</v>
+        <v>5427000</v>
       </c>
       <c r="K41" s="3">
         <v>4526400</v>
@@ -1687,19 +1687,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1426500</v>
+        <v>1359700</v>
       </c>
       <c r="E42" s="3">
-        <v>1261800</v>
+        <v>1202800</v>
       </c>
       <c r="F42" s="3">
-        <v>1956200</v>
+        <v>1864600</v>
       </c>
       <c r="G42" s="3">
-        <v>1379200</v>
+        <v>1314600</v>
       </c>
       <c r="H42" s="3">
-        <v>1590400</v>
+        <v>1515900</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
@@ -1720,25 +1720,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10102100</v>
+        <v>9629000</v>
       </c>
       <c r="E43" s="3">
-        <v>11441900</v>
+        <v>10906100</v>
       </c>
       <c r="F43" s="3">
-        <v>9984600</v>
+        <v>9517100</v>
       </c>
       <c r="G43" s="3">
-        <v>8139700</v>
+        <v>7758500</v>
       </c>
       <c r="H43" s="3">
-        <v>15943100</v>
+        <v>15196500</v>
       </c>
       <c r="I43" s="3">
-        <v>9534000</v>
+        <v>9087600</v>
       </c>
       <c r="J43" s="3">
-        <v>9681400</v>
+        <v>9228100</v>
       </c>
       <c r="K43" s="3">
         <v>8538500</v>
@@ -1753,25 +1753,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7625700</v>
+        <v>7268600</v>
       </c>
       <c r="E44" s="3">
-        <v>9768000</v>
+        <v>9310600</v>
       </c>
       <c r="F44" s="3">
-        <v>9500500</v>
+        <v>9055700</v>
       </c>
       <c r="G44" s="3">
-        <v>7748600</v>
+        <v>7385800</v>
       </c>
       <c r="H44" s="3">
-        <v>14665800</v>
+        <v>13979100</v>
       </c>
       <c r="I44" s="3">
-        <v>7329300</v>
+        <v>6986100</v>
       </c>
       <c r="J44" s="3">
-        <v>7214000</v>
+        <v>6876200</v>
       </c>
       <c r="K44" s="3">
         <v>7152400</v>
@@ -1786,25 +1786,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4095600</v>
+        <v>3903800</v>
       </c>
       <c r="E45" s="3">
-        <v>1570900</v>
+        <v>1497400</v>
       </c>
       <c r="F45" s="3">
-        <v>1587800</v>
+        <v>1513400</v>
       </c>
       <c r="G45" s="3">
-        <v>1318500</v>
+        <v>1256800</v>
       </c>
       <c r="H45" s="3">
-        <v>5482000</v>
+        <v>5225300</v>
       </c>
       <c r="I45" s="3">
-        <v>3450900</v>
+        <v>3289300</v>
       </c>
       <c r="J45" s="3">
-        <v>2915800</v>
+        <v>2779200</v>
       </c>
       <c r="K45" s="3">
         <v>2453900</v>
@@ -1819,25 +1819,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>33018400</v>
+        <v>31472200</v>
       </c>
       <c r="E46" s="3">
-        <v>31464000</v>
+        <v>29990700</v>
       </c>
       <c r="F46" s="3">
-        <v>33500100</v>
+        <v>31931400</v>
       </c>
       <c r="G46" s="3">
-        <v>30798300</v>
+        <v>29356100</v>
       </c>
       <c r="H46" s="3">
-        <v>27809100</v>
+        <v>26506900</v>
       </c>
       <c r="I46" s="3">
-        <v>32796400</v>
+        <v>31260700</v>
       </c>
       <c r="J46" s="3">
-        <v>25504900</v>
+        <v>24310600</v>
       </c>
       <c r="K46" s="3">
         <v>22671200</v>
@@ -1852,25 +1852,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5017900</v>
+        <v>4783000</v>
       </c>
       <c r="E47" s="3">
-        <v>3389600</v>
+        <v>3230800</v>
       </c>
       <c r="F47" s="3">
-        <v>3021600</v>
+        <v>2880100</v>
       </c>
       <c r="G47" s="3">
-        <v>3055700</v>
+        <v>2912600</v>
       </c>
       <c r="H47" s="3">
-        <v>6290600</v>
+        <v>5996000</v>
       </c>
       <c r="I47" s="3">
-        <v>3014400</v>
+        <v>2873200</v>
       </c>
       <c r="J47" s="3">
-        <v>2612000</v>
+        <v>2489700</v>
       </c>
       <c r="K47" s="3">
         <v>2517700</v>
@@ -1885,25 +1885,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12451700</v>
+        <v>11868700</v>
       </c>
       <c r="E48" s="3">
-        <v>12727200</v>
+        <v>12131300</v>
       </c>
       <c r="F48" s="3">
-        <v>13204800</v>
+        <v>12586400</v>
       </c>
       <c r="G48" s="3">
-        <v>12716700</v>
+        <v>12121300</v>
       </c>
       <c r="H48" s="3">
-        <v>24884200</v>
+        <v>23719000</v>
       </c>
       <c r="I48" s="3">
-        <v>13212100</v>
+        <v>12593500</v>
       </c>
       <c r="J48" s="3">
-        <v>13698600</v>
+        <v>13057100</v>
       </c>
       <c r="K48" s="3">
         <v>15229600</v>
@@ -1918,25 +1918,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5964100</v>
+        <v>5684800</v>
       </c>
       <c r="E49" s="3">
-        <v>6914900</v>
+        <v>6591100</v>
       </c>
       <c r="F49" s="3">
-        <v>7094600</v>
+        <v>6762400</v>
       </c>
       <c r="G49" s="3">
-        <v>6391900</v>
+        <v>6092600</v>
       </c>
       <c r="H49" s="3">
-        <v>10492600</v>
+        <v>10001300</v>
       </c>
       <c r="I49" s="3">
-        <v>6054300</v>
+        <v>5770800</v>
       </c>
       <c r="J49" s="3">
-        <v>6487400</v>
+        <v>6183600</v>
       </c>
       <c r="K49" s="3">
         <v>6682600</v>
@@ -2017,25 +2017,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3307800</v>
+        <v>3152900</v>
       </c>
       <c r="E52" s="3">
-        <v>3298100</v>
+        <v>3143700</v>
       </c>
       <c r="F52" s="3">
-        <v>3636900</v>
+        <v>3466600</v>
       </c>
       <c r="G52" s="3">
-        <v>4533600</v>
+        <v>4321300</v>
       </c>
       <c r="H52" s="3">
-        <v>7698100</v>
+        <v>7337600</v>
       </c>
       <c r="I52" s="3">
-        <v>2169000</v>
+        <v>2067500</v>
       </c>
       <c r="J52" s="3">
-        <v>1794000</v>
+        <v>1710000</v>
       </c>
       <c r="K52" s="3">
         <v>1964900</v>
@@ -2083,25 +2083,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>59760000</v>
+        <v>56961600</v>
       </c>
       <c r="E54" s="3">
-        <v>57793900</v>
+        <v>55087600</v>
       </c>
       <c r="F54" s="3">
-        <v>60457900</v>
+        <v>57626900</v>
       </c>
       <c r="G54" s="3">
-        <v>57496300</v>
+        <v>54803900</v>
       </c>
       <c r="H54" s="3">
-        <v>52739900</v>
+        <v>50270300</v>
       </c>
       <c r="I54" s="3">
-        <v>57246300</v>
+        <v>54565600</v>
       </c>
       <c r="J54" s="3">
-        <v>50096900</v>
+        <v>47751000</v>
       </c>
       <c r="K54" s="3">
         <v>49066100</v>
@@ -2146,25 +2146,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9318800</v>
+        <v>8882400</v>
       </c>
       <c r="E57" s="3">
-        <v>11062800</v>
+        <v>10544800</v>
       </c>
       <c r="F57" s="3">
-        <v>11017600</v>
+        <v>10501700</v>
       </c>
       <c r="G57" s="3">
-        <v>9186800</v>
+        <v>8756600</v>
       </c>
       <c r="H57" s="3">
-        <v>17655200</v>
+        <v>16828500</v>
       </c>
       <c r="I57" s="3">
-        <v>9449600</v>
+        <v>9007100</v>
       </c>
       <c r="J57" s="3">
-        <v>9004700</v>
+        <v>8583100</v>
       </c>
       <c r="K57" s="3">
         <v>7197300</v>
@@ -2179,25 +2179,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3027100</v>
+        <v>2885400</v>
       </c>
       <c r="E58" s="3">
-        <v>3747500</v>
+        <v>3572000</v>
       </c>
       <c r="F58" s="3">
-        <v>3607500</v>
+        <v>3438600</v>
       </c>
       <c r="G58" s="3">
-        <v>1701300</v>
+        <v>1621700</v>
       </c>
       <c r="H58" s="3">
-        <v>417600</v>
+        <v>398100</v>
       </c>
       <c r="I58" s="3">
-        <v>2503700</v>
+        <v>2386500</v>
       </c>
       <c r="J58" s="3">
-        <v>814300</v>
+        <v>776200</v>
       </c>
       <c r="K58" s="3">
         <v>4366000</v>
@@ -2212,25 +2212,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12794900</v>
+        <v>12195800</v>
       </c>
       <c r="E59" s="3">
-        <v>13918400</v>
+        <v>13266600</v>
       </c>
       <c r="F59" s="3">
-        <v>15146000</v>
+        <v>14436800</v>
       </c>
       <c r="G59" s="3">
-        <v>15174800</v>
+        <v>14464200</v>
       </c>
       <c r="H59" s="3">
-        <v>28672500</v>
+        <v>27329900</v>
       </c>
       <c r="I59" s="3">
-        <v>14308900</v>
+        <v>13638900</v>
       </c>
       <c r="J59" s="3">
-        <v>13608800</v>
+        <v>12971500</v>
       </c>
       <c r="K59" s="3">
         <v>12063100</v>
@@ -2245,25 +2245,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>25140800</v>
+        <v>23963500</v>
       </c>
       <c r="E60" s="3">
-        <v>28728600</v>
+        <v>27383400</v>
       </c>
       <c r="F60" s="3">
-        <v>29771200</v>
+        <v>28377100</v>
       </c>
       <c r="G60" s="3">
-        <v>26062900</v>
+        <v>24842500</v>
       </c>
       <c r="H60" s="3">
-        <v>23864900</v>
+        <v>22747400</v>
       </c>
       <c r="I60" s="3">
-        <v>26262200</v>
+        <v>25032400</v>
       </c>
       <c r="J60" s="3">
-        <v>23427800</v>
+        <v>22330800</v>
       </c>
       <c r="K60" s="3">
         <v>23626400</v>
@@ -2278,25 +2278,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11112200</v>
+        <v>10591900</v>
       </c>
       <c r="E61" s="3">
-        <v>5850200</v>
+        <v>5576300</v>
       </c>
       <c r="F61" s="3">
-        <v>8303500</v>
+        <v>7914700</v>
       </c>
       <c r="G61" s="3">
-        <v>9100300</v>
+        <v>8674200</v>
       </c>
       <c r="H61" s="3">
-        <v>6756900</v>
+        <v>6440500</v>
       </c>
       <c r="I61" s="3">
-        <v>6846000</v>
+        <v>6525400</v>
       </c>
       <c r="J61" s="3">
-        <v>5356400</v>
+        <v>5105500</v>
       </c>
       <c r="K61" s="3">
         <v>6027500</v>
@@ -2311,25 +2311,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2789100</v>
+        <v>2658500</v>
       </c>
       <c r="E62" s="3">
-        <v>3181900</v>
+        <v>3032900</v>
       </c>
       <c r="F62" s="3">
-        <v>4294500</v>
+        <v>4093400</v>
       </c>
       <c r="G62" s="3">
-        <v>5420000</v>
+        <v>5166200</v>
       </c>
       <c r="H62" s="3">
-        <v>12607500</v>
+        <v>12017100</v>
       </c>
       <c r="I62" s="3">
-        <v>4989600</v>
+        <v>4756000</v>
       </c>
       <c r="J62" s="3">
-        <v>6067000</v>
+        <v>5782900</v>
       </c>
       <c r="K62" s="3">
         <v>7556400</v>
@@ -2443,25 +2443,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>40555800</v>
+        <v>38656700</v>
       </c>
       <c r="E66" s="3">
-        <v>39405000</v>
+        <v>37559800</v>
       </c>
       <c r="F66" s="3">
-        <v>44048400</v>
+        <v>41985700</v>
       </c>
       <c r="G66" s="3">
-        <v>42390400</v>
+        <v>40405400</v>
       </c>
       <c r="H66" s="3">
-        <v>38858800</v>
+        <v>37039200</v>
       </c>
       <c r="I66" s="3">
-        <v>39724400</v>
+        <v>37864300</v>
       </c>
       <c r="J66" s="3">
-        <v>35219100</v>
+        <v>33570000</v>
       </c>
       <c r="K66" s="3">
         <v>37576100</v>
@@ -2623,25 +2623,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15821900</v>
+        <v>15081100</v>
       </c>
       <c r="E72" s="3">
-        <v>14423400</v>
+        <v>13748000</v>
       </c>
       <c r="F72" s="3">
-        <v>12496200</v>
+        <v>11911100</v>
       </c>
       <c r="G72" s="3">
-        <v>10104400</v>
+        <v>9631200</v>
       </c>
       <c r="H72" s="3">
-        <v>19637900</v>
+        <v>18718400</v>
       </c>
       <c r="I72" s="3">
-        <v>9814100</v>
+        <v>9354600</v>
       </c>
       <c r="J72" s="3">
-        <v>8444700</v>
+        <v>8049300</v>
       </c>
       <c r="K72" s="3">
         <v>6998100</v>
@@ -2755,25 +2755,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19204100</v>
+        <v>18304900</v>
       </c>
       <c r="E76" s="3">
-        <v>18388900</v>
+        <v>17527800</v>
       </c>
       <c r="F76" s="3">
-        <v>16409600</v>
+        <v>15641200</v>
       </c>
       <c r="G76" s="3">
-        <v>15105900</v>
+        <v>14398500</v>
       </c>
       <c r="H76" s="3">
-        <v>13881100</v>
+        <v>13231100</v>
       </c>
       <c r="I76" s="3">
-        <v>17521800</v>
+        <v>16701400</v>
       </c>
       <c r="J76" s="3">
-        <v>14877700</v>
+        <v>14181100</v>
       </c>
       <c r="K76" s="3">
         <v>11490100</v>
@@ -2859,25 +2859,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2169000</v>
+        <v>2067400</v>
       </c>
       <c r="E81" s="3">
-        <v>2730700</v>
+        <v>2602800</v>
       </c>
       <c r="F81" s="3">
-        <v>2268300</v>
+        <v>2162100</v>
       </c>
       <c r="G81" s="3">
-        <v>1435300</v>
+        <v>1368100</v>
       </c>
       <c r="H81" s="3">
-        <v>1498700</v>
+        <v>1428600</v>
       </c>
       <c r="I81" s="3">
-        <v>1724900</v>
+        <v>1644100</v>
       </c>
       <c r="J81" s="3">
-        <v>1157400</v>
+        <v>1103200</v>
       </c>
       <c r="K81" s="3">
         <v>-6856100</v>
@@ -2907,25 +2907,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3584300</v>
+        <v>3416500</v>
       </c>
       <c r="E83" s="3">
-        <v>2845000</v>
+        <v>2711700</v>
       </c>
       <c r="F83" s="3">
-        <v>2765300</v>
+        <v>2635800</v>
       </c>
       <c r="G83" s="3">
-        <v>2602100</v>
+        <v>2480200</v>
       </c>
       <c r="H83" s="3">
-        <v>2675300</v>
+        <v>2550100</v>
       </c>
       <c r="I83" s="3">
-        <v>2753500</v>
+        <v>2624600</v>
       </c>
       <c r="J83" s="3">
-        <v>3181700</v>
+        <v>3032700</v>
       </c>
       <c r="K83" s="3">
         <v>3084800</v>
@@ -3105,25 +3105,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4133900</v>
+        <v>3940300</v>
       </c>
       <c r="E89" s="3">
-        <v>1957300</v>
+        <v>1865700</v>
       </c>
       <c r="F89" s="3">
-        <v>4066800</v>
+        <v>3876300</v>
       </c>
       <c r="G89" s="3">
-        <v>3703800</v>
+        <v>3530400</v>
       </c>
       <c r="H89" s="3">
-        <v>4030000</v>
+        <v>3841300</v>
       </c>
       <c r="I89" s="3">
-        <v>4723000</v>
+        <v>4501800</v>
       </c>
       <c r="J89" s="3">
-        <v>5592500</v>
+        <v>5330700</v>
       </c>
       <c r="K89" s="3">
         <v>3079200</v>
@@ -3153,25 +3153,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2632400</v>
+        <v>-2509100</v>
       </c>
       <c r="E91" s="3">
-        <v>-3037600</v>
+        <v>-2895300</v>
       </c>
       <c r="F91" s="3">
-        <v>-3791000</v>
+        <v>-3613500</v>
       </c>
       <c r="G91" s="3">
-        <v>-2677300</v>
+        <v>-2551900</v>
       </c>
       <c r="H91" s="3">
-        <v>-4681100</v>
+        <v>-4461900</v>
       </c>
       <c r="I91" s="3">
-        <v>-2154200</v>
+        <v>-2053300</v>
       </c>
       <c r="J91" s="3">
-        <v>-1938700</v>
+        <v>-1847900</v>
       </c>
       <c r="K91" s="3">
         <v>-2910300</v>
@@ -3252,25 +3252,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1980600</v>
+        <v>-1887800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1858400</v>
+        <v>-1771400</v>
       </c>
       <c r="F94" s="3">
-        <v>-4409300</v>
+        <v>-4202900</v>
       </c>
       <c r="G94" s="3">
-        <v>-4037700</v>
+        <v>-3848600</v>
       </c>
       <c r="H94" s="3">
-        <v>-2823500</v>
+        <v>-2691200</v>
       </c>
       <c r="I94" s="3">
-        <v>-1326300</v>
+        <v>-1264200</v>
       </c>
       <c r="J94" s="3">
-        <v>116600</v>
+        <v>111100</v>
       </c>
       <c r="K94" s="3">
         <v>149100</v>
@@ -3300,25 +3300,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-672500</v>
+        <v>-641000</v>
       </c>
       <c r="E96" s="3">
-        <v>-784500</v>
+        <v>-747800</v>
       </c>
       <c r="F96" s="3">
-        <v>-560400</v>
+        <v>-534100</v>
       </c>
       <c r="G96" s="3">
-        <v>-557600</v>
+        <v>-531500</v>
       </c>
       <c r="H96" s="3">
-        <v>-445200</v>
+        <v>-424300</v>
       </c>
       <c r="I96" s="3">
-        <v>-355400</v>
+        <v>-338800</v>
       </c>
       <c r="J96" s="3">
-        <v>-111100</v>
+        <v>-105900</v>
       </c>
       <c r="K96" s="3">
         <v>-105100</v>
@@ -3432,25 +3432,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>463400</v>
+        <v>441700</v>
       </c>
       <c r="E100" s="3">
-        <v>-3284300</v>
+        <v>-3130500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1237400</v>
+        <v>-1179500</v>
       </c>
       <c r="G100" s="3">
-        <v>2831100</v>
+        <v>2698500</v>
       </c>
       <c r="H100" s="3">
-        <v>-2974900</v>
+        <v>-2835600</v>
       </c>
       <c r="I100" s="3">
-        <v>2475700</v>
+        <v>2359800</v>
       </c>
       <c r="J100" s="3">
-        <v>-5115500</v>
+        <v>-4876000</v>
       </c>
       <c r="K100" s="3">
         <v>-4463700</v>
@@ -3465,25 +3465,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-269600</v>
+        <v>-256900</v>
       </c>
       <c r="E101" s="3">
-        <v>136000</v>
+        <v>129600</v>
       </c>
       <c r="F101" s="3">
-        <v>-161400</v>
+        <v>-153800</v>
       </c>
       <c r="G101" s="3">
-        <v>-16600</v>
+        <v>-15900</v>
       </c>
       <c r="H101" s="3">
-        <v>-800200</v>
+        <v>-762700</v>
       </c>
       <c r="I101" s="3">
-        <v>738700</v>
+        <v>704100</v>
       </c>
       <c r="J101" s="3">
-        <v>330800</v>
+        <v>315300</v>
       </c>
       <c r="K101" s="3">
         <v>525200</v>
@@ -3498,25 +3498,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2347100</v>
+        <v>2237200</v>
       </c>
       <c r="E102" s="3">
-        <v>-3049500</v>
+        <v>-2906700</v>
       </c>
       <c r="F102" s="3">
-        <v>-1741400</v>
+        <v>-1659800</v>
       </c>
       <c r="G102" s="3">
-        <v>2480500</v>
+        <v>2364400</v>
       </c>
       <c r="H102" s="3">
-        <v>-2568500</v>
+        <v>-2448300</v>
       </c>
       <c r="I102" s="3">
-        <v>6611100</v>
+        <v>6301500</v>
       </c>
       <c r="J102" s="3">
-        <v>924300</v>
+        <v>881000</v>
       </c>
       <c r="K102" s="3">
         <v>-710200</v>

--- a/AAII_Financials/Yearly/PCRFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PCRFY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>PCRFY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,167 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42825</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42460</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42094</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41729</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41364</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40999</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>68613900</v>
+        <v>61561900</v>
       </c>
       <c r="E8" s="3">
-        <v>73305000</v>
+        <v>68838600</v>
       </c>
       <c r="F8" s="3">
-        <v>73116600</v>
+        <v>73545100</v>
       </c>
       <c r="G8" s="3">
-        <v>67268400</v>
+        <v>73356100</v>
       </c>
       <c r="H8" s="3">
-        <v>69857000</v>
+        <v>67488700</v>
       </c>
       <c r="I8" s="3">
-        <v>70669700</v>
+        <v>70085800</v>
       </c>
       <c r="J8" s="3">
+        <v>70901200</v>
+      </c>
+      <c r="K8" s="3">
         <v>70866700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>66384700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>70929800</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>48910300</v>
+        <v>43413000</v>
       </c>
       <c r="E9" s="3">
-        <v>52543900</v>
+        <v>49070500</v>
       </c>
       <c r="F9" s="3">
-        <v>51689400</v>
+        <v>52716000</v>
       </c>
       <c r="G9" s="3">
-        <v>47239600</v>
+        <v>51858700</v>
       </c>
       <c r="H9" s="3">
-        <v>98082200</v>
+        <v>47394300</v>
       </c>
       <c r="I9" s="3">
-        <v>50629300</v>
+        <v>98403500</v>
       </c>
       <c r="J9" s="3">
+        <v>50795100</v>
+      </c>
+      <c r="K9" s="3">
         <v>51652000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>49266800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>53015200</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>19703600</v>
+        <v>18148900</v>
       </c>
       <c r="E10" s="3">
-        <v>20761100</v>
+        <v>19768100</v>
       </c>
       <c r="F10" s="3">
-        <v>21427200</v>
+        <v>20829100</v>
       </c>
       <c r="G10" s="3">
-        <v>20028700</v>
+        <v>21497400</v>
       </c>
       <c r="H10" s="3">
-        <v>-28225300</v>
+        <v>20094300</v>
       </c>
       <c r="I10" s="3">
-        <v>20040500</v>
+        <v>-28317700</v>
       </c>
       <c r="J10" s="3">
+        <v>20106100</v>
+      </c>
+      <c r="K10" s="3">
         <v>19214700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>17117900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>17914600</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -827,8 +839,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -844,24 +857,27 @@
       <c r="G12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="3">
-        <v>4120400</v>
+      <c r="H12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I12" s="3">
-        <v>4188400</v>
+        <v>4133900</v>
       </c>
       <c r="J12" s="3">
+        <v>4202100</v>
+      </c>
+      <c r="K12" s="3">
         <v>4386000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4565200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4702800</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -892,75 +908,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>-275000</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>52200</v>
+        <v>-275900</v>
       </c>
       <c r="G14" s="3">
-        <v>194200</v>
+        <v>52300</v>
       </c>
       <c r="H14" s="3">
-        <v>1288000</v>
+        <v>194900</v>
       </c>
       <c r="I14" s="3">
-        <v>513300</v>
+        <v>1292200</v>
       </c>
       <c r="J14" s="3">
+        <v>514900</v>
+      </c>
+      <c r="K14" s="3">
         <v>1024400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3533500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5091000</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>1211300</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
-        <v>778100</v>
+        <v>1215300</v>
       </c>
       <c r="F15" s="3">
-        <v>778100</v>
+        <v>780600</v>
       </c>
       <c r="G15" s="3">
-        <v>755200</v>
+        <v>780700</v>
       </c>
       <c r="H15" s="3">
-        <v>2928900</v>
+        <v>757700</v>
       </c>
       <c r="I15" s="3">
-        <v>2218100</v>
+        <v>2938500</v>
       </c>
       <c r="J15" s="3">
+        <v>2225300</v>
+      </c>
+      <c r="K15" s="3">
         <v>2553700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2523200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2342600</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -971,74 +996,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>65923100</v>
+        <v>59185400</v>
       </c>
       <c r="E17" s="3">
-        <v>69535700</v>
+        <v>66139100</v>
       </c>
       <c r="F17" s="3">
-        <v>69630900</v>
+        <v>69763400</v>
       </c>
       <c r="G17" s="3">
-        <v>64733000</v>
+        <v>69858900</v>
       </c>
       <c r="H17" s="3">
-        <v>67747400</v>
+        <v>64945000</v>
       </c>
       <c r="I17" s="3">
-        <v>67684700</v>
+        <v>67969300</v>
       </c>
       <c r="J17" s="3">
+        <v>67906400</v>
+      </c>
+      <c r="K17" s="3">
         <v>69096300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>68455200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>75625500</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2690800</v>
+        <v>2376500</v>
       </c>
       <c r="E18" s="3">
-        <v>3769300</v>
+        <v>2699600</v>
       </c>
       <c r="F18" s="3">
-        <v>3485700</v>
+        <v>3781700</v>
       </c>
       <c r="G18" s="3">
-        <v>2535300</v>
+        <v>3497200</v>
       </c>
       <c r="H18" s="3">
-        <v>2109500</v>
+        <v>2543600</v>
       </c>
       <c r="I18" s="3">
-        <v>2985100</v>
+        <v>2116400</v>
       </c>
       <c r="J18" s="3">
+        <v>2994800</v>
+      </c>
+      <c r="K18" s="3">
         <v>1770500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2070600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4695700</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1052,173 +1084,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>287300</v>
+        <v>20400</v>
       </c>
       <c r="E20" s="3">
-        <v>234500</v>
+        <v>288200</v>
       </c>
       <c r="F20" s="3">
-        <v>208600</v>
+        <v>235300</v>
       </c>
       <c r="G20" s="3">
-        <v>200000</v>
+        <v>209300</v>
       </c>
       <c r="H20" s="3">
-        <v>372100</v>
+        <v>200600</v>
       </c>
       <c r="I20" s="3">
-        <v>-1152900</v>
+        <v>373300</v>
       </c>
       <c r="J20" s="3">
+        <v>-1156600</v>
+      </c>
+      <c r="K20" s="3">
         <v>319300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1318100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2395600</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6409400</v>
+        <v>5318600</v>
       </c>
       <c r="E21" s="3">
-        <v>6727400</v>
+        <v>6419100</v>
       </c>
       <c r="F21" s="3">
-        <v>6341700</v>
+        <v>6740500</v>
       </c>
       <c r="G21" s="3">
-        <v>5226400</v>
+        <v>6353800</v>
       </c>
       <c r="H21" s="3">
-        <v>5042900</v>
+        <v>5235300</v>
       </c>
       <c r="I21" s="3">
-        <v>4468300</v>
+        <v>5051000</v>
       </c>
       <c r="J21" s="3">
+        <v>4474300</v>
+      </c>
+      <c r="K21" s="3">
         <v>5135700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-297000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4031400</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>312000</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>189100</v>
+        <v>313000</v>
       </c>
       <c r="F22" s="3">
-        <v>226400</v>
+        <v>189700</v>
       </c>
       <c r="G22" s="3">
-        <v>215700</v>
+        <v>227200</v>
       </c>
       <c r="H22" s="3">
-        <v>397500</v>
+        <v>216400</v>
       </c>
       <c r="I22" s="3">
-        <v>160900</v>
+        <v>398800</v>
       </c>
       <c r="J22" s="3">
+        <v>161400</v>
+      </c>
+      <c r="K22" s="3">
         <v>200700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>232700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>256800</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2666000</v>
+        <v>2396900</v>
       </c>
       <c r="E23" s="3">
-        <v>3814700</v>
+        <v>2674700</v>
       </c>
       <c r="F23" s="3">
-        <v>3467900</v>
+        <v>3827200</v>
       </c>
       <c r="G23" s="3">
-        <v>2519600</v>
+        <v>3479200</v>
       </c>
       <c r="H23" s="3">
-        <v>2084200</v>
+        <v>2527900</v>
       </c>
       <c r="I23" s="3">
-        <v>1671300</v>
+        <v>2091000</v>
       </c>
       <c r="J23" s="3">
+        <v>1676800</v>
+      </c>
+      <c r="K23" s="3">
         <v>1889000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3621300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7348100</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>467300</v>
+        <v>706900</v>
       </c>
       <c r="E24" s="3">
-        <v>1041700</v>
+        <v>468800</v>
       </c>
       <c r="F24" s="3">
-        <v>1159300</v>
+        <v>1045100</v>
       </c>
       <c r="G24" s="3">
-        <v>940000</v>
+        <v>1163100</v>
       </c>
       <c r="H24" s="3">
-        <v>332500</v>
+        <v>943100</v>
       </c>
       <c r="I24" s="3">
-        <v>-18100</v>
+        <v>333600</v>
       </c>
       <c r="J24" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="K24" s="3">
         <v>821300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3496700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>88300</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1249,75 +1297,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2198700</v>
+        <v>1690000</v>
       </c>
       <c r="E26" s="3">
-        <v>2773100</v>
+        <v>2205900</v>
       </c>
       <c r="F26" s="3">
-        <v>2308600</v>
+        <v>2782200</v>
       </c>
       <c r="G26" s="3">
-        <v>1579600</v>
+        <v>2316100</v>
       </c>
       <c r="H26" s="3">
-        <v>1751700</v>
+        <v>1584700</v>
       </c>
       <c r="I26" s="3">
-        <v>1689400</v>
+        <v>1757400</v>
       </c>
       <c r="J26" s="3">
+        <v>1695000</v>
+      </c>
+      <c r="K26" s="3">
         <v>1067700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7118000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7436400</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2067400</v>
+        <v>1517100</v>
       </c>
       <c r="E27" s="3">
-        <v>2602800</v>
+        <v>2074200</v>
       </c>
       <c r="F27" s="3">
-        <v>2162100</v>
+        <v>2611300</v>
       </c>
       <c r="G27" s="3">
-        <v>1368100</v>
+        <v>2169200</v>
       </c>
       <c r="H27" s="3">
-        <v>1428600</v>
+        <v>1372600</v>
       </c>
       <c r="I27" s="3">
-        <v>1644100</v>
+        <v>1433200</v>
       </c>
       <c r="J27" s="3">
+        <v>1649500</v>
+      </c>
+      <c r="K27" s="3">
         <v>1103200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6856100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6980400</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1348,9 +1405,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1381,9 +1441,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1414,9 +1477,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1447,75 +1513,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-287300</v>
+        <v>-20400</v>
       </c>
       <c r="E32" s="3">
-        <v>-234500</v>
+        <v>-288200</v>
       </c>
       <c r="F32" s="3">
-        <v>-208600</v>
+        <v>-235300</v>
       </c>
       <c r="G32" s="3">
-        <v>-200000</v>
+        <v>-209300</v>
       </c>
       <c r="H32" s="3">
-        <v>-372100</v>
+        <v>-200600</v>
       </c>
       <c r="I32" s="3">
-        <v>1152900</v>
+        <v>-373300</v>
       </c>
       <c r="J32" s="3">
+        <v>1156600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-319300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1318100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2395600</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2067400</v>
+        <v>1517100</v>
       </c>
       <c r="E33" s="3">
-        <v>2602800</v>
+        <v>2074200</v>
       </c>
       <c r="F33" s="3">
-        <v>2162100</v>
+        <v>2611300</v>
       </c>
       <c r="G33" s="3">
-        <v>1368100</v>
+        <v>2169200</v>
       </c>
       <c r="H33" s="3">
-        <v>1428600</v>
+        <v>1372600</v>
       </c>
       <c r="I33" s="3">
-        <v>1644100</v>
+        <v>1433200</v>
       </c>
       <c r="J33" s="3">
+        <v>1649500</v>
+      </c>
+      <c r="K33" s="3">
         <v>1103200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6856100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6980400</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1546,80 +1621,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2067400</v>
+        <v>1517100</v>
       </c>
       <c r="E35" s="3">
-        <v>2602800</v>
+        <v>2074200</v>
       </c>
       <c r="F35" s="3">
-        <v>2162100</v>
+        <v>2611300</v>
       </c>
       <c r="G35" s="3">
-        <v>1368100</v>
+        <v>2169200</v>
       </c>
       <c r="H35" s="3">
-        <v>1428600</v>
+        <v>1372600</v>
       </c>
       <c r="I35" s="3">
-        <v>1644100</v>
+        <v>1433200</v>
       </c>
       <c r="J35" s="3">
+        <v>1649500</v>
+      </c>
+      <c r="K35" s="3">
         <v>1103200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6856100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6980400</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42825</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42460</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42094</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41729</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41364</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40999</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1633,8 +1717,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1648,305 +1733,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9311200</v>
+        <v>14641700</v>
       </c>
       <c r="E41" s="3">
-        <v>7073900</v>
+        <v>9341700</v>
       </c>
       <c r="F41" s="3">
-        <v>9980600</v>
+        <v>7097100</v>
       </c>
       <c r="G41" s="3">
-        <v>11640400</v>
+        <v>10013300</v>
       </c>
       <c r="H41" s="3">
-        <v>18568000</v>
+        <v>11678500</v>
       </c>
       <c r="I41" s="3">
-        <v>11897700</v>
+        <v>18628800</v>
       </c>
       <c r="J41" s="3">
+        <v>11936700</v>
+      </c>
+      <c r="K41" s="3">
         <v>5427000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4526400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5523300</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1359700</v>
+        <v>1375100</v>
       </c>
       <c r="E42" s="3">
-        <v>1202800</v>
+        <v>1364100</v>
       </c>
       <c r="F42" s="3">
-        <v>1864600</v>
+        <v>1206700</v>
       </c>
       <c r="G42" s="3">
-        <v>1314600</v>
+        <v>1870700</v>
       </c>
       <c r="H42" s="3">
-        <v>1515900</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
+        <v>1318900</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1520900</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>4400</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9629000</v>
+        <v>10976500</v>
       </c>
       <c r="E43" s="3">
-        <v>10906100</v>
+        <v>9660600</v>
       </c>
       <c r="F43" s="3">
-        <v>9517100</v>
+        <v>10941800</v>
       </c>
       <c r="G43" s="3">
-        <v>7758500</v>
+        <v>9548300</v>
       </c>
       <c r="H43" s="3">
-        <v>15196500</v>
+        <v>7784000</v>
       </c>
       <c r="I43" s="3">
-        <v>9087600</v>
+        <v>15246300</v>
       </c>
       <c r="J43" s="3">
+        <v>9117300</v>
+      </c>
+      <c r="K43" s="3">
         <v>9228100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8538500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9127200</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7268600</v>
+        <v>7651300</v>
       </c>
       <c r="E44" s="3">
-        <v>9310600</v>
+        <v>7292400</v>
       </c>
       <c r="F44" s="3">
-        <v>9055700</v>
+        <v>9341100</v>
       </c>
       <c r="G44" s="3">
-        <v>7385800</v>
+        <v>9085300</v>
       </c>
       <c r="H44" s="3">
-        <v>13979100</v>
+        <v>7410000</v>
       </c>
       <c r="I44" s="3">
-        <v>6986100</v>
+        <v>14024800</v>
       </c>
       <c r="J44" s="3">
+        <v>7008900</v>
+      </c>
+      <c r="K44" s="3">
         <v>6876200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7152400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7505600</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3903800</v>
+        <v>1405500</v>
       </c>
       <c r="E45" s="3">
-        <v>1497400</v>
+        <v>3916600</v>
       </c>
       <c r="F45" s="3">
-        <v>1513400</v>
+        <v>1502300</v>
       </c>
       <c r="G45" s="3">
-        <v>1256800</v>
+        <v>1518400</v>
       </c>
       <c r="H45" s="3">
-        <v>5225300</v>
+        <v>1260900</v>
       </c>
       <c r="I45" s="3">
-        <v>3289300</v>
+        <v>5242400</v>
       </c>
       <c r="J45" s="3">
+        <v>3300100</v>
+      </c>
+      <c r="K45" s="3">
         <v>2779200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2453900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4110200</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>31472200</v>
+        <v>36050000</v>
       </c>
       <c r="E46" s="3">
-        <v>29990700</v>
+        <v>31575300</v>
       </c>
       <c r="F46" s="3">
-        <v>31931400</v>
+        <v>30088900</v>
       </c>
       <c r="G46" s="3">
-        <v>29356100</v>
+        <v>32036000</v>
       </c>
       <c r="H46" s="3">
-        <v>26506900</v>
+        <v>29452300</v>
       </c>
       <c r="I46" s="3">
-        <v>31260700</v>
+        <v>26593700</v>
       </c>
       <c r="J46" s="3">
+        <v>31363100</v>
+      </c>
+      <c r="K46" s="3">
         <v>24310600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>22671200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>26270600</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4783000</v>
+        <v>6313400</v>
       </c>
       <c r="E47" s="3">
-        <v>3230800</v>
+        <v>4798600</v>
       </c>
       <c r="F47" s="3">
-        <v>2880100</v>
+        <v>3241400</v>
       </c>
       <c r="G47" s="3">
-        <v>2912600</v>
+        <v>2889600</v>
       </c>
       <c r="H47" s="3">
-        <v>5996000</v>
+        <v>2922200</v>
       </c>
       <c r="I47" s="3">
-        <v>2873200</v>
+        <v>6015700</v>
       </c>
       <c r="J47" s="3">
+        <v>2882600</v>
+      </c>
+      <c r="K47" s="3">
         <v>2489700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2517700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4085000</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11868700</v>
+        <v>12053300</v>
       </c>
       <c r="E48" s="3">
-        <v>12131300</v>
+        <v>11907500</v>
       </c>
       <c r="F48" s="3">
-        <v>12586400</v>
+        <v>12171000</v>
       </c>
       <c r="G48" s="3">
-        <v>12121300</v>
+        <v>12627700</v>
       </c>
       <c r="H48" s="3">
-        <v>23719000</v>
+        <v>12161000</v>
       </c>
       <c r="I48" s="3">
-        <v>12593500</v>
+        <v>23796700</v>
       </c>
       <c r="J48" s="3">
+        <v>12634700</v>
+      </c>
+      <c r="K48" s="3">
         <v>13057100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15229600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15677900</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>5684800</v>
+      <c r="D49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E49" s="3">
-        <v>6591100</v>
+        <v>5703400</v>
       </c>
       <c r="F49" s="3">
-        <v>6762400</v>
+        <v>6612700</v>
       </c>
       <c r="G49" s="3">
-        <v>6092600</v>
+        <v>6784500</v>
       </c>
       <c r="H49" s="3">
-        <v>10001300</v>
+        <v>6112600</v>
       </c>
       <c r="I49" s="3">
-        <v>5770800</v>
+        <v>10034000</v>
       </c>
       <c r="J49" s="3">
+        <v>5789700</v>
+      </c>
+      <c r="K49" s="3">
         <v>6183600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6682600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9972600</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1977,9 +2090,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2010,42 +2126,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3152900</v>
+        <v>8507900</v>
       </c>
       <c r="E52" s="3">
-        <v>3143700</v>
+        <v>3163300</v>
       </c>
       <c r="F52" s="3">
-        <v>3466600</v>
+        <v>3154000</v>
       </c>
       <c r="G52" s="3">
-        <v>4321300</v>
+        <v>3477900</v>
       </c>
       <c r="H52" s="3">
-        <v>7337600</v>
+        <v>4335400</v>
       </c>
       <c r="I52" s="3">
-        <v>2067500</v>
+        <v>7361600</v>
       </c>
       <c r="J52" s="3">
+        <v>2074200</v>
+      </c>
+      <c r="K52" s="3">
         <v>1710000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1964900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3667400</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2076,42 +2198,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>56961600</v>
+        <v>62924600</v>
       </c>
       <c r="E54" s="3">
-        <v>55087600</v>
+        <v>57148200</v>
       </c>
       <c r="F54" s="3">
-        <v>57626900</v>
+        <v>55268000</v>
       </c>
       <c r="G54" s="3">
-        <v>54803900</v>
+        <v>57815700</v>
       </c>
       <c r="H54" s="3">
-        <v>50270300</v>
+        <v>54983400</v>
       </c>
       <c r="I54" s="3">
-        <v>54565600</v>
+        <v>50434900</v>
       </c>
       <c r="J54" s="3">
+        <v>54744300</v>
+      </c>
+      <c r="K54" s="3">
         <v>47751000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>49066100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>59673500</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2125,8 +2253,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2140,206 +2269,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8882400</v>
+        <v>9609200</v>
       </c>
       <c r="E57" s="3">
-        <v>10544800</v>
+        <v>8911500</v>
       </c>
       <c r="F57" s="3">
-        <v>10501700</v>
+        <v>10579300</v>
       </c>
       <c r="G57" s="3">
-        <v>8756600</v>
+        <v>10536100</v>
       </c>
       <c r="H57" s="3">
-        <v>16828500</v>
+        <v>8785300</v>
       </c>
       <c r="I57" s="3">
-        <v>9007100</v>
+        <v>16883600</v>
       </c>
       <c r="J57" s="3">
+        <v>9036600</v>
+      </c>
+      <c r="K57" s="3">
         <v>8583100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7197300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7693200</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2885400</v>
+        <v>3392400</v>
       </c>
       <c r="E58" s="3">
-        <v>3572000</v>
+        <v>2894800</v>
       </c>
       <c r="F58" s="3">
-        <v>3438600</v>
+        <v>3583700</v>
       </c>
       <c r="G58" s="3">
-        <v>1621700</v>
+        <v>3449900</v>
       </c>
       <c r="H58" s="3">
-        <v>398100</v>
+        <v>1627000</v>
       </c>
       <c r="I58" s="3">
-        <v>2386500</v>
+        <v>399400</v>
       </c>
       <c r="J58" s="3">
+        <v>2394300</v>
+      </c>
+      <c r="K58" s="3">
         <v>776200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4366000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5730000</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12195800</v>
+        <v>12770200</v>
       </c>
       <c r="E59" s="3">
-        <v>13266600</v>
+        <v>12235700</v>
       </c>
       <c r="F59" s="3">
-        <v>14436800</v>
+        <v>13310100</v>
       </c>
       <c r="G59" s="3">
-        <v>14464200</v>
+        <v>14484100</v>
       </c>
       <c r="H59" s="3">
-        <v>27329900</v>
+        <v>14511600</v>
       </c>
       <c r="I59" s="3">
-        <v>13638900</v>
+        <v>27419400</v>
       </c>
       <c r="J59" s="3">
+        <v>13683600</v>
+      </c>
+      <c r="K59" s="3">
         <v>12971500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12063100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12607600</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>23963500</v>
+        <v>25771800</v>
       </c>
       <c r="E60" s="3">
-        <v>27383400</v>
+        <v>24042000</v>
       </c>
       <c r="F60" s="3">
-        <v>28377100</v>
+        <v>27473000</v>
       </c>
       <c r="G60" s="3">
-        <v>24842500</v>
+        <v>28470000</v>
       </c>
       <c r="H60" s="3">
-        <v>22747400</v>
+        <v>24923900</v>
       </c>
       <c r="I60" s="3">
-        <v>25032400</v>
+        <v>22821900</v>
       </c>
       <c r="J60" s="3">
+        <v>25114400</v>
+      </c>
+      <c r="K60" s="3">
         <v>22330800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>23626400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>26030700</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10591900</v>
+        <v>9909500</v>
       </c>
       <c r="E61" s="3">
-        <v>5576300</v>
+        <v>10626500</v>
       </c>
       <c r="F61" s="3">
-        <v>7914700</v>
+        <v>5594600</v>
       </c>
       <c r="G61" s="3">
-        <v>8674200</v>
+        <v>7940600</v>
       </c>
       <c r="H61" s="3">
-        <v>6440500</v>
+        <v>8702600</v>
       </c>
       <c r="I61" s="3">
-        <v>6525400</v>
+        <v>6461600</v>
       </c>
       <c r="J61" s="3">
+        <v>6546800</v>
+      </c>
+      <c r="K61" s="3">
         <v>5105500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6027500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8513600</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2658500</v>
+        <v>1800800</v>
       </c>
       <c r="E62" s="3">
-        <v>3032900</v>
+        <v>2667200</v>
       </c>
       <c r="F62" s="3">
-        <v>4093400</v>
+        <v>3042800</v>
       </c>
       <c r="G62" s="3">
-        <v>5166200</v>
+        <v>4106800</v>
       </c>
       <c r="H62" s="3">
-        <v>12017100</v>
+        <v>5183100</v>
       </c>
       <c r="I62" s="3">
-        <v>4756000</v>
+        <v>12056500</v>
       </c>
       <c r="J62" s="3">
+        <v>4771500</v>
+      </c>
+      <c r="K62" s="3">
         <v>5782900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7556400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7252000</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2370,9 +2518,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2403,9 +2554,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2436,42 +2590,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>38656700</v>
+        <v>39085400</v>
       </c>
       <c r="E66" s="3">
-        <v>37559800</v>
+        <v>38783400</v>
       </c>
       <c r="F66" s="3">
-        <v>41985700</v>
+        <v>37682800</v>
       </c>
       <c r="G66" s="3">
-        <v>40405400</v>
+        <v>42123300</v>
       </c>
       <c r="H66" s="3">
-        <v>37039200</v>
+        <v>40537800</v>
       </c>
       <c r="I66" s="3">
-        <v>37864300</v>
+        <v>37160500</v>
       </c>
       <c r="J66" s="3">
+        <v>37988300</v>
+      </c>
+      <c r="K66" s="3">
         <v>33570000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>37576100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>42228300</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2485,8 +2645,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2517,9 +2678,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2550,9 +2714,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2583,9 +2750,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2616,42 +2786,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15081100</v>
+        <v>19795500</v>
       </c>
       <c r="E72" s="3">
-        <v>13748000</v>
+        <v>15130400</v>
       </c>
       <c r="F72" s="3">
-        <v>11911100</v>
+        <v>13793000</v>
       </c>
       <c r="G72" s="3">
-        <v>9631200</v>
+        <v>11950100</v>
       </c>
       <c r="H72" s="3">
-        <v>18718400</v>
+        <v>9662800</v>
       </c>
       <c r="I72" s="3">
-        <v>9354600</v>
+        <v>18779700</v>
       </c>
       <c r="J72" s="3">
+        <v>9385200</v>
+      </c>
+      <c r="K72" s="3">
         <v>8049300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6998100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13882600</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2682,9 +2858,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2715,9 +2894,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2748,42 +2930,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18304900</v>
+        <v>23839200</v>
       </c>
       <c r="E76" s="3">
-        <v>17527800</v>
+        <v>18364800</v>
       </c>
       <c r="F76" s="3">
-        <v>15641200</v>
+        <v>17585200</v>
       </c>
       <c r="G76" s="3">
-        <v>14398500</v>
+        <v>15692400</v>
       </c>
       <c r="H76" s="3">
-        <v>13231100</v>
+        <v>14445700</v>
       </c>
       <c r="I76" s="3">
-        <v>16701400</v>
+        <v>13274400</v>
       </c>
       <c r="J76" s="3">
+        <v>16756100</v>
+      </c>
+      <c r="K76" s="3">
         <v>14181100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11490100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17445300</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2814,80 +3002,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42825</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42460</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42094</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41729</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41364</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40999</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2067400</v>
+        <v>1517100</v>
       </c>
       <c r="E81" s="3">
-        <v>2602800</v>
+        <v>2074200</v>
       </c>
       <c r="F81" s="3">
-        <v>2162100</v>
+        <v>2611300</v>
       </c>
       <c r="G81" s="3">
-        <v>1368100</v>
+        <v>2169200</v>
       </c>
       <c r="H81" s="3">
-        <v>1428600</v>
+        <v>1372600</v>
       </c>
       <c r="I81" s="3">
-        <v>1644100</v>
+        <v>1433200</v>
       </c>
       <c r="J81" s="3">
+        <v>1649500</v>
+      </c>
+      <c r="K81" s="3">
         <v>1103200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6856100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6980400</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2901,41 +3098,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3416500</v>
+        <v>2918500</v>
       </c>
       <c r="E83" s="3">
-        <v>2711700</v>
+        <v>3427600</v>
       </c>
       <c r="F83" s="3">
-        <v>2635800</v>
+        <v>2720600</v>
       </c>
       <c r="G83" s="3">
-        <v>2480200</v>
+        <v>2644500</v>
       </c>
       <c r="H83" s="3">
-        <v>2550100</v>
+        <v>2488300</v>
       </c>
       <c r="I83" s="3">
-        <v>2624600</v>
+        <v>2558400</v>
       </c>
       <c r="J83" s="3">
+        <v>2633200</v>
+      </c>
+      <c r="K83" s="3">
         <v>3032700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3084800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3056500</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2966,9 +3167,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2999,9 +3203,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3032,9 +3239,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3065,9 +3275,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3098,42 +3311,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3940300</v>
+        <v>4632100</v>
       </c>
       <c r="E89" s="3">
-        <v>1865700</v>
+        <v>3953200</v>
       </c>
       <c r="F89" s="3">
-        <v>3876300</v>
+        <v>1871800</v>
       </c>
       <c r="G89" s="3">
-        <v>3530400</v>
+        <v>3889000</v>
       </c>
       <c r="H89" s="3">
-        <v>3841300</v>
+        <v>3541900</v>
       </c>
       <c r="I89" s="3">
-        <v>4501800</v>
+        <v>3853900</v>
       </c>
       <c r="J89" s="3">
+        <v>4516500</v>
+      </c>
+      <c r="K89" s="3">
         <v>5330700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3079200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-333500</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3147,41 +3366,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2509100</v>
+        <v>-2124000</v>
       </c>
       <c r="E91" s="3">
-        <v>-2895300</v>
+        <v>-2517300</v>
       </c>
       <c r="F91" s="3">
-        <v>-3613500</v>
+        <v>-2904800</v>
       </c>
       <c r="G91" s="3">
-        <v>-2551900</v>
+        <v>-3625300</v>
       </c>
       <c r="H91" s="3">
-        <v>-4461900</v>
+        <v>-2560300</v>
       </c>
       <c r="I91" s="3">
-        <v>-2053300</v>
+        <v>-4476500</v>
       </c>
       <c r="J91" s="3">
+        <v>-2060000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1847900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2910300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4126500</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3212,9 +3435,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3245,42 +3471,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1887800</v>
+        <v>1622900</v>
       </c>
       <c r="E94" s="3">
-        <v>-1771400</v>
+        <v>-1894000</v>
       </c>
       <c r="F94" s="3">
-        <v>-4202900</v>
+        <v>-1777200</v>
       </c>
       <c r="G94" s="3">
-        <v>-3848600</v>
+        <v>-4216600</v>
       </c>
       <c r="H94" s="3">
-        <v>-2691200</v>
+        <v>-3861200</v>
       </c>
       <c r="I94" s="3">
-        <v>-1264200</v>
+        <v>-2700100</v>
       </c>
       <c r="J94" s="3">
+        <v>-1268300</v>
+      </c>
+      <c r="K94" s="3">
         <v>111100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>149100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2739100</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3294,41 +3526,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-641000</v>
+        <v>-536000</v>
       </c>
       <c r="E96" s="3">
-        <v>-747800</v>
+        <v>-643100</v>
       </c>
       <c r="F96" s="3">
-        <v>-534100</v>
+        <v>-750200</v>
       </c>
       <c r="G96" s="3">
-        <v>-531500</v>
+        <v>-535900</v>
       </c>
       <c r="H96" s="3">
-        <v>-424300</v>
+        <v>-533200</v>
       </c>
       <c r="I96" s="3">
-        <v>-338800</v>
+        <v>-425700</v>
       </c>
       <c r="J96" s="3">
+        <v>-339900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-105900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-105100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-198100</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3359,9 +3595,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3392,9 +3631,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3425,106 +3667,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>441700</v>
+        <v>-1633100</v>
       </c>
       <c r="E100" s="3">
-        <v>-3130500</v>
+        <v>443200</v>
       </c>
       <c r="F100" s="3">
-        <v>-1179500</v>
+        <v>-3140800</v>
       </c>
       <c r="G100" s="3">
-        <v>2698500</v>
+        <v>-1183300</v>
       </c>
       <c r="H100" s="3">
-        <v>-2835600</v>
+        <v>2707400</v>
       </c>
       <c r="I100" s="3">
-        <v>2359800</v>
+        <v>-2844900</v>
       </c>
       <c r="J100" s="3">
+        <v>2367500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-4876000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4463700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-480000</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-256900</v>
+        <v>678100</v>
       </c>
       <c r="E101" s="3">
-        <v>129600</v>
+        <v>-257800</v>
       </c>
       <c r="F101" s="3">
-        <v>-153800</v>
+        <v>130000</v>
       </c>
       <c r="G101" s="3">
+        <v>-154300</v>
+      </c>
+      <c r="H101" s="3">
         <v>-15900</v>
       </c>
-      <c r="H101" s="3">
-        <v>-762700</v>
-      </c>
       <c r="I101" s="3">
-        <v>704100</v>
+        <v>-765200</v>
       </c>
       <c r="J101" s="3">
+        <v>706400</v>
+      </c>
+      <c r="K101" s="3">
         <v>315300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>525200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-67100</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2237200</v>
+        <v>5300100</v>
       </c>
       <c r="E102" s="3">
-        <v>-2906700</v>
+        <v>2244600</v>
       </c>
       <c r="F102" s="3">
-        <v>-1659800</v>
+        <v>-2916200</v>
       </c>
       <c r="G102" s="3">
-        <v>2364400</v>
+        <v>-1665200</v>
       </c>
       <c r="H102" s="3">
-        <v>-2448300</v>
+        <v>2372100</v>
       </c>
       <c r="I102" s="3">
-        <v>6301500</v>
+        <v>-2456300</v>
       </c>
       <c r="J102" s="3">
+        <v>6322200</v>
+      </c>
+      <c r="K102" s="3">
         <v>881000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-710200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3619800</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PCRFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PCRFY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>PCRFY</t>
   </si>
@@ -722,25 +722,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>61561900</v>
+        <v>61026000</v>
       </c>
       <c r="E8" s="3">
-        <v>68838600</v>
+        <v>68239400</v>
       </c>
       <c r="F8" s="3">
-        <v>73545100</v>
+        <v>72904900</v>
       </c>
       <c r="G8" s="3">
-        <v>73356100</v>
+        <v>72717500</v>
       </c>
       <c r="H8" s="3">
-        <v>67488700</v>
+        <v>66901200</v>
       </c>
       <c r="I8" s="3">
-        <v>70085800</v>
+        <v>69475600</v>
       </c>
       <c r="J8" s="3">
-        <v>70901200</v>
+        <v>70284000</v>
       </c>
       <c r="K8" s="3">
         <v>70866700</v>
@@ -758,25 +758,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>43413000</v>
+        <v>43035100</v>
       </c>
       <c r="E9" s="3">
-        <v>49070500</v>
+        <v>48643400</v>
       </c>
       <c r="F9" s="3">
-        <v>52716000</v>
+        <v>52257100</v>
       </c>
       <c r="G9" s="3">
-        <v>51858700</v>
+        <v>51407300</v>
       </c>
       <c r="H9" s="3">
-        <v>47394300</v>
+        <v>46981800</v>
       </c>
       <c r="I9" s="3">
-        <v>98403500</v>
+        <v>97546800</v>
       </c>
       <c r="J9" s="3">
-        <v>50795100</v>
+        <v>50352900</v>
       </c>
       <c r="K9" s="3">
         <v>51652000</v>
@@ -794,25 +794,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>18148900</v>
+        <v>17990900</v>
       </c>
       <c r="E10" s="3">
-        <v>19768100</v>
+        <v>19596000</v>
       </c>
       <c r="F10" s="3">
-        <v>20829100</v>
+        <v>20647800</v>
       </c>
       <c r="G10" s="3">
-        <v>21497400</v>
+        <v>21310200</v>
       </c>
       <c r="H10" s="3">
-        <v>20094300</v>
+        <v>19919400</v>
       </c>
       <c r="I10" s="3">
-        <v>-28317700</v>
+        <v>-28071200</v>
       </c>
       <c r="J10" s="3">
-        <v>20106100</v>
+        <v>19931100</v>
       </c>
       <c r="K10" s="3">
         <v>19214700</v>
@@ -861,10 +861,10 @@
         <v>8</v>
       </c>
       <c r="I12" s="3">
-        <v>4133900</v>
+        <v>4097900</v>
       </c>
       <c r="J12" s="3">
-        <v>4202100</v>
+        <v>4165500</v>
       </c>
       <c r="K12" s="3">
         <v>4386000</v>
@@ -924,19 +924,19 @@
         <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>-275900</v>
+        <v>-273500</v>
       </c>
       <c r="G14" s="3">
-        <v>52300</v>
+        <v>51900</v>
       </c>
       <c r="H14" s="3">
-        <v>194900</v>
+        <v>193200</v>
       </c>
       <c r="I14" s="3">
-        <v>1292200</v>
+        <v>1280900</v>
       </c>
       <c r="J14" s="3">
-        <v>514900</v>
+        <v>510500</v>
       </c>
       <c r="K14" s="3">
         <v>1024400</v>
@@ -953,26 +953,26 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>1104800</v>
       </c>
       <c r="E15" s="3">
-        <v>1215300</v>
+        <v>1204700</v>
       </c>
       <c r="F15" s="3">
-        <v>780600</v>
+        <v>773800</v>
       </c>
       <c r="G15" s="3">
-        <v>780700</v>
+        <v>773900</v>
       </c>
       <c r="H15" s="3">
-        <v>757700</v>
+        <v>751100</v>
       </c>
       <c r="I15" s="3">
-        <v>2938500</v>
+        <v>2912900</v>
       </c>
       <c r="J15" s="3">
-        <v>2225300</v>
+        <v>2206000</v>
       </c>
       <c r="K15" s="3">
         <v>2553700</v>
@@ -1003,25 +1003,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>59185400</v>
+        <v>58670200</v>
       </c>
       <c r="E17" s="3">
-        <v>66139100</v>
+        <v>65563300</v>
       </c>
       <c r="F17" s="3">
-        <v>69763400</v>
+        <v>69156200</v>
       </c>
       <c r="G17" s="3">
-        <v>69858900</v>
+        <v>69250800</v>
       </c>
       <c r="H17" s="3">
-        <v>64945000</v>
+        <v>64379700</v>
       </c>
       <c r="I17" s="3">
-        <v>67969300</v>
+        <v>67377600</v>
       </c>
       <c r="J17" s="3">
-        <v>67906400</v>
+        <v>67315200</v>
       </c>
       <c r="K17" s="3">
         <v>69096300</v>
@@ -1039,25 +1039,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2376500</v>
+        <v>2355800</v>
       </c>
       <c r="E18" s="3">
-        <v>2699600</v>
+        <v>2676100</v>
       </c>
       <c r="F18" s="3">
-        <v>3781700</v>
+        <v>3748700</v>
       </c>
       <c r="G18" s="3">
-        <v>3497200</v>
+        <v>3466700</v>
       </c>
       <c r="H18" s="3">
-        <v>2543600</v>
+        <v>2521500</v>
       </c>
       <c r="I18" s="3">
-        <v>2116400</v>
+        <v>2098000</v>
       </c>
       <c r="J18" s="3">
-        <v>2994800</v>
+        <v>2968800</v>
       </c>
       <c r="K18" s="3">
         <v>1770500</v>
@@ -1091,25 +1091,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>20400</v>
+        <v>177400</v>
       </c>
       <c r="E20" s="3">
-        <v>288200</v>
+        <v>285700</v>
       </c>
       <c r="F20" s="3">
-        <v>235300</v>
+        <v>233200</v>
       </c>
       <c r="G20" s="3">
-        <v>209300</v>
+        <v>207500</v>
       </c>
       <c r="H20" s="3">
-        <v>200600</v>
+        <v>198900</v>
       </c>
       <c r="I20" s="3">
-        <v>373300</v>
+        <v>370100</v>
       </c>
       <c r="J20" s="3">
-        <v>-1156600</v>
+        <v>-1146600</v>
       </c>
       <c r="K20" s="3">
         <v>319300</v>
@@ -1127,25 +1127,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5318600</v>
+        <v>5426300</v>
       </c>
       <c r="E21" s="3">
-        <v>6419100</v>
+        <v>6359600</v>
       </c>
       <c r="F21" s="3">
-        <v>6740500</v>
+        <v>6678900</v>
       </c>
       <c r="G21" s="3">
-        <v>6353800</v>
+        <v>6295600</v>
       </c>
       <c r="H21" s="3">
-        <v>5235300</v>
+        <v>5187100</v>
       </c>
       <c r="I21" s="3">
-        <v>5051000</v>
+        <v>5004300</v>
       </c>
       <c r="J21" s="3">
-        <v>4474300</v>
+        <v>4432500</v>
       </c>
       <c r="K21" s="3">
         <v>5135700</v>
@@ -1162,26 +1162,26 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>157100</v>
       </c>
       <c r="E22" s="3">
-        <v>313000</v>
+        <v>310300</v>
       </c>
       <c r="F22" s="3">
-        <v>189700</v>
+        <v>188100</v>
       </c>
       <c r="G22" s="3">
-        <v>227200</v>
+        <v>225200</v>
       </c>
       <c r="H22" s="3">
-        <v>216400</v>
+        <v>214500</v>
       </c>
       <c r="I22" s="3">
-        <v>398800</v>
+        <v>395300</v>
       </c>
       <c r="J22" s="3">
-        <v>161400</v>
+        <v>160000</v>
       </c>
       <c r="K22" s="3">
         <v>200700</v>
@@ -1199,25 +1199,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2396900</v>
+        <v>2376100</v>
       </c>
       <c r="E23" s="3">
-        <v>2674700</v>
+        <v>2651500</v>
       </c>
       <c r="F23" s="3">
-        <v>3827200</v>
+        <v>3793900</v>
       </c>
       <c r="G23" s="3">
-        <v>3479200</v>
+        <v>3449000</v>
       </c>
       <c r="H23" s="3">
-        <v>2527900</v>
+        <v>2505900</v>
       </c>
       <c r="I23" s="3">
-        <v>2091000</v>
+        <v>2072800</v>
       </c>
       <c r="J23" s="3">
-        <v>1676800</v>
+        <v>1662200</v>
       </c>
       <c r="K23" s="3">
         <v>1889000</v>
@@ -1235,25 +1235,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>706900</v>
+        <v>700800</v>
       </c>
       <c r="E24" s="3">
-        <v>468800</v>
+        <v>464700</v>
       </c>
       <c r="F24" s="3">
-        <v>1045100</v>
+        <v>1036000</v>
       </c>
       <c r="G24" s="3">
-        <v>1163100</v>
+        <v>1153000</v>
       </c>
       <c r="H24" s="3">
-        <v>943100</v>
+        <v>934900</v>
       </c>
       <c r="I24" s="3">
-        <v>333600</v>
+        <v>330700</v>
       </c>
       <c r="J24" s="3">
-        <v>-18200</v>
+        <v>-18000</v>
       </c>
       <c r="K24" s="3">
         <v>821300</v>
@@ -1307,25 +1307,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1690000</v>
+        <v>1675300</v>
       </c>
       <c r="E26" s="3">
-        <v>2205900</v>
+        <v>2186700</v>
       </c>
       <c r="F26" s="3">
-        <v>2782200</v>
+        <v>2757900</v>
       </c>
       <c r="G26" s="3">
-        <v>2316100</v>
+        <v>2296000</v>
       </c>
       <c r="H26" s="3">
-        <v>1584700</v>
+        <v>1570900</v>
       </c>
       <c r="I26" s="3">
-        <v>1757400</v>
+        <v>1742100</v>
       </c>
       <c r="J26" s="3">
-        <v>1695000</v>
+        <v>1680200</v>
       </c>
       <c r="K26" s="3">
         <v>1067700</v>
@@ -1343,25 +1343,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1517100</v>
+        <v>1503800</v>
       </c>
       <c r="E27" s="3">
-        <v>2074200</v>
+        <v>2056100</v>
       </c>
       <c r="F27" s="3">
-        <v>2611300</v>
+        <v>2588600</v>
       </c>
       <c r="G27" s="3">
-        <v>2169200</v>
+        <v>2150300</v>
       </c>
       <c r="H27" s="3">
-        <v>1372600</v>
+        <v>1360700</v>
       </c>
       <c r="I27" s="3">
-        <v>1433200</v>
+        <v>1420800</v>
       </c>
       <c r="J27" s="3">
-        <v>1649500</v>
+        <v>1635100</v>
       </c>
       <c r="K27" s="3">
         <v>1103200</v>
@@ -1523,25 +1523,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-20400</v>
+        <v>-177400</v>
       </c>
       <c r="E32" s="3">
-        <v>-288200</v>
+        <v>-285700</v>
       </c>
       <c r="F32" s="3">
-        <v>-235300</v>
+        <v>-233200</v>
       </c>
       <c r="G32" s="3">
-        <v>-209300</v>
+        <v>-207500</v>
       </c>
       <c r="H32" s="3">
-        <v>-200600</v>
+        <v>-198900</v>
       </c>
       <c r="I32" s="3">
-        <v>-373300</v>
+        <v>-370100</v>
       </c>
       <c r="J32" s="3">
-        <v>1156600</v>
+        <v>1146600</v>
       </c>
       <c r="K32" s="3">
         <v>-319300</v>
@@ -1559,25 +1559,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1517100</v>
+        <v>1503800</v>
       </c>
       <c r="E33" s="3">
-        <v>2074200</v>
+        <v>2056100</v>
       </c>
       <c r="F33" s="3">
-        <v>2611300</v>
+        <v>2588600</v>
       </c>
       <c r="G33" s="3">
-        <v>2169200</v>
+        <v>2150300</v>
       </c>
       <c r="H33" s="3">
-        <v>1372600</v>
+        <v>1360700</v>
       </c>
       <c r="I33" s="3">
-        <v>1433200</v>
+        <v>1420800</v>
       </c>
       <c r="J33" s="3">
-        <v>1649500</v>
+        <v>1635100</v>
       </c>
       <c r="K33" s="3">
         <v>1103200</v>
@@ -1631,25 +1631,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1517100</v>
+        <v>1503800</v>
       </c>
       <c r="E35" s="3">
-        <v>2074200</v>
+        <v>2056100</v>
       </c>
       <c r="F35" s="3">
-        <v>2611300</v>
+        <v>2588600</v>
       </c>
       <c r="G35" s="3">
-        <v>2169200</v>
+        <v>2150300</v>
       </c>
       <c r="H35" s="3">
-        <v>1372600</v>
+        <v>1360700</v>
       </c>
       <c r="I35" s="3">
-        <v>1433200</v>
+        <v>1420800</v>
       </c>
       <c r="J35" s="3">
-        <v>1649500</v>
+        <v>1635100</v>
       </c>
       <c r="K35" s="3">
         <v>1103200</v>
@@ -1740,25 +1740,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>14641700</v>
+        <v>14514300</v>
       </c>
       <c r="E41" s="3">
-        <v>9341700</v>
+        <v>9260400</v>
       </c>
       <c r="F41" s="3">
-        <v>7097100</v>
+        <v>7035300</v>
       </c>
       <c r="G41" s="3">
-        <v>10013300</v>
+        <v>9926100</v>
       </c>
       <c r="H41" s="3">
-        <v>11678500</v>
+        <v>11576900</v>
       </c>
       <c r="I41" s="3">
-        <v>18628800</v>
+        <v>18466700</v>
       </c>
       <c r="J41" s="3">
-        <v>11936700</v>
+        <v>11832800</v>
       </c>
       <c r="K41" s="3">
         <v>5427000</v>
@@ -1776,22 +1776,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1375100</v>
+        <v>1363100</v>
       </c>
       <c r="E42" s="3">
-        <v>1364100</v>
+        <v>1352300</v>
       </c>
       <c r="F42" s="3">
-        <v>1206700</v>
+        <v>1196200</v>
       </c>
       <c r="G42" s="3">
-        <v>1870700</v>
+        <v>1854400</v>
       </c>
       <c r="H42" s="3">
-        <v>1318900</v>
+        <v>1307500</v>
       </c>
       <c r="I42" s="3">
-        <v>1520900</v>
+        <v>1507700</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -1812,25 +1812,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10976500</v>
+        <v>10880900</v>
       </c>
       <c r="E43" s="3">
-        <v>9660600</v>
+        <v>9576500</v>
       </c>
       <c r="F43" s="3">
-        <v>10941800</v>
+        <v>10846500</v>
       </c>
       <c r="G43" s="3">
-        <v>9548300</v>
+        <v>9465100</v>
       </c>
       <c r="H43" s="3">
-        <v>7784000</v>
+        <v>7716200</v>
       </c>
       <c r="I43" s="3">
-        <v>15246300</v>
+        <v>15113600</v>
       </c>
       <c r="J43" s="3">
-        <v>9117300</v>
+        <v>9038000</v>
       </c>
       <c r="K43" s="3">
         <v>9228100</v>
@@ -1848,25 +1848,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7651300</v>
+        <v>7584700</v>
       </c>
       <c r="E44" s="3">
-        <v>7292400</v>
+        <v>7228900</v>
       </c>
       <c r="F44" s="3">
-        <v>9341100</v>
+        <v>9259700</v>
       </c>
       <c r="G44" s="3">
-        <v>9085300</v>
+        <v>9006200</v>
       </c>
       <c r="H44" s="3">
-        <v>7410000</v>
+        <v>7345500</v>
       </c>
       <c r="I44" s="3">
-        <v>14024800</v>
+        <v>13902800</v>
       </c>
       <c r="J44" s="3">
-        <v>7008900</v>
+        <v>6947900</v>
       </c>
       <c r="K44" s="3">
         <v>6876200</v>
@@ -1884,25 +1884,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1405500</v>
+        <v>1393200</v>
       </c>
       <c r="E45" s="3">
-        <v>3916600</v>
+        <v>3882500</v>
       </c>
       <c r="F45" s="3">
-        <v>1502300</v>
+        <v>1489200</v>
       </c>
       <c r="G45" s="3">
-        <v>1518400</v>
+        <v>1505200</v>
       </c>
       <c r="H45" s="3">
-        <v>1260900</v>
+        <v>1249900</v>
       </c>
       <c r="I45" s="3">
-        <v>5242400</v>
+        <v>5196700</v>
       </c>
       <c r="J45" s="3">
-        <v>3300100</v>
+        <v>3271400</v>
       </c>
       <c r="K45" s="3">
         <v>2779200</v>
@@ -1920,25 +1920,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>36050000</v>
+        <v>35736200</v>
       </c>
       <c r="E46" s="3">
-        <v>31575300</v>
+        <v>31300500</v>
       </c>
       <c r="F46" s="3">
-        <v>30088900</v>
+        <v>29827000</v>
       </c>
       <c r="G46" s="3">
-        <v>32036000</v>
+        <v>31757100</v>
       </c>
       <c r="H46" s="3">
-        <v>29452300</v>
+        <v>29195900</v>
       </c>
       <c r="I46" s="3">
-        <v>26593700</v>
+        <v>26362200</v>
       </c>
       <c r="J46" s="3">
-        <v>31363100</v>
+        <v>31090100</v>
       </c>
       <c r="K46" s="3">
         <v>24310600</v>
@@ -1956,25 +1956,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6313400</v>
+        <v>6258400</v>
       </c>
       <c r="E47" s="3">
-        <v>4798600</v>
+        <v>4756900</v>
       </c>
       <c r="F47" s="3">
-        <v>3241400</v>
+        <v>3213200</v>
       </c>
       <c r="G47" s="3">
-        <v>2889600</v>
+        <v>2864400</v>
       </c>
       <c r="H47" s="3">
-        <v>2922200</v>
+        <v>2896700</v>
       </c>
       <c r="I47" s="3">
-        <v>6015700</v>
+        <v>5963300</v>
       </c>
       <c r="J47" s="3">
-        <v>2882600</v>
+        <v>2857500</v>
       </c>
       <c r="K47" s="3">
         <v>2489700</v>
@@ -1992,25 +1992,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12053300</v>
+        <v>11948400</v>
       </c>
       <c r="E48" s="3">
-        <v>11907500</v>
+        <v>11803900</v>
       </c>
       <c r="F48" s="3">
-        <v>12171000</v>
+        <v>12065000</v>
       </c>
       <c r="G48" s="3">
-        <v>12627700</v>
+        <v>12517700</v>
       </c>
       <c r="H48" s="3">
-        <v>12161000</v>
+        <v>12055100</v>
       </c>
       <c r="I48" s="3">
-        <v>23796700</v>
+        <v>23589500</v>
       </c>
       <c r="J48" s="3">
-        <v>12634700</v>
+        <v>12524700</v>
       </c>
       <c r="K48" s="3">
         <v>13057100</v>
@@ -2027,26 +2027,26 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
+      <c r="D49" s="3">
+        <v>5484600</v>
       </c>
       <c r="E49" s="3">
-        <v>5703400</v>
+        <v>5653800</v>
       </c>
       <c r="F49" s="3">
-        <v>6612700</v>
+        <v>6555200</v>
       </c>
       <c r="G49" s="3">
-        <v>6784500</v>
+        <v>6725500</v>
       </c>
       <c r="H49" s="3">
-        <v>6112600</v>
+        <v>6059400</v>
       </c>
       <c r="I49" s="3">
-        <v>10034000</v>
+        <v>9946700</v>
       </c>
       <c r="J49" s="3">
-        <v>5789700</v>
+        <v>5739300</v>
       </c>
       <c r="K49" s="3">
         <v>6183600</v>
@@ -2136,25 +2136,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8507900</v>
+        <v>2949200</v>
       </c>
       <c r="E52" s="3">
-        <v>3163300</v>
+        <v>3135700</v>
       </c>
       <c r="F52" s="3">
-        <v>3154000</v>
+        <v>3126500</v>
       </c>
       <c r="G52" s="3">
-        <v>3477900</v>
+        <v>3447700</v>
       </c>
       <c r="H52" s="3">
-        <v>4335400</v>
+        <v>4297700</v>
       </c>
       <c r="I52" s="3">
-        <v>7361600</v>
+        <v>7297500</v>
       </c>
       <c r="J52" s="3">
-        <v>2074200</v>
+        <v>2056200</v>
       </c>
       <c r="K52" s="3">
         <v>1710000</v>
@@ -2208,25 +2208,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>62924600</v>
+        <v>62376800</v>
       </c>
       <c r="E54" s="3">
-        <v>57148200</v>
+        <v>56650700</v>
       </c>
       <c r="F54" s="3">
-        <v>55268000</v>
+        <v>54786900</v>
       </c>
       <c r="G54" s="3">
-        <v>57815700</v>
+        <v>57312400</v>
       </c>
       <c r="H54" s="3">
-        <v>54983400</v>
+        <v>54504800</v>
       </c>
       <c r="I54" s="3">
-        <v>50434900</v>
+        <v>49995900</v>
       </c>
       <c r="J54" s="3">
-        <v>54744300</v>
+        <v>54267800</v>
       </c>
       <c r="K54" s="3">
         <v>47751000</v>
@@ -2276,25 +2276,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9609200</v>
+        <v>9525600</v>
       </c>
       <c r="E57" s="3">
-        <v>8911500</v>
+        <v>8833900</v>
       </c>
       <c r="F57" s="3">
-        <v>10579300</v>
+        <v>10487200</v>
       </c>
       <c r="G57" s="3">
-        <v>10536100</v>
+        <v>10444400</v>
       </c>
       <c r="H57" s="3">
-        <v>8785300</v>
+        <v>8708800</v>
       </c>
       <c r="I57" s="3">
-        <v>16883600</v>
+        <v>16736600</v>
       </c>
       <c r="J57" s="3">
-        <v>9036600</v>
+        <v>8957900</v>
       </c>
       <c r="K57" s="3">
         <v>8583100</v>
@@ -2312,25 +2312,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3392400</v>
+        <v>3362800</v>
       </c>
       <c r="E58" s="3">
-        <v>2894800</v>
+        <v>2869600</v>
       </c>
       <c r="F58" s="3">
-        <v>3583700</v>
+        <v>3552500</v>
       </c>
       <c r="G58" s="3">
-        <v>3449900</v>
+        <v>3419800</v>
       </c>
       <c r="H58" s="3">
-        <v>1627000</v>
+        <v>1612800</v>
       </c>
       <c r="I58" s="3">
-        <v>399400</v>
+        <v>395900</v>
       </c>
       <c r="J58" s="3">
-        <v>2394300</v>
+        <v>2373400</v>
       </c>
       <c r="K58" s="3">
         <v>776200</v>
@@ -2348,25 +2348,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12770200</v>
+        <v>12659000</v>
       </c>
       <c r="E59" s="3">
-        <v>12235700</v>
+        <v>12129200</v>
       </c>
       <c r="F59" s="3">
-        <v>13310100</v>
+        <v>13194200</v>
       </c>
       <c r="G59" s="3">
-        <v>14484100</v>
+        <v>14358000</v>
       </c>
       <c r="H59" s="3">
-        <v>14511600</v>
+        <v>14385200</v>
       </c>
       <c r="I59" s="3">
-        <v>27419400</v>
+        <v>27180700</v>
       </c>
       <c r="J59" s="3">
-        <v>13683600</v>
+        <v>13564500</v>
       </c>
       <c r="K59" s="3">
         <v>12971500</v>
@@ -2384,25 +2384,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>25771800</v>
+        <v>25547400</v>
       </c>
       <c r="E60" s="3">
-        <v>24042000</v>
+        <v>23832700</v>
       </c>
       <c r="F60" s="3">
-        <v>27473000</v>
+        <v>27233900</v>
       </c>
       <c r="G60" s="3">
-        <v>28470000</v>
+        <v>28222200</v>
       </c>
       <c r="H60" s="3">
-        <v>24923900</v>
+        <v>24706900</v>
       </c>
       <c r="I60" s="3">
-        <v>22821900</v>
+        <v>22623200</v>
       </c>
       <c r="J60" s="3">
-        <v>25114400</v>
+        <v>24895800</v>
       </c>
       <c r="K60" s="3">
         <v>22330800</v>
@@ -2420,25 +2420,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9909500</v>
+        <v>9823200</v>
       </c>
       <c r="E61" s="3">
-        <v>10626500</v>
+        <v>10534000</v>
       </c>
       <c r="F61" s="3">
-        <v>5594600</v>
+        <v>5545900</v>
       </c>
       <c r="G61" s="3">
-        <v>7940600</v>
+        <v>7871500</v>
       </c>
       <c r="H61" s="3">
-        <v>8702600</v>
+        <v>8626900</v>
       </c>
       <c r="I61" s="3">
-        <v>6461600</v>
+        <v>6405400</v>
       </c>
       <c r="J61" s="3">
-        <v>6546800</v>
+        <v>6489800</v>
       </c>
       <c r="K61" s="3">
         <v>5105500</v>
@@ -2456,25 +2456,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1800800</v>
+        <v>1785200</v>
       </c>
       <c r="E62" s="3">
-        <v>2667200</v>
+        <v>2644000</v>
       </c>
       <c r="F62" s="3">
-        <v>3042800</v>
+        <v>3016300</v>
       </c>
       <c r="G62" s="3">
-        <v>4106800</v>
+        <v>4071000</v>
       </c>
       <c r="H62" s="3">
-        <v>5183100</v>
+        <v>5138000</v>
       </c>
       <c r="I62" s="3">
-        <v>12056500</v>
+        <v>11951500</v>
       </c>
       <c r="J62" s="3">
-        <v>4771500</v>
+        <v>4730000</v>
       </c>
       <c r="K62" s="3">
         <v>5782900</v>
@@ -2600,25 +2600,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>39085400</v>
+        <v>38745200</v>
       </c>
       <c r="E66" s="3">
-        <v>38783400</v>
+        <v>38445700</v>
       </c>
       <c r="F66" s="3">
-        <v>37682800</v>
+        <v>37354800</v>
       </c>
       <c r="G66" s="3">
-        <v>42123300</v>
+        <v>41756600</v>
       </c>
       <c r="H66" s="3">
-        <v>40537800</v>
+        <v>40184900</v>
       </c>
       <c r="I66" s="3">
-        <v>37160500</v>
+        <v>36837000</v>
       </c>
       <c r="J66" s="3">
-        <v>37988300</v>
+        <v>37657600</v>
       </c>
       <c r="K66" s="3">
         <v>33570000</v>
@@ -2796,25 +2796,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>19795500</v>
+        <v>19623100</v>
       </c>
       <c r="E72" s="3">
-        <v>15130400</v>
+        <v>14998700</v>
       </c>
       <c r="F72" s="3">
-        <v>13793000</v>
+        <v>13672900</v>
       </c>
       <c r="G72" s="3">
-        <v>11950100</v>
+        <v>11846100</v>
       </c>
       <c r="H72" s="3">
-        <v>9662800</v>
+        <v>9578700</v>
       </c>
       <c r="I72" s="3">
-        <v>18779700</v>
+        <v>18616200</v>
       </c>
       <c r="J72" s="3">
-        <v>9385200</v>
+        <v>9303500</v>
       </c>
       <c r="K72" s="3">
         <v>8049300</v>
@@ -2940,25 +2940,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>23839200</v>
+        <v>23631600</v>
       </c>
       <c r="E76" s="3">
-        <v>18364800</v>
+        <v>18205000</v>
       </c>
       <c r="F76" s="3">
-        <v>17585200</v>
+        <v>17432100</v>
       </c>
       <c r="G76" s="3">
-        <v>15692400</v>
+        <v>15555800</v>
       </c>
       <c r="H76" s="3">
-        <v>14445700</v>
+        <v>14319900</v>
       </c>
       <c r="I76" s="3">
-        <v>13274400</v>
+        <v>13158900</v>
       </c>
       <c r="J76" s="3">
-        <v>16756100</v>
+        <v>16610200</v>
       </c>
       <c r="K76" s="3">
         <v>14181100</v>
@@ -3053,25 +3053,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1517100</v>
+        <v>1503800</v>
       </c>
       <c r="E81" s="3">
-        <v>2074200</v>
+        <v>2056100</v>
       </c>
       <c r="F81" s="3">
-        <v>2611300</v>
+        <v>2588600</v>
       </c>
       <c r="G81" s="3">
-        <v>2169200</v>
+        <v>2150300</v>
       </c>
       <c r="H81" s="3">
-        <v>1372600</v>
+        <v>1360700</v>
       </c>
       <c r="I81" s="3">
-        <v>1433200</v>
+        <v>1420800</v>
       </c>
       <c r="J81" s="3">
-        <v>1649500</v>
+        <v>1635100</v>
       </c>
       <c r="K81" s="3">
         <v>1103200</v>
@@ -3105,25 +3105,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2918500</v>
+        <v>2893100</v>
       </c>
       <c r="E83" s="3">
-        <v>3427600</v>
+        <v>3397800</v>
       </c>
       <c r="F83" s="3">
-        <v>2720600</v>
+        <v>2696900</v>
       </c>
       <c r="G83" s="3">
-        <v>2644500</v>
+        <v>2621400</v>
       </c>
       <c r="H83" s="3">
-        <v>2488300</v>
+        <v>2466700</v>
       </c>
       <c r="I83" s="3">
-        <v>2558400</v>
+        <v>2536100</v>
       </c>
       <c r="J83" s="3">
-        <v>2633200</v>
+        <v>2610300</v>
       </c>
       <c r="K83" s="3">
         <v>3032700</v>
@@ -3321,25 +3321,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4632100</v>
+        <v>4587300</v>
       </c>
       <c r="E89" s="3">
-        <v>3953200</v>
+        <v>3918800</v>
       </c>
       <c r="F89" s="3">
-        <v>1871800</v>
+        <v>1855500</v>
       </c>
       <c r="G89" s="3">
-        <v>3889000</v>
+        <v>3855200</v>
       </c>
       <c r="H89" s="3">
-        <v>3541900</v>
+        <v>3511100</v>
       </c>
       <c r="I89" s="3">
-        <v>3853900</v>
+        <v>3820300</v>
       </c>
       <c r="J89" s="3">
-        <v>4516500</v>
+        <v>4477200</v>
       </c>
       <c r="K89" s="3">
         <v>5330700</v>
@@ -3373,25 +3373,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2124000</v>
+        <v>-2105500</v>
       </c>
       <c r="E91" s="3">
-        <v>-2517300</v>
+        <v>-2495400</v>
       </c>
       <c r="F91" s="3">
-        <v>-2904800</v>
+        <v>-2879500</v>
       </c>
       <c r="G91" s="3">
-        <v>-3625300</v>
+        <v>-3593800</v>
       </c>
       <c r="H91" s="3">
-        <v>-2560300</v>
+        <v>-2538000</v>
       </c>
       <c r="I91" s="3">
-        <v>-4476500</v>
+        <v>-4437500</v>
       </c>
       <c r="J91" s="3">
-        <v>-2060000</v>
+        <v>-2042100</v>
       </c>
       <c r="K91" s="3">
         <v>-1847900</v>
@@ -3481,25 +3481,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1622900</v>
+        <v>1608800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1894000</v>
+        <v>-1877500</v>
       </c>
       <c r="F94" s="3">
-        <v>-1777200</v>
+        <v>-1761800</v>
       </c>
       <c r="G94" s="3">
-        <v>-4216600</v>
+        <v>-4179900</v>
       </c>
       <c r="H94" s="3">
-        <v>-3861200</v>
+        <v>-3827600</v>
       </c>
       <c r="I94" s="3">
-        <v>-2700100</v>
+        <v>-2676600</v>
       </c>
       <c r="J94" s="3">
-        <v>-1268300</v>
+        <v>-1257300</v>
       </c>
       <c r="K94" s="3">
         <v>111100</v>
@@ -3533,25 +3533,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-536000</v>
+        <v>-531400</v>
       </c>
       <c r="E96" s="3">
-        <v>-643100</v>
+        <v>-637500</v>
       </c>
       <c r="F96" s="3">
-        <v>-750200</v>
+        <v>-743700</v>
       </c>
       <c r="G96" s="3">
-        <v>-535900</v>
+        <v>-531200</v>
       </c>
       <c r="H96" s="3">
-        <v>-533200</v>
+        <v>-528600</v>
       </c>
       <c r="I96" s="3">
-        <v>-425700</v>
+        <v>-422000</v>
       </c>
       <c r="J96" s="3">
-        <v>-339900</v>
+        <v>-336900</v>
       </c>
       <c r="K96" s="3">
         <v>-105900</v>
@@ -3677,25 +3677,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1633100</v>
+        <v>-1618900</v>
       </c>
       <c r="E100" s="3">
-        <v>443200</v>
+        <v>439300</v>
       </c>
       <c r="F100" s="3">
-        <v>-3140800</v>
+        <v>-3113400</v>
       </c>
       <c r="G100" s="3">
-        <v>-1183300</v>
+        <v>-1173000</v>
       </c>
       <c r="H100" s="3">
-        <v>2707400</v>
+        <v>2683800</v>
       </c>
       <c r="I100" s="3">
-        <v>-2844900</v>
+        <v>-2820100</v>
       </c>
       <c r="J100" s="3">
-        <v>2367500</v>
+        <v>2346900</v>
       </c>
       <c r="K100" s="3">
         <v>-4876000</v>
@@ -3713,25 +3713,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>678100</v>
+        <v>676700</v>
       </c>
       <c r="E101" s="3">
-        <v>-257800</v>
+        <v>-255500</v>
       </c>
       <c r="F101" s="3">
-        <v>130000</v>
+        <v>128900</v>
       </c>
       <c r="G101" s="3">
-        <v>-154300</v>
+        <v>-153000</v>
       </c>
       <c r="H101" s="3">
-        <v>-15900</v>
+        <v>-15800</v>
       </c>
       <c r="I101" s="3">
-        <v>-765200</v>
+        <v>-758500</v>
       </c>
       <c r="J101" s="3">
-        <v>706400</v>
+        <v>700300</v>
       </c>
       <c r="K101" s="3">
         <v>315300</v>
@@ -3749,25 +3749,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5300100</v>
+        <v>5253900</v>
       </c>
       <c r="E102" s="3">
-        <v>2244600</v>
+        <v>2225000</v>
       </c>
       <c r="F102" s="3">
-        <v>-2916200</v>
+        <v>-2890800</v>
       </c>
       <c r="G102" s="3">
-        <v>-1665200</v>
+        <v>-1650800</v>
       </c>
       <c r="H102" s="3">
-        <v>2372100</v>
+        <v>2351500</v>
       </c>
       <c r="I102" s="3">
-        <v>-2456300</v>
+        <v>-2434900</v>
       </c>
       <c r="J102" s="3">
-        <v>6322200</v>
+        <v>6267100</v>
       </c>
       <c r="K102" s="3">
         <v>881000</v>

--- a/AAII_Financials/Yearly/PCRFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PCRFY_YR_FIN.xlsx
@@ -722,25 +722,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>61026000</v>
+        <v>59016400</v>
       </c>
       <c r="E8" s="3">
-        <v>68239400</v>
+        <v>65992200</v>
       </c>
       <c r="F8" s="3">
-        <v>72904900</v>
+        <v>70504100</v>
       </c>
       <c r="G8" s="3">
-        <v>72717500</v>
+        <v>70322900</v>
       </c>
       <c r="H8" s="3">
-        <v>66901200</v>
+        <v>64698100</v>
       </c>
       <c r="I8" s="3">
-        <v>69475600</v>
+        <v>67187800</v>
       </c>
       <c r="J8" s="3">
-        <v>70284000</v>
+        <v>67969500</v>
       </c>
       <c r="K8" s="3">
         <v>70866700</v>
@@ -758,25 +758,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>43035100</v>
+        <v>41617900</v>
       </c>
       <c r="E9" s="3">
-        <v>48643400</v>
+        <v>47041500</v>
       </c>
       <c r="F9" s="3">
-        <v>52257100</v>
+        <v>50536200</v>
       </c>
       <c r="G9" s="3">
-        <v>51407300</v>
+        <v>49714400</v>
       </c>
       <c r="H9" s="3">
-        <v>46981800</v>
+        <v>45434600</v>
       </c>
       <c r="I9" s="3">
-        <v>97546800</v>
+        <v>94334500</v>
       </c>
       <c r="J9" s="3">
-        <v>50352900</v>
+        <v>48694700</v>
       </c>
       <c r="K9" s="3">
         <v>51652000</v>
@@ -794,25 +794,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>17990900</v>
+        <v>17398400</v>
       </c>
       <c r="E10" s="3">
-        <v>19596000</v>
+        <v>18950700</v>
       </c>
       <c r="F10" s="3">
-        <v>20647800</v>
+        <v>19967900</v>
       </c>
       <c r="G10" s="3">
-        <v>21310200</v>
+        <v>20608500</v>
       </c>
       <c r="H10" s="3">
-        <v>19919400</v>
+        <v>19263500</v>
       </c>
       <c r="I10" s="3">
-        <v>-28071200</v>
+        <v>-27146800</v>
       </c>
       <c r="J10" s="3">
-        <v>19931100</v>
+        <v>19274700</v>
       </c>
       <c r="K10" s="3">
         <v>19214700</v>
@@ -861,10 +861,10 @@
         <v>8</v>
       </c>
       <c r="I12" s="3">
-        <v>4097900</v>
+        <v>3963000</v>
       </c>
       <c r="J12" s="3">
-        <v>4165500</v>
+        <v>4028400</v>
       </c>
       <c r="K12" s="3">
         <v>4386000</v>
@@ -924,19 +924,19 @@
         <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>-273500</v>
+        <v>-264500</v>
       </c>
       <c r="G14" s="3">
-        <v>51900</v>
+        <v>50200</v>
       </c>
       <c r="H14" s="3">
-        <v>193200</v>
+        <v>186800</v>
       </c>
       <c r="I14" s="3">
-        <v>1280900</v>
+        <v>1238800</v>
       </c>
       <c r="J14" s="3">
-        <v>510500</v>
+        <v>493700</v>
       </c>
       <c r="K14" s="3">
         <v>1024400</v>
@@ -954,25 +954,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1104800</v>
+        <v>1068400</v>
       </c>
       <c r="E15" s="3">
-        <v>1204700</v>
+        <v>1165100</v>
       </c>
       <c r="F15" s="3">
-        <v>773800</v>
+        <v>748300</v>
       </c>
       <c r="G15" s="3">
-        <v>773900</v>
+        <v>748400</v>
       </c>
       <c r="H15" s="3">
-        <v>751100</v>
+        <v>726400</v>
       </c>
       <c r="I15" s="3">
-        <v>2912900</v>
+        <v>2817000</v>
       </c>
       <c r="J15" s="3">
-        <v>2206000</v>
+        <v>2133300</v>
       </c>
       <c r="K15" s="3">
         <v>2553700</v>
@@ -1003,25 +1003,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>58670200</v>
+        <v>56738100</v>
       </c>
       <c r="E17" s="3">
-        <v>65563300</v>
+        <v>63404200</v>
       </c>
       <c r="F17" s="3">
-        <v>69156200</v>
+        <v>66878800</v>
       </c>
       <c r="G17" s="3">
-        <v>69250800</v>
+        <v>66970300</v>
       </c>
       <c r="H17" s="3">
-        <v>64379700</v>
+        <v>62259600</v>
       </c>
       <c r="I17" s="3">
-        <v>67377600</v>
+        <v>65158800</v>
       </c>
       <c r="J17" s="3">
-        <v>67315200</v>
+        <v>65098500</v>
       </c>
       <c r="K17" s="3">
         <v>69096300</v>
@@ -1039,25 +1039,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2355800</v>
+        <v>2278300</v>
       </c>
       <c r="E18" s="3">
-        <v>2676100</v>
+        <v>2587900</v>
       </c>
       <c r="F18" s="3">
-        <v>3748700</v>
+        <v>3625300</v>
       </c>
       <c r="G18" s="3">
-        <v>3466700</v>
+        <v>3352500</v>
       </c>
       <c r="H18" s="3">
-        <v>2521500</v>
+        <v>2438500</v>
       </c>
       <c r="I18" s="3">
-        <v>2098000</v>
+        <v>2028900</v>
       </c>
       <c r="J18" s="3">
-        <v>2968800</v>
+        <v>2871000</v>
       </c>
       <c r="K18" s="3">
         <v>1770500</v>
@@ -1091,25 +1091,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>177400</v>
+        <v>171500</v>
       </c>
       <c r="E20" s="3">
-        <v>285700</v>
+        <v>276300</v>
       </c>
       <c r="F20" s="3">
-        <v>233200</v>
+        <v>225600</v>
       </c>
       <c r="G20" s="3">
-        <v>207500</v>
+        <v>200600</v>
       </c>
       <c r="H20" s="3">
-        <v>198900</v>
+        <v>192300</v>
       </c>
       <c r="I20" s="3">
-        <v>370100</v>
+        <v>357900</v>
       </c>
       <c r="J20" s="3">
-        <v>-1146600</v>
+        <v>-1108800</v>
       </c>
       <c r="K20" s="3">
         <v>319300</v>
@@ -1127,25 +1127,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5426300</v>
+        <v>5253900</v>
       </c>
       <c r="E21" s="3">
-        <v>6359600</v>
+        <v>6157600</v>
       </c>
       <c r="F21" s="3">
-        <v>6678900</v>
+        <v>6464900</v>
       </c>
       <c r="G21" s="3">
-        <v>6295600</v>
+        <v>6094000</v>
       </c>
       <c r="H21" s="3">
-        <v>5187100</v>
+        <v>5021700</v>
       </c>
       <c r="I21" s="3">
-        <v>5004300</v>
+        <v>4845000</v>
       </c>
       <c r="J21" s="3">
-        <v>4432500</v>
+        <v>4292200</v>
       </c>
       <c r="K21" s="3">
         <v>5135700</v>
@@ -1163,25 +1163,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>157100</v>
+        <v>152000</v>
       </c>
       <c r="E22" s="3">
-        <v>310300</v>
+        <v>300100</v>
       </c>
       <c r="F22" s="3">
-        <v>188100</v>
+        <v>181900</v>
       </c>
       <c r="G22" s="3">
-        <v>225200</v>
+        <v>217800</v>
       </c>
       <c r="H22" s="3">
-        <v>214500</v>
+        <v>207500</v>
       </c>
       <c r="I22" s="3">
-        <v>395300</v>
+        <v>382300</v>
       </c>
       <c r="J22" s="3">
-        <v>160000</v>
+        <v>154800</v>
       </c>
       <c r="K22" s="3">
         <v>200700</v>
@@ -1199,25 +1199,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2376100</v>
+        <v>2297800</v>
       </c>
       <c r="E23" s="3">
-        <v>2651500</v>
+        <v>2564200</v>
       </c>
       <c r="F23" s="3">
-        <v>3793900</v>
+        <v>3669000</v>
       </c>
       <c r="G23" s="3">
-        <v>3449000</v>
+        <v>3335400</v>
       </c>
       <c r="H23" s="3">
-        <v>2505900</v>
+        <v>2423300</v>
       </c>
       <c r="I23" s="3">
-        <v>2072800</v>
+        <v>2004500</v>
       </c>
       <c r="J23" s="3">
-        <v>1662200</v>
+        <v>1607400</v>
       </c>
       <c r="K23" s="3">
         <v>1889000</v>
@@ -1235,25 +1235,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>700800</v>
+        <v>677700</v>
       </c>
       <c r="E24" s="3">
-        <v>464700</v>
+        <v>449400</v>
       </c>
       <c r="F24" s="3">
-        <v>1036000</v>
+        <v>1001900</v>
       </c>
       <c r="G24" s="3">
-        <v>1153000</v>
+        <v>1115000</v>
       </c>
       <c r="H24" s="3">
-        <v>934900</v>
+        <v>904100</v>
       </c>
       <c r="I24" s="3">
-        <v>330700</v>
+        <v>319800</v>
       </c>
       <c r="J24" s="3">
-        <v>-18000</v>
+        <v>-17500</v>
       </c>
       <c r="K24" s="3">
         <v>821300</v>
@@ -1307,25 +1307,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1675300</v>
+        <v>1620100</v>
       </c>
       <c r="E26" s="3">
-        <v>2186700</v>
+        <v>2114700</v>
       </c>
       <c r="F26" s="3">
-        <v>2757900</v>
+        <v>2667100</v>
       </c>
       <c r="G26" s="3">
-        <v>2296000</v>
+        <v>2220400</v>
       </c>
       <c r="H26" s="3">
-        <v>1570900</v>
+        <v>1519200</v>
       </c>
       <c r="I26" s="3">
-        <v>1742100</v>
+        <v>1684800</v>
       </c>
       <c r="J26" s="3">
-        <v>1680200</v>
+        <v>1624900</v>
       </c>
       <c r="K26" s="3">
         <v>1067700</v>
@@ -1343,25 +1343,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1503800</v>
+        <v>1454300</v>
       </c>
       <c r="E27" s="3">
-        <v>2056100</v>
+        <v>1988400</v>
       </c>
       <c r="F27" s="3">
-        <v>2588600</v>
+        <v>2503400</v>
       </c>
       <c r="G27" s="3">
-        <v>2150300</v>
+        <v>2079500</v>
       </c>
       <c r="H27" s="3">
-        <v>1360700</v>
+        <v>1315900</v>
       </c>
       <c r="I27" s="3">
-        <v>1420800</v>
+        <v>1374000</v>
       </c>
       <c r="J27" s="3">
-        <v>1635100</v>
+        <v>1581300</v>
       </c>
       <c r="K27" s="3">
         <v>1103200</v>
@@ -1523,25 +1523,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-177400</v>
+        <v>-171500</v>
       </c>
       <c r="E32" s="3">
-        <v>-285700</v>
+        <v>-276300</v>
       </c>
       <c r="F32" s="3">
-        <v>-233200</v>
+        <v>-225600</v>
       </c>
       <c r="G32" s="3">
-        <v>-207500</v>
+        <v>-200600</v>
       </c>
       <c r="H32" s="3">
-        <v>-198900</v>
+        <v>-192300</v>
       </c>
       <c r="I32" s="3">
-        <v>-370100</v>
+        <v>-357900</v>
       </c>
       <c r="J32" s="3">
-        <v>1146600</v>
+        <v>1108800</v>
       </c>
       <c r="K32" s="3">
         <v>-319300</v>
@@ -1559,25 +1559,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1503800</v>
+        <v>1454300</v>
       </c>
       <c r="E33" s="3">
-        <v>2056100</v>
+        <v>1988400</v>
       </c>
       <c r="F33" s="3">
-        <v>2588600</v>
+        <v>2503400</v>
       </c>
       <c r="G33" s="3">
-        <v>2150300</v>
+        <v>2079500</v>
       </c>
       <c r="H33" s="3">
-        <v>1360700</v>
+        <v>1315900</v>
       </c>
       <c r="I33" s="3">
-        <v>1420800</v>
+        <v>1374000</v>
       </c>
       <c r="J33" s="3">
-        <v>1635100</v>
+        <v>1581300</v>
       </c>
       <c r="K33" s="3">
         <v>1103200</v>
@@ -1631,25 +1631,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1503800</v>
+        <v>1454300</v>
       </c>
       <c r="E35" s="3">
-        <v>2056100</v>
+        <v>1988400</v>
       </c>
       <c r="F35" s="3">
-        <v>2588600</v>
+        <v>2503400</v>
       </c>
       <c r="G35" s="3">
-        <v>2150300</v>
+        <v>2079500</v>
       </c>
       <c r="H35" s="3">
-        <v>1360700</v>
+        <v>1315900</v>
       </c>
       <c r="I35" s="3">
-        <v>1420800</v>
+        <v>1374000</v>
       </c>
       <c r="J35" s="3">
-        <v>1635100</v>
+        <v>1581300</v>
       </c>
       <c r="K35" s="3">
         <v>1103200</v>
@@ -1740,25 +1740,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>14514300</v>
+        <v>14036300</v>
       </c>
       <c r="E41" s="3">
-        <v>9260400</v>
+        <v>8955400</v>
       </c>
       <c r="F41" s="3">
-        <v>7035300</v>
+        <v>6803600</v>
       </c>
       <c r="G41" s="3">
-        <v>9926100</v>
+        <v>9599200</v>
       </c>
       <c r="H41" s="3">
-        <v>11576900</v>
+        <v>11195600</v>
       </c>
       <c r="I41" s="3">
-        <v>18466700</v>
+        <v>17858500</v>
       </c>
       <c r="J41" s="3">
-        <v>11832800</v>
+        <v>11443100</v>
       </c>
       <c r="K41" s="3">
         <v>5427000</v>
@@ -1776,22 +1776,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1363100</v>
+        <v>1318200</v>
       </c>
       <c r="E42" s="3">
-        <v>1352300</v>
+        <v>1307700</v>
       </c>
       <c r="F42" s="3">
-        <v>1196200</v>
+        <v>1156800</v>
       </c>
       <c r="G42" s="3">
-        <v>1854400</v>
+        <v>1793300</v>
       </c>
       <c r="H42" s="3">
-        <v>1307500</v>
+        <v>1264400</v>
       </c>
       <c r="I42" s="3">
-        <v>1507700</v>
+        <v>1458000</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -1812,25 +1812,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10880900</v>
+        <v>10522600</v>
       </c>
       <c r="E43" s="3">
-        <v>9576500</v>
+        <v>9261100</v>
       </c>
       <c r="F43" s="3">
-        <v>10846500</v>
+        <v>10489400</v>
       </c>
       <c r="G43" s="3">
-        <v>9465100</v>
+        <v>9153400</v>
       </c>
       <c r="H43" s="3">
-        <v>7716200</v>
+        <v>7462100</v>
       </c>
       <c r="I43" s="3">
-        <v>15113600</v>
+        <v>14615900</v>
       </c>
       <c r="J43" s="3">
-        <v>9038000</v>
+        <v>8740300</v>
       </c>
       <c r="K43" s="3">
         <v>9228100</v>
@@ -1848,25 +1848,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7584700</v>
+        <v>7334900</v>
       </c>
       <c r="E44" s="3">
-        <v>7228900</v>
+        <v>6990900</v>
       </c>
       <c r="F44" s="3">
-        <v>9259700</v>
+        <v>8954800</v>
       </c>
       <c r="G44" s="3">
-        <v>9006200</v>
+        <v>8709600</v>
       </c>
       <c r="H44" s="3">
-        <v>7345500</v>
+        <v>7103600</v>
       </c>
       <c r="I44" s="3">
-        <v>13902800</v>
+        <v>13444900</v>
       </c>
       <c r="J44" s="3">
-        <v>6947900</v>
+        <v>6719100</v>
       </c>
       <c r="K44" s="3">
         <v>6876200</v>
@@ -1884,25 +1884,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1393200</v>
+        <v>1347300</v>
       </c>
       <c r="E45" s="3">
-        <v>3882500</v>
+        <v>3754600</v>
       </c>
       <c r="F45" s="3">
-        <v>1489200</v>
+        <v>1440100</v>
       </c>
       <c r="G45" s="3">
-        <v>1505200</v>
+        <v>1455600</v>
       </c>
       <c r="H45" s="3">
-        <v>1249900</v>
+        <v>1208700</v>
       </c>
       <c r="I45" s="3">
-        <v>5196700</v>
+        <v>5025600</v>
       </c>
       <c r="J45" s="3">
-        <v>3271400</v>
+        <v>3163700</v>
       </c>
       <c r="K45" s="3">
         <v>2779200</v>
@@ -1920,25 +1920,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>35736200</v>
+        <v>34559400</v>
       </c>
       <c r="E46" s="3">
-        <v>31300500</v>
+        <v>30269700</v>
       </c>
       <c r="F46" s="3">
-        <v>29827000</v>
+        <v>28844800</v>
       </c>
       <c r="G46" s="3">
-        <v>31757100</v>
+        <v>30711300</v>
       </c>
       <c r="H46" s="3">
-        <v>29195900</v>
+        <v>28234500</v>
       </c>
       <c r="I46" s="3">
-        <v>26362200</v>
+        <v>25494000</v>
       </c>
       <c r="J46" s="3">
-        <v>31090100</v>
+        <v>30066200</v>
       </c>
       <c r="K46" s="3">
         <v>24310600</v>
@@ -1956,25 +1956,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6258400</v>
+        <v>6052300</v>
       </c>
       <c r="E47" s="3">
-        <v>4756900</v>
+        <v>4600200</v>
       </c>
       <c r="F47" s="3">
-        <v>3213200</v>
+        <v>3107400</v>
       </c>
       <c r="G47" s="3">
-        <v>2864400</v>
+        <v>2770100</v>
       </c>
       <c r="H47" s="3">
-        <v>2896700</v>
+        <v>2801300</v>
       </c>
       <c r="I47" s="3">
-        <v>5963300</v>
+        <v>5766900</v>
       </c>
       <c r="J47" s="3">
-        <v>2857500</v>
+        <v>2763400</v>
       </c>
       <c r="K47" s="3">
         <v>2489700</v>
@@ -1992,25 +1992,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11948400</v>
+        <v>11554900</v>
       </c>
       <c r="E48" s="3">
-        <v>11803900</v>
+        <v>11415200</v>
       </c>
       <c r="F48" s="3">
-        <v>12065000</v>
+        <v>11667700</v>
       </c>
       <c r="G48" s="3">
-        <v>12517700</v>
+        <v>12105500</v>
       </c>
       <c r="H48" s="3">
-        <v>12055100</v>
+        <v>11658100</v>
       </c>
       <c r="I48" s="3">
-        <v>23589500</v>
+        <v>22812700</v>
       </c>
       <c r="J48" s="3">
-        <v>12524700</v>
+        <v>12112300</v>
       </c>
       <c r="K48" s="3">
         <v>13057100</v>
@@ -2028,25 +2028,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5484600</v>
+        <v>5304000</v>
       </c>
       <c r="E49" s="3">
-        <v>5653800</v>
+        <v>5467600</v>
       </c>
       <c r="F49" s="3">
-        <v>6555200</v>
+        <v>6339300</v>
       </c>
       <c r="G49" s="3">
-        <v>6725500</v>
+        <v>6504000</v>
       </c>
       <c r="H49" s="3">
-        <v>6059400</v>
+        <v>5859800</v>
       </c>
       <c r="I49" s="3">
-        <v>9946700</v>
+        <v>9619100</v>
       </c>
       <c r="J49" s="3">
-        <v>5739300</v>
+        <v>5550300</v>
       </c>
       <c r="K49" s="3">
         <v>6183600</v>
@@ -2136,25 +2136,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2949200</v>
+        <v>2852100</v>
       </c>
       <c r="E52" s="3">
-        <v>3135700</v>
+        <v>3032500</v>
       </c>
       <c r="F52" s="3">
-        <v>3126500</v>
+        <v>3023600</v>
       </c>
       <c r="G52" s="3">
-        <v>3447700</v>
+        <v>3334100</v>
       </c>
       <c r="H52" s="3">
-        <v>4297700</v>
+        <v>4156200</v>
       </c>
       <c r="I52" s="3">
-        <v>7297500</v>
+        <v>7057200</v>
       </c>
       <c r="J52" s="3">
-        <v>2056200</v>
+        <v>1988500</v>
       </c>
       <c r="K52" s="3">
         <v>1710000</v>
@@ -2208,25 +2208,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>62376800</v>
+        <v>60322700</v>
       </c>
       <c r="E54" s="3">
-        <v>56650700</v>
+        <v>54785100</v>
       </c>
       <c r="F54" s="3">
-        <v>54786900</v>
+        <v>52982700</v>
       </c>
       <c r="G54" s="3">
-        <v>57312400</v>
+        <v>55425000</v>
       </c>
       <c r="H54" s="3">
-        <v>54504800</v>
+        <v>52709900</v>
       </c>
       <c r="I54" s="3">
-        <v>49995900</v>
+        <v>48349500</v>
       </c>
       <c r="J54" s="3">
-        <v>54267800</v>
+        <v>52480700</v>
       </c>
       <c r="K54" s="3">
         <v>47751000</v>
@@ -2276,25 +2276,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9525600</v>
+        <v>9211900</v>
       </c>
       <c r="E57" s="3">
-        <v>8833900</v>
+        <v>8543000</v>
       </c>
       <c r="F57" s="3">
-        <v>10487200</v>
+        <v>10141800</v>
       </c>
       <c r="G57" s="3">
-        <v>10444400</v>
+        <v>10100500</v>
       </c>
       <c r="H57" s="3">
-        <v>8708800</v>
+        <v>8422100</v>
       </c>
       <c r="I57" s="3">
-        <v>16736600</v>
+        <v>16185500</v>
       </c>
       <c r="J57" s="3">
-        <v>8957900</v>
+        <v>8662900</v>
       </c>
       <c r="K57" s="3">
         <v>8583100</v>
@@ -2312,25 +2312,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3362800</v>
+        <v>3252100</v>
       </c>
       <c r="E58" s="3">
-        <v>2869600</v>
+        <v>2775100</v>
       </c>
       <c r="F58" s="3">
-        <v>3552500</v>
+        <v>3435500</v>
       </c>
       <c r="G58" s="3">
-        <v>3419800</v>
+        <v>3307200</v>
       </c>
       <c r="H58" s="3">
-        <v>1612800</v>
+        <v>1559700</v>
       </c>
       <c r="I58" s="3">
-        <v>395900</v>
+        <v>382800</v>
       </c>
       <c r="J58" s="3">
-        <v>2373400</v>
+        <v>2295300</v>
       </c>
       <c r="K58" s="3">
         <v>776200</v>
@@ -2348,25 +2348,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12659000</v>
+        <v>12242200</v>
       </c>
       <c r="E59" s="3">
-        <v>12129200</v>
+        <v>11729800</v>
       </c>
       <c r="F59" s="3">
-        <v>13194200</v>
+        <v>12759700</v>
       </c>
       <c r="G59" s="3">
-        <v>14358000</v>
+        <v>13885200</v>
       </c>
       <c r="H59" s="3">
-        <v>14385200</v>
+        <v>13911500</v>
       </c>
       <c r="I59" s="3">
-        <v>27180700</v>
+        <v>26285600</v>
       </c>
       <c r="J59" s="3">
-        <v>13564500</v>
+        <v>13117800</v>
       </c>
       <c r="K59" s="3">
         <v>12971500</v>
@@ -2384,25 +2384,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>25547400</v>
+        <v>24706100</v>
       </c>
       <c r="E60" s="3">
-        <v>23832700</v>
+        <v>23047900</v>
       </c>
       <c r="F60" s="3">
-        <v>27233900</v>
+        <v>26337100</v>
       </c>
       <c r="G60" s="3">
-        <v>28222200</v>
+        <v>27292800</v>
       </c>
       <c r="H60" s="3">
-        <v>24706900</v>
+        <v>23893300</v>
       </c>
       <c r="I60" s="3">
-        <v>22623200</v>
+        <v>21878200</v>
       </c>
       <c r="J60" s="3">
-        <v>24895800</v>
+        <v>24076000</v>
       </c>
       <c r="K60" s="3">
         <v>22330800</v>
@@ -2420,25 +2420,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9823200</v>
+        <v>9499700</v>
       </c>
       <c r="E61" s="3">
-        <v>10534000</v>
+        <v>10187100</v>
       </c>
       <c r="F61" s="3">
-        <v>5545900</v>
+        <v>5363200</v>
       </c>
       <c r="G61" s="3">
-        <v>7871500</v>
+        <v>7612300</v>
       </c>
       <c r="H61" s="3">
-        <v>8626900</v>
+        <v>8342800</v>
       </c>
       <c r="I61" s="3">
-        <v>6405400</v>
+        <v>6194400</v>
       </c>
       <c r="J61" s="3">
-        <v>6489800</v>
+        <v>6276100</v>
       </c>
       <c r="K61" s="3">
         <v>5105500</v>
@@ -2456,25 +2456,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1785200</v>
+        <v>1726400</v>
       </c>
       <c r="E62" s="3">
-        <v>2644000</v>
+        <v>2556900</v>
       </c>
       <c r="F62" s="3">
-        <v>3016300</v>
+        <v>2917000</v>
       </c>
       <c r="G62" s="3">
-        <v>4071000</v>
+        <v>3937000</v>
       </c>
       <c r="H62" s="3">
-        <v>5138000</v>
+        <v>4968800</v>
       </c>
       <c r="I62" s="3">
-        <v>11951500</v>
+        <v>11558000</v>
       </c>
       <c r="J62" s="3">
-        <v>4730000</v>
+        <v>4574200</v>
       </c>
       <c r="K62" s="3">
         <v>5782900</v>
@@ -2600,25 +2600,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>38745200</v>
+        <v>37469300</v>
       </c>
       <c r="E66" s="3">
-        <v>38445700</v>
+        <v>37179700</v>
       </c>
       <c r="F66" s="3">
-        <v>37354800</v>
+        <v>36124700</v>
       </c>
       <c r="G66" s="3">
-        <v>41756600</v>
+        <v>40381500</v>
       </c>
       <c r="H66" s="3">
-        <v>40184900</v>
+        <v>38861500</v>
       </c>
       <c r="I66" s="3">
-        <v>36837000</v>
+        <v>35624000</v>
       </c>
       <c r="J66" s="3">
-        <v>37657600</v>
+        <v>36417500</v>
       </c>
       <c r="K66" s="3">
         <v>33570000</v>
@@ -2796,25 +2796,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>19623100</v>
+        <v>18976900</v>
       </c>
       <c r="E72" s="3">
-        <v>14998700</v>
+        <v>14504800</v>
       </c>
       <c r="F72" s="3">
-        <v>13672900</v>
+        <v>13222700</v>
       </c>
       <c r="G72" s="3">
-        <v>11846100</v>
+        <v>11456000</v>
       </c>
       <c r="H72" s="3">
-        <v>9578700</v>
+        <v>9263200</v>
       </c>
       <c r="I72" s="3">
-        <v>18616200</v>
+        <v>18003100</v>
       </c>
       <c r="J72" s="3">
-        <v>9303500</v>
+        <v>8997100</v>
       </c>
       <c r="K72" s="3">
         <v>8049300</v>
@@ -2940,25 +2940,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>23631600</v>
+        <v>22853400</v>
       </c>
       <c r="E76" s="3">
-        <v>18205000</v>
+        <v>17605500</v>
       </c>
       <c r="F76" s="3">
-        <v>17432100</v>
+        <v>16858000</v>
       </c>
       <c r="G76" s="3">
-        <v>15555800</v>
+        <v>15043500</v>
       </c>
       <c r="H76" s="3">
-        <v>14319900</v>
+        <v>13848300</v>
       </c>
       <c r="I76" s="3">
-        <v>13158900</v>
+        <v>12725500</v>
       </c>
       <c r="J76" s="3">
-        <v>16610200</v>
+        <v>16063200</v>
       </c>
       <c r="K76" s="3">
         <v>14181100</v>
@@ -3053,25 +3053,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1503800</v>
+        <v>1454300</v>
       </c>
       <c r="E81" s="3">
-        <v>2056100</v>
+        <v>1988400</v>
       </c>
       <c r="F81" s="3">
-        <v>2588600</v>
+        <v>2503400</v>
       </c>
       <c r="G81" s="3">
-        <v>2150300</v>
+        <v>2079500</v>
       </c>
       <c r="H81" s="3">
-        <v>1360700</v>
+        <v>1315900</v>
       </c>
       <c r="I81" s="3">
-        <v>1420800</v>
+        <v>1374000</v>
       </c>
       <c r="J81" s="3">
-        <v>1635100</v>
+        <v>1581300</v>
       </c>
       <c r="K81" s="3">
         <v>1103200</v>
@@ -3105,25 +3105,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2893100</v>
+        <v>2797800</v>
       </c>
       <c r="E83" s="3">
-        <v>3397800</v>
+        <v>3285900</v>
       </c>
       <c r="F83" s="3">
-        <v>2696900</v>
+        <v>2608100</v>
       </c>
       <c r="G83" s="3">
-        <v>2621400</v>
+        <v>2535100</v>
       </c>
       <c r="H83" s="3">
-        <v>2466700</v>
+        <v>2385500</v>
       </c>
       <c r="I83" s="3">
-        <v>2536100</v>
+        <v>2452600</v>
       </c>
       <c r="J83" s="3">
-        <v>2610300</v>
+        <v>2524300</v>
       </c>
       <c r="K83" s="3">
         <v>3032700</v>
@@ -3321,25 +3321,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4587300</v>
+        <v>4436200</v>
       </c>
       <c r="E89" s="3">
-        <v>3918800</v>
+        <v>3789700</v>
       </c>
       <c r="F89" s="3">
-        <v>1855500</v>
+        <v>1794400</v>
       </c>
       <c r="G89" s="3">
-        <v>3855200</v>
+        <v>3728200</v>
       </c>
       <c r="H89" s="3">
-        <v>3511100</v>
+        <v>3395500</v>
       </c>
       <c r="I89" s="3">
-        <v>3820300</v>
+        <v>3694500</v>
       </c>
       <c r="J89" s="3">
-        <v>4477200</v>
+        <v>4329800</v>
       </c>
       <c r="K89" s="3">
         <v>5330700</v>
@@ -3373,25 +3373,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2105500</v>
+        <v>-2036100</v>
       </c>
       <c r="E91" s="3">
-        <v>-2495400</v>
+        <v>-2413200</v>
       </c>
       <c r="F91" s="3">
-        <v>-2879500</v>
+        <v>-2784700</v>
       </c>
       <c r="G91" s="3">
-        <v>-3593800</v>
+        <v>-3475400</v>
       </c>
       <c r="H91" s="3">
-        <v>-2538000</v>
+        <v>-2454400</v>
       </c>
       <c r="I91" s="3">
-        <v>-4437500</v>
+        <v>-4291400</v>
       </c>
       <c r="J91" s="3">
-        <v>-2042100</v>
+        <v>-1974900</v>
       </c>
       <c r="K91" s="3">
         <v>-1847900</v>
@@ -3481,25 +3481,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1608800</v>
+        <v>1555800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1877500</v>
+        <v>-1815700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1761800</v>
+        <v>-1703700</v>
       </c>
       <c r="G94" s="3">
-        <v>-4179900</v>
+        <v>-4042300</v>
       </c>
       <c r="H94" s="3">
-        <v>-3827600</v>
+        <v>-3701600</v>
       </c>
       <c r="I94" s="3">
-        <v>-2676600</v>
+        <v>-2588400</v>
       </c>
       <c r="J94" s="3">
-        <v>-1257300</v>
+        <v>-1215900</v>
       </c>
       <c r="K94" s="3">
         <v>111100</v>
@@ -3533,25 +3533,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-531400</v>
+        <v>-513900</v>
       </c>
       <c r="E96" s="3">
-        <v>-637500</v>
+        <v>-616500</v>
       </c>
       <c r="F96" s="3">
-        <v>-743700</v>
+        <v>-719200</v>
       </c>
       <c r="G96" s="3">
-        <v>-531200</v>
+        <v>-513700</v>
       </c>
       <c r="H96" s="3">
-        <v>-528600</v>
+        <v>-511200</v>
       </c>
       <c r="I96" s="3">
-        <v>-422000</v>
+        <v>-408100</v>
       </c>
       <c r="J96" s="3">
-        <v>-336900</v>
+        <v>-325800</v>
       </c>
       <c r="K96" s="3">
         <v>-105900</v>
@@ -3677,25 +3677,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1618900</v>
+        <v>-1565600</v>
       </c>
       <c r="E100" s="3">
-        <v>439300</v>
+        <v>424800</v>
       </c>
       <c r="F100" s="3">
-        <v>-3113400</v>
+        <v>-3010900</v>
       </c>
       <c r="G100" s="3">
-        <v>-1173000</v>
+        <v>-1134400</v>
       </c>
       <c r="H100" s="3">
-        <v>2683800</v>
+        <v>2595400</v>
       </c>
       <c r="I100" s="3">
-        <v>-2820100</v>
+        <v>-2727300</v>
       </c>
       <c r="J100" s="3">
-        <v>2346900</v>
+        <v>2269600</v>
       </c>
       <c r="K100" s="3">
         <v>-4876000</v>
@@ -3713,25 +3713,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>676700</v>
+        <v>654400</v>
       </c>
       <c r="E101" s="3">
-        <v>-255500</v>
+        <v>-247100</v>
       </c>
       <c r="F101" s="3">
-        <v>128900</v>
+        <v>124700</v>
       </c>
       <c r="G101" s="3">
-        <v>-153000</v>
+        <v>-147900</v>
       </c>
       <c r="H101" s="3">
-        <v>-15800</v>
+        <v>-15300</v>
       </c>
       <c r="I101" s="3">
-        <v>-758500</v>
+        <v>-733500</v>
       </c>
       <c r="J101" s="3">
-        <v>700300</v>
+        <v>677200</v>
       </c>
       <c r="K101" s="3">
         <v>315300</v>
@@ -3749,25 +3749,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5253900</v>
+        <v>5080900</v>
       </c>
       <c r="E102" s="3">
-        <v>2225000</v>
+        <v>2151800</v>
       </c>
       <c r="F102" s="3">
-        <v>-2890800</v>
+        <v>-2795600</v>
       </c>
       <c r="G102" s="3">
-        <v>-1650800</v>
+        <v>-1596400</v>
       </c>
       <c r="H102" s="3">
-        <v>2351500</v>
+        <v>2274000</v>
       </c>
       <c r="I102" s="3">
-        <v>-2434900</v>
+        <v>-2354700</v>
       </c>
       <c r="J102" s="3">
-        <v>6267100</v>
+        <v>6060800</v>
       </c>
       <c r="K102" s="3">
         <v>881000</v>

--- a/AAII_Financials/Yearly/PCRFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PCRFY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>PCRFY</t>
   </si>
@@ -722,25 +722,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>59016400</v>
+        <v>57140700</v>
       </c>
       <c r="E8" s="3">
-        <v>65992200</v>
+        <v>63894800</v>
       </c>
       <c r="F8" s="3">
-        <v>70504100</v>
+        <v>68263300</v>
       </c>
       <c r="G8" s="3">
-        <v>70322900</v>
+        <v>68087900</v>
       </c>
       <c r="H8" s="3">
-        <v>64698100</v>
+        <v>62641800</v>
       </c>
       <c r="I8" s="3">
-        <v>67187800</v>
+        <v>65052400</v>
       </c>
       <c r="J8" s="3">
-        <v>67969500</v>
+        <v>65809300</v>
       </c>
       <c r="K8" s="3">
         <v>70866700</v>
@@ -758,25 +758,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>41617900</v>
+        <v>40295200</v>
       </c>
       <c r="E9" s="3">
-        <v>47041500</v>
+        <v>45546400</v>
       </c>
       <c r="F9" s="3">
-        <v>50536200</v>
+        <v>48930100</v>
       </c>
       <c r="G9" s="3">
-        <v>49714400</v>
+        <v>48134400</v>
       </c>
       <c r="H9" s="3">
-        <v>45434600</v>
+        <v>43990600</v>
       </c>
       <c r="I9" s="3">
-        <v>94334500</v>
+        <v>91336400</v>
       </c>
       <c r="J9" s="3">
-        <v>48694700</v>
+        <v>47147100</v>
       </c>
       <c r="K9" s="3">
         <v>51652000</v>
@@ -794,25 +794,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>17398400</v>
+        <v>16845500</v>
       </c>
       <c r="E10" s="3">
-        <v>18950700</v>
+        <v>18348400</v>
       </c>
       <c r="F10" s="3">
-        <v>19967900</v>
+        <v>19333200</v>
       </c>
       <c r="G10" s="3">
-        <v>20608500</v>
+        <v>19953500</v>
       </c>
       <c r="H10" s="3">
-        <v>19263500</v>
+        <v>18651200</v>
       </c>
       <c r="I10" s="3">
-        <v>-27146800</v>
+        <v>-26284000</v>
       </c>
       <c r="J10" s="3">
-        <v>19274700</v>
+        <v>18662100</v>
       </c>
       <c r="K10" s="3">
         <v>19214700</v>
@@ -861,10 +861,10 @@
         <v>8</v>
       </c>
       <c r="I12" s="3">
-        <v>3963000</v>
+        <v>3837000</v>
       </c>
       <c r="J12" s="3">
-        <v>4028400</v>
+        <v>3900300</v>
       </c>
       <c r="K12" s="3">
         <v>4386000</v>
@@ -920,23 +920,23 @@
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="E14" s="3">
+        <v>104900</v>
       </c>
       <c r="F14" s="3">
-        <v>-264500</v>
+        <v>-963500</v>
       </c>
       <c r="G14" s="3">
-        <v>50200</v>
+        <v>48600</v>
       </c>
       <c r="H14" s="3">
-        <v>186800</v>
+        <v>180900</v>
       </c>
       <c r="I14" s="3">
-        <v>1238800</v>
+        <v>1199400</v>
       </c>
       <c r="J14" s="3">
-        <v>493700</v>
+        <v>478000</v>
       </c>
       <c r="K14" s="3">
         <v>1024400</v>
@@ -954,25 +954,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1068400</v>
+        <v>1034400</v>
       </c>
       <c r="E15" s="3">
-        <v>1165100</v>
+        <v>1128000</v>
       </c>
       <c r="F15" s="3">
-        <v>748300</v>
+        <v>724600</v>
       </c>
       <c r="G15" s="3">
-        <v>748400</v>
+        <v>724600</v>
       </c>
       <c r="H15" s="3">
-        <v>726400</v>
+        <v>703300</v>
       </c>
       <c r="I15" s="3">
-        <v>2817000</v>
+        <v>2727500</v>
       </c>
       <c r="J15" s="3">
-        <v>2133300</v>
+        <v>2065500</v>
       </c>
       <c r="K15" s="3">
         <v>2553700</v>
@@ -1003,25 +1003,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>56738100</v>
+        <v>54934900</v>
       </c>
       <c r="E17" s="3">
-        <v>63404200</v>
+        <v>61389100</v>
       </c>
       <c r="F17" s="3">
-        <v>66878800</v>
+        <v>64753200</v>
       </c>
       <c r="G17" s="3">
-        <v>66970300</v>
+        <v>64841900</v>
       </c>
       <c r="H17" s="3">
-        <v>62259600</v>
+        <v>60280900</v>
       </c>
       <c r="I17" s="3">
-        <v>65158800</v>
+        <v>63087900</v>
       </c>
       <c r="J17" s="3">
-        <v>65098500</v>
+        <v>63029500</v>
       </c>
       <c r="K17" s="3">
         <v>69096300</v>
@@ -1039,25 +1039,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2278300</v>
+        <v>2205900</v>
       </c>
       <c r="E18" s="3">
-        <v>2587900</v>
+        <v>2505700</v>
       </c>
       <c r="F18" s="3">
-        <v>3625300</v>
+        <v>3510100</v>
       </c>
       <c r="G18" s="3">
-        <v>3352500</v>
+        <v>3246000</v>
       </c>
       <c r="H18" s="3">
-        <v>2438500</v>
+        <v>2361000</v>
       </c>
       <c r="I18" s="3">
-        <v>2028900</v>
+        <v>1964500</v>
       </c>
       <c r="J18" s="3">
-        <v>2871000</v>
+        <v>2779800</v>
       </c>
       <c r="K18" s="3">
         <v>1770500</v>
@@ -1091,25 +1091,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>171500</v>
+        <v>166100</v>
       </c>
       <c r="E20" s="3">
-        <v>276300</v>
+        <v>267500</v>
       </c>
       <c r="F20" s="3">
-        <v>225600</v>
+        <v>218400</v>
       </c>
       <c r="G20" s="3">
-        <v>200600</v>
+        <v>194200</v>
       </c>
       <c r="H20" s="3">
-        <v>192300</v>
+        <v>186200</v>
       </c>
       <c r="I20" s="3">
-        <v>357900</v>
+        <v>346500</v>
       </c>
       <c r="J20" s="3">
-        <v>-1108800</v>
+        <v>-1073600</v>
       </c>
       <c r="K20" s="3">
         <v>319300</v>
@@ -1127,25 +1127,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5253900</v>
+        <v>5112600</v>
       </c>
       <c r="E21" s="3">
-        <v>6157600</v>
+        <v>5992000</v>
       </c>
       <c r="F21" s="3">
-        <v>6464900</v>
+        <v>6283300</v>
       </c>
       <c r="G21" s="3">
-        <v>6094000</v>
+        <v>5923600</v>
       </c>
       <c r="H21" s="3">
-        <v>5021700</v>
+        <v>4883900</v>
       </c>
       <c r="I21" s="3">
-        <v>4845000</v>
+        <v>4713500</v>
       </c>
       <c r="J21" s="3">
-        <v>4292200</v>
+        <v>4178900</v>
       </c>
       <c r="K21" s="3">
         <v>5135700</v>
@@ -1163,25 +1163,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>152000</v>
+        <v>147100</v>
       </c>
       <c r="E22" s="3">
-        <v>300100</v>
+        <v>290500</v>
       </c>
       <c r="F22" s="3">
-        <v>181900</v>
+        <v>176100</v>
       </c>
       <c r="G22" s="3">
-        <v>217800</v>
+        <v>210900</v>
       </c>
       <c r="H22" s="3">
-        <v>207500</v>
+        <v>200900</v>
       </c>
       <c r="I22" s="3">
-        <v>382300</v>
+        <v>370200</v>
       </c>
       <c r="J22" s="3">
-        <v>154800</v>
+        <v>149800</v>
       </c>
       <c r="K22" s="3">
         <v>200700</v>
@@ -1199,25 +1199,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2297800</v>
+        <v>2224800</v>
       </c>
       <c r="E23" s="3">
-        <v>2564200</v>
+        <v>2482700</v>
       </c>
       <c r="F23" s="3">
-        <v>3669000</v>
+        <v>3552400</v>
       </c>
       <c r="G23" s="3">
-        <v>3335400</v>
+        <v>3229400</v>
       </c>
       <c r="H23" s="3">
-        <v>2423300</v>
+        <v>2346300</v>
       </c>
       <c r="I23" s="3">
-        <v>2004500</v>
+        <v>1940800</v>
       </c>
       <c r="J23" s="3">
-        <v>1607400</v>
+        <v>1556300</v>
       </c>
       <c r="K23" s="3">
         <v>1889000</v>
@@ -1235,25 +1235,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>677700</v>
+        <v>656200</v>
       </c>
       <c r="E24" s="3">
-        <v>449400</v>
+        <v>435100</v>
       </c>
       <c r="F24" s="3">
-        <v>1001900</v>
+        <v>970000</v>
       </c>
       <c r="G24" s="3">
-        <v>1115000</v>
+        <v>1079600</v>
       </c>
       <c r="H24" s="3">
-        <v>904100</v>
+        <v>875400</v>
       </c>
       <c r="I24" s="3">
-        <v>319800</v>
+        <v>309600</v>
       </c>
       <c r="J24" s="3">
-        <v>-17500</v>
+        <v>-16900</v>
       </c>
       <c r="K24" s="3">
         <v>821300</v>
@@ -1307,25 +1307,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1620100</v>
+        <v>1568600</v>
       </c>
       <c r="E26" s="3">
-        <v>2114700</v>
+        <v>2047500</v>
       </c>
       <c r="F26" s="3">
-        <v>2667100</v>
+        <v>2582300</v>
       </c>
       <c r="G26" s="3">
-        <v>2220400</v>
+        <v>2149800</v>
       </c>
       <c r="H26" s="3">
-        <v>1519200</v>
+        <v>1470900</v>
       </c>
       <c r="I26" s="3">
-        <v>1684800</v>
+        <v>1631200</v>
       </c>
       <c r="J26" s="3">
-        <v>1624900</v>
+        <v>1573200</v>
       </c>
       <c r="K26" s="3">
         <v>1067700</v>
@@ -1343,25 +1343,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1454300</v>
+        <v>1408100</v>
       </c>
       <c r="E27" s="3">
-        <v>1988400</v>
+        <v>1925200</v>
       </c>
       <c r="F27" s="3">
-        <v>2503400</v>
+        <v>2423800</v>
       </c>
       <c r="G27" s="3">
-        <v>2079500</v>
+        <v>2013400</v>
       </c>
       <c r="H27" s="3">
-        <v>1315900</v>
+        <v>1274000</v>
       </c>
       <c r="I27" s="3">
-        <v>1374000</v>
+        <v>1330300</v>
       </c>
       <c r="J27" s="3">
-        <v>1581300</v>
+        <v>1531000</v>
       </c>
       <c r="K27" s="3">
         <v>1103200</v>
@@ -1523,25 +1523,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-171500</v>
+        <v>-166100</v>
       </c>
       <c r="E32" s="3">
-        <v>-276300</v>
+        <v>-267500</v>
       </c>
       <c r="F32" s="3">
-        <v>-225600</v>
+        <v>-218400</v>
       </c>
       <c r="G32" s="3">
-        <v>-200600</v>
+        <v>-194200</v>
       </c>
       <c r="H32" s="3">
-        <v>-192300</v>
+        <v>-186200</v>
       </c>
       <c r="I32" s="3">
-        <v>-357900</v>
+        <v>-346500</v>
       </c>
       <c r="J32" s="3">
-        <v>1108800</v>
+        <v>1073600</v>
       </c>
       <c r="K32" s="3">
         <v>-319300</v>
@@ -1559,25 +1559,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1454300</v>
+        <v>1408100</v>
       </c>
       <c r="E33" s="3">
-        <v>1988400</v>
+        <v>1925200</v>
       </c>
       <c r="F33" s="3">
-        <v>2503400</v>
+        <v>2423800</v>
       </c>
       <c r="G33" s="3">
-        <v>2079500</v>
+        <v>2013400</v>
       </c>
       <c r="H33" s="3">
-        <v>1315900</v>
+        <v>1274000</v>
       </c>
       <c r="I33" s="3">
-        <v>1374000</v>
+        <v>1330300</v>
       </c>
       <c r="J33" s="3">
-        <v>1581300</v>
+        <v>1531000</v>
       </c>
       <c r="K33" s="3">
         <v>1103200</v>
@@ -1631,25 +1631,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1454300</v>
+        <v>1408100</v>
       </c>
       <c r="E35" s="3">
-        <v>1988400</v>
+        <v>1925200</v>
       </c>
       <c r="F35" s="3">
-        <v>2503400</v>
+        <v>2423800</v>
       </c>
       <c r="G35" s="3">
-        <v>2079500</v>
+        <v>2013400</v>
       </c>
       <c r="H35" s="3">
-        <v>1315900</v>
+        <v>1274000</v>
       </c>
       <c r="I35" s="3">
-        <v>1374000</v>
+        <v>1330300</v>
       </c>
       <c r="J35" s="3">
-        <v>1581300</v>
+        <v>1531000</v>
       </c>
       <c r="K35" s="3">
         <v>1103200</v>
@@ -1740,25 +1740,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>14036300</v>
+        <v>13590200</v>
       </c>
       <c r="E41" s="3">
-        <v>8955400</v>
+        <v>8670800</v>
       </c>
       <c r="F41" s="3">
-        <v>6803600</v>
+        <v>6587400</v>
       </c>
       <c r="G41" s="3">
-        <v>9599200</v>
+        <v>9294200</v>
       </c>
       <c r="H41" s="3">
-        <v>11195600</v>
+        <v>10839800</v>
       </c>
       <c r="I41" s="3">
-        <v>17858500</v>
+        <v>17291000</v>
       </c>
       <c r="J41" s="3">
-        <v>11443100</v>
+        <v>11079400</v>
       </c>
       <c r="K41" s="3">
         <v>5427000</v>
@@ -1776,22 +1776,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1318200</v>
+        <v>1276300</v>
       </c>
       <c r="E42" s="3">
-        <v>1307700</v>
+        <v>1266200</v>
       </c>
       <c r="F42" s="3">
-        <v>1156800</v>
+        <v>1120000</v>
       </c>
       <c r="G42" s="3">
-        <v>1793300</v>
+        <v>1736300</v>
       </c>
       <c r="H42" s="3">
-        <v>1264400</v>
+        <v>1224200</v>
       </c>
       <c r="I42" s="3">
-        <v>1458000</v>
+        <v>1411700</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -1812,25 +1812,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10522600</v>
+        <v>10188200</v>
       </c>
       <c r="E43" s="3">
-        <v>9261100</v>
+        <v>8966800</v>
       </c>
       <c r="F43" s="3">
-        <v>10489400</v>
+        <v>10156000</v>
       </c>
       <c r="G43" s="3">
-        <v>9153400</v>
+        <v>8862500</v>
       </c>
       <c r="H43" s="3">
-        <v>7462100</v>
+        <v>7224900</v>
       </c>
       <c r="I43" s="3">
-        <v>14615900</v>
+        <v>14151300</v>
       </c>
       <c r="J43" s="3">
-        <v>8740300</v>
+        <v>8462600</v>
       </c>
       <c r="K43" s="3">
         <v>9228100</v>
@@ -1848,25 +1848,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7334900</v>
+        <v>7101800</v>
       </c>
       <c r="E44" s="3">
-        <v>6990900</v>
+        <v>6768700</v>
       </c>
       <c r="F44" s="3">
-        <v>8954800</v>
+        <v>8670200</v>
       </c>
       <c r="G44" s="3">
-        <v>8709600</v>
+        <v>8432800</v>
       </c>
       <c r="H44" s="3">
-        <v>7103600</v>
+        <v>6877800</v>
       </c>
       <c r="I44" s="3">
-        <v>13444900</v>
+        <v>13017600</v>
       </c>
       <c r="J44" s="3">
-        <v>6719100</v>
+        <v>6505600</v>
       </c>
       <c r="K44" s="3">
         <v>6876200</v>
@@ -1884,25 +1884,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1347300</v>
+        <v>1304500</v>
       </c>
       <c r="E45" s="3">
-        <v>3754600</v>
+        <v>3635300</v>
       </c>
       <c r="F45" s="3">
-        <v>1440100</v>
+        <v>1394400</v>
       </c>
       <c r="G45" s="3">
-        <v>1455600</v>
+        <v>1409400</v>
       </c>
       <c r="H45" s="3">
-        <v>1208700</v>
+        <v>1170300</v>
       </c>
       <c r="I45" s="3">
-        <v>5025600</v>
+        <v>4865900</v>
       </c>
       <c r="J45" s="3">
-        <v>3163700</v>
+        <v>3063100</v>
       </c>
       <c r="K45" s="3">
         <v>2779200</v>
@@ -1920,25 +1920,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>34559400</v>
+        <v>33461000</v>
       </c>
       <c r="E46" s="3">
-        <v>30269700</v>
+        <v>29307700</v>
       </c>
       <c r="F46" s="3">
-        <v>28844800</v>
+        <v>27928000</v>
       </c>
       <c r="G46" s="3">
-        <v>30711300</v>
+        <v>29735200</v>
       </c>
       <c r="H46" s="3">
-        <v>28234500</v>
+        <v>27337100</v>
       </c>
       <c r="I46" s="3">
-        <v>25494000</v>
+        <v>24683800</v>
       </c>
       <c r="J46" s="3">
-        <v>30066200</v>
+        <v>29110700</v>
       </c>
       <c r="K46" s="3">
         <v>24310600</v>
@@ -1956,25 +1956,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6052300</v>
+        <v>5860000</v>
       </c>
       <c r="E47" s="3">
-        <v>4600200</v>
+        <v>4454000</v>
       </c>
       <c r="F47" s="3">
-        <v>3107400</v>
+        <v>3008600</v>
       </c>
       <c r="G47" s="3">
-        <v>2770100</v>
+        <v>2682000</v>
       </c>
       <c r="H47" s="3">
-        <v>2801300</v>
+        <v>2712300</v>
       </c>
       <c r="I47" s="3">
-        <v>5766900</v>
+        <v>5583600</v>
       </c>
       <c r="J47" s="3">
-        <v>2763400</v>
+        <v>2675600</v>
       </c>
       <c r="K47" s="3">
         <v>2489700</v>
@@ -1992,25 +1992,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11554900</v>
+        <v>11187700</v>
       </c>
       <c r="E48" s="3">
-        <v>11415200</v>
+        <v>11052400</v>
       </c>
       <c r="F48" s="3">
-        <v>11667700</v>
+        <v>11296900</v>
       </c>
       <c r="G48" s="3">
-        <v>12105500</v>
+        <v>11720800</v>
       </c>
       <c r="H48" s="3">
-        <v>11658100</v>
+        <v>11287600</v>
       </c>
       <c r="I48" s="3">
-        <v>22812700</v>
+        <v>22087700</v>
       </c>
       <c r="J48" s="3">
-        <v>12112300</v>
+        <v>11727300</v>
       </c>
       <c r="K48" s="3">
         <v>13057100</v>
@@ -2028,25 +2028,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5304000</v>
+        <v>5135400</v>
       </c>
       <c r="E49" s="3">
-        <v>5467600</v>
+        <v>5293800</v>
       </c>
       <c r="F49" s="3">
-        <v>6339300</v>
+        <v>6137800</v>
       </c>
       <c r="G49" s="3">
-        <v>6504000</v>
+        <v>6297300</v>
       </c>
       <c r="H49" s="3">
-        <v>5859800</v>
+        <v>5673600</v>
       </c>
       <c r="I49" s="3">
-        <v>9619100</v>
+        <v>9313400</v>
       </c>
       <c r="J49" s="3">
-        <v>5550300</v>
+        <v>5373900</v>
       </c>
       <c r="K49" s="3">
         <v>6183600</v>
@@ -2136,25 +2136,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2852100</v>
+        <v>2761400</v>
       </c>
       <c r="E52" s="3">
-        <v>3032500</v>
+        <v>2936100</v>
       </c>
       <c r="F52" s="3">
-        <v>3023600</v>
+        <v>2927500</v>
       </c>
       <c r="G52" s="3">
-        <v>3334100</v>
+        <v>3228200</v>
       </c>
       <c r="H52" s="3">
-        <v>4156200</v>
+        <v>4024100</v>
       </c>
       <c r="I52" s="3">
-        <v>7057200</v>
+        <v>6832900</v>
       </c>
       <c r="J52" s="3">
-        <v>1988500</v>
+        <v>1925300</v>
       </c>
       <c r="K52" s="3">
         <v>1710000</v>
@@ -2208,25 +2208,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>60322700</v>
+        <v>58405500</v>
       </c>
       <c r="E54" s="3">
-        <v>54785100</v>
+        <v>53044000</v>
       </c>
       <c r="F54" s="3">
-        <v>52982700</v>
+        <v>51298800</v>
       </c>
       <c r="G54" s="3">
-        <v>55425000</v>
+        <v>53663500</v>
       </c>
       <c r="H54" s="3">
-        <v>52709900</v>
+        <v>51034700</v>
       </c>
       <c r="I54" s="3">
-        <v>48349500</v>
+        <v>46812800</v>
       </c>
       <c r="J54" s="3">
-        <v>52480700</v>
+        <v>50812800</v>
       </c>
       <c r="K54" s="3">
         <v>47751000</v>
@@ -2276,25 +2276,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9211900</v>
+        <v>8919100</v>
       </c>
       <c r="E57" s="3">
-        <v>8543000</v>
+        <v>8271500</v>
       </c>
       <c r="F57" s="3">
-        <v>10141800</v>
+        <v>9819500</v>
       </c>
       <c r="G57" s="3">
-        <v>10100500</v>
+        <v>9779400</v>
       </c>
       <c r="H57" s="3">
-        <v>8422100</v>
+        <v>8154400</v>
       </c>
       <c r="I57" s="3">
-        <v>16185500</v>
+        <v>15671100</v>
       </c>
       <c r="J57" s="3">
-        <v>8662900</v>
+        <v>8387600</v>
       </c>
       <c r="K57" s="3">
         <v>8583100</v>
@@ -2312,25 +2312,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3252100</v>
+        <v>3148700</v>
       </c>
       <c r="E58" s="3">
-        <v>2775100</v>
+        <v>2686900</v>
       </c>
       <c r="F58" s="3">
-        <v>3435500</v>
+        <v>3326300</v>
       </c>
       <c r="G58" s="3">
-        <v>3307200</v>
+        <v>3202100</v>
       </c>
       <c r="H58" s="3">
-        <v>1559700</v>
+        <v>1510100</v>
       </c>
       <c r="I58" s="3">
-        <v>382800</v>
+        <v>370700</v>
       </c>
       <c r="J58" s="3">
-        <v>2295300</v>
+        <v>2222300</v>
       </c>
       <c r="K58" s="3">
         <v>776200</v>
@@ -2348,25 +2348,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12242200</v>
+        <v>11853100</v>
       </c>
       <c r="E59" s="3">
-        <v>11729800</v>
+        <v>11357000</v>
       </c>
       <c r="F59" s="3">
-        <v>12759700</v>
+        <v>12354200</v>
       </c>
       <c r="G59" s="3">
-        <v>13885200</v>
+        <v>13443900</v>
       </c>
       <c r="H59" s="3">
-        <v>13911500</v>
+        <v>13469400</v>
       </c>
       <c r="I59" s="3">
-        <v>26285600</v>
+        <v>25450200</v>
       </c>
       <c r="J59" s="3">
-        <v>13117800</v>
+        <v>12700900</v>
       </c>
       <c r="K59" s="3">
         <v>12971500</v>
@@ -2384,25 +2384,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>24706100</v>
+        <v>23920900</v>
       </c>
       <c r="E60" s="3">
-        <v>23047900</v>
+        <v>22315400</v>
       </c>
       <c r="F60" s="3">
-        <v>26337100</v>
+        <v>25500000</v>
       </c>
       <c r="G60" s="3">
-        <v>27292800</v>
+        <v>26425400</v>
       </c>
       <c r="H60" s="3">
-        <v>23893300</v>
+        <v>23133900</v>
       </c>
       <c r="I60" s="3">
-        <v>21878200</v>
+        <v>21182900</v>
       </c>
       <c r="J60" s="3">
-        <v>24076000</v>
+        <v>23310800</v>
       </c>
       <c r="K60" s="3">
         <v>22330800</v>
@@ -2420,25 +2420,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9499700</v>
+        <v>9197800</v>
       </c>
       <c r="E61" s="3">
-        <v>10187100</v>
+        <v>9863400</v>
       </c>
       <c r="F61" s="3">
-        <v>5363200</v>
+        <v>5192800</v>
       </c>
       <c r="G61" s="3">
-        <v>7612300</v>
+        <v>7370400</v>
       </c>
       <c r="H61" s="3">
-        <v>8342800</v>
+        <v>8077600</v>
       </c>
       <c r="I61" s="3">
-        <v>6194400</v>
+        <v>5997600</v>
       </c>
       <c r="J61" s="3">
-        <v>6276100</v>
+        <v>6076600</v>
       </c>
       <c r="K61" s="3">
         <v>5105500</v>
@@ -2456,25 +2456,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1726400</v>
+        <v>1671500</v>
       </c>
       <c r="E62" s="3">
-        <v>2556900</v>
+        <v>2475600</v>
       </c>
       <c r="F62" s="3">
-        <v>2917000</v>
+        <v>2824300</v>
       </c>
       <c r="G62" s="3">
-        <v>3937000</v>
+        <v>3811900</v>
       </c>
       <c r="H62" s="3">
-        <v>4968800</v>
+        <v>4810900</v>
       </c>
       <c r="I62" s="3">
-        <v>11558000</v>
+        <v>11190600</v>
       </c>
       <c r="J62" s="3">
-        <v>4574200</v>
+        <v>4428900</v>
       </c>
       <c r="K62" s="3">
         <v>5782900</v>
@@ -2600,25 +2600,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>37469300</v>
+        <v>36278400</v>
       </c>
       <c r="E66" s="3">
-        <v>37179700</v>
+        <v>35998000</v>
       </c>
       <c r="F66" s="3">
-        <v>36124700</v>
+        <v>34976600</v>
       </c>
       <c r="G66" s="3">
-        <v>40381500</v>
+        <v>39098100</v>
       </c>
       <c r="H66" s="3">
-        <v>38861500</v>
+        <v>37626400</v>
       </c>
       <c r="I66" s="3">
-        <v>35624000</v>
+        <v>34491800</v>
       </c>
       <c r="J66" s="3">
-        <v>36417500</v>
+        <v>35260100</v>
       </c>
       <c r="K66" s="3">
         <v>33570000</v>
@@ -2796,25 +2796,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>18976900</v>
+        <v>18373800</v>
       </c>
       <c r="E72" s="3">
-        <v>14504800</v>
+        <v>14043800</v>
       </c>
       <c r="F72" s="3">
-        <v>13222700</v>
+        <v>12802400</v>
       </c>
       <c r="G72" s="3">
-        <v>11456000</v>
+        <v>11091900</v>
       </c>
       <c r="H72" s="3">
-        <v>9263200</v>
+        <v>8968800</v>
       </c>
       <c r="I72" s="3">
-        <v>18003100</v>
+        <v>17431000</v>
       </c>
       <c r="J72" s="3">
-        <v>8997100</v>
+        <v>8711200</v>
       </c>
       <c r="K72" s="3">
         <v>8049300</v>
@@ -2940,25 +2940,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22853400</v>
+        <v>22127100</v>
       </c>
       <c r="E76" s="3">
-        <v>17605500</v>
+        <v>17045900</v>
       </c>
       <c r="F76" s="3">
-        <v>16858000</v>
+        <v>16322300</v>
       </c>
       <c r="G76" s="3">
-        <v>15043500</v>
+        <v>14565400</v>
       </c>
       <c r="H76" s="3">
-        <v>13848300</v>
+        <v>13408200</v>
       </c>
       <c r="I76" s="3">
-        <v>12725500</v>
+        <v>12321100</v>
       </c>
       <c r="J76" s="3">
-        <v>16063200</v>
+        <v>15552700</v>
       </c>
       <c r="K76" s="3">
         <v>14181100</v>
@@ -3053,25 +3053,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1454300</v>
+        <v>1408100</v>
       </c>
       <c r="E81" s="3">
-        <v>1988400</v>
+        <v>1925200</v>
       </c>
       <c r="F81" s="3">
-        <v>2503400</v>
+        <v>2423800</v>
       </c>
       <c r="G81" s="3">
-        <v>2079500</v>
+        <v>2013400</v>
       </c>
       <c r="H81" s="3">
-        <v>1315900</v>
+        <v>1274000</v>
       </c>
       <c r="I81" s="3">
-        <v>1374000</v>
+        <v>1330300</v>
       </c>
       <c r="J81" s="3">
-        <v>1581300</v>
+        <v>1531000</v>
       </c>
       <c r="K81" s="3">
         <v>1103200</v>
@@ -3105,25 +3105,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2797800</v>
+        <v>2708900</v>
       </c>
       <c r="E83" s="3">
-        <v>3285900</v>
+        <v>3181500</v>
       </c>
       <c r="F83" s="3">
-        <v>2608100</v>
+        <v>2525200</v>
       </c>
       <c r="G83" s="3">
-        <v>2535100</v>
+        <v>2454500</v>
       </c>
       <c r="H83" s="3">
-        <v>2385500</v>
+        <v>2309600</v>
       </c>
       <c r="I83" s="3">
-        <v>2452600</v>
+        <v>2374700</v>
       </c>
       <c r="J83" s="3">
-        <v>2524300</v>
+        <v>2444100</v>
       </c>
       <c r="K83" s="3">
         <v>3032700</v>
@@ -3321,25 +3321,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4436200</v>
+        <v>4295200</v>
       </c>
       <c r="E89" s="3">
-        <v>3789700</v>
+        <v>3669300</v>
       </c>
       <c r="F89" s="3">
-        <v>1794400</v>
+        <v>1737400</v>
       </c>
       <c r="G89" s="3">
-        <v>3728200</v>
+        <v>3609700</v>
       </c>
       <c r="H89" s="3">
-        <v>3395500</v>
+        <v>3287500</v>
       </c>
       <c r="I89" s="3">
-        <v>3694500</v>
+        <v>3577100</v>
       </c>
       <c r="J89" s="3">
-        <v>4329800</v>
+        <v>4192200</v>
       </c>
       <c r="K89" s="3">
         <v>5330700</v>
@@ -3373,25 +3373,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2036100</v>
+        <v>-1971400</v>
       </c>
       <c r="E91" s="3">
-        <v>-2413200</v>
+        <v>-2336500</v>
       </c>
       <c r="F91" s="3">
-        <v>-2784700</v>
+        <v>-2696200</v>
       </c>
       <c r="G91" s="3">
-        <v>-3475400</v>
+        <v>-3365000</v>
       </c>
       <c r="H91" s="3">
-        <v>-2454400</v>
+        <v>-2376400</v>
       </c>
       <c r="I91" s="3">
-        <v>-4291400</v>
+        <v>-4155000</v>
       </c>
       <c r="J91" s="3">
-        <v>-1974900</v>
+        <v>-1912100</v>
       </c>
       <c r="K91" s="3">
         <v>-1847900</v>
@@ -3481,25 +3481,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1555800</v>
+        <v>1506400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1815700</v>
+        <v>-1758000</v>
       </c>
       <c r="F94" s="3">
-        <v>-1703700</v>
+        <v>-1649600</v>
       </c>
       <c r="G94" s="3">
-        <v>-4042300</v>
+        <v>-3913800</v>
       </c>
       <c r="H94" s="3">
-        <v>-3701600</v>
+        <v>-3583900</v>
       </c>
       <c r="I94" s="3">
-        <v>-2588400</v>
+        <v>-2506100</v>
       </c>
       <c r="J94" s="3">
-        <v>-1215900</v>
+        <v>-1177200</v>
       </c>
       <c r="K94" s="3">
         <v>111100</v>
@@ -3533,25 +3533,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-513900</v>
+        <v>-497500</v>
       </c>
       <c r="E96" s="3">
-        <v>-616500</v>
+        <v>-596900</v>
       </c>
       <c r="F96" s="3">
-        <v>-719200</v>
+        <v>-696300</v>
       </c>
       <c r="G96" s="3">
-        <v>-513700</v>
+        <v>-497400</v>
       </c>
       <c r="H96" s="3">
-        <v>-511200</v>
+        <v>-495000</v>
       </c>
       <c r="I96" s="3">
-        <v>-408100</v>
+        <v>-395100</v>
       </c>
       <c r="J96" s="3">
-        <v>-325800</v>
+        <v>-315500</v>
       </c>
       <c r="K96" s="3">
         <v>-105900</v>
@@ -3677,25 +3677,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1565600</v>
+        <v>-1515800</v>
       </c>
       <c r="E100" s="3">
-        <v>424800</v>
+        <v>411300</v>
       </c>
       <c r="F100" s="3">
-        <v>-3010900</v>
+        <v>-2915200</v>
       </c>
       <c r="G100" s="3">
-        <v>-1134400</v>
+        <v>-1098300</v>
       </c>
       <c r="H100" s="3">
-        <v>2595400</v>
+        <v>2512900</v>
       </c>
       <c r="I100" s="3">
-        <v>-2727300</v>
+        <v>-2640600</v>
       </c>
       <c r="J100" s="3">
-        <v>2269600</v>
+        <v>2197500</v>
       </c>
       <c r="K100" s="3">
         <v>-4876000</v>
@@ -3713,25 +3713,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>654400</v>
+        <v>633600</v>
       </c>
       <c r="E101" s="3">
-        <v>-247100</v>
+        <v>-239300</v>
       </c>
       <c r="F101" s="3">
-        <v>124700</v>
+        <v>120700</v>
       </c>
       <c r="G101" s="3">
-        <v>-147900</v>
+        <v>-143200</v>
       </c>
       <c r="H101" s="3">
-        <v>-15300</v>
+        <v>-14800</v>
       </c>
       <c r="I101" s="3">
-        <v>-733500</v>
+        <v>-710200</v>
       </c>
       <c r="J101" s="3">
-        <v>677200</v>
+        <v>655700</v>
       </c>
       <c r="K101" s="3">
         <v>315300</v>
@@ -3749,25 +3749,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5080900</v>
+        <v>4919400</v>
       </c>
       <c r="E102" s="3">
-        <v>2151800</v>
+        <v>2083400</v>
       </c>
       <c r="F102" s="3">
-        <v>-2795600</v>
+        <v>-2706700</v>
       </c>
       <c r="G102" s="3">
-        <v>-1596400</v>
+        <v>-1545700</v>
       </c>
       <c r="H102" s="3">
-        <v>2274000</v>
+        <v>2201800</v>
       </c>
       <c r="I102" s="3">
-        <v>-2354700</v>
+        <v>-2279900</v>
       </c>
       <c r="J102" s="3">
-        <v>6060800</v>
+        <v>5868100</v>
       </c>
       <c r="K102" s="3">
         <v>881000</v>

--- a/AAII_Financials/Yearly/PCRFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PCRFY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>PCRFY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,179 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42825</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42460</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42094</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41729</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41364</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40999</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>57140700</v>
+        <v>57558700</v>
       </c>
       <c r="E8" s="3">
-        <v>63894800</v>
+        <v>52183600</v>
       </c>
       <c r="F8" s="3">
-        <v>68263300</v>
+        <v>58351800</v>
       </c>
       <c r="G8" s="3">
-        <v>68087900</v>
+        <v>62341300</v>
       </c>
       <c r="H8" s="3">
-        <v>62641800</v>
+        <v>62181100</v>
       </c>
       <c r="I8" s="3">
-        <v>65052400</v>
+        <v>57207500</v>
       </c>
       <c r="J8" s="3">
+        <v>59408900</v>
+      </c>
+      <c r="K8" s="3">
         <v>65809300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>70866700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>66384700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>70929800</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>40295200</v>
+        <v>41338300</v>
       </c>
       <c r="E9" s="3">
-        <v>45546400</v>
+        <v>36799500</v>
       </c>
       <c r="F9" s="3">
-        <v>48930100</v>
+        <v>41595100</v>
       </c>
       <c r="G9" s="3">
-        <v>48134400</v>
+        <v>44685300</v>
       </c>
       <c r="H9" s="3">
-        <v>43990600</v>
+        <v>43958600</v>
       </c>
       <c r="I9" s="3">
-        <v>91336400</v>
+        <v>40174300</v>
       </c>
       <c r="J9" s="3">
+        <v>83412700</v>
+      </c>
+      <c r="K9" s="3">
         <v>47147100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>51652000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>49266800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>53015200</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>16845500</v>
+        <v>16220400</v>
       </c>
       <c r="E10" s="3">
-        <v>18348400</v>
+        <v>15384100</v>
       </c>
       <c r="F10" s="3">
-        <v>19333200</v>
+        <v>16756600</v>
       </c>
       <c r="G10" s="3">
-        <v>19953500</v>
+        <v>17656000</v>
       </c>
       <c r="H10" s="3">
-        <v>18651200</v>
+        <v>18222500</v>
       </c>
       <c r="I10" s="3">
-        <v>-26284000</v>
+        <v>17033200</v>
       </c>
       <c r="J10" s="3">
+        <v>-24003800</v>
+      </c>
+      <c r="K10" s="3">
         <v>18662100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>19214700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>17117900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>17914600</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,8 +852,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -860,24 +873,27 @@
       <c r="H12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="3">
-        <v>3837000</v>
+      <c r="I12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J12" s="3">
+        <v>3504200</v>
+      </c>
+      <c r="K12" s="3">
         <v>3900300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4386000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4565200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4702800</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -911,81 +927,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>104900</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>-963500</v>
+        <v>95800</v>
       </c>
       <c r="G14" s="3">
-        <v>48600</v>
+        <v>-879900</v>
       </c>
       <c r="H14" s="3">
-        <v>180900</v>
+        <v>44400</v>
       </c>
       <c r="I14" s="3">
-        <v>1199400</v>
+        <v>165200</v>
       </c>
       <c r="J14" s="3">
+        <v>1095300</v>
+      </c>
+      <c r="K14" s="3">
         <v>478000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1024400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3533500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5091000</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>1034400</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
-        <v>1128000</v>
+        <v>944700</v>
       </c>
       <c r="F15" s="3">
-        <v>724600</v>
+        <v>1030200</v>
       </c>
       <c r="G15" s="3">
-        <v>724600</v>
+        <v>661700</v>
       </c>
       <c r="H15" s="3">
-        <v>703300</v>
+        <v>661700</v>
       </c>
       <c r="I15" s="3">
-        <v>2727500</v>
+        <v>642300</v>
       </c>
       <c r="J15" s="3">
+        <v>2490900</v>
+      </c>
+      <c r="K15" s="3">
         <v>2065500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2553700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2523200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2342600</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -997,80 +1022,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>54934900</v>
+        <v>54773600</v>
       </c>
       <c r="E17" s="3">
-        <v>61389100</v>
+        <v>50169100</v>
       </c>
       <c r="F17" s="3">
-        <v>64753200</v>
+        <v>56063500</v>
       </c>
       <c r="G17" s="3">
-        <v>64841900</v>
+        <v>59135700</v>
       </c>
       <c r="H17" s="3">
-        <v>60280900</v>
+        <v>59216700</v>
       </c>
       <c r="I17" s="3">
-        <v>63087900</v>
+        <v>55051300</v>
       </c>
       <c r="J17" s="3">
+        <v>57614900</v>
+      </c>
+      <c r="K17" s="3">
         <v>63029500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>69096300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>68455200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>75625500</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2205900</v>
+        <v>2785100</v>
       </c>
       <c r="E18" s="3">
-        <v>2505700</v>
+        <v>2014500</v>
       </c>
       <c r="F18" s="3">
-        <v>3510100</v>
+        <v>2288300</v>
       </c>
       <c r="G18" s="3">
-        <v>3246000</v>
+        <v>3205600</v>
       </c>
       <c r="H18" s="3">
-        <v>2361000</v>
+        <v>2964400</v>
       </c>
       <c r="I18" s="3">
-        <v>1964500</v>
+        <v>2156100</v>
       </c>
       <c r="J18" s="3">
+        <v>1794000</v>
+      </c>
+      <c r="K18" s="3">
         <v>2779800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1770500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2070600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4695700</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1085,188 +1117,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>166100</v>
+        <v>22300</v>
       </c>
       <c r="E20" s="3">
-        <v>267500</v>
+        <v>151700</v>
       </c>
       <c r="F20" s="3">
-        <v>218400</v>
+        <v>244300</v>
       </c>
       <c r="G20" s="3">
-        <v>194200</v>
+        <v>199400</v>
       </c>
       <c r="H20" s="3">
-        <v>186200</v>
+        <v>177400</v>
       </c>
       <c r="I20" s="3">
-        <v>346500</v>
+        <v>170100</v>
       </c>
       <c r="J20" s="3">
+        <v>316500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1073600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>319300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1318100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2395600</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5112600</v>
+        <v>5415500</v>
       </c>
       <c r="E21" s="3">
-        <v>5992000</v>
+        <v>4608300</v>
       </c>
       <c r="F21" s="3">
-        <v>6283300</v>
+        <v>5400800</v>
       </c>
       <c r="G21" s="3">
-        <v>5923600</v>
+        <v>5681600</v>
       </c>
       <c r="H21" s="3">
-        <v>4883900</v>
+        <v>5354600</v>
       </c>
       <c r="I21" s="3">
-        <v>4713500</v>
+        <v>4408400</v>
       </c>
       <c r="J21" s="3">
+        <v>4251300</v>
+      </c>
+      <c r="K21" s="3">
         <v>4178900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5135700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-297000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4031400</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>147100</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>290500</v>
+        <v>134400</v>
       </c>
       <c r="F22" s="3">
-        <v>176100</v>
+        <v>265300</v>
       </c>
       <c r="G22" s="3">
-        <v>210900</v>
+        <v>160800</v>
       </c>
       <c r="H22" s="3">
-        <v>200900</v>
+        <v>192600</v>
       </c>
       <c r="I22" s="3">
-        <v>370200</v>
+        <v>183500</v>
       </c>
       <c r="J22" s="3">
+        <v>338000</v>
+      </c>
+      <c r="K22" s="3">
         <v>149800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>200700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>232700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>256800</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2224800</v>
+        <v>2807500</v>
       </c>
       <c r="E23" s="3">
-        <v>2482700</v>
+        <v>2031800</v>
       </c>
       <c r="F23" s="3">
-        <v>3552400</v>
+        <v>2267300</v>
       </c>
       <c r="G23" s="3">
-        <v>3229400</v>
+        <v>3244200</v>
       </c>
       <c r="H23" s="3">
-        <v>2346300</v>
+        <v>2949200</v>
       </c>
       <c r="I23" s="3">
-        <v>1940800</v>
+        <v>2142800</v>
       </c>
       <c r="J23" s="3">
+        <v>1772500</v>
+      </c>
+      <c r="K23" s="3">
         <v>1556300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1889000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3621300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7348100</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>656200</v>
+        <v>739700</v>
       </c>
       <c r="E24" s="3">
-        <v>435100</v>
+        <v>599300</v>
       </c>
       <c r="F24" s="3">
-        <v>970000</v>
+        <v>397400</v>
       </c>
       <c r="G24" s="3">
-        <v>1079600</v>
+        <v>885900</v>
       </c>
       <c r="H24" s="3">
-        <v>875400</v>
+        <v>985900</v>
       </c>
       <c r="I24" s="3">
-        <v>309600</v>
+        <v>799400</v>
       </c>
       <c r="J24" s="3">
+        <v>282700</v>
+      </c>
+      <c r="K24" s="3">
         <v>-16900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>821300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3496700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>88300</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1300,81 +1348,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1568600</v>
+        <v>2067800</v>
       </c>
       <c r="E26" s="3">
-        <v>2047500</v>
+        <v>1432500</v>
       </c>
       <c r="F26" s="3">
-        <v>2582300</v>
+        <v>1869900</v>
       </c>
       <c r="G26" s="3">
-        <v>2149800</v>
+        <v>2358300</v>
       </c>
       <c r="H26" s="3">
-        <v>1470900</v>
+        <v>1963300</v>
       </c>
       <c r="I26" s="3">
-        <v>1631200</v>
+        <v>1343300</v>
       </c>
       <c r="J26" s="3">
+        <v>1489700</v>
+      </c>
+      <c r="K26" s="3">
         <v>1573200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1067700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7118000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7436400</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1408100</v>
+        <v>1989100</v>
       </c>
       <c r="E27" s="3">
-        <v>1925200</v>
+        <v>1285900</v>
       </c>
       <c r="F27" s="3">
-        <v>2423800</v>
+        <v>1758200</v>
       </c>
       <c r="G27" s="3">
-        <v>2013400</v>
+        <v>2213500</v>
       </c>
       <c r="H27" s="3">
-        <v>1274000</v>
+        <v>1838800</v>
       </c>
       <c r="I27" s="3">
-        <v>1330300</v>
+        <v>1163500</v>
       </c>
       <c r="J27" s="3">
+        <v>1214900</v>
+      </c>
+      <c r="K27" s="3">
         <v>1531000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1103200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6856100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6980400</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1408,9 +1465,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1444,9 +1504,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1480,9 +1543,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1516,81 +1582,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-166100</v>
+        <v>-22300</v>
       </c>
       <c r="E32" s="3">
-        <v>-267500</v>
+        <v>-151700</v>
       </c>
       <c r="F32" s="3">
-        <v>-218400</v>
+        <v>-244300</v>
       </c>
       <c r="G32" s="3">
-        <v>-194200</v>
+        <v>-199400</v>
       </c>
       <c r="H32" s="3">
-        <v>-186200</v>
+        <v>-177400</v>
       </c>
       <c r="I32" s="3">
-        <v>-346500</v>
+        <v>-170100</v>
       </c>
       <c r="J32" s="3">
+        <v>-316500</v>
+      </c>
+      <c r="K32" s="3">
         <v>1073600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-319300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1318100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2395600</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1408100</v>
+        <v>1989100</v>
       </c>
       <c r="E33" s="3">
-        <v>1925200</v>
+        <v>1285900</v>
       </c>
       <c r="F33" s="3">
-        <v>2423800</v>
+        <v>1758200</v>
       </c>
       <c r="G33" s="3">
-        <v>2013400</v>
+        <v>2213500</v>
       </c>
       <c r="H33" s="3">
-        <v>1274000</v>
+        <v>1838800</v>
       </c>
       <c r="I33" s="3">
-        <v>1330300</v>
+        <v>1163500</v>
       </c>
       <c r="J33" s="3">
+        <v>1214900</v>
+      </c>
+      <c r="K33" s="3">
         <v>1531000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1103200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6856100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6980400</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1624,86 +1699,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1408100</v>
+        <v>1989100</v>
       </c>
       <c r="E35" s="3">
-        <v>1925200</v>
+        <v>1285900</v>
       </c>
       <c r="F35" s="3">
-        <v>2423800</v>
+        <v>1758200</v>
       </c>
       <c r="G35" s="3">
-        <v>2013400</v>
+        <v>2213500</v>
       </c>
       <c r="H35" s="3">
-        <v>1274000</v>
+        <v>1838800</v>
       </c>
       <c r="I35" s="3">
-        <v>1330300</v>
+        <v>1163500</v>
       </c>
       <c r="J35" s="3">
+        <v>1214900</v>
+      </c>
+      <c r="K35" s="3">
         <v>1531000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1103200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6856100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6980400</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42825</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42460</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42094</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41729</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41364</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40999</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1718,8 +1802,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1734,332 +1819,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>13590200</v>
+        <v>9393800</v>
       </c>
       <c r="E41" s="3">
-        <v>8670800</v>
+        <v>12411200</v>
       </c>
       <c r="F41" s="3">
-        <v>6587400</v>
+        <v>7918600</v>
       </c>
       <c r="G41" s="3">
-        <v>9294200</v>
+        <v>6015900</v>
       </c>
       <c r="H41" s="3">
-        <v>10839800</v>
+        <v>8487900</v>
       </c>
       <c r="I41" s="3">
-        <v>17291000</v>
+        <v>9899400</v>
       </c>
       <c r="J41" s="3">
+        <v>15790900</v>
+      </c>
+      <c r="K41" s="3">
         <v>11079400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5427000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4526400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5523300</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1276300</v>
+        <v>1640800</v>
       </c>
       <c r="E42" s="3">
-        <v>1266200</v>
+        <v>1165600</v>
       </c>
       <c r="F42" s="3">
-        <v>1120000</v>
+        <v>1156300</v>
       </c>
       <c r="G42" s="3">
-        <v>1736300</v>
+        <v>1022900</v>
       </c>
       <c r="H42" s="3">
-        <v>1224200</v>
+        <v>1585700</v>
       </c>
       <c r="I42" s="3">
-        <v>1411700</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
+        <v>1118000</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1289200</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>4400</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10188200</v>
+        <v>10318800</v>
       </c>
       <c r="E43" s="3">
-        <v>8966800</v>
+        <v>9304300</v>
       </c>
       <c r="F43" s="3">
-        <v>10156000</v>
+        <v>8188900</v>
       </c>
       <c r="G43" s="3">
-        <v>8862500</v>
+        <v>9274900</v>
       </c>
       <c r="H43" s="3">
-        <v>7224900</v>
+        <v>8093700</v>
       </c>
       <c r="I43" s="3">
-        <v>14151300</v>
+        <v>6598200</v>
       </c>
       <c r="J43" s="3">
+        <v>12923700</v>
+      </c>
+      <c r="K43" s="3">
         <v>8462600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9228100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8538500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9127200</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7101800</v>
+        <v>8823500</v>
       </c>
       <c r="E44" s="3">
-        <v>6768700</v>
+        <v>6485700</v>
       </c>
       <c r="F44" s="3">
-        <v>8670200</v>
+        <v>6181500</v>
       </c>
       <c r="G44" s="3">
-        <v>8432800</v>
+        <v>7918000</v>
       </c>
       <c r="H44" s="3">
-        <v>6877800</v>
+        <v>7701300</v>
       </c>
       <c r="I44" s="3">
-        <v>13017600</v>
+        <v>6281100</v>
       </c>
       <c r="J44" s="3">
+        <v>11888300</v>
+      </c>
+      <c r="K44" s="3">
         <v>6505600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6876200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7152400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7505600</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1304500</v>
+        <v>1226200</v>
       </c>
       <c r="E45" s="3">
-        <v>3635300</v>
+        <v>1191400</v>
       </c>
       <c r="F45" s="3">
-        <v>1394400</v>
+        <v>3319900</v>
       </c>
       <c r="G45" s="3">
-        <v>1409400</v>
+        <v>1273400</v>
       </c>
       <c r="H45" s="3">
-        <v>1170300</v>
+        <v>1287100</v>
       </c>
       <c r="I45" s="3">
-        <v>4865900</v>
+        <v>1068800</v>
       </c>
       <c r="J45" s="3">
+        <v>4443800</v>
+      </c>
+      <c r="K45" s="3">
         <v>3063100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2779200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2453900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4110200</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>33461000</v>
+        <v>31403000</v>
       </c>
       <c r="E46" s="3">
-        <v>29307700</v>
+        <v>30558200</v>
       </c>
       <c r="F46" s="3">
-        <v>27928000</v>
+        <v>26765200</v>
       </c>
       <c r="G46" s="3">
-        <v>29735200</v>
+        <v>25505200</v>
       </c>
       <c r="H46" s="3">
-        <v>27337100</v>
+        <v>27155600</v>
       </c>
       <c r="I46" s="3">
-        <v>24683800</v>
+        <v>24965500</v>
       </c>
       <c r="J46" s="3">
+        <v>22542400</v>
+      </c>
+      <c r="K46" s="3">
         <v>29110700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>24310600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>22671200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>26270600</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5860000</v>
+        <v>4800400</v>
       </c>
       <c r="E47" s="3">
-        <v>4454000</v>
+        <v>5351600</v>
       </c>
       <c r="F47" s="3">
-        <v>3008600</v>
+        <v>4067600</v>
       </c>
       <c r="G47" s="3">
-        <v>2682000</v>
+        <v>2747600</v>
       </c>
       <c r="H47" s="3">
-        <v>2712300</v>
+        <v>2449400</v>
       </c>
       <c r="I47" s="3">
-        <v>5583600</v>
+        <v>2477000</v>
       </c>
       <c r="J47" s="3">
+        <v>5099200</v>
+      </c>
+      <c r="K47" s="3">
         <v>2675600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2489700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2517700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4085000</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11187700</v>
+        <v>10696100</v>
       </c>
       <c r="E48" s="3">
-        <v>11052400</v>
+        <v>10217100</v>
       </c>
       <c r="F48" s="3">
-        <v>11296900</v>
+        <v>10093600</v>
       </c>
       <c r="G48" s="3">
-        <v>11720800</v>
+        <v>10316900</v>
       </c>
       <c r="H48" s="3">
-        <v>11287600</v>
+        <v>10704000</v>
       </c>
       <c r="I48" s="3">
-        <v>22087700</v>
+        <v>10308400</v>
       </c>
       <c r="J48" s="3">
+        <v>20171500</v>
+      </c>
+      <c r="K48" s="3">
         <v>11727300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13057100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15229600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>15677900</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>5135400</v>
+      <c r="D49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E49" s="3">
-        <v>5293800</v>
+        <v>4689900</v>
       </c>
       <c r="F49" s="3">
-        <v>6137800</v>
+        <v>4834600</v>
       </c>
       <c r="G49" s="3">
-        <v>6297300</v>
+        <v>5605300</v>
       </c>
       <c r="H49" s="3">
-        <v>5673600</v>
+        <v>5751000</v>
       </c>
       <c r="I49" s="3">
-        <v>9313400</v>
+        <v>5181400</v>
       </c>
       <c r="J49" s="3">
+        <v>8505400</v>
+      </c>
+      <c r="K49" s="3">
         <v>5373900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6183600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6682600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9972600</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2093,9 +2206,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2129,45 +2245,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2761400</v>
+        <v>15604200</v>
       </c>
       <c r="E52" s="3">
-        <v>2936100</v>
+        <v>2521900</v>
       </c>
       <c r="F52" s="3">
-        <v>2927500</v>
+        <v>2681400</v>
       </c>
       <c r="G52" s="3">
-        <v>3228200</v>
+        <v>2673500</v>
       </c>
       <c r="H52" s="3">
-        <v>4024100</v>
+        <v>2948100</v>
       </c>
       <c r="I52" s="3">
-        <v>6832900</v>
+        <v>3675000</v>
       </c>
       <c r="J52" s="3">
+        <v>6240200</v>
+      </c>
+      <c r="K52" s="3">
         <v>1925300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1710000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1964900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3667400</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2201,45 +2323,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>58405500</v>
+        <v>62503700</v>
       </c>
       <c r="E54" s="3">
-        <v>53044000</v>
+        <v>53338700</v>
       </c>
       <c r="F54" s="3">
-        <v>51298800</v>
+        <v>48442300</v>
       </c>
       <c r="G54" s="3">
-        <v>53663500</v>
+        <v>46848500</v>
       </c>
       <c r="H54" s="3">
-        <v>51034700</v>
+        <v>49008000</v>
       </c>
       <c r="I54" s="3">
-        <v>46812800</v>
+        <v>46607300</v>
       </c>
       <c r="J54" s="3">
+        <v>42751700</v>
+      </c>
+      <c r="K54" s="3">
         <v>50812800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>47751000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>49066100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>59673500</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2254,8 +2382,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2270,224 +2399,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8919100</v>
+        <v>12964000</v>
       </c>
       <c r="E57" s="3">
-        <v>8271500</v>
+        <v>8145400</v>
       </c>
       <c r="F57" s="3">
-        <v>9819500</v>
+        <v>7553900</v>
       </c>
       <c r="G57" s="3">
-        <v>9779400</v>
+        <v>8967600</v>
       </c>
       <c r="H57" s="3">
-        <v>8154400</v>
+        <v>8931000</v>
       </c>
       <c r="I57" s="3">
-        <v>15671100</v>
+        <v>7447000</v>
       </c>
       <c r="J57" s="3">
+        <v>14311600</v>
+      </c>
+      <c r="K57" s="3">
         <v>8387600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8583100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7197300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7693200</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3148700</v>
+        <v>3843700</v>
       </c>
       <c r="E58" s="3">
-        <v>2686900</v>
+        <v>2875600</v>
       </c>
       <c r="F58" s="3">
-        <v>3326300</v>
+        <v>2453800</v>
       </c>
       <c r="G58" s="3">
-        <v>3202100</v>
+        <v>3037700</v>
       </c>
       <c r="H58" s="3">
-        <v>1510100</v>
+        <v>2924300</v>
       </c>
       <c r="I58" s="3">
-        <v>370700</v>
+        <v>1379100</v>
       </c>
       <c r="J58" s="3">
+        <v>338500</v>
+      </c>
+      <c r="K58" s="3">
         <v>2222300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>776200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4366000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5730000</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11853100</v>
+        <v>7072300</v>
       </c>
       <c r="E59" s="3">
-        <v>11357000</v>
+        <v>10824800</v>
       </c>
       <c r="F59" s="3">
-        <v>12354200</v>
+        <v>10371700</v>
       </c>
       <c r="G59" s="3">
-        <v>13443900</v>
+        <v>11282400</v>
       </c>
       <c r="H59" s="3">
-        <v>13469400</v>
+        <v>12277600</v>
       </c>
       <c r="I59" s="3">
-        <v>25450200</v>
+        <v>12300900</v>
       </c>
       <c r="J59" s="3">
+        <v>23242300</v>
+      </c>
+      <c r="K59" s="3">
         <v>12700900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12971500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12063100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12607600</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>23920900</v>
+        <v>23880000</v>
       </c>
       <c r="E60" s="3">
-        <v>22315400</v>
+        <v>21845700</v>
       </c>
       <c r="F60" s="3">
-        <v>25500000</v>
+        <v>20379500</v>
       </c>
       <c r="G60" s="3">
-        <v>26425400</v>
+        <v>23287800</v>
       </c>
       <c r="H60" s="3">
-        <v>23133900</v>
+        <v>24132900</v>
       </c>
       <c r="I60" s="3">
-        <v>21182900</v>
+        <v>21127000</v>
       </c>
       <c r="J60" s="3">
+        <v>19345200</v>
+      </c>
+      <c r="K60" s="3">
         <v>23310800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>22330800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>23626400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>26030700</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9197800</v>
+        <v>10936200</v>
       </c>
       <c r="E61" s="3">
-        <v>9863400</v>
+        <v>8399900</v>
       </c>
       <c r="F61" s="3">
-        <v>5192800</v>
+        <v>9007700</v>
       </c>
       <c r="G61" s="3">
-        <v>7370400</v>
+        <v>4742300</v>
       </c>
       <c r="H61" s="3">
-        <v>8077600</v>
+        <v>6731000</v>
       </c>
       <c r="I61" s="3">
-        <v>5997600</v>
+        <v>7376900</v>
       </c>
       <c r="J61" s="3">
+        <v>5477300</v>
+      </c>
+      <c r="K61" s="3">
         <v>6076600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5105500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6027500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8513600</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1671500</v>
+        <v>1613100</v>
       </c>
       <c r="E62" s="3">
-        <v>2475600</v>
+        <v>1526500</v>
       </c>
       <c r="F62" s="3">
-        <v>2824300</v>
+        <v>2260900</v>
       </c>
       <c r="G62" s="3">
-        <v>3811900</v>
+        <v>2579300</v>
       </c>
       <c r="H62" s="3">
-        <v>4810900</v>
+        <v>3481200</v>
       </c>
       <c r="I62" s="3">
-        <v>11190600</v>
+        <v>4393500</v>
       </c>
       <c r="J62" s="3">
+        <v>10219800</v>
+      </c>
+      <c r="K62" s="3">
         <v>4428900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5782900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7556400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7252000</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2521,9 +2669,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2557,9 +2708,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2593,45 +2747,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>36278400</v>
+        <v>37848700</v>
       </c>
       <c r="E66" s="3">
-        <v>35998000</v>
+        <v>33131200</v>
       </c>
       <c r="F66" s="3">
-        <v>34976600</v>
+        <v>32875100</v>
       </c>
       <c r="G66" s="3">
-        <v>39098100</v>
+        <v>31942300</v>
       </c>
       <c r="H66" s="3">
-        <v>37626400</v>
+        <v>35706200</v>
       </c>
       <c r="I66" s="3">
-        <v>34491800</v>
+        <v>34362300</v>
       </c>
       <c r="J66" s="3">
+        <v>31499500</v>
+      </c>
+      <c r="K66" s="3">
         <v>35260100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>33570000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>37576100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>42228300</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2646,8 +2806,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2681,9 +2842,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2717,9 +2881,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2753,9 +2920,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2789,45 +2959,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>18373800</v>
+        <v>18596900</v>
       </c>
       <c r="E72" s="3">
-        <v>14043800</v>
+        <v>16779800</v>
       </c>
       <c r="F72" s="3">
-        <v>12802400</v>
+        <v>12825500</v>
       </c>
       <c r="G72" s="3">
-        <v>11091900</v>
+        <v>11691800</v>
       </c>
       <c r="H72" s="3">
-        <v>8968800</v>
+        <v>10129600</v>
       </c>
       <c r="I72" s="3">
-        <v>17431000</v>
+        <v>8190800</v>
       </c>
       <c r="J72" s="3">
+        <v>15918800</v>
+      </c>
+      <c r="K72" s="3">
         <v>8711200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8049300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6998100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>13882600</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2861,9 +3037,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2897,9 +3076,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2933,45 +3115,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22127100</v>
+        <v>24655100</v>
       </c>
       <c r="E76" s="3">
-        <v>17045900</v>
+        <v>20207500</v>
       </c>
       <c r="F76" s="3">
-        <v>16322300</v>
+        <v>15567100</v>
       </c>
       <c r="G76" s="3">
-        <v>14565400</v>
+        <v>14906300</v>
       </c>
       <c r="H76" s="3">
-        <v>13408200</v>
+        <v>13301800</v>
       </c>
       <c r="I76" s="3">
-        <v>12321100</v>
+        <v>12245000</v>
       </c>
       <c r="J76" s="3">
+        <v>11252200</v>
+      </c>
+      <c r="K76" s="3">
         <v>15552700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14181100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11490100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17445300</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3005,86 +3193,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42825</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42460</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42094</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41729</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41364</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40999</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1408100</v>
+        <v>1989100</v>
       </c>
       <c r="E81" s="3">
-        <v>1925200</v>
+        <v>1285900</v>
       </c>
       <c r="F81" s="3">
-        <v>2423800</v>
+        <v>1758200</v>
       </c>
       <c r="G81" s="3">
-        <v>2013400</v>
+        <v>2213500</v>
       </c>
       <c r="H81" s="3">
-        <v>1274000</v>
+        <v>1838800</v>
       </c>
       <c r="I81" s="3">
-        <v>1330300</v>
+        <v>1163500</v>
       </c>
       <c r="J81" s="3">
+        <v>1214900</v>
+      </c>
+      <c r="K81" s="3">
         <v>1531000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1103200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6856100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6980400</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3099,44 +3296,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2708900</v>
+        <v>2642000</v>
       </c>
       <c r="E83" s="3">
-        <v>3181500</v>
+        <v>2473900</v>
       </c>
       <c r="F83" s="3">
-        <v>2525200</v>
+        <v>2905500</v>
       </c>
       <c r="G83" s="3">
-        <v>2454500</v>
+        <v>2306200</v>
       </c>
       <c r="H83" s="3">
-        <v>2309600</v>
+        <v>2241600</v>
       </c>
       <c r="I83" s="3">
-        <v>2374700</v>
+        <v>2109300</v>
       </c>
       <c r="J83" s="3">
+        <v>2168700</v>
+      </c>
+      <c r="K83" s="3">
         <v>2444100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3032700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3084800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3056500</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3170,9 +3371,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3206,9 +3410,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3242,9 +3449,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3278,9 +3488,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3314,45 +3527,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4295200</v>
+        <v>1968000</v>
       </c>
       <c r="E89" s="3">
-        <v>3669300</v>
+        <v>3922600</v>
       </c>
       <c r="F89" s="3">
-        <v>1737400</v>
+        <v>3351000</v>
       </c>
       <c r="G89" s="3">
-        <v>3609700</v>
+        <v>1586600</v>
       </c>
       <c r="H89" s="3">
-        <v>3287500</v>
+        <v>3296600</v>
       </c>
       <c r="I89" s="3">
-        <v>3577100</v>
+        <v>3002300</v>
       </c>
       <c r="J89" s="3">
+        <v>3266800</v>
+      </c>
+      <c r="K89" s="3">
         <v>4192200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5330700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3079200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-333500</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3367,44 +3586,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1971400</v>
+        <v>-1822600</v>
       </c>
       <c r="E91" s="3">
-        <v>-2336500</v>
+        <v>-1800400</v>
       </c>
       <c r="F91" s="3">
-        <v>-2696200</v>
+        <v>-2133800</v>
       </c>
       <c r="G91" s="3">
-        <v>-3365000</v>
+        <v>-2462300</v>
       </c>
       <c r="H91" s="3">
-        <v>-2376400</v>
+        <v>-3073000</v>
       </c>
       <c r="I91" s="3">
-        <v>-4155000</v>
+        <v>-2170200</v>
       </c>
       <c r="J91" s="3">
+        <v>-3794500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1912100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1847900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2910300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4126500</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3438,9 +3661,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3474,45 +3700,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1506400</v>
+        <v>-6202000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1758000</v>
+        <v>1375700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1649600</v>
+        <v>-1605500</v>
       </c>
       <c r="G94" s="3">
-        <v>-3913800</v>
+        <v>-1506500</v>
       </c>
       <c r="H94" s="3">
-        <v>-3583900</v>
+        <v>-3574300</v>
       </c>
       <c r="I94" s="3">
-        <v>-2506100</v>
+        <v>-3273000</v>
       </c>
       <c r="J94" s="3">
+        <v>-2288700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1177200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>111100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>149100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2739100</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3527,44 +3759,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-497500</v>
+        <v>-454500</v>
       </c>
       <c r="E96" s="3">
-        <v>-596900</v>
+        <v>-454400</v>
       </c>
       <c r="F96" s="3">
-        <v>-696300</v>
+        <v>-545100</v>
       </c>
       <c r="G96" s="3">
-        <v>-497400</v>
+        <v>-635900</v>
       </c>
       <c r="H96" s="3">
-        <v>-495000</v>
+        <v>-454200</v>
       </c>
       <c r="I96" s="3">
-        <v>-395100</v>
+        <v>-452000</v>
       </c>
       <c r="J96" s="3">
+        <v>-360800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-315500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-105900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-105100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-198100</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3598,9 +3834,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3634,9 +3873,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3670,115 +3912,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1515800</v>
+        <v>458900</v>
       </c>
       <c r="E100" s="3">
-        <v>411300</v>
+        <v>-1384300</v>
       </c>
       <c r="F100" s="3">
-        <v>-2915200</v>
+        <v>375600</v>
       </c>
       <c r="G100" s="3">
-        <v>-1098300</v>
+        <v>-2662300</v>
       </c>
       <c r="H100" s="3">
-        <v>2512900</v>
+        <v>-1003100</v>
       </c>
       <c r="I100" s="3">
-        <v>-2640600</v>
+        <v>2294900</v>
       </c>
       <c r="J100" s="3">
+        <v>-2411500</v>
+      </c>
+      <c r="K100" s="3">
         <v>2197500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4876000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4463700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-480000</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>633600</v>
+        <v>757600</v>
       </c>
       <c r="E101" s="3">
-        <v>-239300</v>
+        <v>578700</v>
       </c>
       <c r="F101" s="3">
-        <v>120700</v>
+        <v>-218500</v>
       </c>
       <c r="G101" s="3">
-        <v>-143200</v>
+        <v>110200</v>
       </c>
       <c r="H101" s="3">
-        <v>-14800</v>
+        <v>-130800</v>
       </c>
       <c r="I101" s="3">
-        <v>-710200</v>
+        <v>-13500</v>
       </c>
       <c r="J101" s="3">
+        <v>-648600</v>
+      </c>
+      <c r="K101" s="3">
         <v>655700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>315300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>525200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-67100</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4919400</v>
+        <v>-3017500</v>
       </c>
       <c r="E102" s="3">
-        <v>2083400</v>
+        <v>4492600</v>
       </c>
       <c r="F102" s="3">
-        <v>-2706700</v>
+        <v>1902600</v>
       </c>
       <c r="G102" s="3">
-        <v>-1545700</v>
+        <v>-2471900</v>
       </c>
       <c r="H102" s="3">
-        <v>2201800</v>
+        <v>-1411600</v>
       </c>
       <c r="I102" s="3">
-        <v>-2279900</v>
+        <v>2010800</v>
       </c>
       <c r="J102" s="3">
+        <v>-2082100</v>
+      </c>
+      <c r="K102" s="3">
         <v>5868100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>881000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-710200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3619800</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PCRFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PCRFY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>PCRFY</t>
   </si>
@@ -725,25 +725,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>57558700</v>
+        <v>54159800</v>
       </c>
       <c r="E8" s="3">
-        <v>52183600</v>
+        <v>49102200</v>
       </c>
       <c r="F8" s="3">
-        <v>58351800</v>
+        <v>54906100</v>
       </c>
       <c r="G8" s="3">
-        <v>62341300</v>
+        <v>58660000</v>
       </c>
       <c r="H8" s="3">
-        <v>62181100</v>
+        <v>58509300</v>
       </c>
       <c r="I8" s="3">
-        <v>57207500</v>
+        <v>53829400</v>
       </c>
       <c r="J8" s="3">
-        <v>59408900</v>
+        <v>55900800</v>
       </c>
       <c r="K8" s="3">
         <v>65809300</v>
@@ -764,25 +764,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>41338300</v>
+        <v>38882600</v>
       </c>
       <c r="E9" s="3">
-        <v>36799500</v>
+        <v>34626500</v>
       </c>
       <c r="F9" s="3">
-        <v>41595100</v>
+        <v>39139000</v>
       </c>
       <c r="G9" s="3">
-        <v>44685300</v>
+        <v>42046600</v>
       </c>
       <c r="H9" s="3">
-        <v>43958600</v>
+        <v>41362800</v>
       </c>
       <c r="I9" s="3">
-        <v>40174300</v>
+        <v>37802000</v>
       </c>
       <c r="J9" s="3">
-        <v>83412700</v>
+        <v>78487200</v>
       </c>
       <c r="K9" s="3">
         <v>47147100</v>
@@ -803,25 +803,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>16220400</v>
+        <v>15277300</v>
       </c>
       <c r="E10" s="3">
-        <v>15384100</v>
+        <v>14475700</v>
       </c>
       <c r="F10" s="3">
-        <v>16756600</v>
+        <v>15767200</v>
       </c>
       <c r="G10" s="3">
-        <v>17656000</v>
+        <v>16613400</v>
       </c>
       <c r="H10" s="3">
-        <v>18222500</v>
+        <v>17146400</v>
       </c>
       <c r="I10" s="3">
-        <v>17033200</v>
+        <v>16027400</v>
       </c>
       <c r="J10" s="3">
-        <v>-24003800</v>
+        <v>-22586400</v>
       </c>
       <c r="K10" s="3">
         <v>18662100</v>
@@ -877,7 +877,7 @@
         <v>8</v>
       </c>
       <c r="J12" s="3">
-        <v>3504200</v>
+        <v>3297200</v>
       </c>
       <c r="K12" s="3">
         <v>3900300</v>
@@ -936,26 +936,26 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>424500</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>95800</v>
+        <v>174200</v>
       </c>
       <c r="G14" s="3">
-        <v>-879900</v>
+        <v>-828000</v>
       </c>
       <c r="H14" s="3">
-        <v>44400</v>
+        <v>174600</v>
       </c>
       <c r="I14" s="3">
-        <v>165200</v>
+        <v>155400</v>
       </c>
       <c r="J14" s="3">
-        <v>1095300</v>
+        <v>1193500</v>
       </c>
       <c r="K14" s="3">
         <v>478000</v>
@@ -975,26 +975,26 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>959500</v>
       </c>
       <c r="E15" s="3">
-        <v>944700</v>
+        <v>888900</v>
       </c>
       <c r="F15" s="3">
-        <v>1030200</v>
+        <v>969300</v>
       </c>
       <c r="G15" s="3">
-        <v>661700</v>
+        <v>622600</v>
       </c>
       <c r="H15" s="3">
-        <v>661700</v>
+        <v>622700</v>
       </c>
       <c r="I15" s="3">
-        <v>642300</v>
+        <v>604400</v>
       </c>
       <c r="J15" s="3">
-        <v>2490900</v>
+        <v>2343800</v>
       </c>
       <c r="K15" s="3">
         <v>2065500</v>
@@ -1029,25 +1029,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>54773600</v>
+        <v>51539200</v>
       </c>
       <c r="E17" s="3">
-        <v>50169100</v>
+        <v>47206600</v>
       </c>
       <c r="F17" s="3">
-        <v>56063500</v>
+        <v>52752900</v>
       </c>
       <c r="G17" s="3">
-        <v>59135700</v>
+        <v>55643800</v>
       </c>
       <c r="H17" s="3">
-        <v>59216700</v>
+        <v>55719900</v>
       </c>
       <c r="I17" s="3">
-        <v>55051300</v>
+        <v>51800500</v>
       </c>
       <c r="J17" s="3">
-        <v>57614900</v>
+        <v>54212700</v>
       </c>
       <c r="K17" s="3">
         <v>63029500</v>
@@ -1068,25 +1068,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2785100</v>
+        <v>2620700</v>
       </c>
       <c r="E18" s="3">
-        <v>2014500</v>
+        <v>1895500</v>
       </c>
       <c r="F18" s="3">
-        <v>2288300</v>
+        <v>2153200</v>
       </c>
       <c r="G18" s="3">
-        <v>3205600</v>
+        <v>3016300</v>
       </c>
       <c r="H18" s="3">
-        <v>2964400</v>
+        <v>2789400</v>
       </c>
       <c r="I18" s="3">
-        <v>2156100</v>
+        <v>2028800</v>
       </c>
       <c r="J18" s="3">
-        <v>1794000</v>
+        <v>1688100</v>
       </c>
       <c r="K18" s="3">
         <v>2779800</v>
@@ -1124,25 +1124,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>22300</v>
+        <v>162200</v>
       </c>
       <c r="E20" s="3">
-        <v>151700</v>
+        <v>142700</v>
       </c>
       <c r="F20" s="3">
-        <v>244300</v>
+        <v>229900</v>
       </c>
       <c r="G20" s="3">
-        <v>199400</v>
+        <v>187700</v>
       </c>
       <c r="H20" s="3">
-        <v>177400</v>
+        <v>166900</v>
       </c>
       <c r="I20" s="3">
-        <v>170100</v>
+        <v>160000</v>
       </c>
       <c r="J20" s="3">
-        <v>316500</v>
+        <v>297800</v>
       </c>
       <c r="K20" s="3">
         <v>-1073600</v>
@@ -1163,25 +1163,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5415500</v>
+        <v>5255300</v>
       </c>
       <c r="E21" s="3">
-        <v>4608300</v>
+        <v>4353300</v>
       </c>
       <c r="F21" s="3">
-        <v>5400800</v>
+        <v>5102100</v>
       </c>
       <c r="G21" s="3">
-        <v>5681600</v>
+        <v>5362100</v>
       </c>
       <c r="H21" s="3">
-        <v>5354600</v>
+        <v>5054000</v>
       </c>
       <c r="I21" s="3">
-        <v>4408400</v>
+        <v>4162700</v>
       </c>
       <c r="J21" s="3">
-        <v>4251300</v>
+        <v>4015300</v>
       </c>
       <c r="K21" s="3">
         <v>4178900</v>
@@ -1201,26 +1201,26 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>141200</v>
       </c>
       <c r="E22" s="3">
-        <v>134400</v>
+        <v>126400</v>
       </c>
       <c r="F22" s="3">
-        <v>265300</v>
+        <v>249700</v>
       </c>
       <c r="G22" s="3">
-        <v>160800</v>
+        <v>151300</v>
       </c>
       <c r="H22" s="3">
-        <v>192600</v>
+        <v>181200</v>
       </c>
       <c r="I22" s="3">
-        <v>183500</v>
+        <v>172600</v>
       </c>
       <c r="J22" s="3">
-        <v>338000</v>
+        <v>318100</v>
       </c>
       <c r="K22" s="3">
         <v>149800</v>
@@ -1241,25 +1241,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2807500</v>
+        <v>2641700</v>
       </c>
       <c r="E23" s="3">
-        <v>2031800</v>
+        <v>1911800</v>
       </c>
       <c r="F23" s="3">
-        <v>2267300</v>
+        <v>2133400</v>
       </c>
       <c r="G23" s="3">
-        <v>3244200</v>
+        <v>3052600</v>
       </c>
       <c r="H23" s="3">
-        <v>2949200</v>
+        <v>2775100</v>
       </c>
       <c r="I23" s="3">
-        <v>2142800</v>
+        <v>2016200</v>
       </c>
       <c r="J23" s="3">
-        <v>1772500</v>
+        <v>1667800</v>
       </c>
       <c r="K23" s="3">
         <v>1556300</v>
@@ -1280,25 +1280,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>739700</v>
+        <v>696000</v>
       </c>
       <c r="E24" s="3">
-        <v>599300</v>
+        <v>563900</v>
       </c>
       <c r="F24" s="3">
-        <v>397400</v>
+        <v>373900</v>
       </c>
       <c r="G24" s="3">
-        <v>885900</v>
+        <v>833600</v>
       </c>
       <c r="H24" s="3">
-        <v>985900</v>
+        <v>927700</v>
       </c>
       <c r="I24" s="3">
-        <v>799400</v>
+        <v>752200</v>
       </c>
       <c r="J24" s="3">
-        <v>282700</v>
+        <v>266000</v>
       </c>
       <c r="K24" s="3">
         <v>-16900</v>
@@ -1358,25 +1358,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2067800</v>
+        <v>1945700</v>
       </c>
       <c r="E26" s="3">
-        <v>1432500</v>
+        <v>1347900</v>
       </c>
       <c r="F26" s="3">
-        <v>1869900</v>
+        <v>1759500</v>
       </c>
       <c r="G26" s="3">
-        <v>2358300</v>
+        <v>2219100</v>
       </c>
       <c r="H26" s="3">
-        <v>1963300</v>
+        <v>1847400</v>
       </c>
       <c r="I26" s="3">
-        <v>1343300</v>
+        <v>1264000</v>
       </c>
       <c r="J26" s="3">
-        <v>1489700</v>
+        <v>1401700</v>
       </c>
       <c r="K26" s="3">
         <v>1573200</v>
@@ -1397,25 +1397,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1989100</v>
+        <v>1871500</v>
       </c>
       <c r="E27" s="3">
-        <v>1285900</v>
+        <v>1210000</v>
       </c>
       <c r="F27" s="3">
-        <v>1758200</v>
+        <v>1654400</v>
       </c>
       <c r="G27" s="3">
-        <v>2213500</v>
+        <v>2082800</v>
       </c>
       <c r="H27" s="3">
-        <v>1838800</v>
+        <v>1730200</v>
       </c>
       <c r="I27" s="3">
-        <v>1163500</v>
+        <v>1094800</v>
       </c>
       <c r="J27" s="3">
-        <v>1214900</v>
+        <v>1143200</v>
       </c>
       <c r="K27" s="3">
         <v>1531000</v>
@@ -1592,25 +1592,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-22300</v>
+        <v>-162200</v>
       </c>
       <c r="E32" s="3">
-        <v>-151700</v>
+        <v>-142700</v>
       </c>
       <c r="F32" s="3">
-        <v>-244300</v>
+        <v>-229900</v>
       </c>
       <c r="G32" s="3">
-        <v>-199400</v>
+        <v>-187700</v>
       </c>
       <c r="H32" s="3">
-        <v>-177400</v>
+        <v>-166900</v>
       </c>
       <c r="I32" s="3">
-        <v>-170100</v>
+        <v>-160000</v>
       </c>
       <c r="J32" s="3">
-        <v>-316500</v>
+        <v>-297800</v>
       </c>
       <c r="K32" s="3">
         <v>1073600</v>
@@ -1631,25 +1631,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1989100</v>
+        <v>1871500</v>
       </c>
       <c r="E33" s="3">
-        <v>1285900</v>
+        <v>1210000</v>
       </c>
       <c r="F33" s="3">
-        <v>1758200</v>
+        <v>1654400</v>
       </c>
       <c r="G33" s="3">
-        <v>2213500</v>
+        <v>2082800</v>
       </c>
       <c r="H33" s="3">
-        <v>1838800</v>
+        <v>1730200</v>
       </c>
       <c r="I33" s="3">
-        <v>1163500</v>
+        <v>1094800</v>
       </c>
       <c r="J33" s="3">
-        <v>1214900</v>
+        <v>1143200</v>
       </c>
       <c r="K33" s="3">
         <v>1531000</v>
@@ -1709,25 +1709,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1989100</v>
+        <v>1871500</v>
       </c>
       <c r="E35" s="3">
-        <v>1285900</v>
+        <v>1210000</v>
       </c>
       <c r="F35" s="3">
-        <v>1758200</v>
+        <v>1654400</v>
       </c>
       <c r="G35" s="3">
-        <v>2213500</v>
+        <v>2082800</v>
       </c>
       <c r="H35" s="3">
-        <v>1838800</v>
+        <v>1730200</v>
       </c>
       <c r="I35" s="3">
-        <v>1163500</v>
+        <v>1094800</v>
       </c>
       <c r="J35" s="3">
-        <v>1214900</v>
+        <v>1143200</v>
       </c>
       <c r="K35" s="3">
         <v>1531000</v>
@@ -1826,25 +1826,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9393800</v>
+        <v>8839000</v>
       </c>
       <c r="E41" s="3">
-        <v>12411200</v>
+        <v>11678300</v>
       </c>
       <c r="F41" s="3">
-        <v>7918600</v>
+        <v>7451000</v>
       </c>
       <c r="G41" s="3">
-        <v>6015900</v>
+        <v>5660700</v>
       </c>
       <c r="H41" s="3">
-        <v>8487900</v>
+        <v>7986700</v>
       </c>
       <c r="I41" s="3">
-        <v>9899400</v>
+        <v>9314900</v>
       </c>
       <c r="J41" s="3">
-        <v>15790900</v>
+        <v>14858500</v>
       </c>
       <c r="K41" s="3">
         <v>11079400</v>
@@ -1865,25 +1865,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1640800</v>
+        <v>1543900</v>
       </c>
       <c r="E42" s="3">
-        <v>1165600</v>
+        <v>1096800</v>
       </c>
       <c r="F42" s="3">
-        <v>1156300</v>
+        <v>1088000</v>
       </c>
       <c r="G42" s="3">
-        <v>1022900</v>
+        <v>962500</v>
       </c>
       <c r="H42" s="3">
-        <v>1585700</v>
+        <v>1492100</v>
       </c>
       <c r="I42" s="3">
-        <v>1118000</v>
+        <v>1052000</v>
       </c>
       <c r="J42" s="3">
-        <v>1289200</v>
+        <v>1213100</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -1904,25 +1904,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10318800</v>
+        <v>9709400</v>
       </c>
       <c r="E43" s="3">
-        <v>9304300</v>
+        <v>8754900</v>
       </c>
       <c r="F43" s="3">
-        <v>8188900</v>
+        <v>7705300</v>
       </c>
       <c r="G43" s="3">
-        <v>9274900</v>
+        <v>8727200</v>
       </c>
       <c r="H43" s="3">
-        <v>8093700</v>
+        <v>7615800</v>
       </c>
       <c r="I43" s="3">
-        <v>6598200</v>
+        <v>6208500</v>
       </c>
       <c r="J43" s="3">
-        <v>12923700</v>
+        <v>12160500</v>
       </c>
       <c r="K43" s="3">
         <v>8462600</v>
@@ -1943,25 +1943,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8823500</v>
+        <v>8302400</v>
       </c>
       <c r="E44" s="3">
-        <v>6485700</v>
+        <v>6102700</v>
       </c>
       <c r="F44" s="3">
-        <v>6181500</v>
+        <v>5816500</v>
       </c>
       <c r="G44" s="3">
-        <v>7918000</v>
+        <v>7450500</v>
       </c>
       <c r="H44" s="3">
-        <v>7701300</v>
+        <v>7246500</v>
       </c>
       <c r="I44" s="3">
-        <v>6281100</v>
+        <v>5910200</v>
       </c>
       <c r="J44" s="3">
-        <v>11888300</v>
+        <v>11186300</v>
       </c>
       <c r="K44" s="3">
         <v>6505600</v>
@@ -1982,25 +1982,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1226200</v>
+        <v>1153800</v>
       </c>
       <c r="E45" s="3">
-        <v>1191400</v>
+        <v>1121000</v>
       </c>
       <c r="F45" s="3">
-        <v>3319900</v>
+        <v>3123900</v>
       </c>
       <c r="G45" s="3">
-        <v>1273400</v>
+        <v>1198200</v>
       </c>
       <c r="H45" s="3">
-        <v>1287100</v>
+        <v>1211100</v>
       </c>
       <c r="I45" s="3">
-        <v>1068800</v>
+        <v>1005700</v>
       </c>
       <c r="J45" s="3">
-        <v>4443800</v>
+        <v>4181300</v>
       </c>
       <c r="K45" s="3">
         <v>3063100</v>
@@ -2021,25 +2021,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>31403000</v>
+        <v>29548700</v>
       </c>
       <c r="E46" s="3">
-        <v>30558200</v>
+        <v>28753700</v>
       </c>
       <c r="F46" s="3">
-        <v>26765200</v>
+        <v>25184700</v>
       </c>
       <c r="G46" s="3">
-        <v>25505200</v>
+        <v>23999100</v>
       </c>
       <c r="H46" s="3">
-        <v>27155600</v>
+        <v>25552100</v>
       </c>
       <c r="I46" s="3">
-        <v>24965500</v>
+        <v>23491300</v>
       </c>
       <c r="J46" s="3">
-        <v>22542400</v>
+        <v>21211300</v>
       </c>
       <c r="K46" s="3">
         <v>29110700</v>
@@ -2060,25 +2060,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4800400</v>
+        <v>4516900</v>
       </c>
       <c r="E47" s="3">
-        <v>5351600</v>
+        <v>5035600</v>
       </c>
       <c r="F47" s="3">
-        <v>4067600</v>
+        <v>3827400</v>
       </c>
       <c r="G47" s="3">
-        <v>2747600</v>
+        <v>2585400</v>
       </c>
       <c r="H47" s="3">
-        <v>2449400</v>
+        <v>2304700</v>
       </c>
       <c r="I47" s="3">
-        <v>2477000</v>
+        <v>2330700</v>
       </c>
       <c r="J47" s="3">
-        <v>5099200</v>
+        <v>4798100</v>
       </c>
       <c r="K47" s="3">
         <v>2675600</v>
@@ -2099,25 +2099,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10696100</v>
+        <v>10064500</v>
       </c>
       <c r="E48" s="3">
-        <v>10217100</v>
+        <v>9613800</v>
       </c>
       <c r="F48" s="3">
-        <v>10093600</v>
+        <v>9497500</v>
       </c>
       <c r="G48" s="3">
-        <v>10316900</v>
+        <v>9707700</v>
       </c>
       <c r="H48" s="3">
-        <v>10704000</v>
+        <v>10071900</v>
       </c>
       <c r="I48" s="3">
-        <v>10308400</v>
+        <v>9699700</v>
       </c>
       <c r="J48" s="3">
-        <v>20171500</v>
+        <v>18980400</v>
       </c>
       <c r="K48" s="3">
         <v>11727300</v>
@@ -2137,26 +2137,26 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
+      <c r="D49" s="3">
+        <v>12314600</v>
       </c>
       <c r="E49" s="3">
-        <v>4689900</v>
+        <v>4413000</v>
       </c>
       <c r="F49" s="3">
-        <v>4834600</v>
+        <v>4549100</v>
       </c>
       <c r="G49" s="3">
-        <v>5605300</v>
+        <v>5274400</v>
       </c>
       <c r="H49" s="3">
-        <v>5751000</v>
+        <v>5411400</v>
       </c>
       <c r="I49" s="3">
-        <v>5181400</v>
+        <v>4875400</v>
       </c>
       <c r="J49" s="3">
-        <v>8505400</v>
+        <v>8003200</v>
       </c>
       <c r="K49" s="3">
         <v>5373900</v>
@@ -2255,25 +2255,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15604200</v>
+        <v>2368200</v>
       </c>
       <c r="E52" s="3">
-        <v>2521900</v>
+        <v>2373000</v>
       </c>
       <c r="F52" s="3">
-        <v>2681400</v>
+        <v>2523000</v>
       </c>
       <c r="G52" s="3">
-        <v>2673500</v>
+        <v>2515600</v>
       </c>
       <c r="H52" s="3">
-        <v>2948100</v>
+        <v>2774000</v>
       </c>
       <c r="I52" s="3">
-        <v>3675000</v>
+        <v>3458000</v>
       </c>
       <c r="J52" s="3">
-        <v>6240200</v>
+        <v>5871700</v>
       </c>
       <c r="K52" s="3">
         <v>1925300</v>
@@ -2333,25 +2333,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>62503700</v>
+        <v>58812900</v>
       </c>
       <c r="E54" s="3">
-        <v>53338700</v>
+        <v>50189000</v>
       </c>
       <c r="F54" s="3">
-        <v>48442300</v>
+        <v>45581700</v>
       </c>
       <c r="G54" s="3">
-        <v>46848500</v>
+        <v>44082100</v>
       </c>
       <c r="H54" s="3">
-        <v>49008000</v>
+        <v>46114100</v>
       </c>
       <c r="I54" s="3">
-        <v>46607300</v>
+        <v>43855100</v>
       </c>
       <c r="J54" s="3">
-        <v>42751700</v>
+        <v>40227200</v>
       </c>
       <c r="K54" s="3">
         <v>50812800</v>
@@ -2406,25 +2406,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12964000</v>
+        <v>12198400</v>
       </c>
       <c r="E57" s="3">
-        <v>8145400</v>
+        <v>7664400</v>
       </c>
       <c r="F57" s="3">
-        <v>7553900</v>
+        <v>7107900</v>
       </c>
       <c r="G57" s="3">
-        <v>8967600</v>
+        <v>8438100</v>
       </c>
       <c r="H57" s="3">
-        <v>8931000</v>
+        <v>8403700</v>
       </c>
       <c r="I57" s="3">
-        <v>7447000</v>
+        <v>7007200</v>
       </c>
       <c r="J57" s="3">
-        <v>14311600</v>
+        <v>13466500</v>
       </c>
       <c r="K57" s="3">
         <v>8387600</v>
@@ -2445,25 +2445,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3843700</v>
+        <v>3616700</v>
       </c>
       <c r="E58" s="3">
-        <v>2875600</v>
+        <v>2705800</v>
       </c>
       <c r="F58" s="3">
-        <v>2453800</v>
+        <v>2308900</v>
       </c>
       <c r="G58" s="3">
-        <v>3037700</v>
+        <v>2858400</v>
       </c>
       <c r="H58" s="3">
-        <v>2924300</v>
+        <v>2751600</v>
       </c>
       <c r="I58" s="3">
-        <v>1379100</v>
+        <v>1297700</v>
       </c>
       <c r="J58" s="3">
-        <v>338500</v>
+        <v>318500</v>
       </c>
       <c r="K58" s="3">
         <v>2222300</v>
@@ -2484,25 +2484,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7072300</v>
+        <v>6654700</v>
       </c>
       <c r="E59" s="3">
-        <v>10824800</v>
+        <v>10185600</v>
       </c>
       <c r="F59" s="3">
-        <v>10371700</v>
+        <v>9759300</v>
       </c>
       <c r="G59" s="3">
-        <v>11282400</v>
+        <v>10616200</v>
       </c>
       <c r="H59" s="3">
-        <v>12277600</v>
+        <v>11552600</v>
       </c>
       <c r="I59" s="3">
-        <v>12300900</v>
+        <v>11574500</v>
       </c>
       <c r="J59" s="3">
-        <v>23242300</v>
+        <v>21869900</v>
       </c>
       <c r="K59" s="3">
         <v>12700900</v>
@@ -2523,25 +2523,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>23880000</v>
+        <v>22469900</v>
       </c>
       <c r="E60" s="3">
-        <v>21845700</v>
+        <v>20555700</v>
       </c>
       <c r="F60" s="3">
-        <v>20379500</v>
+        <v>19176100</v>
       </c>
       <c r="G60" s="3">
-        <v>23287800</v>
+        <v>21912700</v>
       </c>
       <c r="H60" s="3">
-        <v>24132900</v>
+        <v>22707900</v>
       </c>
       <c r="I60" s="3">
-        <v>21127000</v>
+        <v>19879400</v>
       </c>
       <c r="J60" s="3">
-        <v>19345200</v>
+        <v>18202900</v>
       </c>
       <c r="K60" s="3">
         <v>23310800</v>
@@ -2562,25 +2562,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10936200</v>
+        <v>10290400</v>
       </c>
       <c r="E61" s="3">
-        <v>8399900</v>
+        <v>7903800</v>
       </c>
       <c r="F61" s="3">
-        <v>9007700</v>
+        <v>8475800</v>
       </c>
       <c r="G61" s="3">
-        <v>4742300</v>
+        <v>4462300</v>
       </c>
       <c r="H61" s="3">
-        <v>6731000</v>
+        <v>6333500</v>
       </c>
       <c r="I61" s="3">
-        <v>7376900</v>
+        <v>6941300</v>
       </c>
       <c r="J61" s="3">
-        <v>5477300</v>
+        <v>5153800</v>
       </c>
       <c r="K61" s="3">
         <v>6076600</v>
@@ -2601,25 +2601,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1613100</v>
+        <v>1517900</v>
       </c>
       <c r="E62" s="3">
-        <v>1526500</v>
+        <v>1436400</v>
       </c>
       <c r="F62" s="3">
-        <v>2260900</v>
+        <v>2127400</v>
       </c>
       <c r="G62" s="3">
-        <v>2579300</v>
+        <v>2427000</v>
       </c>
       <c r="H62" s="3">
-        <v>3481200</v>
+        <v>3275600</v>
       </c>
       <c r="I62" s="3">
-        <v>4393500</v>
+        <v>4134100</v>
       </c>
       <c r="J62" s="3">
-        <v>10219800</v>
+        <v>9616300</v>
       </c>
       <c r="K62" s="3">
         <v>4428900</v>
@@ -2757,25 +2757,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>37848700</v>
+        <v>35613700</v>
       </c>
       <c r="E66" s="3">
-        <v>33131200</v>
+        <v>31174800</v>
       </c>
       <c r="F66" s="3">
-        <v>32875100</v>
+        <v>30933800</v>
       </c>
       <c r="G66" s="3">
-        <v>31942300</v>
+        <v>30056100</v>
       </c>
       <c r="H66" s="3">
-        <v>35706200</v>
+        <v>33597800</v>
       </c>
       <c r="I66" s="3">
-        <v>34362300</v>
+        <v>32333200</v>
       </c>
       <c r="J66" s="3">
-        <v>31499500</v>
+        <v>29639500</v>
       </c>
       <c r="K66" s="3">
         <v>35260100</v>
@@ -2969,25 +2969,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>18596900</v>
+        <v>17498800</v>
       </c>
       <c r="E72" s="3">
-        <v>16779800</v>
+        <v>15789000</v>
       </c>
       <c r="F72" s="3">
-        <v>12825500</v>
+        <v>12068100</v>
       </c>
       <c r="G72" s="3">
-        <v>11691800</v>
+        <v>11001400</v>
       </c>
       <c r="H72" s="3">
-        <v>10129600</v>
+        <v>9531500</v>
       </c>
       <c r="I72" s="3">
-        <v>8190800</v>
+        <v>7707100</v>
       </c>
       <c r="J72" s="3">
-        <v>15918800</v>
+        <v>14978800</v>
       </c>
       <c r="K72" s="3">
         <v>8711200</v>
@@ -3125,25 +3125,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>24655100</v>
+        <v>23199200</v>
       </c>
       <c r="E76" s="3">
-        <v>20207500</v>
+        <v>19014300</v>
       </c>
       <c r="F76" s="3">
-        <v>15567100</v>
+        <v>14647900</v>
       </c>
       <c r="G76" s="3">
-        <v>14906300</v>
+        <v>14026100</v>
       </c>
       <c r="H76" s="3">
-        <v>13301800</v>
+        <v>12516300</v>
       </c>
       <c r="I76" s="3">
-        <v>12245000</v>
+        <v>11521900</v>
       </c>
       <c r="J76" s="3">
-        <v>11252200</v>
+        <v>10587800</v>
       </c>
       <c r="K76" s="3">
         <v>15552700</v>
@@ -3247,25 +3247,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1989100</v>
+        <v>1871500</v>
       </c>
       <c r="E81" s="3">
-        <v>1285900</v>
+        <v>1210000</v>
       </c>
       <c r="F81" s="3">
-        <v>1758200</v>
+        <v>1654400</v>
       </c>
       <c r="G81" s="3">
-        <v>2213500</v>
+        <v>2082800</v>
       </c>
       <c r="H81" s="3">
-        <v>1838800</v>
+        <v>1730200</v>
       </c>
       <c r="I81" s="3">
-        <v>1163500</v>
+        <v>1094800</v>
       </c>
       <c r="J81" s="3">
-        <v>1214900</v>
+        <v>1143200</v>
       </c>
       <c r="K81" s="3">
         <v>1531000</v>
@@ -3303,25 +3303,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2642000</v>
+        <v>2486000</v>
       </c>
       <c r="E83" s="3">
-        <v>2473900</v>
+        <v>2327800</v>
       </c>
       <c r="F83" s="3">
-        <v>2905500</v>
+        <v>2733900</v>
       </c>
       <c r="G83" s="3">
-        <v>2306200</v>
+        <v>2170000</v>
       </c>
       <c r="H83" s="3">
-        <v>2241600</v>
+        <v>2109200</v>
       </c>
       <c r="I83" s="3">
-        <v>2109300</v>
+        <v>1984700</v>
       </c>
       <c r="J83" s="3">
-        <v>2168700</v>
+        <v>2040600</v>
       </c>
       <c r="K83" s="3">
         <v>2444100</v>
@@ -3537,25 +3537,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1968000</v>
+        <v>1855100</v>
       </c>
       <c r="E89" s="3">
-        <v>3922600</v>
+        <v>3691000</v>
       </c>
       <c r="F89" s="3">
-        <v>3351000</v>
+        <v>3153100</v>
       </c>
       <c r="G89" s="3">
-        <v>1586600</v>
+        <v>1493000</v>
       </c>
       <c r="H89" s="3">
-        <v>3296600</v>
+        <v>3101900</v>
       </c>
       <c r="I89" s="3">
-        <v>3002300</v>
+        <v>2825100</v>
       </c>
       <c r="J89" s="3">
-        <v>3266800</v>
+        <v>3073900</v>
       </c>
       <c r="K89" s="3">
         <v>4192200</v>
@@ -3593,25 +3593,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1822600</v>
+        <v>-1715000</v>
       </c>
       <c r="E91" s="3">
-        <v>-1800400</v>
+        <v>-1694100</v>
       </c>
       <c r="F91" s="3">
-        <v>-2133800</v>
+        <v>-2007800</v>
       </c>
       <c r="G91" s="3">
-        <v>-2462300</v>
+        <v>-2316900</v>
       </c>
       <c r="H91" s="3">
-        <v>-3073000</v>
+        <v>-2891600</v>
       </c>
       <c r="I91" s="3">
-        <v>-2170200</v>
+        <v>-2042100</v>
       </c>
       <c r="J91" s="3">
-        <v>-3794500</v>
+        <v>-3570500</v>
       </c>
       <c r="K91" s="3">
         <v>-1912100</v>
@@ -3710,25 +3710,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6202000</v>
+        <v>-5835800</v>
       </c>
       <c r="E94" s="3">
-        <v>1375700</v>
+        <v>1294400</v>
       </c>
       <c r="F94" s="3">
-        <v>-1605500</v>
+        <v>-1510700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1506500</v>
+        <v>-1417500</v>
       </c>
       <c r="H94" s="3">
-        <v>-3574300</v>
+        <v>-3363200</v>
       </c>
       <c r="I94" s="3">
-        <v>-3273000</v>
+        <v>-3079700</v>
       </c>
       <c r="J94" s="3">
-        <v>-2288700</v>
+        <v>-2153600</v>
       </c>
       <c r="K94" s="3">
         <v>-1177200</v>
@@ -3766,25 +3766,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-454500</v>
+        <v>-427600</v>
       </c>
       <c r="E96" s="3">
-        <v>-454400</v>
+        <v>-427500</v>
       </c>
       <c r="F96" s="3">
-        <v>-545100</v>
+        <v>-512900</v>
       </c>
       <c r="G96" s="3">
-        <v>-635900</v>
+        <v>-598400</v>
       </c>
       <c r="H96" s="3">
-        <v>-454200</v>
+        <v>-427400</v>
       </c>
       <c r="I96" s="3">
-        <v>-452000</v>
+        <v>-425300</v>
       </c>
       <c r="J96" s="3">
-        <v>-360800</v>
+        <v>-339500</v>
       </c>
       <c r="K96" s="3">
         <v>-315500</v>
@@ -3922,25 +3922,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>458900</v>
+        <v>431800</v>
       </c>
       <c r="E100" s="3">
-        <v>-1384300</v>
+        <v>-1302600</v>
       </c>
       <c r="F100" s="3">
-        <v>375600</v>
+        <v>353500</v>
       </c>
       <c r="G100" s="3">
-        <v>-2662300</v>
+        <v>-2505100</v>
       </c>
       <c r="H100" s="3">
-        <v>-1003100</v>
+        <v>-943800</v>
       </c>
       <c r="I100" s="3">
-        <v>2294900</v>
+        <v>2159400</v>
       </c>
       <c r="J100" s="3">
-        <v>-2411500</v>
+        <v>-2269100</v>
       </c>
       <c r="K100" s="3">
         <v>2197500</v>
@@ -3961,25 +3961,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>757600</v>
+        <v>709600</v>
       </c>
       <c r="E101" s="3">
-        <v>578700</v>
+        <v>544500</v>
       </c>
       <c r="F101" s="3">
-        <v>-218500</v>
+        <v>-205600</v>
       </c>
       <c r="G101" s="3">
-        <v>110200</v>
+        <v>103700</v>
       </c>
       <c r="H101" s="3">
-        <v>-130800</v>
+        <v>-123100</v>
       </c>
       <c r="I101" s="3">
-        <v>-13500</v>
+        <v>-12700</v>
       </c>
       <c r="J101" s="3">
-        <v>-648600</v>
+        <v>-610300</v>
       </c>
       <c r="K101" s="3">
         <v>655700</v>
@@ -4000,25 +4000,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3017500</v>
+        <v>-2839300</v>
       </c>
       <c r="E102" s="3">
-        <v>4492600</v>
+        <v>4227400</v>
       </c>
       <c r="F102" s="3">
-        <v>1902600</v>
+        <v>1790300</v>
       </c>
       <c r="G102" s="3">
-        <v>-2471900</v>
+        <v>-2326000</v>
       </c>
       <c r="H102" s="3">
-        <v>-1411600</v>
+        <v>-1328200</v>
       </c>
       <c r="I102" s="3">
-        <v>2010800</v>
+        <v>1892000</v>
       </c>
       <c r="J102" s="3">
-        <v>-2082100</v>
+        <v>-1959100</v>
       </c>
       <c r="K102" s="3">
         <v>5868100</v>

--- a/AAII_Financials/Yearly/PCRFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PCRFY_YR_FIN.xlsx
@@ -725,25 +725,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>54159800</v>
+        <v>52386500</v>
       </c>
       <c r="E8" s="3">
-        <v>49102200</v>
+        <v>47494400</v>
       </c>
       <c r="F8" s="3">
-        <v>54906100</v>
+        <v>53108400</v>
       </c>
       <c r="G8" s="3">
-        <v>58660000</v>
+        <v>56739400</v>
       </c>
       <c r="H8" s="3">
-        <v>58509300</v>
+        <v>56593500</v>
       </c>
       <c r="I8" s="3">
-        <v>53829400</v>
+        <v>52066900</v>
       </c>
       <c r="J8" s="3">
-        <v>55900800</v>
+        <v>54070500</v>
       </c>
       <c r="K8" s="3">
         <v>65809300</v>
@@ -764,25 +764,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>38882600</v>
+        <v>37609500</v>
       </c>
       <c r="E9" s="3">
-        <v>34626500</v>
+        <v>33492800</v>
       </c>
       <c r="F9" s="3">
-        <v>39139000</v>
+        <v>37857500</v>
       </c>
       <c r="G9" s="3">
-        <v>42046600</v>
+        <v>40669900</v>
       </c>
       <c r="H9" s="3">
-        <v>41362800</v>
+        <v>40008500</v>
       </c>
       <c r="I9" s="3">
-        <v>37802000</v>
+        <v>36564300</v>
       </c>
       <c r="J9" s="3">
-        <v>78487200</v>
+        <v>75917400</v>
       </c>
       <c r="K9" s="3">
         <v>47147100</v>
@@ -803,25 +803,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>15277300</v>
+        <v>14777100</v>
       </c>
       <c r="E10" s="3">
-        <v>14475700</v>
+        <v>14001700</v>
       </c>
       <c r="F10" s="3">
-        <v>15767200</v>
+        <v>15250900</v>
       </c>
       <c r="G10" s="3">
-        <v>16613400</v>
+        <v>16069500</v>
       </c>
       <c r="H10" s="3">
-        <v>17146400</v>
+        <v>16585000</v>
       </c>
       <c r="I10" s="3">
-        <v>16027400</v>
+        <v>15502600</v>
       </c>
       <c r="J10" s="3">
-        <v>-22586400</v>
+        <v>-21846800</v>
       </c>
       <c r="K10" s="3">
         <v>18662100</v>
@@ -877,7 +877,7 @@
         <v>8</v>
       </c>
       <c r="J12" s="3">
-        <v>3297200</v>
+        <v>3189300</v>
       </c>
       <c r="K12" s="3">
         <v>3900300</v>
@@ -937,25 +937,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>424500</v>
+        <v>410600</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>174200</v>
+        <v>168500</v>
       </c>
       <c r="G14" s="3">
-        <v>-828000</v>
+        <v>-800900</v>
       </c>
       <c r="H14" s="3">
-        <v>174600</v>
+        <v>168900</v>
       </c>
       <c r="I14" s="3">
-        <v>155400</v>
+        <v>150300</v>
       </c>
       <c r="J14" s="3">
-        <v>1193500</v>
+        <v>1154500</v>
       </c>
       <c r="K14" s="3">
         <v>478000</v>
@@ -976,25 +976,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>959500</v>
+        <v>928000</v>
       </c>
       <c r="E15" s="3">
-        <v>888900</v>
+        <v>859800</v>
       </c>
       <c r="F15" s="3">
-        <v>969300</v>
+        <v>937600</v>
       </c>
       <c r="G15" s="3">
-        <v>622600</v>
+        <v>602200</v>
       </c>
       <c r="H15" s="3">
-        <v>622700</v>
+        <v>602300</v>
       </c>
       <c r="I15" s="3">
-        <v>604400</v>
+        <v>584600</v>
       </c>
       <c r="J15" s="3">
-        <v>2343800</v>
+        <v>2267000</v>
       </c>
       <c r="K15" s="3">
         <v>2065500</v>
@@ -1029,25 +1029,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>51539200</v>
+        <v>49851700</v>
       </c>
       <c r="E17" s="3">
-        <v>47206600</v>
+        <v>45661000</v>
       </c>
       <c r="F17" s="3">
-        <v>52752900</v>
+        <v>51025700</v>
       </c>
       <c r="G17" s="3">
-        <v>55643800</v>
+        <v>53821900</v>
       </c>
       <c r="H17" s="3">
-        <v>55719900</v>
+        <v>53895500</v>
       </c>
       <c r="I17" s="3">
-        <v>51800500</v>
+        <v>50104500</v>
       </c>
       <c r="J17" s="3">
-        <v>54212700</v>
+        <v>52437700</v>
       </c>
       <c r="K17" s="3">
         <v>63029500</v>
@@ -1068,25 +1068,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2620700</v>
+        <v>2534900</v>
       </c>
       <c r="E18" s="3">
-        <v>1895500</v>
+        <v>1833500</v>
       </c>
       <c r="F18" s="3">
-        <v>2153200</v>
+        <v>2082700</v>
       </c>
       <c r="G18" s="3">
-        <v>3016300</v>
+        <v>2917500</v>
       </c>
       <c r="H18" s="3">
-        <v>2789400</v>
+        <v>2698000</v>
       </c>
       <c r="I18" s="3">
-        <v>2028800</v>
+        <v>1962400</v>
       </c>
       <c r="J18" s="3">
-        <v>1688100</v>
+        <v>1632800</v>
       </c>
       <c r="K18" s="3">
         <v>2779800</v>
@@ -1124,25 +1124,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>162200</v>
+        <v>156900</v>
       </c>
       <c r="E20" s="3">
-        <v>142700</v>
+        <v>138000</v>
       </c>
       <c r="F20" s="3">
-        <v>229900</v>
+        <v>222300</v>
       </c>
       <c r="G20" s="3">
-        <v>187700</v>
+        <v>181500</v>
       </c>
       <c r="H20" s="3">
-        <v>166900</v>
+        <v>161500</v>
       </c>
       <c r="I20" s="3">
-        <v>160000</v>
+        <v>154800</v>
       </c>
       <c r="J20" s="3">
-        <v>297800</v>
+        <v>288000</v>
       </c>
       <c r="K20" s="3">
         <v>-1073600</v>
@@ -1163,25 +1163,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5255300</v>
+        <v>5008100</v>
       </c>
       <c r="E21" s="3">
-        <v>4353300</v>
+        <v>4140500</v>
       </c>
       <c r="F21" s="3">
-        <v>5102100</v>
+        <v>4852500</v>
       </c>
       <c r="G21" s="3">
-        <v>5362100</v>
+        <v>5121000</v>
       </c>
       <c r="H21" s="3">
-        <v>5054000</v>
+        <v>4824800</v>
       </c>
       <c r="I21" s="3">
-        <v>4162700</v>
+        <v>3966500</v>
       </c>
       <c r="J21" s="3">
-        <v>4015300</v>
+        <v>3822300</v>
       </c>
       <c r="K21" s="3">
         <v>4178900</v>
@@ -1202,25 +1202,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>141200</v>
+        <v>136500</v>
       </c>
       <c r="E22" s="3">
-        <v>126400</v>
+        <v>122300</v>
       </c>
       <c r="F22" s="3">
-        <v>249700</v>
+        <v>241500</v>
       </c>
       <c r="G22" s="3">
-        <v>151300</v>
+        <v>146400</v>
       </c>
       <c r="H22" s="3">
-        <v>181200</v>
+        <v>175300</v>
       </c>
       <c r="I22" s="3">
-        <v>172600</v>
+        <v>167000</v>
       </c>
       <c r="J22" s="3">
-        <v>318100</v>
+        <v>307700</v>
       </c>
       <c r="K22" s="3">
         <v>149800</v>
@@ -1241,25 +1241,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2641700</v>
+        <v>2555200</v>
       </c>
       <c r="E23" s="3">
-        <v>1911800</v>
+        <v>1849200</v>
       </c>
       <c r="F23" s="3">
-        <v>2133400</v>
+        <v>2063500</v>
       </c>
       <c r="G23" s="3">
-        <v>3052600</v>
+        <v>2952700</v>
       </c>
       <c r="H23" s="3">
-        <v>2775100</v>
+        <v>2684200</v>
       </c>
       <c r="I23" s="3">
-        <v>2016200</v>
+        <v>1950200</v>
       </c>
       <c r="J23" s="3">
-        <v>1667800</v>
+        <v>1613200</v>
       </c>
       <c r="K23" s="3">
         <v>1556300</v>
@@ -1280,25 +1280,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>696000</v>
+        <v>673200</v>
       </c>
       <c r="E24" s="3">
-        <v>563900</v>
+        <v>545400</v>
       </c>
       <c r="F24" s="3">
-        <v>373900</v>
+        <v>361700</v>
       </c>
       <c r="G24" s="3">
-        <v>833600</v>
+        <v>806300</v>
       </c>
       <c r="H24" s="3">
-        <v>927700</v>
+        <v>897300</v>
       </c>
       <c r="I24" s="3">
-        <v>752200</v>
+        <v>727600</v>
       </c>
       <c r="J24" s="3">
-        <v>266000</v>
+        <v>257300</v>
       </c>
       <c r="K24" s="3">
         <v>-16900</v>
@@ -1358,25 +1358,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1945700</v>
+        <v>1882000</v>
       </c>
       <c r="E26" s="3">
-        <v>1347900</v>
+        <v>1303800</v>
       </c>
       <c r="F26" s="3">
-        <v>1759500</v>
+        <v>1701900</v>
       </c>
       <c r="G26" s="3">
-        <v>2219100</v>
+        <v>2146400</v>
       </c>
       <c r="H26" s="3">
-        <v>1847400</v>
+        <v>1786900</v>
       </c>
       <c r="I26" s="3">
-        <v>1264000</v>
+        <v>1222600</v>
       </c>
       <c r="J26" s="3">
-        <v>1401700</v>
+        <v>1355800</v>
       </c>
       <c r="K26" s="3">
         <v>1573200</v>
@@ -1397,25 +1397,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1871500</v>
+        <v>1810200</v>
       </c>
       <c r="E27" s="3">
-        <v>1210000</v>
+        <v>1170400</v>
       </c>
       <c r="F27" s="3">
-        <v>1654400</v>
+        <v>1600200</v>
       </c>
       <c r="G27" s="3">
-        <v>2082800</v>
+        <v>2014600</v>
       </c>
       <c r="H27" s="3">
-        <v>1730200</v>
+        <v>1673500</v>
       </c>
       <c r="I27" s="3">
-        <v>1094800</v>
+        <v>1059000</v>
       </c>
       <c r="J27" s="3">
-        <v>1143200</v>
+        <v>1105700</v>
       </c>
       <c r="K27" s="3">
         <v>1531000</v>
@@ -1592,25 +1592,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-162200</v>
+        <v>-156900</v>
       </c>
       <c r="E32" s="3">
-        <v>-142700</v>
+        <v>-138000</v>
       </c>
       <c r="F32" s="3">
-        <v>-229900</v>
+        <v>-222300</v>
       </c>
       <c r="G32" s="3">
-        <v>-187700</v>
+        <v>-181500</v>
       </c>
       <c r="H32" s="3">
-        <v>-166900</v>
+        <v>-161500</v>
       </c>
       <c r="I32" s="3">
-        <v>-160000</v>
+        <v>-154800</v>
       </c>
       <c r="J32" s="3">
-        <v>-297800</v>
+        <v>-288000</v>
       </c>
       <c r="K32" s="3">
         <v>1073600</v>
@@ -1631,25 +1631,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1871500</v>
+        <v>1810200</v>
       </c>
       <c r="E33" s="3">
-        <v>1210000</v>
+        <v>1170400</v>
       </c>
       <c r="F33" s="3">
-        <v>1654400</v>
+        <v>1600200</v>
       </c>
       <c r="G33" s="3">
-        <v>2082800</v>
+        <v>2014600</v>
       </c>
       <c r="H33" s="3">
-        <v>1730200</v>
+        <v>1673500</v>
       </c>
       <c r="I33" s="3">
-        <v>1094800</v>
+        <v>1059000</v>
       </c>
       <c r="J33" s="3">
-        <v>1143200</v>
+        <v>1105700</v>
       </c>
       <c r="K33" s="3">
         <v>1531000</v>
@@ -1709,25 +1709,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1871500</v>
+        <v>1810200</v>
       </c>
       <c r="E35" s="3">
-        <v>1210000</v>
+        <v>1170400</v>
       </c>
       <c r="F35" s="3">
-        <v>1654400</v>
+        <v>1600200</v>
       </c>
       <c r="G35" s="3">
-        <v>2082800</v>
+        <v>2014600</v>
       </c>
       <c r="H35" s="3">
-        <v>1730200</v>
+        <v>1673500</v>
       </c>
       <c r="I35" s="3">
-        <v>1094800</v>
+        <v>1059000</v>
       </c>
       <c r="J35" s="3">
-        <v>1143200</v>
+        <v>1105700</v>
       </c>
       <c r="K35" s="3">
         <v>1531000</v>
@@ -1826,25 +1826,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8839000</v>
+        <v>8549600</v>
       </c>
       <c r="E41" s="3">
-        <v>11678300</v>
+        <v>11296000</v>
       </c>
       <c r="F41" s="3">
-        <v>7451000</v>
+        <v>7207000</v>
       </c>
       <c r="G41" s="3">
-        <v>5660700</v>
+        <v>5475400</v>
       </c>
       <c r="H41" s="3">
-        <v>7986700</v>
+        <v>7725200</v>
       </c>
       <c r="I41" s="3">
-        <v>9314900</v>
+        <v>9009900</v>
       </c>
       <c r="J41" s="3">
-        <v>14858500</v>
+        <v>14372000</v>
       </c>
       <c r="K41" s="3">
         <v>11079400</v>
@@ -1865,25 +1865,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1543900</v>
+        <v>1493400</v>
       </c>
       <c r="E42" s="3">
-        <v>1096800</v>
+        <v>1060900</v>
       </c>
       <c r="F42" s="3">
-        <v>1088000</v>
+        <v>1052400</v>
       </c>
       <c r="G42" s="3">
-        <v>962500</v>
+        <v>931000</v>
       </c>
       <c r="H42" s="3">
-        <v>1492100</v>
+        <v>1443200</v>
       </c>
       <c r="I42" s="3">
-        <v>1052000</v>
+        <v>1017500</v>
       </c>
       <c r="J42" s="3">
-        <v>1213100</v>
+        <v>1173400</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -1904,25 +1904,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9709400</v>
+        <v>9391500</v>
       </c>
       <c r="E43" s="3">
-        <v>8754900</v>
+        <v>8468200</v>
       </c>
       <c r="F43" s="3">
-        <v>7705300</v>
+        <v>7453000</v>
       </c>
       <c r="G43" s="3">
-        <v>8727200</v>
+        <v>8441500</v>
       </c>
       <c r="H43" s="3">
-        <v>7615800</v>
+        <v>7366400</v>
       </c>
       <c r="I43" s="3">
-        <v>6208500</v>
+        <v>6005300</v>
       </c>
       <c r="J43" s="3">
-        <v>12160500</v>
+        <v>11762400</v>
       </c>
       <c r="K43" s="3">
         <v>8462600</v>
@@ -1943,25 +1943,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8302400</v>
+        <v>8030600</v>
       </c>
       <c r="E44" s="3">
-        <v>6102700</v>
+        <v>5902900</v>
       </c>
       <c r="F44" s="3">
-        <v>5816500</v>
+        <v>5626000</v>
       </c>
       <c r="G44" s="3">
-        <v>7450500</v>
+        <v>7206500</v>
       </c>
       <c r="H44" s="3">
-        <v>7246500</v>
+        <v>7009200</v>
       </c>
       <c r="I44" s="3">
-        <v>5910200</v>
+        <v>5716700</v>
       </c>
       <c r="J44" s="3">
-        <v>11186300</v>
+        <v>10820000</v>
       </c>
       <c r="K44" s="3">
         <v>6505600</v>
@@ -1982,25 +1982,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1153800</v>
+        <v>1116000</v>
       </c>
       <c r="E45" s="3">
-        <v>1121000</v>
+        <v>1084300</v>
       </c>
       <c r="F45" s="3">
-        <v>3123900</v>
+        <v>3021600</v>
       </c>
       <c r="G45" s="3">
-        <v>1198200</v>
+        <v>1159000</v>
       </c>
       <c r="H45" s="3">
-        <v>1211100</v>
+        <v>1171400</v>
       </c>
       <c r="I45" s="3">
-        <v>1005700</v>
+        <v>972800</v>
       </c>
       <c r="J45" s="3">
-        <v>4181300</v>
+        <v>4044400</v>
       </c>
       <c r="K45" s="3">
         <v>3063100</v>
@@ -2021,25 +2021,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>29548700</v>
+        <v>28581200</v>
       </c>
       <c r="E46" s="3">
-        <v>28753700</v>
+        <v>27812300</v>
       </c>
       <c r="F46" s="3">
-        <v>25184700</v>
+        <v>24360100</v>
       </c>
       <c r="G46" s="3">
-        <v>23999100</v>
+        <v>23213300</v>
       </c>
       <c r="H46" s="3">
-        <v>25552100</v>
+        <v>24715400</v>
       </c>
       <c r="I46" s="3">
-        <v>23491300</v>
+        <v>22722200</v>
       </c>
       <c r="J46" s="3">
-        <v>21211300</v>
+        <v>20516800</v>
       </c>
       <c r="K46" s="3">
         <v>29110700</v>
@@ -2060,25 +2060,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4516900</v>
+        <v>4369000</v>
       </c>
       <c r="E47" s="3">
-        <v>5035600</v>
+        <v>4870700</v>
       </c>
       <c r="F47" s="3">
-        <v>3827400</v>
+        <v>3702100</v>
       </c>
       <c r="G47" s="3">
-        <v>2585400</v>
+        <v>2500700</v>
       </c>
       <c r="H47" s="3">
-        <v>2304700</v>
+        <v>2229300</v>
       </c>
       <c r="I47" s="3">
-        <v>2330700</v>
+        <v>2254400</v>
       </c>
       <c r="J47" s="3">
-        <v>4798100</v>
+        <v>4641000</v>
       </c>
       <c r="K47" s="3">
         <v>2675600</v>
@@ -2099,25 +2099,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10064500</v>
+        <v>9734900</v>
       </c>
       <c r="E48" s="3">
-        <v>9613800</v>
+        <v>9299000</v>
       </c>
       <c r="F48" s="3">
-        <v>9497500</v>
+        <v>9186600</v>
       </c>
       <c r="G48" s="3">
-        <v>9707700</v>
+        <v>9389800</v>
       </c>
       <c r="H48" s="3">
-        <v>10071900</v>
+        <v>9742100</v>
       </c>
       <c r="I48" s="3">
-        <v>9699700</v>
+        <v>9382100</v>
       </c>
       <c r="J48" s="3">
-        <v>18980400</v>
+        <v>18358900</v>
       </c>
       <c r="K48" s="3">
         <v>11727300</v>
@@ -2138,25 +2138,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12314600</v>
+        <v>11911400</v>
       </c>
       <c r="E49" s="3">
-        <v>4413000</v>
+        <v>4268500</v>
       </c>
       <c r="F49" s="3">
-        <v>4549100</v>
+        <v>4400100</v>
       </c>
       <c r="G49" s="3">
-        <v>5274400</v>
+        <v>5101700</v>
       </c>
       <c r="H49" s="3">
-        <v>5411400</v>
+        <v>5234200</v>
       </c>
       <c r="I49" s="3">
-        <v>4875400</v>
+        <v>4715800</v>
       </c>
       <c r="J49" s="3">
-        <v>8003200</v>
+        <v>7741200</v>
       </c>
       <c r="K49" s="3">
         <v>5373900</v>
@@ -2255,25 +2255,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2368200</v>
+        <v>2290700</v>
       </c>
       <c r="E52" s="3">
-        <v>2373000</v>
+        <v>2295300</v>
       </c>
       <c r="F52" s="3">
-        <v>2523000</v>
+        <v>2440400</v>
       </c>
       <c r="G52" s="3">
-        <v>2515600</v>
+        <v>2433300</v>
       </c>
       <c r="H52" s="3">
-        <v>2774000</v>
+        <v>2683200</v>
       </c>
       <c r="I52" s="3">
-        <v>3458000</v>
+        <v>3344700</v>
       </c>
       <c r="J52" s="3">
-        <v>5871700</v>
+        <v>5679400</v>
       </c>
       <c r="K52" s="3">
         <v>1925300</v>
@@ -2333,25 +2333,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>58812900</v>
+        <v>56887200</v>
       </c>
       <c r="E54" s="3">
-        <v>50189000</v>
+        <v>48545700</v>
       </c>
       <c r="F54" s="3">
-        <v>45581700</v>
+        <v>44089300</v>
       </c>
       <c r="G54" s="3">
-        <v>44082100</v>
+        <v>42638800</v>
       </c>
       <c r="H54" s="3">
-        <v>46114100</v>
+        <v>44604200</v>
       </c>
       <c r="I54" s="3">
-        <v>43855100</v>
+        <v>42419200</v>
       </c>
       <c r="J54" s="3">
-        <v>40227200</v>
+        <v>38910100</v>
       </c>
       <c r="K54" s="3">
         <v>50812800</v>
@@ -2406,25 +2406,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12198400</v>
+        <v>11799000</v>
       </c>
       <c r="E57" s="3">
-        <v>7664400</v>
+        <v>7413400</v>
       </c>
       <c r="F57" s="3">
-        <v>7107900</v>
+        <v>6875100</v>
       </c>
       <c r="G57" s="3">
-        <v>8438100</v>
+        <v>8161800</v>
       </c>
       <c r="H57" s="3">
-        <v>8403700</v>
+        <v>8128500</v>
       </c>
       <c r="I57" s="3">
-        <v>7007200</v>
+        <v>6777800</v>
       </c>
       <c r="J57" s="3">
-        <v>13466500</v>
+        <v>13025500</v>
       </c>
       <c r="K57" s="3">
         <v>8387600</v>
@@ -2445,25 +2445,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3616700</v>
+        <v>3498300</v>
       </c>
       <c r="E58" s="3">
-        <v>2705800</v>
+        <v>2617200</v>
       </c>
       <c r="F58" s="3">
-        <v>2308900</v>
+        <v>2233300</v>
       </c>
       <c r="G58" s="3">
-        <v>2858400</v>
+        <v>2764800</v>
       </c>
       <c r="H58" s="3">
-        <v>2751600</v>
+        <v>2661500</v>
       </c>
       <c r="I58" s="3">
-        <v>1297700</v>
+        <v>1255200</v>
       </c>
       <c r="J58" s="3">
-        <v>318500</v>
+        <v>308100</v>
       </c>
       <c r="K58" s="3">
         <v>2222300</v>
@@ -2484,25 +2484,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6654700</v>
+        <v>6436800</v>
       </c>
       <c r="E59" s="3">
-        <v>10185600</v>
+        <v>9852100</v>
       </c>
       <c r="F59" s="3">
-        <v>9759300</v>
+        <v>9439800</v>
       </c>
       <c r="G59" s="3">
-        <v>10616200</v>
+        <v>10268600</v>
       </c>
       <c r="H59" s="3">
-        <v>11552600</v>
+        <v>11174300</v>
       </c>
       <c r="I59" s="3">
-        <v>11574500</v>
+        <v>11195500</v>
       </c>
       <c r="J59" s="3">
-        <v>21869900</v>
+        <v>21153800</v>
       </c>
       <c r="K59" s="3">
         <v>12700900</v>
@@ -2523,25 +2523,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>22469900</v>
+        <v>21734100</v>
       </c>
       <c r="E60" s="3">
-        <v>20555700</v>
+        <v>19882700</v>
       </c>
       <c r="F60" s="3">
-        <v>19176100</v>
+        <v>18548200</v>
       </c>
       <c r="G60" s="3">
-        <v>21912700</v>
+        <v>21195200</v>
       </c>
       <c r="H60" s="3">
-        <v>22707900</v>
+        <v>21964400</v>
       </c>
       <c r="I60" s="3">
-        <v>19879400</v>
+        <v>19228500</v>
       </c>
       <c r="J60" s="3">
-        <v>18202900</v>
+        <v>17606900</v>
       </c>
       <c r="K60" s="3">
         <v>23310800</v>
@@ -2562,25 +2562,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10290400</v>
+        <v>9953500</v>
       </c>
       <c r="E61" s="3">
-        <v>7903800</v>
+        <v>7645100</v>
       </c>
       <c r="F61" s="3">
-        <v>8475800</v>
+        <v>8198300</v>
       </c>
       <c r="G61" s="3">
-        <v>4462300</v>
+        <v>4316200</v>
       </c>
       <c r="H61" s="3">
-        <v>6333500</v>
+        <v>6126100</v>
       </c>
       <c r="I61" s="3">
-        <v>6941300</v>
+        <v>6714000</v>
       </c>
       <c r="J61" s="3">
-        <v>5153800</v>
+        <v>4985100</v>
       </c>
       <c r="K61" s="3">
         <v>6076600</v>
@@ -2601,25 +2601,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1517900</v>
+        <v>1468200</v>
       </c>
       <c r="E62" s="3">
-        <v>1436400</v>
+        <v>1389300</v>
       </c>
       <c r="F62" s="3">
-        <v>2127400</v>
+        <v>2057700</v>
       </c>
       <c r="G62" s="3">
-        <v>2427000</v>
+        <v>2347500</v>
       </c>
       <c r="H62" s="3">
-        <v>3275600</v>
+        <v>3168400</v>
       </c>
       <c r="I62" s="3">
-        <v>4134100</v>
+        <v>3998700</v>
       </c>
       <c r="J62" s="3">
-        <v>9616300</v>
+        <v>9301500</v>
       </c>
       <c r="K62" s="3">
         <v>4428900</v>
@@ -2757,25 +2757,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>35613700</v>
+        <v>34447600</v>
       </c>
       <c r="E66" s="3">
-        <v>31174800</v>
+        <v>30154000</v>
       </c>
       <c r="F66" s="3">
-        <v>30933800</v>
+        <v>29921000</v>
       </c>
       <c r="G66" s="3">
-        <v>30056100</v>
+        <v>29072000</v>
       </c>
       <c r="H66" s="3">
-        <v>33597800</v>
+        <v>32497700</v>
       </c>
       <c r="I66" s="3">
-        <v>32333200</v>
+        <v>31274500</v>
       </c>
       <c r="J66" s="3">
-        <v>29639500</v>
+        <v>28669000</v>
       </c>
       <c r="K66" s="3">
         <v>35260100</v>
@@ -2969,25 +2969,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>17498800</v>
+        <v>16925800</v>
       </c>
       <c r="E72" s="3">
-        <v>15789000</v>
+        <v>15272000</v>
       </c>
       <c r="F72" s="3">
-        <v>12068100</v>
+        <v>11673000</v>
       </c>
       <c r="G72" s="3">
-        <v>11001400</v>
+        <v>10641200</v>
       </c>
       <c r="H72" s="3">
-        <v>9531500</v>
+        <v>9219400</v>
       </c>
       <c r="I72" s="3">
-        <v>7707100</v>
+        <v>7454700</v>
       </c>
       <c r="J72" s="3">
-        <v>14978800</v>
+        <v>14488300</v>
       </c>
       <c r="K72" s="3">
         <v>8711200</v>
@@ -3125,25 +3125,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>23199200</v>
+        <v>22439600</v>
       </c>
       <c r="E76" s="3">
-        <v>19014300</v>
+        <v>18391700</v>
       </c>
       <c r="F76" s="3">
-        <v>14647900</v>
+        <v>14168300</v>
       </c>
       <c r="G76" s="3">
-        <v>14026100</v>
+        <v>13566800</v>
       </c>
       <c r="H76" s="3">
-        <v>12516300</v>
+        <v>12106500</v>
       </c>
       <c r="I76" s="3">
-        <v>11521900</v>
+        <v>11144700</v>
       </c>
       <c r="J76" s="3">
-        <v>10587800</v>
+        <v>10241100</v>
       </c>
       <c r="K76" s="3">
         <v>15552700</v>
@@ -3247,25 +3247,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1871500</v>
+        <v>1810200</v>
       </c>
       <c r="E81" s="3">
-        <v>1210000</v>
+        <v>1170400</v>
       </c>
       <c r="F81" s="3">
-        <v>1654400</v>
+        <v>1600200</v>
       </c>
       <c r="G81" s="3">
-        <v>2082800</v>
+        <v>2014600</v>
       </c>
       <c r="H81" s="3">
-        <v>1730200</v>
+        <v>1673500</v>
       </c>
       <c r="I81" s="3">
-        <v>1094800</v>
+        <v>1059000</v>
       </c>
       <c r="J81" s="3">
-        <v>1143200</v>
+        <v>1105700</v>
       </c>
       <c r="K81" s="3">
         <v>1531000</v>
@@ -3303,25 +3303,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2486000</v>
+        <v>2404600</v>
       </c>
       <c r="E83" s="3">
-        <v>2327800</v>
+        <v>2251600</v>
       </c>
       <c r="F83" s="3">
-        <v>2733900</v>
+        <v>2644400</v>
       </c>
       <c r="G83" s="3">
-        <v>2170000</v>
+        <v>2098900</v>
       </c>
       <c r="H83" s="3">
-        <v>2109200</v>
+        <v>2040200</v>
       </c>
       <c r="I83" s="3">
-        <v>1984700</v>
+        <v>1919700</v>
       </c>
       <c r="J83" s="3">
-        <v>2040600</v>
+        <v>1973800</v>
       </c>
       <c r="K83" s="3">
         <v>2444100</v>
@@ -3537,25 +3537,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1855100</v>
+        <v>1794400</v>
       </c>
       <c r="E89" s="3">
-        <v>3691000</v>
+        <v>3570100</v>
       </c>
       <c r="F89" s="3">
-        <v>3153100</v>
+        <v>3049900</v>
       </c>
       <c r="G89" s="3">
-        <v>1493000</v>
+        <v>1444100</v>
       </c>
       <c r="H89" s="3">
-        <v>3101900</v>
+        <v>3000400</v>
       </c>
       <c r="I89" s="3">
-        <v>2825100</v>
+        <v>2732600</v>
       </c>
       <c r="J89" s="3">
-        <v>3073900</v>
+        <v>2973200</v>
       </c>
       <c r="K89" s="3">
         <v>4192200</v>
@@ -3593,25 +3593,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1715000</v>
+        <v>-1658800</v>
       </c>
       <c r="E91" s="3">
-        <v>-1694100</v>
+        <v>-1638600</v>
       </c>
       <c r="F91" s="3">
-        <v>-2007800</v>
+        <v>-1942100</v>
       </c>
       <c r="G91" s="3">
-        <v>-2316900</v>
+        <v>-2241000</v>
       </c>
       <c r="H91" s="3">
-        <v>-2891600</v>
+        <v>-2796900</v>
       </c>
       <c r="I91" s="3">
-        <v>-2042100</v>
+        <v>-1975200</v>
       </c>
       <c r="J91" s="3">
-        <v>-3570500</v>
+        <v>-3453600</v>
       </c>
       <c r="K91" s="3">
         <v>-1912100</v>
@@ -3710,25 +3710,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5835800</v>
+        <v>-5644700</v>
       </c>
       <c r="E94" s="3">
-        <v>1294400</v>
+        <v>1252100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1510700</v>
+        <v>-1461200</v>
       </c>
       <c r="G94" s="3">
-        <v>-1417500</v>
+        <v>-1371100</v>
       </c>
       <c r="H94" s="3">
-        <v>-3363200</v>
+        <v>-3253100</v>
       </c>
       <c r="I94" s="3">
-        <v>-3079700</v>
+        <v>-2978900</v>
       </c>
       <c r="J94" s="3">
-        <v>-2153600</v>
+        <v>-2083100</v>
       </c>
       <c r="K94" s="3">
         <v>-1177200</v>
@@ -3766,25 +3766,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-427600</v>
+        <v>-413600</v>
       </c>
       <c r="E96" s="3">
-        <v>-427500</v>
+        <v>-413500</v>
       </c>
       <c r="F96" s="3">
-        <v>-512900</v>
+        <v>-496200</v>
       </c>
       <c r="G96" s="3">
-        <v>-598400</v>
+        <v>-578800</v>
       </c>
       <c r="H96" s="3">
-        <v>-427400</v>
+        <v>-413400</v>
       </c>
       <c r="I96" s="3">
-        <v>-425300</v>
+        <v>-411400</v>
       </c>
       <c r="J96" s="3">
-        <v>-339500</v>
+        <v>-328400</v>
       </c>
       <c r="K96" s="3">
         <v>-315500</v>
@@ -3922,25 +3922,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>431800</v>
+        <v>417700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1302600</v>
+        <v>-1259900</v>
       </c>
       <c r="F100" s="3">
-        <v>353500</v>
+        <v>341900</v>
       </c>
       <c r="G100" s="3">
-        <v>-2505100</v>
+        <v>-2423100</v>
       </c>
       <c r="H100" s="3">
-        <v>-943800</v>
+        <v>-912900</v>
       </c>
       <c r="I100" s="3">
-        <v>2159400</v>
+        <v>2088700</v>
       </c>
       <c r="J100" s="3">
-        <v>-2269100</v>
+        <v>-2194800</v>
       </c>
       <c r="K100" s="3">
         <v>2197500</v>
@@ -3961,25 +3961,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>709600</v>
+        <v>686400</v>
       </c>
       <c r="E101" s="3">
-        <v>544500</v>
+        <v>526700</v>
       </c>
       <c r="F101" s="3">
-        <v>-205600</v>
+        <v>-198900</v>
       </c>
       <c r="G101" s="3">
-        <v>103700</v>
+        <v>100300</v>
       </c>
       <c r="H101" s="3">
-        <v>-123100</v>
+        <v>-119100</v>
       </c>
       <c r="I101" s="3">
-        <v>-12700</v>
+        <v>-12300</v>
       </c>
       <c r="J101" s="3">
-        <v>-610300</v>
+        <v>-590300</v>
       </c>
       <c r="K101" s="3">
         <v>655700</v>
@@ -4000,25 +4000,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2839300</v>
+        <v>-2746300</v>
       </c>
       <c r="E102" s="3">
-        <v>4227400</v>
+        <v>4088900</v>
       </c>
       <c r="F102" s="3">
-        <v>1790300</v>
+        <v>1731700</v>
       </c>
       <c r="G102" s="3">
-        <v>-2326000</v>
+        <v>-2249800</v>
       </c>
       <c r="H102" s="3">
-        <v>-1328200</v>
+        <v>-1284700</v>
       </c>
       <c r="I102" s="3">
-        <v>1892000</v>
+        <v>1830100</v>
       </c>
       <c r="J102" s="3">
-        <v>-1959100</v>
+        <v>-1895000</v>
       </c>
       <c r="K102" s="3">
         <v>5868100</v>

--- a/AAII_Financials/Yearly/PCRFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PCRFY_YR_FIN.xlsx
@@ -725,25 +725,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>52386500</v>
+        <v>54307600</v>
       </c>
       <c r="E8" s="3">
-        <v>47494400</v>
+        <v>49236100</v>
       </c>
       <c r="F8" s="3">
-        <v>53108400</v>
+        <v>55055900</v>
       </c>
       <c r="G8" s="3">
-        <v>56739400</v>
+        <v>58820100</v>
       </c>
       <c r="H8" s="3">
-        <v>56593500</v>
+        <v>58668900</v>
       </c>
       <c r="I8" s="3">
-        <v>52066900</v>
+        <v>53976200</v>
       </c>
       <c r="J8" s="3">
-        <v>54070500</v>
+        <v>56053300</v>
       </c>
       <c r="K8" s="3">
         <v>65809300</v>
@@ -764,25 +764,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>37609500</v>
+        <v>38988600</v>
       </c>
       <c r="E9" s="3">
-        <v>33492800</v>
+        <v>34721000</v>
       </c>
       <c r="F9" s="3">
-        <v>37857500</v>
+        <v>39245700</v>
       </c>
       <c r="G9" s="3">
-        <v>40669900</v>
+        <v>42161300</v>
       </c>
       <c r="H9" s="3">
-        <v>40008500</v>
+        <v>41475700</v>
       </c>
       <c r="I9" s="3">
-        <v>36564300</v>
+        <v>37905100</v>
       </c>
       <c r="J9" s="3">
-        <v>75917400</v>
+        <v>78701300</v>
       </c>
       <c r="K9" s="3">
         <v>47147100</v>
@@ -803,25 +803,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>14777100</v>
+        <v>15319000</v>
       </c>
       <c r="E10" s="3">
-        <v>14001700</v>
+        <v>14515200</v>
       </c>
       <c r="F10" s="3">
-        <v>15250900</v>
+        <v>15810200</v>
       </c>
       <c r="G10" s="3">
-        <v>16069500</v>
+        <v>16658800</v>
       </c>
       <c r="H10" s="3">
-        <v>16585000</v>
+        <v>17193200</v>
       </c>
       <c r="I10" s="3">
-        <v>15502600</v>
+        <v>16071100</v>
       </c>
       <c r="J10" s="3">
-        <v>-21846800</v>
+        <v>-22648000</v>
       </c>
       <c r="K10" s="3">
         <v>18662100</v>
@@ -877,7 +877,7 @@
         <v>8</v>
       </c>
       <c r="J12" s="3">
-        <v>3189300</v>
+        <v>3306200</v>
       </c>
       <c r="K12" s="3">
         <v>3900300</v>
@@ -937,25 +937,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>410600</v>
+        <v>425600</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>168500</v>
+        <v>174700</v>
       </c>
       <c r="G14" s="3">
-        <v>-800900</v>
+        <v>-830200</v>
       </c>
       <c r="H14" s="3">
-        <v>168900</v>
+        <v>175100</v>
       </c>
       <c r="I14" s="3">
-        <v>150300</v>
+        <v>155800</v>
       </c>
       <c r="J14" s="3">
-        <v>1154500</v>
+        <v>1196800</v>
       </c>
       <c r="K14" s="3">
         <v>478000</v>
@@ -976,25 +976,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>928000</v>
+        <v>962100</v>
       </c>
       <c r="E15" s="3">
-        <v>859800</v>
+        <v>891300</v>
       </c>
       <c r="F15" s="3">
-        <v>937600</v>
+        <v>972000</v>
       </c>
       <c r="G15" s="3">
-        <v>602200</v>
+        <v>624300</v>
       </c>
       <c r="H15" s="3">
-        <v>602300</v>
+        <v>624400</v>
       </c>
       <c r="I15" s="3">
-        <v>584600</v>
+        <v>606000</v>
       </c>
       <c r="J15" s="3">
-        <v>2267000</v>
+        <v>2350200</v>
       </c>
       <c r="K15" s="3">
         <v>2065500</v>
@@ -1029,25 +1029,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>49851700</v>
+        <v>51679800</v>
       </c>
       <c r="E17" s="3">
-        <v>45661000</v>
+        <v>47335400</v>
       </c>
       <c r="F17" s="3">
-        <v>51025700</v>
+        <v>52896800</v>
       </c>
       <c r="G17" s="3">
-        <v>53821900</v>
+        <v>55795600</v>
       </c>
       <c r="H17" s="3">
-        <v>53895500</v>
+        <v>55871900</v>
       </c>
       <c r="I17" s="3">
-        <v>50104500</v>
+        <v>51941900</v>
       </c>
       <c r="J17" s="3">
-        <v>52437700</v>
+        <v>54360700</v>
       </c>
       <c r="K17" s="3">
         <v>63029500</v>
@@ -1068,25 +1068,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2534900</v>
+        <v>2627800</v>
       </c>
       <c r="E18" s="3">
-        <v>1833500</v>
+        <v>1900700</v>
       </c>
       <c r="F18" s="3">
-        <v>2082700</v>
+        <v>2159100</v>
       </c>
       <c r="G18" s="3">
-        <v>2917500</v>
+        <v>3024500</v>
       </c>
       <c r="H18" s="3">
-        <v>2698000</v>
+        <v>2797000</v>
       </c>
       <c r="I18" s="3">
-        <v>1962400</v>
+        <v>2034400</v>
       </c>
       <c r="J18" s="3">
-        <v>1632800</v>
+        <v>1692700</v>
       </c>
       <c r="K18" s="3">
         <v>2779800</v>
@@ -1124,25 +1124,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>156900</v>
+        <v>162600</v>
       </c>
       <c r="E20" s="3">
-        <v>138000</v>
+        <v>143100</v>
       </c>
       <c r="F20" s="3">
-        <v>222300</v>
+        <v>230500</v>
       </c>
       <c r="G20" s="3">
-        <v>181500</v>
+        <v>188200</v>
       </c>
       <c r="H20" s="3">
-        <v>161500</v>
+        <v>167400</v>
       </c>
       <c r="I20" s="3">
-        <v>154800</v>
+        <v>160500</v>
       </c>
       <c r="J20" s="3">
-        <v>288000</v>
+        <v>298600</v>
       </c>
       <c r="K20" s="3">
         <v>-1073600</v>
@@ -1163,25 +1163,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5008100</v>
+        <v>5259500</v>
       </c>
       <c r="E21" s="3">
-        <v>4140500</v>
+        <v>4355700</v>
       </c>
       <c r="F21" s="3">
-        <v>4852500</v>
+        <v>5104800</v>
       </c>
       <c r="G21" s="3">
-        <v>5121000</v>
+        <v>5367900</v>
       </c>
       <c r="H21" s="3">
-        <v>4824800</v>
+        <v>5059200</v>
       </c>
       <c r="I21" s="3">
-        <v>3966500</v>
+        <v>4166000</v>
       </c>
       <c r="J21" s="3">
-        <v>3822300</v>
+        <v>4018000</v>
       </c>
       <c r="K21" s="3">
         <v>4178900</v>
@@ -1202,25 +1202,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>136500</v>
+        <v>141600</v>
       </c>
       <c r="E22" s="3">
-        <v>122300</v>
+        <v>126800</v>
       </c>
       <c r="F22" s="3">
-        <v>241500</v>
+        <v>250300</v>
       </c>
       <c r="G22" s="3">
-        <v>146400</v>
+        <v>151700</v>
       </c>
       <c r="H22" s="3">
-        <v>175300</v>
+        <v>181700</v>
       </c>
       <c r="I22" s="3">
-        <v>167000</v>
+        <v>173100</v>
       </c>
       <c r="J22" s="3">
-        <v>307700</v>
+        <v>319000</v>
       </c>
       <c r="K22" s="3">
         <v>149800</v>
@@ -1241,25 +1241,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2555200</v>
+        <v>2648900</v>
       </c>
       <c r="E23" s="3">
-        <v>1849200</v>
+        <v>1917000</v>
       </c>
       <c r="F23" s="3">
-        <v>2063500</v>
+        <v>2139200</v>
       </c>
       <c r="G23" s="3">
-        <v>2952700</v>
+        <v>3061000</v>
       </c>
       <c r="H23" s="3">
-        <v>2684200</v>
+        <v>2782600</v>
       </c>
       <c r="I23" s="3">
-        <v>1950200</v>
+        <v>2021700</v>
       </c>
       <c r="J23" s="3">
-        <v>1613200</v>
+        <v>1672300</v>
       </c>
       <c r="K23" s="3">
         <v>1556300</v>
@@ -1280,25 +1280,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>673200</v>
+        <v>697900</v>
       </c>
       <c r="E24" s="3">
-        <v>545400</v>
+        <v>565400</v>
       </c>
       <c r="F24" s="3">
-        <v>361700</v>
+        <v>374900</v>
       </c>
       <c r="G24" s="3">
-        <v>806300</v>
+        <v>835800</v>
       </c>
       <c r="H24" s="3">
-        <v>897300</v>
+        <v>930200</v>
       </c>
       <c r="I24" s="3">
-        <v>727600</v>
+        <v>754300</v>
       </c>
       <c r="J24" s="3">
-        <v>257300</v>
+        <v>266800</v>
       </c>
       <c r="K24" s="3">
         <v>-16900</v>
@@ -1358,25 +1358,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1882000</v>
+        <v>1951000</v>
       </c>
       <c r="E26" s="3">
-        <v>1303800</v>
+        <v>1351600</v>
       </c>
       <c r="F26" s="3">
-        <v>1701900</v>
+        <v>1764300</v>
       </c>
       <c r="G26" s="3">
-        <v>2146400</v>
+        <v>2225100</v>
       </c>
       <c r="H26" s="3">
-        <v>1786900</v>
+        <v>1852400</v>
       </c>
       <c r="I26" s="3">
-        <v>1222600</v>
+        <v>1267400</v>
       </c>
       <c r="J26" s="3">
-        <v>1355800</v>
+        <v>1405600</v>
       </c>
       <c r="K26" s="3">
         <v>1573200</v>
@@ -1397,25 +1397,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1810200</v>
+        <v>1876600</v>
       </c>
       <c r="E27" s="3">
-        <v>1170400</v>
+        <v>1213300</v>
       </c>
       <c r="F27" s="3">
-        <v>1600200</v>
+        <v>1658900</v>
       </c>
       <c r="G27" s="3">
-        <v>2014600</v>
+        <v>2088500</v>
       </c>
       <c r="H27" s="3">
-        <v>1673500</v>
+        <v>1734900</v>
       </c>
       <c r="I27" s="3">
-        <v>1059000</v>
+        <v>1097800</v>
       </c>
       <c r="J27" s="3">
-        <v>1105700</v>
+        <v>1146300</v>
       </c>
       <c r="K27" s="3">
         <v>1531000</v>
@@ -1592,25 +1592,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-156900</v>
+        <v>-162600</v>
       </c>
       <c r="E32" s="3">
-        <v>-138000</v>
+        <v>-143100</v>
       </c>
       <c r="F32" s="3">
-        <v>-222300</v>
+        <v>-230500</v>
       </c>
       <c r="G32" s="3">
-        <v>-181500</v>
+        <v>-188200</v>
       </c>
       <c r="H32" s="3">
-        <v>-161500</v>
+        <v>-167400</v>
       </c>
       <c r="I32" s="3">
-        <v>-154800</v>
+        <v>-160500</v>
       </c>
       <c r="J32" s="3">
-        <v>-288000</v>
+        <v>-298600</v>
       </c>
       <c r="K32" s="3">
         <v>1073600</v>
@@ -1631,25 +1631,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1810200</v>
+        <v>1876600</v>
       </c>
       <c r="E33" s="3">
-        <v>1170400</v>
+        <v>1213300</v>
       </c>
       <c r="F33" s="3">
-        <v>1600200</v>
+        <v>1658900</v>
       </c>
       <c r="G33" s="3">
-        <v>2014600</v>
+        <v>2088500</v>
       </c>
       <c r="H33" s="3">
-        <v>1673500</v>
+        <v>1734900</v>
       </c>
       <c r="I33" s="3">
-        <v>1059000</v>
+        <v>1097800</v>
       </c>
       <c r="J33" s="3">
-        <v>1105700</v>
+        <v>1146300</v>
       </c>
       <c r="K33" s="3">
         <v>1531000</v>
@@ -1709,25 +1709,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1810200</v>
+        <v>1876600</v>
       </c>
       <c r="E35" s="3">
-        <v>1170400</v>
+        <v>1213300</v>
       </c>
       <c r="F35" s="3">
-        <v>1600200</v>
+        <v>1658900</v>
       </c>
       <c r="G35" s="3">
-        <v>2014600</v>
+        <v>2088500</v>
       </c>
       <c r="H35" s="3">
-        <v>1673500</v>
+        <v>1734900</v>
       </c>
       <c r="I35" s="3">
-        <v>1059000</v>
+        <v>1097800</v>
       </c>
       <c r="J35" s="3">
-        <v>1105700</v>
+        <v>1146300</v>
       </c>
       <c r="K35" s="3">
         <v>1531000</v>
@@ -1826,25 +1826,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8549600</v>
+        <v>8863200</v>
       </c>
       <c r="E41" s="3">
-        <v>11296000</v>
+        <v>11710200</v>
       </c>
       <c r="F41" s="3">
-        <v>7207000</v>
+        <v>7471300</v>
       </c>
       <c r="G41" s="3">
-        <v>5475400</v>
+        <v>5676100</v>
       </c>
       <c r="H41" s="3">
-        <v>7725200</v>
+        <v>8008400</v>
       </c>
       <c r="I41" s="3">
-        <v>9009900</v>
+        <v>9340300</v>
       </c>
       <c r="J41" s="3">
-        <v>14372000</v>
+        <v>14899000</v>
       </c>
       <c r="K41" s="3">
         <v>11079400</v>
@@ -1865,25 +1865,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1493400</v>
+        <v>1548200</v>
       </c>
       <c r="E42" s="3">
-        <v>1060900</v>
+        <v>1099800</v>
       </c>
       <c r="F42" s="3">
-        <v>1052400</v>
+        <v>1091000</v>
       </c>
       <c r="G42" s="3">
-        <v>931000</v>
+        <v>965100</v>
       </c>
       <c r="H42" s="3">
-        <v>1443200</v>
+        <v>1496100</v>
       </c>
       <c r="I42" s="3">
-        <v>1017500</v>
+        <v>1054900</v>
       </c>
       <c r="J42" s="3">
-        <v>1173400</v>
+        <v>1216400</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -1904,25 +1904,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9391500</v>
+        <v>9735900</v>
       </c>
       <c r="E43" s="3">
-        <v>8468200</v>
+        <v>8778800</v>
       </c>
       <c r="F43" s="3">
-        <v>7453000</v>
+        <v>7726300</v>
       </c>
       <c r="G43" s="3">
-        <v>8441500</v>
+        <v>8751100</v>
       </c>
       <c r="H43" s="3">
-        <v>7366400</v>
+        <v>7636500</v>
       </c>
       <c r="I43" s="3">
-        <v>6005300</v>
+        <v>6225500</v>
       </c>
       <c r="J43" s="3">
-        <v>11762400</v>
+        <v>12193700</v>
       </c>
       <c r="K43" s="3">
         <v>8462600</v>
@@ -1943,25 +1943,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8030600</v>
+        <v>8325100</v>
       </c>
       <c r="E44" s="3">
-        <v>5902900</v>
+        <v>6119400</v>
       </c>
       <c r="F44" s="3">
-        <v>5626000</v>
+        <v>5832300</v>
       </c>
       <c r="G44" s="3">
-        <v>7206500</v>
+        <v>7470800</v>
       </c>
       <c r="H44" s="3">
-        <v>7009200</v>
+        <v>7266300</v>
       </c>
       <c r="I44" s="3">
-        <v>5716700</v>
+        <v>5926400</v>
       </c>
       <c r="J44" s="3">
-        <v>10820000</v>
+        <v>11216800</v>
       </c>
       <c r="K44" s="3">
         <v>6505600</v>
@@ -1982,25 +1982,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1116000</v>
+        <v>1157000</v>
       </c>
       <c r="E45" s="3">
-        <v>1084300</v>
+        <v>1124100</v>
       </c>
       <c r="F45" s="3">
-        <v>3021600</v>
+        <v>3132400</v>
       </c>
       <c r="G45" s="3">
-        <v>1159000</v>
+        <v>1201500</v>
       </c>
       <c r="H45" s="3">
-        <v>1171400</v>
+        <v>1214400</v>
       </c>
       <c r="I45" s="3">
-        <v>972800</v>
+        <v>1008400</v>
       </c>
       <c r="J45" s="3">
-        <v>4044400</v>
+        <v>4192800</v>
       </c>
       <c r="K45" s="3">
         <v>3063100</v>
@@ -2021,25 +2021,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>28581200</v>
+        <v>29629300</v>
       </c>
       <c r="E46" s="3">
-        <v>27812300</v>
+        <v>28832200</v>
       </c>
       <c r="F46" s="3">
-        <v>24360100</v>
+        <v>25253400</v>
       </c>
       <c r="G46" s="3">
-        <v>23213300</v>
+        <v>24064600</v>
       </c>
       <c r="H46" s="3">
-        <v>24715400</v>
+        <v>25621800</v>
       </c>
       <c r="I46" s="3">
-        <v>22722200</v>
+        <v>23555400</v>
       </c>
       <c r="J46" s="3">
-        <v>20516800</v>
+        <v>21269200</v>
       </c>
       <c r="K46" s="3">
         <v>29110700</v>
@@ -2060,25 +2060,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4369000</v>
+        <v>4529300</v>
       </c>
       <c r="E47" s="3">
-        <v>4870700</v>
+        <v>5049300</v>
       </c>
       <c r="F47" s="3">
-        <v>3702100</v>
+        <v>3837900</v>
       </c>
       <c r="G47" s="3">
-        <v>2500700</v>
+        <v>2592400</v>
       </c>
       <c r="H47" s="3">
-        <v>2229300</v>
+        <v>2311000</v>
       </c>
       <c r="I47" s="3">
-        <v>2254400</v>
+        <v>2337100</v>
       </c>
       <c r="J47" s="3">
-        <v>4641000</v>
+        <v>4811200</v>
       </c>
       <c r="K47" s="3">
         <v>2675600</v>
@@ -2099,25 +2099,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9734900</v>
+        <v>10091900</v>
       </c>
       <c r="E48" s="3">
-        <v>9299000</v>
+        <v>9640000</v>
       </c>
       <c r="F48" s="3">
-        <v>9186600</v>
+        <v>9523400</v>
       </c>
       <c r="G48" s="3">
-        <v>9389800</v>
+        <v>9734100</v>
       </c>
       <c r="H48" s="3">
-        <v>9742100</v>
+        <v>10099400</v>
       </c>
       <c r="I48" s="3">
-        <v>9382100</v>
+        <v>9726100</v>
       </c>
       <c r="J48" s="3">
-        <v>18358900</v>
+        <v>19032200</v>
       </c>
       <c r="K48" s="3">
         <v>11727300</v>
@@ -2138,25 +2138,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11911400</v>
+        <v>12348200</v>
       </c>
       <c r="E49" s="3">
-        <v>4268500</v>
+        <v>4425000</v>
       </c>
       <c r="F49" s="3">
-        <v>4400100</v>
+        <v>4561500</v>
       </c>
       <c r="G49" s="3">
-        <v>5101700</v>
+        <v>5288700</v>
       </c>
       <c r="H49" s="3">
-        <v>5234200</v>
+        <v>5426100</v>
       </c>
       <c r="I49" s="3">
-        <v>4715800</v>
+        <v>4888700</v>
       </c>
       <c r="J49" s="3">
-        <v>7741200</v>
+        <v>8025000</v>
       </c>
       <c r="K49" s="3">
         <v>5373900</v>
@@ -2255,25 +2255,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2290700</v>
+        <v>2374700</v>
       </c>
       <c r="E52" s="3">
-        <v>2295300</v>
+        <v>2379400</v>
       </c>
       <c r="F52" s="3">
-        <v>2440400</v>
+        <v>2529900</v>
       </c>
       <c r="G52" s="3">
-        <v>2433300</v>
+        <v>2522500</v>
       </c>
       <c r="H52" s="3">
-        <v>2683200</v>
+        <v>2781600</v>
       </c>
       <c r="I52" s="3">
-        <v>3344700</v>
+        <v>3467400</v>
       </c>
       <c r="J52" s="3">
-        <v>5679400</v>
+        <v>5887700</v>
       </c>
       <c r="K52" s="3">
         <v>1925300</v>
@@ -2333,25 +2333,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>56887200</v>
+        <v>58973300</v>
       </c>
       <c r="E54" s="3">
-        <v>48545700</v>
+        <v>50326000</v>
       </c>
       <c r="F54" s="3">
-        <v>44089300</v>
+        <v>45706100</v>
       </c>
       <c r="G54" s="3">
-        <v>42638800</v>
+        <v>44202400</v>
       </c>
       <c r="H54" s="3">
-        <v>44604200</v>
+        <v>46239900</v>
       </c>
       <c r="I54" s="3">
-        <v>42419200</v>
+        <v>43974800</v>
       </c>
       <c r="J54" s="3">
-        <v>38910100</v>
+        <v>40337000</v>
       </c>
       <c r="K54" s="3">
         <v>50812800</v>
@@ -2406,25 +2406,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11799000</v>
+        <v>12231700</v>
       </c>
       <c r="E57" s="3">
-        <v>7413400</v>
+        <v>7685300</v>
       </c>
       <c r="F57" s="3">
-        <v>6875100</v>
+        <v>7127300</v>
       </c>
       <c r="G57" s="3">
-        <v>8161800</v>
+        <v>8461100</v>
       </c>
       <c r="H57" s="3">
-        <v>8128500</v>
+        <v>8426600</v>
       </c>
       <c r="I57" s="3">
-        <v>6777800</v>
+        <v>7026300</v>
       </c>
       <c r="J57" s="3">
-        <v>13025500</v>
+        <v>13503200</v>
       </c>
       <c r="K57" s="3">
         <v>8387600</v>
@@ -2445,25 +2445,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3498300</v>
+        <v>3626600</v>
       </c>
       <c r="E58" s="3">
-        <v>2617200</v>
+        <v>2713100</v>
       </c>
       <c r="F58" s="3">
-        <v>2233300</v>
+        <v>2315200</v>
       </c>
       <c r="G58" s="3">
-        <v>2764800</v>
+        <v>2866200</v>
       </c>
       <c r="H58" s="3">
-        <v>2661500</v>
+        <v>2759100</v>
       </c>
       <c r="I58" s="3">
-        <v>1255200</v>
+        <v>1301200</v>
       </c>
       <c r="J58" s="3">
-        <v>308100</v>
+        <v>319400</v>
       </c>
       <c r="K58" s="3">
         <v>2222300</v>
@@ -2484,25 +2484,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6436800</v>
+        <v>6672900</v>
       </c>
       <c r="E59" s="3">
-        <v>9852100</v>
+        <v>10213400</v>
       </c>
       <c r="F59" s="3">
-        <v>9439800</v>
+        <v>9785900</v>
       </c>
       <c r="G59" s="3">
-        <v>10268600</v>
+        <v>10645200</v>
       </c>
       <c r="H59" s="3">
-        <v>11174300</v>
+        <v>11584100</v>
       </c>
       <c r="I59" s="3">
-        <v>11195500</v>
+        <v>11606100</v>
       </c>
       <c r="J59" s="3">
-        <v>21153800</v>
+        <v>21929600</v>
       </c>
       <c r="K59" s="3">
         <v>12700900</v>
@@ -2523,25 +2523,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>21734100</v>
+        <v>22531200</v>
       </c>
       <c r="E60" s="3">
-        <v>19882700</v>
+        <v>20611800</v>
       </c>
       <c r="F60" s="3">
-        <v>18548200</v>
+        <v>19228400</v>
       </c>
       <c r="G60" s="3">
-        <v>21195200</v>
+        <v>21972500</v>
       </c>
       <c r="H60" s="3">
-        <v>21964400</v>
+        <v>22769800</v>
       </c>
       <c r="I60" s="3">
-        <v>19228500</v>
+        <v>19933700</v>
       </c>
       <c r="J60" s="3">
-        <v>17606900</v>
+        <v>18252500</v>
       </c>
       <c r="K60" s="3">
         <v>23310800</v>
@@ -2562,25 +2562,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9953500</v>
+        <v>10318500</v>
       </c>
       <c r="E61" s="3">
-        <v>7645100</v>
+        <v>7925400</v>
       </c>
       <c r="F61" s="3">
-        <v>8198300</v>
+        <v>8498900</v>
       </c>
       <c r="G61" s="3">
-        <v>4316200</v>
+        <v>4474400</v>
       </c>
       <c r="H61" s="3">
-        <v>6126100</v>
+        <v>6350800</v>
       </c>
       <c r="I61" s="3">
-        <v>6714000</v>
+        <v>6960200</v>
       </c>
       <c r="J61" s="3">
-        <v>4985100</v>
+        <v>5167900</v>
       </c>
       <c r="K61" s="3">
         <v>6076600</v>
@@ -2601,25 +2601,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1468200</v>
+        <v>1522000</v>
       </c>
       <c r="E62" s="3">
-        <v>1389300</v>
+        <v>1440300</v>
       </c>
       <c r="F62" s="3">
-        <v>2057700</v>
+        <v>2133200</v>
       </c>
       <c r="G62" s="3">
-        <v>2347500</v>
+        <v>2433600</v>
       </c>
       <c r="H62" s="3">
-        <v>3168400</v>
+        <v>3284500</v>
       </c>
       <c r="I62" s="3">
-        <v>3998700</v>
+        <v>4145400</v>
       </c>
       <c r="J62" s="3">
-        <v>9301500</v>
+        <v>9642600</v>
       </c>
       <c r="K62" s="3">
         <v>4428900</v>
@@ -2757,25 +2757,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>34447600</v>
+        <v>35710900</v>
       </c>
       <c r="E66" s="3">
-        <v>30154000</v>
+        <v>31259800</v>
       </c>
       <c r="F66" s="3">
-        <v>29921000</v>
+        <v>31018200</v>
       </c>
       <c r="G66" s="3">
-        <v>29072000</v>
+        <v>30138100</v>
       </c>
       <c r="H66" s="3">
-        <v>32497700</v>
+        <v>33689400</v>
       </c>
       <c r="I66" s="3">
-        <v>31274500</v>
+        <v>32421400</v>
       </c>
       <c r="J66" s="3">
-        <v>28669000</v>
+        <v>29720300</v>
       </c>
       <c r="K66" s="3">
         <v>35260100</v>
@@ -2969,25 +2969,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16925800</v>
+        <v>17546500</v>
       </c>
       <c r="E72" s="3">
-        <v>15272000</v>
+        <v>15832100</v>
       </c>
       <c r="F72" s="3">
-        <v>11673000</v>
+        <v>12101100</v>
       </c>
       <c r="G72" s="3">
-        <v>10641200</v>
+        <v>11031400</v>
       </c>
       <c r="H72" s="3">
-        <v>9219400</v>
+        <v>9557500</v>
       </c>
       <c r="I72" s="3">
-        <v>7454700</v>
+        <v>7728100</v>
       </c>
       <c r="J72" s="3">
-        <v>14488300</v>
+        <v>15019700</v>
       </c>
       <c r="K72" s="3">
         <v>8711200</v>
@@ -3125,25 +3125,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22439600</v>
+        <v>23262500</v>
       </c>
       <c r="E76" s="3">
-        <v>18391700</v>
+        <v>19066100</v>
       </c>
       <c r="F76" s="3">
-        <v>14168300</v>
+        <v>14687900</v>
       </c>
       <c r="G76" s="3">
-        <v>13566800</v>
+        <v>14064300</v>
       </c>
       <c r="H76" s="3">
-        <v>12106500</v>
+        <v>12550500</v>
       </c>
       <c r="I76" s="3">
-        <v>11144700</v>
+        <v>11553400</v>
       </c>
       <c r="J76" s="3">
-        <v>10241100</v>
+        <v>10616600</v>
       </c>
       <c r="K76" s="3">
         <v>15552700</v>
@@ -3247,25 +3247,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1810200</v>
+        <v>1876600</v>
       </c>
       <c r="E81" s="3">
-        <v>1170400</v>
+        <v>1213300</v>
       </c>
       <c r="F81" s="3">
-        <v>1600200</v>
+        <v>1658900</v>
       </c>
       <c r="G81" s="3">
-        <v>2014600</v>
+        <v>2088500</v>
       </c>
       <c r="H81" s="3">
-        <v>1673500</v>
+        <v>1734900</v>
       </c>
       <c r="I81" s="3">
-        <v>1059000</v>
+        <v>1097800</v>
       </c>
       <c r="J81" s="3">
-        <v>1105700</v>
+        <v>1146300</v>
       </c>
       <c r="K81" s="3">
         <v>1531000</v>
@@ -3303,25 +3303,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2404600</v>
+        <v>2492700</v>
       </c>
       <c r="E83" s="3">
-        <v>2251600</v>
+        <v>2334200</v>
       </c>
       <c r="F83" s="3">
-        <v>2644400</v>
+        <v>2741400</v>
       </c>
       <c r="G83" s="3">
-        <v>2098900</v>
+        <v>2175900</v>
       </c>
       <c r="H83" s="3">
-        <v>2040200</v>
+        <v>2115000</v>
       </c>
       <c r="I83" s="3">
-        <v>1919700</v>
+        <v>1990100</v>
       </c>
       <c r="J83" s="3">
-        <v>1973800</v>
+        <v>2046200</v>
       </c>
       <c r="K83" s="3">
         <v>2444100</v>
@@ -3537,25 +3537,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1794400</v>
+        <v>1860200</v>
       </c>
       <c r="E89" s="3">
-        <v>3570100</v>
+        <v>3701000</v>
       </c>
       <c r="F89" s="3">
-        <v>3049900</v>
+        <v>3161700</v>
       </c>
       <c r="G89" s="3">
-        <v>1444100</v>
+        <v>1497000</v>
       </c>
       <c r="H89" s="3">
-        <v>3000400</v>
+        <v>3110400</v>
       </c>
       <c r="I89" s="3">
-        <v>2732600</v>
+        <v>2832800</v>
       </c>
       <c r="J89" s="3">
-        <v>2973200</v>
+        <v>3082300</v>
       </c>
       <c r="K89" s="3">
         <v>4192200</v>
@@ -3593,25 +3593,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1658800</v>
+        <v>-1719700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1638600</v>
+        <v>-1698700</v>
       </c>
       <c r="F91" s="3">
-        <v>-1942100</v>
+        <v>-2013300</v>
       </c>
       <c r="G91" s="3">
-        <v>-2241000</v>
+        <v>-2323200</v>
       </c>
       <c r="H91" s="3">
-        <v>-2796900</v>
+        <v>-2899500</v>
       </c>
       <c r="I91" s="3">
-        <v>-1975200</v>
+        <v>-2047700</v>
       </c>
       <c r="J91" s="3">
-        <v>-3453600</v>
+        <v>-3580200</v>
       </c>
       <c r="K91" s="3">
         <v>-1912100</v>
@@ -3710,25 +3710,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5644700</v>
+        <v>-5851700</v>
       </c>
       <c r="E94" s="3">
-        <v>1252100</v>
+        <v>1298000</v>
       </c>
       <c r="F94" s="3">
-        <v>-1461200</v>
+        <v>-1514800</v>
       </c>
       <c r="G94" s="3">
-        <v>-1371100</v>
+        <v>-1421400</v>
       </c>
       <c r="H94" s="3">
-        <v>-3253100</v>
+        <v>-3372400</v>
       </c>
       <c r="I94" s="3">
-        <v>-2978900</v>
+        <v>-3088100</v>
       </c>
       <c r="J94" s="3">
-        <v>-2083100</v>
+        <v>-2159500</v>
       </c>
       <c r="K94" s="3">
         <v>-1177200</v>
@@ -3766,25 +3766,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-413600</v>
+        <v>-428800</v>
       </c>
       <c r="E96" s="3">
-        <v>-413500</v>
+        <v>-428700</v>
       </c>
       <c r="F96" s="3">
-        <v>-496200</v>
+        <v>-514300</v>
       </c>
       <c r="G96" s="3">
-        <v>-578800</v>
+        <v>-600000</v>
       </c>
       <c r="H96" s="3">
-        <v>-413400</v>
+        <v>-428600</v>
       </c>
       <c r="I96" s="3">
-        <v>-411400</v>
+        <v>-426500</v>
       </c>
       <c r="J96" s="3">
-        <v>-328400</v>
+        <v>-340500</v>
       </c>
       <c r="K96" s="3">
         <v>-315500</v>
@@ -3922,25 +3922,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>417700</v>
+        <v>433000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1259900</v>
+        <v>-1306100</v>
       </c>
       <c r="F100" s="3">
-        <v>341900</v>
+        <v>354400</v>
       </c>
       <c r="G100" s="3">
-        <v>-2423100</v>
+        <v>-2511900</v>
       </c>
       <c r="H100" s="3">
-        <v>-912900</v>
+        <v>-946400</v>
       </c>
       <c r="I100" s="3">
-        <v>2088700</v>
+        <v>2165300</v>
       </c>
       <c r="J100" s="3">
-        <v>-2194800</v>
+        <v>-2275300</v>
       </c>
       <c r="K100" s="3">
         <v>2197500</v>
@@ -3961,25 +3961,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>686400</v>
+        <v>711500</v>
       </c>
       <c r="E101" s="3">
-        <v>526700</v>
+        <v>546000</v>
       </c>
       <c r="F101" s="3">
-        <v>-198900</v>
+        <v>-206200</v>
       </c>
       <c r="G101" s="3">
-        <v>100300</v>
+        <v>104000</v>
       </c>
       <c r="H101" s="3">
-        <v>-119100</v>
+        <v>-123400</v>
       </c>
       <c r="I101" s="3">
-        <v>-12300</v>
+        <v>-12700</v>
       </c>
       <c r="J101" s="3">
-        <v>-590300</v>
+        <v>-612000</v>
       </c>
       <c r="K101" s="3">
         <v>655700</v>
@@ -4000,25 +4000,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2746300</v>
+        <v>-2847000</v>
       </c>
       <c r="E102" s="3">
-        <v>4088900</v>
+        <v>4238900</v>
       </c>
       <c r="F102" s="3">
-        <v>1731700</v>
+        <v>1795200</v>
       </c>
       <c r="G102" s="3">
-        <v>-2249800</v>
+        <v>-2332300</v>
       </c>
       <c r="H102" s="3">
-        <v>-1284700</v>
+        <v>-1331800</v>
       </c>
       <c r="I102" s="3">
-        <v>1830100</v>
+        <v>1897200</v>
       </c>
       <c r="J102" s="3">
-        <v>-1895000</v>
+        <v>-1964500</v>
       </c>
       <c r="K102" s="3">
         <v>5868100</v>

--- a/AAII_Financials/Yearly/PCRFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PCRFY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>PCRFY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,191 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43190</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42460</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42094</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41729</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41364</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40999</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>54307600</v>
+        <v>60412200</v>
       </c>
       <c r="E8" s="3">
-        <v>49236100</v>
+        <v>53273200</v>
       </c>
       <c r="F8" s="3">
-        <v>55055900</v>
+        <v>48298300</v>
       </c>
       <c r="G8" s="3">
-        <v>58820100</v>
+        <v>54007200</v>
       </c>
       <c r="H8" s="3">
-        <v>58668900</v>
+        <v>57699700</v>
       </c>
       <c r="I8" s="3">
-        <v>53976200</v>
+        <v>57551400</v>
       </c>
       <c r="J8" s="3">
+        <v>52948100</v>
+      </c>
+      <c r="K8" s="3">
         <v>56053300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>65809300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>70866700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>66384700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>70929800</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>38988600</v>
+        <v>44107100</v>
       </c>
       <c r="E9" s="3">
-        <v>34721000</v>
+        <v>38246000</v>
       </c>
       <c r="F9" s="3">
-        <v>39245700</v>
+        <v>34059600</v>
       </c>
       <c r="G9" s="3">
-        <v>42161300</v>
+        <v>38498200</v>
       </c>
       <c r="H9" s="3">
-        <v>41475700</v>
+        <v>41358200</v>
       </c>
       <c r="I9" s="3">
-        <v>37905100</v>
+        <v>40685700</v>
       </c>
       <c r="J9" s="3">
+        <v>37183100</v>
+      </c>
+      <c r="K9" s="3">
         <v>78701300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>47147100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>51652000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>49266800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>53015200</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>15319000</v>
+        <v>16305000</v>
       </c>
       <c r="E10" s="3">
-        <v>14515200</v>
+        <v>15027200</v>
       </c>
       <c r="F10" s="3">
-        <v>15810200</v>
+        <v>14238700</v>
       </c>
       <c r="G10" s="3">
-        <v>16658800</v>
+        <v>15509000</v>
       </c>
       <c r="H10" s="3">
-        <v>17193200</v>
+        <v>16341500</v>
       </c>
       <c r="I10" s="3">
-        <v>16071100</v>
+        <v>16865700</v>
       </c>
       <c r="J10" s="3">
+        <v>15765000</v>
+      </c>
+      <c r="K10" s="3">
         <v>-22648000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>18662100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>19214700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>17117900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>17914600</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,8 +865,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -876,24 +889,27 @@
       <c r="I12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="3">
         <v>3306200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3900300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4386000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4565200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4702800</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,87 +946,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>425600</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>174700</v>
+      <c r="E14" s="3">
+        <v>417500</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>-830200</v>
+        <v>171400</v>
       </c>
       <c r="H14" s="3">
-        <v>175100</v>
+        <v>-814400</v>
       </c>
       <c r="I14" s="3">
-        <v>155800</v>
+        <v>171700</v>
       </c>
       <c r="J14" s="3">
+        <v>152900</v>
+      </c>
+      <c r="K14" s="3">
         <v>1196800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>478000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1024400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3533500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>5091000</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>962100</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
-        <v>891300</v>
+        <v>943700</v>
       </c>
       <c r="F15" s="3">
-        <v>972000</v>
+        <v>874400</v>
       </c>
       <c r="G15" s="3">
-        <v>624300</v>
+        <v>953500</v>
       </c>
       <c r="H15" s="3">
-        <v>624400</v>
+        <v>612400</v>
       </c>
       <c r="I15" s="3">
-        <v>606000</v>
+        <v>612500</v>
       </c>
       <c r="J15" s="3">
+        <v>594500</v>
+      </c>
+      <c r="K15" s="3">
         <v>2350200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2065500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2553700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2523200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2342600</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1023,86 +1048,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>51679800</v>
+        <v>58331600</v>
       </c>
       <c r="E17" s="3">
-        <v>47335400</v>
+        <v>50695400</v>
       </c>
       <c r="F17" s="3">
-        <v>52896800</v>
+        <v>46433800</v>
       </c>
       <c r="G17" s="3">
-        <v>55795600</v>
+        <v>51889300</v>
       </c>
       <c r="H17" s="3">
-        <v>55871900</v>
+        <v>54732800</v>
       </c>
       <c r="I17" s="3">
-        <v>51941900</v>
+        <v>54807700</v>
       </c>
       <c r="J17" s="3">
+        <v>50952500</v>
+      </c>
+      <c r="K17" s="3">
         <v>54360700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>63029500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>69096300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>68455200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>75625500</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2627800</v>
+        <v>2080600</v>
       </c>
       <c r="E18" s="3">
-        <v>1900700</v>
+        <v>2577800</v>
       </c>
       <c r="F18" s="3">
-        <v>2159100</v>
+        <v>1864500</v>
       </c>
       <c r="G18" s="3">
-        <v>3024500</v>
+        <v>2117900</v>
       </c>
       <c r="H18" s="3">
-        <v>2797000</v>
+        <v>2966900</v>
       </c>
       <c r="I18" s="3">
-        <v>2034400</v>
+        <v>2743700</v>
       </c>
       <c r="J18" s="3">
+        <v>1995600</v>
+      </c>
+      <c r="K18" s="3">
         <v>1692700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2779800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1770500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2070600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4695700</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1118,203 +1150,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>162600</v>
+        <v>200700</v>
       </c>
       <c r="E20" s="3">
-        <v>143100</v>
+        <v>159500</v>
       </c>
       <c r="F20" s="3">
-        <v>230500</v>
+        <v>140400</v>
       </c>
       <c r="G20" s="3">
-        <v>188200</v>
+        <v>226100</v>
       </c>
       <c r="H20" s="3">
-        <v>167400</v>
+        <v>184600</v>
       </c>
       <c r="I20" s="3">
-        <v>160500</v>
+        <v>164200</v>
       </c>
       <c r="J20" s="3">
+        <v>157400</v>
+      </c>
+      <c r="K20" s="3">
         <v>298600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1073600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>319300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1318100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2395600</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5259500</v>
+        <v>5056700</v>
       </c>
       <c r="E21" s="3">
-        <v>4355700</v>
+        <v>5199500</v>
       </c>
       <c r="F21" s="3">
-        <v>5104800</v>
+        <v>4310400</v>
       </c>
       <c r="G21" s="3">
-        <v>5367900</v>
+        <v>5051800</v>
       </c>
       <c r="H21" s="3">
-        <v>5059200</v>
+        <v>5300800</v>
       </c>
       <c r="I21" s="3">
-        <v>4166000</v>
+        <v>4997000</v>
       </c>
       <c r="J21" s="3">
+        <v>4118800</v>
+      </c>
+      <c r="K21" s="3">
         <v>4018000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4178900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5135700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-297000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4031400</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>141600</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>126800</v>
+        <v>138900</v>
       </c>
       <c r="F22" s="3">
-        <v>250300</v>
+        <v>124400</v>
       </c>
       <c r="G22" s="3">
-        <v>151700</v>
+        <v>245600</v>
       </c>
       <c r="H22" s="3">
-        <v>181700</v>
+        <v>148900</v>
       </c>
       <c r="I22" s="3">
-        <v>173100</v>
+        <v>178200</v>
       </c>
       <c r="J22" s="3">
+        <v>169800</v>
+      </c>
+      <c r="K22" s="3">
         <v>319000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>149800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>200700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>232700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>256800</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2648900</v>
+        <v>2281300</v>
       </c>
       <c r="E23" s="3">
-        <v>1917000</v>
+        <v>2598400</v>
       </c>
       <c r="F23" s="3">
-        <v>2139200</v>
+        <v>1880500</v>
       </c>
       <c r="G23" s="3">
-        <v>3061000</v>
+        <v>2098500</v>
       </c>
       <c r="H23" s="3">
-        <v>2782600</v>
+        <v>3002600</v>
       </c>
       <c r="I23" s="3">
-        <v>2021700</v>
+        <v>2729600</v>
       </c>
       <c r="J23" s="3">
+        <v>1983200</v>
+      </c>
+      <c r="K23" s="3">
         <v>1672300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1556300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1889000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3621300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7348100</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>697900</v>
+        <v>258500</v>
       </c>
       <c r="E24" s="3">
-        <v>565400</v>
+        <v>684600</v>
       </c>
       <c r="F24" s="3">
-        <v>374900</v>
+        <v>554600</v>
       </c>
       <c r="G24" s="3">
-        <v>835800</v>
+        <v>367800</v>
       </c>
       <c r="H24" s="3">
-        <v>930200</v>
+        <v>819900</v>
       </c>
       <c r="I24" s="3">
-        <v>754300</v>
+        <v>912500</v>
       </c>
       <c r="J24" s="3">
+        <v>739900</v>
+      </c>
+      <c r="K24" s="3">
         <v>266800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-16900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>821300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3496700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>88300</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1351,87 +1399,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1951000</v>
+        <v>2022800</v>
       </c>
       <c r="E26" s="3">
-        <v>1351600</v>
+        <v>1913800</v>
       </c>
       <c r="F26" s="3">
-        <v>1764300</v>
+        <v>1325900</v>
       </c>
       <c r="G26" s="3">
-        <v>2225100</v>
+        <v>1730700</v>
       </c>
       <c r="H26" s="3">
-        <v>1852400</v>
+        <v>2182700</v>
       </c>
       <c r="I26" s="3">
-        <v>1267400</v>
+        <v>1817100</v>
       </c>
       <c r="J26" s="3">
+        <v>1243300</v>
+      </c>
+      <c r="K26" s="3">
         <v>1405600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1573200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1067700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7118000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7436400</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1876600</v>
+        <v>1914200</v>
       </c>
       <c r="E27" s="3">
-        <v>1213300</v>
+        <v>1840900</v>
       </c>
       <c r="F27" s="3">
-        <v>1658900</v>
+        <v>1190200</v>
       </c>
       <c r="G27" s="3">
-        <v>2088500</v>
+        <v>1627300</v>
       </c>
       <c r="H27" s="3">
-        <v>1734900</v>
+        <v>2048700</v>
       </c>
       <c r="I27" s="3">
-        <v>1097800</v>
+        <v>1701800</v>
       </c>
       <c r="J27" s="3">
+        <v>1076900</v>
+      </c>
+      <c r="K27" s="3">
         <v>1146300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1531000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1103200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6856100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6980400</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1468,9 +1525,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1507,9 +1567,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1546,9 +1609,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1585,87 +1651,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-162600</v>
+        <v>-200700</v>
       </c>
       <c r="E32" s="3">
-        <v>-143100</v>
+        <v>-159500</v>
       </c>
       <c r="F32" s="3">
-        <v>-230500</v>
+        <v>-140400</v>
       </c>
       <c r="G32" s="3">
-        <v>-188200</v>
+        <v>-226100</v>
       </c>
       <c r="H32" s="3">
-        <v>-167400</v>
+        <v>-184600</v>
       </c>
       <c r="I32" s="3">
-        <v>-160500</v>
+        <v>-164200</v>
       </c>
       <c r="J32" s="3">
+        <v>-157400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-298600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1073600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-319300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1318100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2395600</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1876600</v>
+        <v>1914200</v>
       </c>
       <c r="E33" s="3">
-        <v>1213300</v>
+        <v>1840900</v>
       </c>
       <c r="F33" s="3">
-        <v>1658900</v>
+        <v>1190200</v>
       </c>
       <c r="G33" s="3">
-        <v>2088500</v>
+        <v>1627300</v>
       </c>
       <c r="H33" s="3">
-        <v>1734900</v>
+        <v>2048700</v>
       </c>
       <c r="I33" s="3">
-        <v>1097800</v>
+        <v>1701800</v>
       </c>
       <c r="J33" s="3">
+        <v>1076900</v>
+      </c>
+      <c r="K33" s="3">
         <v>1146300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1531000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1103200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6856100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6980400</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1702,92 +1777,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1876600</v>
+        <v>1914200</v>
       </c>
       <c r="E35" s="3">
-        <v>1213300</v>
+        <v>1840900</v>
       </c>
       <c r="F35" s="3">
-        <v>1658900</v>
+        <v>1190200</v>
       </c>
       <c r="G35" s="3">
-        <v>2088500</v>
+        <v>1627300</v>
       </c>
       <c r="H35" s="3">
-        <v>1734900</v>
+        <v>2048700</v>
       </c>
       <c r="I35" s="3">
-        <v>1097800</v>
+        <v>1701800</v>
       </c>
       <c r="J35" s="3">
+        <v>1076900</v>
+      </c>
+      <c r="K35" s="3">
         <v>1146300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1531000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1103200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6856100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6980400</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43190</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42460</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42094</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41729</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41364</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40999</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1803,8 +1887,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1820,359 +1905,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8863200</v>
+        <v>5908600</v>
       </c>
       <c r="E41" s="3">
-        <v>11710200</v>
+        <v>8694300</v>
       </c>
       <c r="F41" s="3">
-        <v>7471300</v>
+        <v>11487100</v>
       </c>
       <c r="G41" s="3">
-        <v>5676100</v>
+        <v>7329000</v>
       </c>
       <c r="H41" s="3">
-        <v>8008400</v>
+        <v>5568000</v>
       </c>
       <c r="I41" s="3">
-        <v>9340300</v>
+        <v>7855900</v>
       </c>
       <c r="J41" s="3">
+        <v>9162400</v>
+      </c>
+      <c r="K41" s="3">
         <v>14899000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11079400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5427000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4526400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5523300</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1548200</v>
+        <v>1223300</v>
       </c>
       <c r="E42" s="3">
-        <v>1099800</v>
+        <v>1518700</v>
       </c>
       <c r="F42" s="3">
-        <v>1091000</v>
+        <v>1078800</v>
       </c>
       <c r="G42" s="3">
-        <v>965100</v>
+        <v>1070200</v>
       </c>
       <c r="H42" s="3">
-        <v>1496100</v>
+        <v>946700</v>
       </c>
       <c r="I42" s="3">
-        <v>1054900</v>
+        <v>1467600</v>
       </c>
       <c r="J42" s="3">
+        <v>1034800</v>
+      </c>
+      <c r="K42" s="3">
         <v>1216400</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>4400</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9735900</v>
+        <v>9535900</v>
       </c>
       <c r="E43" s="3">
-        <v>8778800</v>
+        <v>9550500</v>
       </c>
       <c r="F43" s="3">
-        <v>7726300</v>
+        <v>8611600</v>
       </c>
       <c r="G43" s="3">
-        <v>8751100</v>
+        <v>7579200</v>
       </c>
       <c r="H43" s="3">
-        <v>7636500</v>
+        <v>8584400</v>
       </c>
       <c r="I43" s="3">
-        <v>6225500</v>
+        <v>7491100</v>
       </c>
       <c r="J43" s="3">
+        <v>6106900</v>
+      </c>
+      <c r="K43" s="3">
         <v>12193700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8462600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9228100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8538500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9127200</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8325100</v>
+        <v>9291900</v>
       </c>
       <c r="E44" s="3">
-        <v>6119400</v>
+        <v>8166500</v>
       </c>
       <c r="F44" s="3">
-        <v>5832300</v>
+        <v>6002800</v>
       </c>
       <c r="G44" s="3">
-        <v>7470800</v>
+        <v>5721300</v>
       </c>
       <c r="H44" s="3">
-        <v>7266300</v>
+        <v>7328500</v>
       </c>
       <c r="I44" s="3">
-        <v>5926400</v>
+        <v>7127900</v>
       </c>
       <c r="J44" s="3">
+        <v>5813500</v>
+      </c>
+      <c r="K44" s="3">
         <v>11216800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6505600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6876200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7152400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7505600</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1157000</v>
+        <v>1459100</v>
       </c>
       <c r="E45" s="3">
-        <v>1124100</v>
+        <v>1134900</v>
       </c>
       <c r="F45" s="3">
-        <v>3132400</v>
+        <v>1102700</v>
       </c>
       <c r="G45" s="3">
-        <v>1201500</v>
+        <v>3072700</v>
       </c>
       <c r="H45" s="3">
-        <v>1214400</v>
+        <v>1178600</v>
       </c>
       <c r="I45" s="3">
-        <v>1008400</v>
+        <v>1191300</v>
       </c>
       <c r="J45" s="3">
+        <v>989200</v>
+      </c>
+      <c r="K45" s="3">
         <v>4192800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3063100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2779200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2453900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4110200</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>29629300</v>
+        <v>27418800</v>
       </c>
       <c r="E46" s="3">
-        <v>28832200</v>
+        <v>29064900</v>
       </c>
       <c r="F46" s="3">
-        <v>25253400</v>
+        <v>28283000</v>
       </c>
       <c r="G46" s="3">
-        <v>24064600</v>
+        <v>24772400</v>
       </c>
       <c r="H46" s="3">
-        <v>25621800</v>
+        <v>23606200</v>
       </c>
       <c r="I46" s="3">
-        <v>23555400</v>
+        <v>25133800</v>
       </c>
       <c r="J46" s="3">
+        <v>23106700</v>
+      </c>
+      <c r="K46" s="3">
         <v>21269200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>29110700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>24310600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>22671200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>26270600</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4529300</v>
+        <v>4642500</v>
       </c>
       <c r="E47" s="3">
-        <v>5049300</v>
+        <v>4443000</v>
       </c>
       <c r="F47" s="3">
-        <v>3837900</v>
+        <v>4953200</v>
       </c>
       <c r="G47" s="3">
-        <v>2592400</v>
+        <v>3764800</v>
       </c>
       <c r="H47" s="3">
-        <v>2311000</v>
+        <v>2543000</v>
       </c>
       <c r="I47" s="3">
-        <v>2337100</v>
+        <v>2267000</v>
       </c>
       <c r="J47" s="3">
+        <v>2292600</v>
+      </c>
+      <c r="K47" s="3">
         <v>4811200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2675600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2489700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2517700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4085000</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10091900</v>
+        <v>10174800</v>
       </c>
       <c r="E48" s="3">
-        <v>9640000</v>
+        <v>9899700</v>
       </c>
       <c r="F48" s="3">
-        <v>9523400</v>
+        <v>9456400</v>
       </c>
       <c r="G48" s="3">
-        <v>9734100</v>
+        <v>9342000</v>
       </c>
       <c r="H48" s="3">
-        <v>10099400</v>
+        <v>9548700</v>
       </c>
       <c r="I48" s="3">
-        <v>9726100</v>
+        <v>9907000</v>
       </c>
       <c r="J48" s="3">
+        <v>9540900</v>
+      </c>
+      <c r="K48" s="3">
         <v>19032200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11727300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13057100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>15229600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>15677900</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>12348200</v>
+      <c r="D49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E49" s="3">
-        <v>4425000</v>
+        <v>12113000</v>
       </c>
       <c r="F49" s="3">
-        <v>4561500</v>
+        <v>4340700</v>
       </c>
       <c r="G49" s="3">
-        <v>5288700</v>
+        <v>4474600</v>
       </c>
       <c r="H49" s="3">
-        <v>5426100</v>
+        <v>5188000</v>
       </c>
       <c r="I49" s="3">
-        <v>4888700</v>
+        <v>5322800</v>
       </c>
       <c r="J49" s="3">
+        <v>4795600</v>
+      </c>
+      <c r="K49" s="3">
         <v>8025000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5373900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6183600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6682600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9972600</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2209,9 +2322,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2248,48 +2364,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2374700</v>
+        <v>15873100</v>
       </c>
       <c r="E52" s="3">
-        <v>2379400</v>
+        <v>2329400</v>
       </c>
       <c r="F52" s="3">
-        <v>2529900</v>
+        <v>2334100</v>
       </c>
       <c r="G52" s="3">
-        <v>2522500</v>
+        <v>2481700</v>
       </c>
       <c r="H52" s="3">
-        <v>2781600</v>
+        <v>2474400</v>
       </c>
       <c r="I52" s="3">
-        <v>3467400</v>
+        <v>2728600</v>
       </c>
       <c r="J52" s="3">
+        <v>3401400</v>
+      </c>
+      <c r="K52" s="3">
         <v>5887700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1925300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1710000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1964900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3667400</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2326,48 +2448,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>58973300</v>
+        <v>58109200</v>
       </c>
       <c r="E54" s="3">
-        <v>50326000</v>
+        <v>57850000</v>
       </c>
       <c r="F54" s="3">
-        <v>45706100</v>
+        <v>49367400</v>
       </c>
       <c r="G54" s="3">
-        <v>44202400</v>
+        <v>44835500</v>
       </c>
       <c r="H54" s="3">
-        <v>46239900</v>
+        <v>43360400</v>
       </c>
       <c r="I54" s="3">
-        <v>43974800</v>
+        <v>45359200</v>
       </c>
       <c r="J54" s="3">
+        <v>43137100</v>
+      </c>
+      <c r="K54" s="3">
         <v>40337000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>50812800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>47751000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>49066100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>59673500</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2383,8 +2511,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2400,242 +2529,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12231700</v>
+        <v>11990000</v>
       </c>
       <c r="E57" s="3">
-        <v>7685300</v>
+        <v>11998700</v>
       </c>
       <c r="F57" s="3">
-        <v>7127300</v>
+        <v>7538900</v>
       </c>
       <c r="G57" s="3">
-        <v>8461100</v>
+        <v>6991500</v>
       </c>
       <c r="H57" s="3">
-        <v>8426600</v>
+        <v>8300000</v>
       </c>
       <c r="I57" s="3">
-        <v>7026300</v>
+        <v>8266100</v>
       </c>
       <c r="J57" s="3">
+        <v>6892500</v>
+      </c>
+      <c r="K57" s="3">
         <v>13503200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8387600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8583100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7197300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7693200</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3626600</v>
+        <v>1579900</v>
       </c>
       <c r="E58" s="3">
-        <v>2713100</v>
+        <v>3557500</v>
       </c>
       <c r="F58" s="3">
-        <v>2315200</v>
+        <v>2661500</v>
       </c>
       <c r="G58" s="3">
-        <v>2866200</v>
+        <v>2271100</v>
       </c>
       <c r="H58" s="3">
-        <v>2759100</v>
+        <v>2811600</v>
       </c>
       <c r="I58" s="3">
-        <v>1301200</v>
+        <v>2706600</v>
       </c>
       <c r="J58" s="3">
+        <v>1276400</v>
+      </c>
+      <c r="K58" s="3">
         <v>319400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2222300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>776200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4366000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5730000</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6672900</v>
+        <v>7147400</v>
       </c>
       <c r="E59" s="3">
-        <v>10213400</v>
+        <v>6545800</v>
       </c>
       <c r="F59" s="3">
-        <v>9785900</v>
+        <v>10018800</v>
       </c>
       <c r="G59" s="3">
-        <v>10645200</v>
+        <v>9599500</v>
       </c>
       <c r="H59" s="3">
-        <v>11584100</v>
+        <v>10442400</v>
       </c>
       <c r="I59" s="3">
-        <v>11606100</v>
+        <v>11363400</v>
       </c>
       <c r="J59" s="3">
+        <v>11385000</v>
+      </c>
+      <c r="K59" s="3">
         <v>21929600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12700900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12971500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12063100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12607600</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>22531200</v>
+        <v>20717400</v>
       </c>
       <c r="E60" s="3">
-        <v>20611800</v>
+        <v>22102000</v>
       </c>
       <c r="F60" s="3">
-        <v>19228400</v>
+        <v>20219200</v>
       </c>
       <c r="G60" s="3">
-        <v>21972500</v>
+        <v>18862100</v>
       </c>
       <c r="H60" s="3">
-        <v>22769800</v>
+        <v>21553900</v>
       </c>
       <c r="I60" s="3">
-        <v>19933700</v>
+        <v>22336100</v>
       </c>
       <c r="J60" s="3">
+        <v>19554000</v>
+      </c>
+      <c r="K60" s="3">
         <v>18252500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>23310800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>22330800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>23626400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>26030700</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10318500</v>
+        <v>8925800</v>
       </c>
       <c r="E61" s="3">
-        <v>7925400</v>
+        <v>10121900</v>
       </c>
       <c r="F61" s="3">
-        <v>8498900</v>
+        <v>7774400</v>
       </c>
       <c r="G61" s="3">
-        <v>4474400</v>
+        <v>8337000</v>
       </c>
       <c r="H61" s="3">
-        <v>6350800</v>
+        <v>4389200</v>
       </c>
       <c r="I61" s="3">
-        <v>6960200</v>
+        <v>6229800</v>
       </c>
       <c r="J61" s="3">
+        <v>6827600</v>
+      </c>
+      <c r="K61" s="3">
         <v>5167900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6076600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5105500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6027500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8513600</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1522000</v>
+        <v>1140400</v>
       </c>
       <c r="E62" s="3">
-        <v>1440300</v>
+        <v>1493000</v>
       </c>
       <c r="F62" s="3">
-        <v>2133200</v>
+        <v>1412800</v>
       </c>
       <c r="G62" s="3">
-        <v>2433600</v>
+        <v>2092500</v>
       </c>
       <c r="H62" s="3">
-        <v>3284500</v>
+        <v>2387200</v>
       </c>
       <c r="I62" s="3">
-        <v>4145400</v>
+        <v>3222000</v>
       </c>
       <c r="J62" s="3">
+        <v>4066400</v>
+      </c>
+      <c r="K62" s="3">
         <v>9642600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4428900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5782900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7556400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7252000</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2672,9 +2820,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2711,9 +2862,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2750,48 +2904,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>35710900</v>
+        <v>32020500</v>
       </c>
       <c r="E66" s="3">
-        <v>31259800</v>
+        <v>35030700</v>
       </c>
       <c r="F66" s="3">
-        <v>31018200</v>
+        <v>30664400</v>
       </c>
       <c r="G66" s="3">
-        <v>30138100</v>
+        <v>30427400</v>
       </c>
       <c r="H66" s="3">
-        <v>33689400</v>
+        <v>29564000</v>
       </c>
       <c r="I66" s="3">
-        <v>32421400</v>
+        <v>33047700</v>
       </c>
       <c r="J66" s="3">
+        <v>31803800</v>
+      </c>
+      <c r="K66" s="3">
         <v>29720300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>35260100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>33570000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>37576100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>42228300</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2807,8 +2967,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2845,9 +3006,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2884,9 +3048,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2923,9 +3090,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2962,48 +3132,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>17546500</v>
+        <v>18665200</v>
       </c>
       <c r="E72" s="3">
-        <v>15832100</v>
+        <v>17212300</v>
       </c>
       <c r="F72" s="3">
-        <v>12101100</v>
+        <v>15530500</v>
       </c>
       <c r="G72" s="3">
-        <v>11031400</v>
+        <v>11870600</v>
       </c>
       <c r="H72" s="3">
-        <v>9557500</v>
+        <v>10821300</v>
       </c>
       <c r="I72" s="3">
-        <v>7728100</v>
+        <v>9375400</v>
       </c>
       <c r="J72" s="3">
+        <v>7580900</v>
+      </c>
+      <c r="K72" s="3">
         <v>15019700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8711200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8049300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6998100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>13882600</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3040,9 +3216,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3079,9 +3258,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3118,48 +3300,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>23262500</v>
+        <v>26088700</v>
       </c>
       <c r="E76" s="3">
-        <v>19066100</v>
+        <v>22819400</v>
       </c>
       <c r="F76" s="3">
-        <v>14687900</v>
+        <v>18703000</v>
       </c>
       <c r="G76" s="3">
-        <v>14064300</v>
+        <v>14408100</v>
       </c>
       <c r="H76" s="3">
-        <v>12550500</v>
+        <v>13796400</v>
       </c>
       <c r="I76" s="3">
-        <v>11553400</v>
+        <v>12311400</v>
       </c>
       <c r="J76" s="3">
+        <v>11333300</v>
+      </c>
+      <c r="K76" s="3">
         <v>10616600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15552700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14181100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11490100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>17445300</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3196,92 +3384,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43190</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42460</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42094</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41729</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41364</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40999</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1876600</v>
+        <v>1914200</v>
       </c>
       <c r="E81" s="3">
-        <v>1213300</v>
+        <v>1840900</v>
       </c>
       <c r="F81" s="3">
-        <v>1658900</v>
+        <v>1190200</v>
       </c>
       <c r="G81" s="3">
-        <v>2088500</v>
+        <v>1627300</v>
       </c>
       <c r="H81" s="3">
-        <v>1734900</v>
+        <v>2048700</v>
       </c>
       <c r="I81" s="3">
-        <v>1097800</v>
+        <v>1701800</v>
       </c>
       <c r="J81" s="3">
+        <v>1076900</v>
+      </c>
+      <c r="K81" s="3">
         <v>1146300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1531000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1103200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6856100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6980400</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3297,47 +3494,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2492700</v>
+        <v>2756300</v>
       </c>
       <c r="E83" s="3">
-        <v>2334200</v>
+        <v>2445300</v>
       </c>
       <c r="F83" s="3">
-        <v>2741400</v>
+        <v>2289700</v>
       </c>
       <c r="G83" s="3">
-        <v>2175900</v>
+        <v>2689100</v>
       </c>
       <c r="H83" s="3">
-        <v>2115000</v>
+        <v>2134500</v>
       </c>
       <c r="I83" s="3">
-        <v>1990100</v>
+        <v>2074700</v>
       </c>
       <c r="J83" s="3">
+        <v>1952200</v>
+      </c>
+      <c r="K83" s="3">
         <v>2046200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2444100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3032700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3084800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3056500</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3374,9 +3575,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3413,9 +3617,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3452,9 +3659,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3491,9 +3701,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3530,48 +3743,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1860200</v>
+        <v>3754500</v>
       </c>
       <c r="E89" s="3">
-        <v>3701000</v>
+        <v>1824700</v>
       </c>
       <c r="F89" s="3">
-        <v>3161700</v>
+        <v>3630600</v>
       </c>
       <c r="G89" s="3">
-        <v>1497000</v>
+        <v>3101500</v>
       </c>
       <c r="H89" s="3">
-        <v>3110400</v>
+        <v>1468500</v>
       </c>
       <c r="I89" s="3">
-        <v>2832800</v>
+        <v>3051100</v>
       </c>
       <c r="J89" s="3">
+        <v>2778800</v>
+      </c>
+      <c r="K89" s="3">
         <v>3082300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4192200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5330700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3079200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-333500</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3587,47 +3806,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1719700</v>
+        <v>-2086200</v>
       </c>
       <c r="E91" s="3">
-        <v>-1698700</v>
+        <v>-1686900</v>
       </c>
       <c r="F91" s="3">
-        <v>-2013300</v>
+        <v>-1666400</v>
       </c>
       <c r="G91" s="3">
-        <v>-2323200</v>
+        <v>-1975000</v>
       </c>
       <c r="H91" s="3">
-        <v>-2899500</v>
+        <v>-2279000</v>
       </c>
       <c r="I91" s="3">
-        <v>-2047700</v>
+        <v>-2844200</v>
       </c>
       <c r="J91" s="3">
+        <v>-2008700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3580200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1912100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1847900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2910300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4126500</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3664,9 +3887,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3703,48 +3929,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5851700</v>
+        <v>-2480500</v>
       </c>
       <c r="E94" s="3">
-        <v>1298000</v>
+        <v>-5740200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1514800</v>
+        <v>1273300</v>
       </c>
       <c r="G94" s="3">
-        <v>-1421400</v>
+        <v>-1486000</v>
       </c>
       <c r="H94" s="3">
-        <v>-3372400</v>
+        <v>-1394300</v>
       </c>
       <c r="I94" s="3">
-        <v>-3088100</v>
+        <v>-3308100</v>
       </c>
       <c r="J94" s="3">
+        <v>-3029300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2159500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1177200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>111100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>149100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2739100</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3760,47 +3992,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-428800</v>
+        <v>-504800</v>
       </c>
       <c r="E96" s="3">
-        <v>-428700</v>
+        <v>-420600</v>
       </c>
       <c r="F96" s="3">
-        <v>-514300</v>
+        <v>-420500</v>
       </c>
       <c r="G96" s="3">
-        <v>-600000</v>
+        <v>-504500</v>
       </c>
       <c r="H96" s="3">
-        <v>-428600</v>
+        <v>-588600</v>
       </c>
       <c r="I96" s="3">
-        <v>-426500</v>
+        <v>-420400</v>
       </c>
       <c r="J96" s="3">
+        <v>-418400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-340500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-315500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-105900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-105100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-198100</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3837,9 +4073,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3876,9 +4115,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3915,124 +4157,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>433000</v>
+        <v>-4376600</v>
       </c>
       <c r="E100" s="3">
-        <v>-1306100</v>
+        <v>424700</v>
       </c>
       <c r="F100" s="3">
-        <v>354400</v>
+        <v>-1281200</v>
       </c>
       <c r="G100" s="3">
-        <v>-2511900</v>
+        <v>347700</v>
       </c>
       <c r="H100" s="3">
-        <v>-946400</v>
+        <v>-2464100</v>
       </c>
       <c r="I100" s="3">
-        <v>2165300</v>
+        <v>-928400</v>
       </c>
       <c r="J100" s="3">
+        <v>2124100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2275300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2197500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4876000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4463700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-480000</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>711500</v>
+        <v>316700</v>
       </c>
       <c r="E101" s="3">
-        <v>546000</v>
+        <v>698000</v>
       </c>
       <c r="F101" s="3">
-        <v>-206200</v>
+        <v>535600</v>
       </c>
       <c r="G101" s="3">
-        <v>104000</v>
+        <v>-202200</v>
       </c>
       <c r="H101" s="3">
-        <v>-123400</v>
+        <v>102000</v>
       </c>
       <c r="I101" s="3">
-        <v>-12700</v>
+        <v>-121100</v>
       </c>
       <c r="J101" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-612000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>655700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>315300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>525200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-67100</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2847000</v>
+        <v>-2785800</v>
       </c>
       <c r="E102" s="3">
-        <v>4238900</v>
+        <v>-2792800</v>
       </c>
       <c r="F102" s="3">
-        <v>1795200</v>
+        <v>4158200</v>
       </c>
       <c r="G102" s="3">
-        <v>-2332300</v>
+        <v>1761000</v>
       </c>
       <c r="H102" s="3">
-        <v>-1331800</v>
+        <v>-2287900</v>
       </c>
       <c r="I102" s="3">
-        <v>1897200</v>
+        <v>-1306500</v>
       </c>
       <c r="J102" s="3">
+        <v>1861100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1964500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5868100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>881000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-710200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3619800</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PCRFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PCRFY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>PCRFY</t>
   </si>
@@ -728,25 +728,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>60412200</v>
+        <v>57563300</v>
       </c>
       <c r="E8" s="3">
-        <v>53273200</v>
+        <v>50761000</v>
       </c>
       <c r="F8" s="3">
-        <v>48298300</v>
+        <v>46020700</v>
       </c>
       <c r="G8" s="3">
-        <v>54007200</v>
+        <v>51460400</v>
       </c>
       <c r="H8" s="3">
-        <v>57699700</v>
+        <v>54978800</v>
       </c>
       <c r="I8" s="3">
-        <v>57551400</v>
+        <v>54837500</v>
       </c>
       <c r="J8" s="3">
-        <v>52948100</v>
+        <v>50451300</v>
       </c>
       <c r="K8" s="3">
         <v>56053300</v>
@@ -770,25 +770,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>44107100</v>
+        <v>42023200</v>
       </c>
       <c r="E9" s="3">
-        <v>38246000</v>
+        <v>36442500</v>
       </c>
       <c r="F9" s="3">
-        <v>34059600</v>
+        <v>32453500</v>
       </c>
       <c r="G9" s="3">
-        <v>38498200</v>
+        <v>36682800</v>
       </c>
       <c r="H9" s="3">
-        <v>41358200</v>
+        <v>39407900</v>
       </c>
       <c r="I9" s="3">
-        <v>40685700</v>
+        <v>38767100</v>
       </c>
       <c r="J9" s="3">
-        <v>37183100</v>
+        <v>35429700</v>
       </c>
       <c r="K9" s="3">
         <v>78701300</v>
@@ -812,25 +812,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>16305000</v>
+        <v>15540100</v>
       </c>
       <c r="E10" s="3">
-        <v>15027200</v>
+        <v>14318500</v>
       </c>
       <c r="F10" s="3">
-        <v>14238700</v>
+        <v>13567200</v>
       </c>
       <c r="G10" s="3">
-        <v>15509000</v>
+        <v>14777700</v>
       </c>
       <c r="H10" s="3">
-        <v>16341500</v>
+        <v>15570800</v>
       </c>
       <c r="I10" s="3">
-        <v>16865700</v>
+        <v>16070400</v>
       </c>
       <c r="J10" s="3">
-        <v>15765000</v>
+        <v>15021600</v>
       </c>
       <c r="K10" s="3">
         <v>-22648000</v>
@@ -955,26 +955,26 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>282500</v>
       </c>
       <c r="E14" s="3">
-        <v>417500</v>
+        <v>397800</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>171400</v>
+        <v>163300</v>
       </c>
       <c r="H14" s="3">
-        <v>-814400</v>
+        <v>-776000</v>
       </c>
       <c r="I14" s="3">
-        <v>171700</v>
+        <v>163700</v>
       </c>
       <c r="J14" s="3">
-        <v>152900</v>
+        <v>145700</v>
       </c>
       <c r="K14" s="3">
         <v>1196800</v>
@@ -997,26 +997,26 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>1025000</v>
       </c>
       <c r="E15" s="3">
-        <v>943700</v>
+        <v>899200</v>
       </c>
       <c r="F15" s="3">
-        <v>874400</v>
+        <v>833100</v>
       </c>
       <c r="G15" s="3">
-        <v>953500</v>
+        <v>908500</v>
       </c>
       <c r="H15" s="3">
-        <v>612400</v>
+        <v>583600</v>
       </c>
       <c r="I15" s="3">
-        <v>612500</v>
+        <v>583600</v>
       </c>
       <c r="J15" s="3">
-        <v>594500</v>
+        <v>566400</v>
       </c>
       <c r="K15" s="3">
         <v>2350200</v>
@@ -1055,25 +1055,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>58331600</v>
+        <v>55580900</v>
       </c>
       <c r="E17" s="3">
-        <v>50695400</v>
+        <v>48304800</v>
       </c>
       <c r="F17" s="3">
-        <v>46433800</v>
+        <v>44244100</v>
       </c>
       <c r="G17" s="3">
-        <v>51889300</v>
+        <v>49442400</v>
       </c>
       <c r="H17" s="3">
-        <v>54732800</v>
+        <v>52151800</v>
       </c>
       <c r="I17" s="3">
-        <v>54807700</v>
+        <v>52223200</v>
       </c>
       <c r="J17" s="3">
-        <v>50952500</v>
+        <v>48549800</v>
       </c>
       <c r="K17" s="3">
         <v>54360700</v>
@@ -1097,25 +1097,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2080600</v>
+        <v>1982500</v>
       </c>
       <c r="E18" s="3">
-        <v>2577800</v>
+        <v>2456200</v>
       </c>
       <c r="F18" s="3">
-        <v>1864500</v>
+        <v>1776600</v>
       </c>
       <c r="G18" s="3">
-        <v>2117900</v>
+        <v>2018100</v>
       </c>
       <c r="H18" s="3">
-        <v>2966900</v>
+        <v>2827000</v>
       </c>
       <c r="I18" s="3">
-        <v>2743700</v>
+        <v>2614300</v>
       </c>
       <c r="J18" s="3">
-        <v>1995600</v>
+        <v>1901500</v>
       </c>
       <c r="K18" s="3">
         <v>1692700</v>
@@ -1157,25 +1157,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>200700</v>
+        <v>336400</v>
       </c>
       <c r="E20" s="3">
-        <v>159500</v>
+        <v>152000</v>
       </c>
       <c r="F20" s="3">
-        <v>140400</v>
+        <v>133700</v>
       </c>
       <c r="G20" s="3">
-        <v>226100</v>
+        <v>215400</v>
       </c>
       <c r="H20" s="3">
-        <v>184600</v>
+        <v>175900</v>
       </c>
       <c r="I20" s="3">
-        <v>164200</v>
+        <v>156400</v>
       </c>
       <c r="J20" s="3">
-        <v>157400</v>
+        <v>150000</v>
       </c>
       <c r="K20" s="3">
         <v>298600</v>
@@ -1199,25 +1199,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5056700</v>
+        <v>4945200</v>
       </c>
       <c r="E21" s="3">
-        <v>5199500</v>
+        <v>4938200</v>
       </c>
       <c r="F21" s="3">
-        <v>4310400</v>
+        <v>4092000</v>
       </c>
       <c r="G21" s="3">
-        <v>5051800</v>
+        <v>4795900</v>
       </c>
       <c r="H21" s="3">
-        <v>5300800</v>
+        <v>5036700</v>
       </c>
       <c r="I21" s="3">
-        <v>4997000</v>
+        <v>4747600</v>
       </c>
       <c r="J21" s="3">
-        <v>4118800</v>
+        <v>3911700</v>
       </c>
       <c r="K21" s="3">
         <v>4018000</v>
@@ -1240,26 +1240,26 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>145200</v>
       </c>
       <c r="E22" s="3">
-        <v>138900</v>
+        <v>132300</v>
       </c>
       <c r="F22" s="3">
-        <v>124400</v>
+        <v>118500</v>
       </c>
       <c r="G22" s="3">
-        <v>245600</v>
+        <v>234000</v>
       </c>
       <c r="H22" s="3">
-        <v>148900</v>
+        <v>141800</v>
       </c>
       <c r="I22" s="3">
-        <v>178200</v>
+        <v>169800</v>
       </c>
       <c r="J22" s="3">
-        <v>169800</v>
+        <v>161800</v>
       </c>
       <c r="K22" s="3">
         <v>319000</v>
@@ -1283,25 +1283,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2281300</v>
+        <v>2173700</v>
       </c>
       <c r="E23" s="3">
-        <v>2598400</v>
+        <v>2475900</v>
       </c>
       <c r="F23" s="3">
-        <v>1880500</v>
+        <v>1791800</v>
       </c>
       <c r="G23" s="3">
-        <v>2098500</v>
+        <v>1999500</v>
       </c>
       <c r="H23" s="3">
-        <v>3002600</v>
+        <v>2861100</v>
       </c>
       <c r="I23" s="3">
-        <v>2729600</v>
+        <v>2600900</v>
       </c>
       <c r="J23" s="3">
-        <v>1983200</v>
+        <v>1889700</v>
       </c>
       <c r="K23" s="3">
         <v>1672300</v>
@@ -1325,25 +1325,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>258500</v>
+        <v>246300</v>
       </c>
       <c r="E24" s="3">
-        <v>684600</v>
+        <v>652400</v>
       </c>
       <c r="F24" s="3">
-        <v>554600</v>
+        <v>528500</v>
       </c>
       <c r="G24" s="3">
-        <v>367800</v>
+        <v>350500</v>
       </c>
       <c r="H24" s="3">
-        <v>819900</v>
+        <v>781200</v>
       </c>
       <c r="I24" s="3">
-        <v>912500</v>
+        <v>869500</v>
       </c>
       <c r="J24" s="3">
-        <v>739900</v>
+        <v>705000</v>
       </c>
       <c r="K24" s="3">
         <v>266800</v>
@@ -1409,25 +1409,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2022800</v>
+        <v>1927400</v>
       </c>
       <c r="E26" s="3">
-        <v>1913800</v>
+        <v>1823600</v>
       </c>
       <c r="F26" s="3">
-        <v>1325900</v>
+        <v>1263400</v>
       </c>
       <c r="G26" s="3">
-        <v>1730700</v>
+        <v>1649100</v>
       </c>
       <c r="H26" s="3">
-        <v>2182700</v>
+        <v>2079800</v>
       </c>
       <c r="I26" s="3">
-        <v>1817100</v>
+        <v>1731400</v>
       </c>
       <c r="J26" s="3">
-        <v>1243300</v>
+        <v>1184700</v>
       </c>
       <c r="K26" s="3">
         <v>1405600</v>
@@ -1451,25 +1451,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1914200</v>
+        <v>1823900</v>
       </c>
       <c r="E27" s="3">
-        <v>1840900</v>
+        <v>1754100</v>
       </c>
       <c r="F27" s="3">
-        <v>1190200</v>
+        <v>1134000</v>
       </c>
       <c r="G27" s="3">
-        <v>1627300</v>
+        <v>1550600</v>
       </c>
       <c r="H27" s="3">
-        <v>2048700</v>
+        <v>1952100</v>
       </c>
       <c r="I27" s="3">
-        <v>1701800</v>
+        <v>1621600</v>
       </c>
       <c r="J27" s="3">
-        <v>1076900</v>
+        <v>1026100</v>
       </c>
       <c r="K27" s="3">
         <v>1146300</v>
@@ -1661,25 +1661,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-200700</v>
+        <v>-336400</v>
       </c>
       <c r="E32" s="3">
-        <v>-159500</v>
+        <v>-152000</v>
       </c>
       <c r="F32" s="3">
-        <v>-140400</v>
+        <v>-133700</v>
       </c>
       <c r="G32" s="3">
-        <v>-226100</v>
+        <v>-215400</v>
       </c>
       <c r="H32" s="3">
-        <v>-184600</v>
+        <v>-175900</v>
       </c>
       <c r="I32" s="3">
-        <v>-164200</v>
+        <v>-156400</v>
       </c>
       <c r="J32" s="3">
-        <v>-157400</v>
+        <v>-150000</v>
       </c>
       <c r="K32" s="3">
         <v>-298600</v>
@@ -1703,25 +1703,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1914200</v>
+        <v>1823900</v>
       </c>
       <c r="E33" s="3">
-        <v>1840900</v>
+        <v>1754100</v>
       </c>
       <c r="F33" s="3">
-        <v>1190200</v>
+        <v>1134000</v>
       </c>
       <c r="G33" s="3">
-        <v>1627300</v>
+        <v>1550600</v>
       </c>
       <c r="H33" s="3">
-        <v>2048700</v>
+        <v>1952100</v>
       </c>
       <c r="I33" s="3">
-        <v>1701800</v>
+        <v>1621600</v>
       </c>
       <c r="J33" s="3">
-        <v>1076900</v>
+        <v>1026100</v>
       </c>
       <c r="K33" s="3">
         <v>1146300</v>
@@ -1787,25 +1787,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1914200</v>
+        <v>1823900</v>
       </c>
       <c r="E35" s="3">
-        <v>1840900</v>
+        <v>1754100</v>
       </c>
       <c r="F35" s="3">
-        <v>1190200</v>
+        <v>1134000</v>
       </c>
       <c r="G35" s="3">
-        <v>1627300</v>
+        <v>1550600</v>
       </c>
       <c r="H35" s="3">
-        <v>2048700</v>
+        <v>1952100</v>
       </c>
       <c r="I35" s="3">
-        <v>1701800</v>
+        <v>1621600</v>
       </c>
       <c r="J35" s="3">
-        <v>1076900</v>
+        <v>1026100</v>
       </c>
       <c r="K35" s="3">
         <v>1146300</v>
@@ -1912,25 +1912,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5908600</v>
+        <v>5630000</v>
       </c>
       <c r="E41" s="3">
-        <v>8694300</v>
+        <v>8284300</v>
       </c>
       <c r="F41" s="3">
-        <v>11487100</v>
+        <v>10945400</v>
       </c>
       <c r="G41" s="3">
-        <v>7329000</v>
+        <v>6983400</v>
       </c>
       <c r="H41" s="3">
-        <v>5568000</v>
+        <v>5305500</v>
       </c>
       <c r="I41" s="3">
-        <v>7855900</v>
+        <v>7485400</v>
       </c>
       <c r="J41" s="3">
-        <v>9162400</v>
+        <v>8730300</v>
       </c>
       <c r="K41" s="3">
         <v>14899000</v>
@@ -1954,25 +1954,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1223300</v>
+        <v>1165600</v>
       </c>
       <c r="E42" s="3">
-        <v>1518700</v>
+        <v>1447000</v>
       </c>
       <c r="F42" s="3">
-        <v>1078800</v>
+        <v>1028000</v>
       </c>
       <c r="G42" s="3">
-        <v>1070200</v>
+        <v>1019800</v>
       </c>
       <c r="H42" s="3">
-        <v>946700</v>
+        <v>902100</v>
       </c>
       <c r="I42" s="3">
-        <v>1467600</v>
+        <v>1398400</v>
       </c>
       <c r="J42" s="3">
-        <v>1034800</v>
+        <v>986000</v>
       </c>
       <c r="K42" s="3">
         <v>1216400</v>
@@ -1996,25 +1996,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9535900</v>
+        <v>9086200</v>
       </c>
       <c r="E43" s="3">
-        <v>9550500</v>
+        <v>9100100</v>
       </c>
       <c r="F43" s="3">
-        <v>8611600</v>
+        <v>8205500</v>
       </c>
       <c r="G43" s="3">
-        <v>7579200</v>
+        <v>7221800</v>
       </c>
       <c r="H43" s="3">
-        <v>8584400</v>
+        <v>8179600</v>
       </c>
       <c r="I43" s="3">
-        <v>7491100</v>
+        <v>7137800</v>
       </c>
       <c r="J43" s="3">
-        <v>6106900</v>
+        <v>5818900</v>
       </c>
       <c r="K43" s="3">
         <v>12193700</v>
@@ -2038,25 +2038,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>9291900</v>
+        <v>8853700</v>
       </c>
       <c r="E44" s="3">
-        <v>8166500</v>
+        <v>7781400</v>
       </c>
       <c r="F44" s="3">
-        <v>6002800</v>
+        <v>5719700</v>
       </c>
       <c r="G44" s="3">
-        <v>5721300</v>
+        <v>5451500</v>
       </c>
       <c r="H44" s="3">
-        <v>7328500</v>
+        <v>6982900</v>
       </c>
       <c r="I44" s="3">
-        <v>7127900</v>
+        <v>6791700</v>
       </c>
       <c r="J44" s="3">
-        <v>5813500</v>
+        <v>5539300</v>
       </c>
       <c r="K44" s="3">
         <v>11216800</v>
@@ -2080,25 +2080,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1459100</v>
+        <v>1390300</v>
       </c>
       <c r="E45" s="3">
-        <v>1134900</v>
+        <v>1081400</v>
       </c>
       <c r="F45" s="3">
-        <v>1102700</v>
+        <v>1050700</v>
       </c>
       <c r="G45" s="3">
-        <v>3072700</v>
+        <v>2927800</v>
       </c>
       <c r="H45" s="3">
-        <v>1178600</v>
+        <v>1123000</v>
       </c>
       <c r="I45" s="3">
-        <v>1191300</v>
+        <v>1135100</v>
       </c>
       <c r="J45" s="3">
-        <v>989200</v>
+        <v>942600</v>
       </c>
       <c r="K45" s="3">
         <v>4192800</v>
@@ -2122,25 +2122,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>27418800</v>
+        <v>26125800</v>
       </c>
       <c r="E46" s="3">
-        <v>29064900</v>
+        <v>27694300</v>
       </c>
       <c r="F46" s="3">
-        <v>28283000</v>
+        <v>26949300</v>
       </c>
       <c r="G46" s="3">
-        <v>24772400</v>
+        <v>23604200</v>
       </c>
       <c r="H46" s="3">
-        <v>23606200</v>
+        <v>22493000</v>
       </c>
       <c r="I46" s="3">
-        <v>25133800</v>
+        <v>23948500</v>
       </c>
       <c r="J46" s="3">
-        <v>23106700</v>
+        <v>22017100</v>
       </c>
       <c r="K46" s="3">
         <v>21269200</v>
@@ -2164,25 +2164,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4642500</v>
+        <v>4423500</v>
       </c>
       <c r="E47" s="3">
-        <v>4443000</v>
+        <v>4233500</v>
       </c>
       <c r="F47" s="3">
-        <v>4953200</v>
+        <v>4719600</v>
       </c>
       <c r="G47" s="3">
-        <v>3764800</v>
+        <v>3587200</v>
       </c>
       <c r="H47" s="3">
-        <v>2543000</v>
+        <v>2423100</v>
       </c>
       <c r="I47" s="3">
-        <v>2267000</v>
+        <v>2160100</v>
       </c>
       <c r="J47" s="3">
-        <v>2292600</v>
+        <v>2184500</v>
       </c>
       <c r="K47" s="3">
         <v>4811200</v>
@@ -2206,25 +2206,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10174800</v>
+        <v>9695000</v>
       </c>
       <c r="E48" s="3">
-        <v>9899700</v>
+        <v>9432900</v>
       </c>
       <c r="F48" s="3">
-        <v>9456400</v>
+        <v>9010500</v>
       </c>
       <c r="G48" s="3">
-        <v>9342000</v>
+        <v>8901500</v>
       </c>
       <c r="H48" s="3">
-        <v>9548700</v>
+        <v>9098400</v>
       </c>
       <c r="I48" s="3">
-        <v>9907000</v>
+        <v>9439800</v>
       </c>
       <c r="J48" s="3">
-        <v>9540900</v>
+        <v>9090900</v>
       </c>
       <c r="K48" s="3">
         <v>19032200</v>
@@ -2247,26 +2247,26 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
+      <c r="D49" s="3">
+        <v>12340100</v>
       </c>
       <c r="E49" s="3">
-        <v>12113000</v>
+        <v>11541800</v>
       </c>
       <c r="F49" s="3">
-        <v>4340700</v>
+        <v>4136000</v>
       </c>
       <c r="G49" s="3">
-        <v>4474600</v>
+        <v>4263600</v>
       </c>
       <c r="H49" s="3">
-        <v>5188000</v>
+        <v>4943400</v>
       </c>
       <c r="I49" s="3">
-        <v>5322800</v>
+        <v>5071800</v>
       </c>
       <c r="J49" s="3">
-        <v>4795600</v>
+        <v>4569500</v>
       </c>
       <c r="K49" s="3">
         <v>8025000</v>
@@ -2374,25 +2374,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15873100</v>
+        <v>2784500</v>
       </c>
       <c r="E52" s="3">
-        <v>2329400</v>
+        <v>2219600</v>
       </c>
       <c r="F52" s="3">
-        <v>2334100</v>
+        <v>2224000</v>
       </c>
       <c r="G52" s="3">
-        <v>2481700</v>
+        <v>2364700</v>
       </c>
       <c r="H52" s="3">
-        <v>2474400</v>
+        <v>2357800</v>
       </c>
       <c r="I52" s="3">
-        <v>2728600</v>
+        <v>2599900</v>
       </c>
       <c r="J52" s="3">
-        <v>3401400</v>
+        <v>3241000</v>
       </c>
       <c r="K52" s="3">
         <v>5887700</v>
@@ -2458,25 +2458,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>58109200</v>
+        <v>55369000</v>
       </c>
       <c r="E54" s="3">
-        <v>57850000</v>
+        <v>55122000</v>
       </c>
       <c r="F54" s="3">
-        <v>49367400</v>
+        <v>47039400</v>
       </c>
       <c r="G54" s="3">
-        <v>44835500</v>
+        <v>42721200</v>
       </c>
       <c r="H54" s="3">
-        <v>43360400</v>
+        <v>41315700</v>
       </c>
       <c r="I54" s="3">
-        <v>45359200</v>
+        <v>43220200</v>
       </c>
       <c r="J54" s="3">
-        <v>43137100</v>
+        <v>41102900</v>
       </c>
       <c r="K54" s="3">
         <v>40337000</v>
@@ -2536,25 +2536,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11990000</v>
+        <v>11424600</v>
       </c>
       <c r="E57" s="3">
-        <v>11998700</v>
+        <v>11432900</v>
       </c>
       <c r="F57" s="3">
-        <v>7538900</v>
+        <v>7183400</v>
       </c>
       <c r="G57" s="3">
-        <v>6991500</v>
+        <v>6661800</v>
       </c>
       <c r="H57" s="3">
-        <v>8300000</v>
+        <v>7908600</v>
       </c>
       <c r="I57" s="3">
-        <v>8266100</v>
+        <v>7876300</v>
       </c>
       <c r="J57" s="3">
-        <v>6892500</v>
+        <v>6567500</v>
       </c>
       <c r="K57" s="3">
         <v>13503200</v>
@@ -2578,25 +2578,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1579900</v>
+        <v>1505400</v>
       </c>
       <c r="E58" s="3">
-        <v>3557500</v>
+        <v>3389700</v>
       </c>
       <c r="F58" s="3">
-        <v>2661500</v>
+        <v>2536000</v>
       </c>
       <c r="G58" s="3">
-        <v>2271100</v>
+        <v>2164000</v>
       </c>
       <c r="H58" s="3">
-        <v>2811600</v>
+        <v>2679000</v>
       </c>
       <c r="I58" s="3">
-        <v>2706600</v>
+        <v>2578900</v>
       </c>
       <c r="J58" s="3">
-        <v>1276400</v>
+        <v>1216300</v>
       </c>
       <c r="K58" s="3">
         <v>319400</v>
@@ -2620,25 +2620,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7147400</v>
+        <v>6810400</v>
       </c>
       <c r="E59" s="3">
-        <v>6545800</v>
+        <v>6237100</v>
       </c>
       <c r="F59" s="3">
-        <v>10018800</v>
+        <v>9546400</v>
       </c>
       <c r="G59" s="3">
-        <v>9599500</v>
+        <v>9146800</v>
       </c>
       <c r="H59" s="3">
-        <v>10442400</v>
+        <v>9950000</v>
       </c>
       <c r="I59" s="3">
-        <v>11363400</v>
+        <v>10827600</v>
       </c>
       <c r="J59" s="3">
-        <v>11385000</v>
+        <v>10848100</v>
       </c>
       <c r="K59" s="3">
         <v>21929600</v>
@@ -2662,25 +2662,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>20717400</v>
+        <v>19740400</v>
       </c>
       <c r="E60" s="3">
-        <v>22102000</v>
+        <v>21059700</v>
       </c>
       <c r="F60" s="3">
-        <v>20219200</v>
+        <v>19265700</v>
       </c>
       <c r="G60" s="3">
-        <v>18862100</v>
+        <v>17972700</v>
       </c>
       <c r="H60" s="3">
-        <v>21553900</v>
+        <v>20537500</v>
       </c>
       <c r="I60" s="3">
-        <v>22336100</v>
+        <v>21282800</v>
       </c>
       <c r="J60" s="3">
-        <v>19554000</v>
+        <v>18631900</v>
       </c>
       <c r="K60" s="3">
         <v>18252500</v>
@@ -2704,25 +2704,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8925800</v>
+        <v>8504900</v>
       </c>
       <c r="E61" s="3">
-        <v>10121900</v>
+        <v>9644600</v>
       </c>
       <c r="F61" s="3">
-        <v>7774400</v>
+        <v>7407800</v>
       </c>
       <c r="G61" s="3">
-        <v>8337000</v>
+        <v>7943900</v>
       </c>
       <c r="H61" s="3">
-        <v>4389200</v>
+        <v>4182200</v>
       </c>
       <c r="I61" s="3">
-        <v>6229800</v>
+        <v>5936000</v>
       </c>
       <c r="J61" s="3">
-        <v>6827600</v>
+        <v>6505700</v>
       </c>
       <c r="K61" s="3">
         <v>5167900</v>
@@ -2746,25 +2746,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1140400</v>
+        <v>1086600</v>
       </c>
       <c r="E62" s="3">
-        <v>1493000</v>
+        <v>1422600</v>
       </c>
       <c r="F62" s="3">
-        <v>1412800</v>
+        <v>1346200</v>
       </c>
       <c r="G62" s="3">
-        <v>2092500</v>
+        <v>1993900</v>
       </c>
       <c r="H62" s="3">
-        <v>2387200</v>
+        <v>2274700</v>
       </c>
       <c r="I62" s="3">
-        <v>3222000</v>
+        <v>3070000</v>
       </c>
       <c r="J62" s="3">
-        <v>4066400</v>
+        <v>3874700</v>
       </c>
       <c r="K62" s="3">
         <v>9642600</v>
@@ -2914,25 +2914,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>32020500</v>
+        <v>30510500</v>
       </c>
       <c r="E66" s="3">
-        <v>35030700</v>
+        <v>33378700</v>
       </c>
       <c r="F66" s="3">
-        <v>30664400</v>
+        <v>29218400</v>
       </c>
       <c r="G66" s="3">
-        <v>30427400</v>
+        <v>28992600</v>
       </c>
       <c r="H66" s="3">
-        <v>29564000</v>
+        <v>28169900</v>
       </c>
       <c r="I66" s="3">
-        <v>33047700</v>
+        <v>31489300</v>
       </c>
       <c r="J66" s="3">
-        <v>31803800</v>
+        <v>30304100</v>
       </c>
       <c r="K66" s="3">
         <v>29720300</v>
@@ -3142,25 +3142,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>18665200</v>
+        <v>17785100</v>
       </c>
       <c r="E72" s="3">
-        <v>17212300</v>
+        <v>16400600</v>
       </c>
       <c r="F72" s="3">
-        <v>15530500</v>
+        <v>14798100</v>
       </c>
       <c r="G72" s="3">
-        <v>11870600</v>
+        <v>11310800</v>
       </c>
       <c r="H72" s="3">
-        <v>10821300</v>
+        <v>10311000</v>
       </c>
       <c r="I72" s="3">
-        <v>9375400</v>
+        <v>8933300</v>
       </c>
       <c r="J72" s="3">
-        <v>7580900</v>
+        <v>7223400</v>
       </c>
       <c r="K72" s="3">
         <v>15019700</v>
@@ -3310,25 +3310,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>26088700</v>
+        <v>24858400</v>
       </c>
       <c r="E76" s="3">
-        <v>22819400</v>
+        <v>21743300</v>
       </c>
       <c r="F76" s="3">
-        <v>18703000</v>
+        <v>17821000</v>
       </c>
       <c r="G76" s="3">
-        <v>14408100</v>
+        <v>13728700</v>
       </c>
       <c r="H76" s="3">
-        <v>13796400</v>
+        <v>13145800</v>
       </c>
       <c r="I76" s="3">
-        <v>12311400</v>
+        <v>11730900</v>
       </c>
       <c r="J76" s="3">
-        <v>11333300</v>
+        <v>10798900</v>
       </c>
       <c r="K76" s="3">
         <v>10616600</v>
@@ -3441,25 +3441,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1914200</v>
+        <v>1823900</v>
       </c>
       <c r="E81" s="3">
-        <v>1840900</v>
+        <v>1754100</v>
       </c>
       <c r="F81" s="3">
-        <v>1190200</v>
+        <v>1134000</v>
       </c>
       <c r="G81" s="3">
-        <v>1627300</v>
+        <v>1550600</v>
       </c>
       <c r="H81" s="3">
-        <v>2048700</v>
+        <v>1952100</v>
       </c>
       <c r="I81" s="3">
-        <v>1701800</v>
+        <v>1621600</v>
       </c>
       <c r="J81" s="3">
-        <v>1076900</v>
+        <v>1026100</v>
       </c>
       <c r="K81" s="3">
         <v>1146300</v>
@@ -3501,25 +3501,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2756300</v>
+        <v>2626300</v>
       </c>
       <c r="E83" s="3">
-        <v>2445300</v>
+        <v>2329900</v>
       </c>
       <c r="F83" s="3">
-        <v>2289700</v>
+        <v>2181700</v>
       </c>
       <c r="G83" s="3">
-        <v>2689100</v>
+        <v>2562300</v>
       </c>
       <c r="H83" s="3">
-        <v>2134500</v>
+        <v>2033800</v>
       </c>
       <c r="I83" s="3">
-        <v>2074700</v>
+        <v>1976900</v>
       </c>
       <c r="J83" s="3">
-        <v>1952200</v>
+        <v>1860200</v>
       </c>
       <c r="K83" s="3">
         <v>2046200</v>
@@ -3753,25 +3753,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3754500</v>
+        <v>3577500</v>
       </c>
       <c r="E89" s="3">
-        <v>1824700</v>
+        <v>1738700</v>
       </c>
       <c r="F89" s="3">
-        <v>3630600</v>
+        <v>3459300</v>
       </c>
       <c r="G89" s="3">
-        <v>3101500</v>
+        <v>2955200</v>
       </c>
       <c r="H89" s="3">
-        <v>1468500</v>
+        <v>1399300</v>
       </c>
       <c r="I89" s="3">
-        <v>3051100</v>
+        <v>2907300</v>
       </c>
       <c r="J89" s="3">
-        <v>2778800</v>
+        <v>2647800</v>
       </c>
       <c r="K89" s="3">
         <v>3082300</v>
@@ -3813,25 +3813,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2086200</v>
+        <v>-1987900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1686900</v>
+        <v>-1607400</v>
       </c>
       <c r="F91" s="3">
-        <v>-1666400</v>
+        <v>-1587800</v>
       </c>
       <c r="G91" s="3">
-        <v>-1975000</v>
+        <v>-1881800</v>
       </c>
       <c r="H91" s="3">
-        <v>-2279000</v>
+        <v>-2171500</v>
       </c>
       <c r="I91" s="3">
-        <v>-2844200</v>
+        <v>-2710100</v>
       </c>
       <c r="J91" s="3">
-        <v>-2008700</v>
+        <v>-1913900</v>
       </c>
       <c r="K91" s="3">
         <v>-3580200</v>
@@ -3939,25 +3939,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2480500</v>
+        <v>-2363500</v>
       </c>
       <c r="E94" s="3">
-        <v>-5740200</v>
+        <v>-5469500</v>
       </c>
       <c r="F94" s="3">
-        <v>1273300</v>
+        <v>1213200</v>
       </c>
       <c r="G94" s="3">
-        <v>-1486000</v>
+        <v>-1415900</v>
       </c>
       <c r="H94" s="3">
-        <v>-1394300</v>
+        <v>-1328600</v>
       </c>
       <c r="I94" s="3">
-        <v>-3308100</v>
+        <v>-3152100</v>
       </c>
       <c r="J94" s="3">
-        <v>-3029300</v>
+        <v>-2886500</v>
       </c>
       <c r="K94" s="3">
         <v>-2159500</v>
@@ -3999,25 +3999,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-504800</v>
+        <v>-481000</v>
       </c>
       <c r="E96" s="3">
-        <v>-420600</v>
+        <v>-400800</v>
       </c>
       <c r="F96" s="3">
-        <v>-420500</v>
+        <v>-400700</v>
       </c>
       <c r="G96" s="3">
-        <v>-504500</v>
+        <v>-480800</v>
       </c>
       <c r="H96" s="3">
-        <v>-588600</v>
+        <v>-560800</v>
       </c>
       <c r="I96" s="3">
-        <v>-420400</v>
+        <v>-400600</v>
       </c>
       <c r="J96" s="3">
-        <v>-418400</v>
+        <v>-398600</v>
       </c>
       <c r="K96" s="3">
         <v>-340500</v>
@@ -4167,25 +4167,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4376600</v>
+        <v>-4170200</v>
       </c>
       <c r="E100" s="3">
-        <v>424700</v>
+        <v>404700</v>
       </c>
       <c r="F100" s="3">
-        <v>-1281200</v>
+        <v>-1220800</v>
       </c>
       <c r="G100" s="3">
-        <v>347700</v>
+        <v>331300</v>
       </c>
       <c r="H100" s="3">
-        <v>-2464100</v>
+        <v>-2347900</v>
       </c>
       <c r="I100" s="3">
-        <v>-928400</v>
+        <v>-884600</v>
       </c>
       <c r="J100" s="3">
-        <v>2124100</v>
+        <v>2023900</v>
       </c>
       <c r="K100" s="3">
         <v>-2275300</v>
@@ -4209,25 +4209,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>316700</v>
+        <v>301800</v>
       </c>
       <c r="E101" s="3">
-        <v>698000</v>
+        <v>665100</v>
       </c>
       <c r="F101" s="3">
-        <v>535600</v>
+        <v>510300</v>
       </c>
       <c r="G101" s="3">
-        <v>-202200</v>
+        <v>-192700</v>
       </c>
       <c r="H101" s="3">
-        <v>102000</v>
+        <v>97200</v>
       </c>
       <c r="I101" s="3">
-        <v>-121100</v>
+        <v>-115400</v>
       </c>
       <c r="J101" s="3">
-        <v>-12500</v>
+        <v>-11900</v>
       </c>
       <c r="K101" s="3">
         <v>-612000</v>
@@ -4251,25 +4251,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2785800</v>
+        <v>-2654400</v>
       </c>
       <c r="E102" s="3">
-        <v>-2792800</v>
+        <v>-2661100</v>
       </c>
       <c r="F102" s="3">
-        <v>4158200</v>
+        <v>3962100</v>
       </c>
       <c r="G102" s="3">
-        <v>1761000</v>
+        <v>1677900</v>
       </c>
       <c r="H102" s="3">
-        <v>-2287900</v>
+        <v>-2180000</v>
       </c>
       <c r="I102" s="3">
-        <v>-1306500</v>
+        <v>-1244900</v>
       </c>
       <c r="J102" s="3">
-        <v>1861100</v>
+        <v>1773300</v>
       </c>
       <c r="K102" s="3">
         <v>-1964500</v>

--- a/AAII_Financials/Yearly/PCRFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PCRFY_YR_FIN.xlsx
@@ -728,25 +728,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>57563300</v>
+        <v>55636200</v>
       </c>
       <c r="E8" s="3">
-        <v>50761000</v>
+        <v>49061600</v>
       </c>
       <c r="F8" s="3">
-        <v>46020700</v>
+        <v>44480000</v>
       </c>
       <c r="G8" s="3">
-        <v>51460400</v>
+        <v>49737600</v>
       </c>
       <c r="H8" s="3">
-        <v>54978800</v>
+        <v>53138100</v>
       </c>
       <c r="I8" s="3">
-        <v>54837500</v>
+        <v>53001600</v>
       </c>
       <c r="J8" s="3">
-        <v>50451300</v>
+        <v>48762200</v>
       </c>
       <c r="K8" s="3">
         <v>56053300</v>
@@ -770,25 +770,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>42023200</v>
+        <v>40616300</v>
       </c>
       <c r="E9" s="3">
-        <v>36442500</v>
+        <v>35222400</v>
       </c>
       <c r="F9" s="3">
-        <v>32453500</v>
+        <v>31367000</v>
       </c>
       <c r="G9" s="3">
-        <v>36682800</v>
+        <v>35454700</v>
       </c>
       <c r="H9" s="3">
-        <v>39407900</v>
+        <v>38088600</v>
       </c>
       <c r="I9" s="3">
-        <v>38767100</v>
+        <v>37469200</v>
       </c>
       <c r="J9" s="3">
-        <v>35429700</v>
+        <v>34243600</v>
       </c>
       <c r="K9" s="3">
         <v>78701300</v>
@@ -812,25 +812,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>15540100</v>
+        <v>15019800</v>
       </c>
       <c r="E10" s="3">
-        <v>14318500</v>
+        <v>13839200</v>
       </c>
       <c r="F10" s="3">
-        <v>13567200</v>
+        <v>13113000</v>
       </c>
       <c r="G10" s="3">
-        <v>14777700</v>
+        <v>14282900</v>
       </c>
       <c r="H10" s="3">
-        <v>15570800</v>
+        <v>15049600</v>
       </c>
       <c r="I10" s="3">
-        <v>16070400</v>
+        <v>15532400</v>
       </c>
       <c r="J10" s="3">
-        <v>15021600</v>
+        <v>14518700</v>
       </c>
       <c r="K10" s="3">
         <v>-22648000</v>
@@ -956,25 +956,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>282500</v>
+        <v>273100</v>
       </c>
       <c r="E14" s="3">
-        <v>397800</v>
+        <v>384500</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>163300</v>
+        <v>157800</v>
       </c>
       <c r="H14" s="3">
-        <v>-776000</v>
+        <v>-750000</v>
       </c>
       <c r="I14" s="3">
-        <v>163700</v>
+        <v>158200</v>
       </c>
       <c r="J14" s="3">
-        <v>145700</v>
+        <v>140800</v>
       </c>
       <c r="K14" s="3">
         <v>1196800</v>
@@ -998,25 +998,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1025000</v>
+        <v>990700</v>
       </c>
       <c r="E15" s="3">
-        <v>899200</v>
+        <v>869100</v>
       </c>
       <c r="F15" s="3">
-        <v>833100</v>
+        <v>805200</v>
       </c>
       <c r="G15" s="3">
-        <v>908500</v>
+        <v>878100</v>
       </c>
       <c r="H15" s="3">
-        <v>583600</v>
+        <v>564000</v>
       </c>
       <c r="I15" s="3">
-        <v>583600</v>
+        <v>564000</v>
       </c>
       <c r="J15" s="3">
-        <v>566400</v>
+        <v>547500</v>
       </c>
       <c r="K15" s="3">
         <v>2350200</v>
@@ -1055,25 +1055,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>55580900</v>
+        <v>53720100</v>
       </c>
       <c r="E17" s="3">
-        <v>48304800</v>
+        <v>46687600</v>
       </c>
       <c r="F17" s="3">
-        <v>44244100</v>
+        <v>42762900</v>
       </c>
       <c r="G17" s="3">
-        <v>49442400</v>
+        <v>47787100</v>
       </c>
       <c r="H17" s="3">
-        <v>52151800</v>
+        <v>50405800</v>
       </c>
       <c r="I17" s="3">
-        <v>52223200</v>
+        <v>50474800</v>
       </c>
       <c r="J17" s="3">
-        <v>48549800</v>
+        <v>46924400</v>
       </c>
       <c r="K17" s="3">
         <v>54360700</v>
@@ -1097,25 +1097,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1982500</v>
+        <v>1916100</v>
       </c>
       <c r="E18" s="3">
-        <v>2456200</v>
+        <v>2374000</v>
       </c>
       <c r="F18" s="3">
-        <v>1776600</v>
+        <v>1717100</v>
       </c>
       <c r="G18" s="3">
-        <v>2018100</v>
+        <v>1950500</v>
       </c>
       <c r="H18" s="3">
-        <v>2827000</v>
+        <v>2732300</v>
       </c>
       <c r="I18" s="3">
-        <v>2614300</v>
+        <v>2526800</v>
       </c>
       <c r="J18" s="3">
-        <v>1901500</v>
+        <v>1837800</v>
       </c>
       <c r="K18" s="3">
         <v>1692700</v>
@@ -1157,25 +1157,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>336400</v>
+        <v>324600</v>
       </c>
       <c r="E20" s="3">
-        <v>152000</v>
+        <v>144400</v>
       </c>
       <c r="F20" s="3">
-        <v>133700</v>
+        <v>129300</v>
       </c>
       <c r="G20" s="3">
-        <v>215400</v>
+        <v>208200</v>
       </c>
       <c r="H20" s="3">
-        <v>175900</v>
+        <v>170000</v>
       </c>
       <c r="I20" s="3">
-        <v>156400</v>
+        <v>151200</v>
       </c>
       <c r="J20" s="3">
-        <v>150000</v>
+        <v>145000</v>
       </c>
       <c r="K20" s="3">
         <v>298600</v>
@@ -1199,25 +1199,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4945200</v>
+        <v>4767600</v>
       </c>
       <c r="E21" s="3">
-        <v>4938200</v>
+        <v>4760100</v>
       </c>
       <c r="F21" s="3">
-        <v>4092000</v>
+        <v>3945500</v>
       </c>
       <c r="G21" s="3">
-        <v>4795900</v>
+        <v>4624100</v>
       </c>
       <c r="H21" s="3">
-        <v>5036700</v>
+        <v>4859200</v>
       </c>
       <c r="I21" s="3">
-        <v>4747600</v>
+        <v>4580000</v>
       </c>
       <c r="J21" s="3">
-        <v>3911700</v>
+        <v>3772600</v>
       </c>
       <c r="K21" s="3">
         <v>4018000</v>
@@ -1241,25 +1241,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>145200</v>
+        <v>139700</v>
       </c>
       <c r="E22" s="3">
-        <v>132300</v>
+        <v>125300</v>
       </c>
       <c r="F22" s="3">
-        <v>118500</v>
+        <v>114500</v>
       </c>
       <c r="G22" s="3">
-        <v>234000</v>
+        <v>226200</v>
       </c>
       <c r="H22" s="3">
-        <v>141800</v>
+        <v>137100</v>
       </c>
       <c r="I22" s="3">
-        <v>169800</v>
+        <v>164100</v>
       </c>
       <c r="J22" s="3">
-        <v>161800</v>
+        <v>156400</v>
       </c>
       <c r="K22" s="3">
         <v>319000</v>
@@ -1283,25 +1283,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2173700</v>
+        <v>2101000</v>
       </c>
       <c r="E23" s="3">
-        <v>2475900</v>
+        <v>2393000</v>
       </c>
       <c r="F23" s="3">
-        <v>1791800</v>
+        <v>1731800</v>
       </c>
       <c r="G23" s="3">
-        <v>1999500</v>
+        <v>1932600</v>
       </c>
       <c r="H23" s="3">
-        <v>2861100</v>
+        <v>2765300</v>
       </c>
       <c r="I23" s="3">
-        <v>2600900</v>
+        <v>2513800</v>
       </c>
       <c r="J23" s="3">
-        <v>1889700</v>
+        <v>1826400</v>
       </c>
       <c r="K23" s="3">
         <v>1672300</v>
@@ -1325,25 +1325,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>246300</v>
+        <v>238100</v>
       </c>
       <c r="E24" s="3">
-        <v>652400</v>
+        <v>630500</v>
       </c>
       <c r="F24" s="3">
-        <v>528500</v>
+        <v>510800</v>
       </c>
       <c r="G24" s="3">
-        <v>350500</v>
+        <v>338700</v>
       </c>
       <c r="H24" s="3">
-        <v>781200</v>
+        <v>755100</v>
       </c>
       <c r="I24" s="3">
-        <v>869500</v>
+        <v>840400</v>
       </c>
       <c r="J24" s="3">
-        <v>705000</v>
+        <v>681400</v>
       </c>
       <c r="K24" s="3">
         <v>266800</v>
@@ -1409,25 +1409,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1927400</v>
+        <v>1862900</v>
       </c>
       <c r="E26" s="3">
-        <v>1823600</v>
+        <v>1762500</v>
       </c>
       <c r="F26" s="3">
-        <v>1263400</v>
+        <v>1221100</v>
       </c>
       <c r="G26" s="3">
-        <v>1649100</v>
+        <v>1593900</v>
       </c>
       <c r="H26" s="3">
-        <v>2079800</v>
+        <v>2010200</v>
       </c>
       <c r="I26" s="3">
-        <v>1731400</v>
+        <v>1673500</v>
       </c>
       <c r="J26" s="3">
-        <v>1184700</v>
+        <v>1145000</v>
       </c>
       <c r="K26" s="3">
         <v>1405600</v>
@@ -1451,25 +1451,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1823900</v>
+        <v>1762900</v>
       </c>
       <c r="E27" s="3">
-        <v>1754100</v>
+        <v>1695300</v>
       </c>
       <c r="F27" s="3">
-        <v>1134000</v>
+        <v>1096100</v>
       </c>
       <c r="G27" s="3">
-        <v>1550600</v>
+        <v>1498600</v>
       </c>
       <c r="H27" s="3">
-        <v>1952100</v>
+        <v>1886700</v>
       </c>
       <c r="I27" s="3">
-        <v>1621600</v>
+        <v>1567300</v>
       </c>
       <c r="J27" s="3">
-        <v>1026100</v>
+        <v>991800</v>
       </c>
       <c r="K27" s="3">
         <v>1146300</v>
@@ -1661,25 +1661,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-336400</v>
+        <v>-324600</v>
       </c>
       <c r="E32" s="3">
-        <v>-152000</v>
+        <v>-144400</v>
       </c>
       <c r="F32" s="3">
-        <v>-133700</v>
+        <v>-129300</v>
       </c>
       <c r="G32" s="3">
-        <v>-215400</v>
+        <v>-208200</v>
       </c>
       <c r="H32" s="3">
-        <v>-175900</v>
+        <v>-170000</v>
       </c>
       <c r="I32" s="3">
-        <v>-156400</v>
+        <v>-151200</v>
       </c>
       <c r="J32" s="3">
-        <v>-150000</v>
+        <v>-145000</v>
       </c>
       <c r="K32" s="3">
         <v>-298600</v>
@@ -1703,25 +1703,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1823900</v>
+        <v>1762900</v>
       </c>
       <c r="E33" s="3">
-        <v>1754100</v>
+        <v>1695300</v>
       </c>
       <c r="F33" s="3">
-        <v>1134000</v>
+        <v>1096100</v>
       </c>
       <c r="G33" s="3">
-        <v>1550600</v>
+        <v>1498600</v>
       </c>
       <c r="H33" s="3">
-        <v>1952100</v>
+        <v>1886700</v>
       </c>
       <c r="I33" s="3">
-        <v>1621600</v>
+        <v>1567300</v>
       </c>
       <c r="J33" s="3">
-        <v>1026100</v>
+        <v>991800</v>
       </c>
       <c r="K33" s="3">
         <v>1146300</v>
@@ -1787,25 +1787,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1823900</v>
+        <v>1762900</v>
       </c>
       <c r="E35" s="3">
-        <v>1754100</v>
+        <v>1695300</v>
       </c>
       <c r="F35" s="3">
-        <v>1134000</v>
+        <v>1096100</v>
       </c>
       <c r="G35" s="3">
-        <v>1550600</v>
+        <v>1498600</v>
       </c>
       <c r="H35" s="3">
-        <v>1952100</v>
+        <v>1886700</v>
       </c>
       <c r="I35" s="3">
-        <v>1621600</v>
+        <v>1567300</v>
       </c>
       <c r="J35" s="3">
-        <v>1026100</v>
+        <v>991800</v>
       </c>
       <c r="K35" s="3">
         <v>1146300</v>
@@ -1912,25 +1912,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5630000</v>
+        <v>5441500</v>
       </c>
       <c r="E41" s="3">
-        <v>8284300</v>
+        <v>8007000</v>
       </c>
       <c r="F41" s="3">
-        <v>10945400</v>
+        <v>10579000</v>
       </c>
       <c r="G41" s="3">
-        <v>6983400</v>
+        <v>6749600</v>
       </c>
       <c r="H41" s="3">
-        <v>5305500</v>
+        <v>5127800</v>
       </c>
       <c r="I41" s="3">
-        <v>7485400</v>
+        <v>7234800</v>
       </c>
       <c r="J41" s="3">
-        <v>8730300</v>
+        <v>8438000</v>
       </c>
       <c r="K41" s="3">
         <v>14899000</v>
@@ -1954,25 +1954,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1165600</v>
+        <v>1126600</v>
       </c>
       <c r="E42" s="3">
-        <v>1447000</v>
+        <v>1398600</v>
       </c>
       <c r="F42" s="3">
-        <v>1028000</v>
+        <v>993500</v>
       </c>
       <c r="G42" s="3">
-        <v>1019800</v>
+        <v>985600</v>
       </c>
       <c r="H42" s="3">
-        <v>902100</v>
+        <v>871900</v>
       </c>
       <c r="I42" s="3">
-        <v>1398400</v>
+        <v>1351600</v>
       </c>
       <c r="J42" s="3">
-        <v>986000</v>
+        <v>953000</v>
       </c>
       <c r="K42" s="3">
         <v>1216400</v>
@@ -1996,25 +1996,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9086200</v>
+        <v>8782000</v>
       </c>
       <c r="E43" s="3">
-        <v>9100100</v>
+        <v>8795500</v>
       </c>
       <c r="F43" s="3">
-        <v>8205500</v>
+        <v>7930800</v>
       </c>
       <c r="G43" s="3">
-        <v>7221800</v>
+        <v>6980000</v>
       </c>
       <c r="H43" s="3">
-        <v>8179600</v>
+        <v>7905700</v>
       </c>
       <c r="I43" s="3">
-        <v>7137800</v>
+        <v>6898900</v>
       </c>
       <c r="J43" s="3">
-        <v>5818900</v>
+        <v>5624100</v>
       </c>
       <c r="K43" s="3">
         <v>12193700</v>
@@ -2038,25 +2038,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8853700</v>
+        <v>8557300</v>
       </c>
       <c r="E44" s="3">
-        <v>7781400</v>
+        <v>7520900</v>
       </c>
       <c r="F44" s="3">
-        <v>5719700</v>
+        <v>5528300</v>
       </c>
       <c r="G44" s="3">
-        <v>5451500</v>
+        <v>5268900</v>
       </c>
       <c r="H44" s="3">
-        <v>6982900</v>
+        <v>6749100</v>
       </c>
       <c r="I44" s="3">
-        <v>6791700</v>
+        <v>6564400</v>
       </c>
       <c r="J44" s="3">
-        <v>5539300</v>
+        <v>5353900</v>
       </c>
       <c r="K44" s="3">
         <v>11216800</v>
@@ -2080,25 +2080,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1390300</v>
+        <v>1343800</v>
       </c>
       <c r="E45" s="3">
-        <v>1081400</v>
+        <v>1045200</v>
       </c>
       <c r="F45" s="3">
-        <v>1050700</v>
+        <v>1015500</v>
       </c>
       <c r="G45" s="3">
-        <v>2927800</v>
+        <v>2829800</v>
       </c>
       <c r="H45" s="3">
-        <v>1123000</v>
+        <v>1085400</v>
       </c>
       <c r="I45" s="3">
-        <v>1135100</v>
+        <v>1097100</v>
       </c>
       <c r="J45" s="3">
-        <v>942600</v>
+        <v>911000</v>
       </c>
       <c r="K45" s="3">
         <v>4192800</v>
@@ -2122,25 +2122,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>26125800</v>
+        <v>25251200</v>
       </c>
       <c r="E46" s="3">
-        <v>27694300</v>
+        <v>26767100</v>
       </c>
       <c r="F46" s="3">
-        <v>26949300</v>
+        <v>26047000</v>
       </c>
       <c r="G46" s="3">
-        <v>23604200</v>
+        <v>22813900</v>
       </c>
       <c r="H46" s="3">
-        <v>22493000</v>
+        <v>21740000</v>
       </c>
       <c r="I46" s="3">
-        <v>23948500</v>
+        <v>23146800</v>
       </c>
       <c r="J46" s="3">
-        <v>22017100</v>
+        <v>21280000</v>
       </c>
       <c r="K46" s="3">
         <v>21269200</v>
@@ -2164,25 +2164,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4423500</v>
+        <v>4275400</v>
       </c>
       <c r="E47" s="3">
-        <v>4233500</v>
+        <v>4091700</v>
       </c>
       <c r="F47" s="3">
-        <v>4719600</v>
+        <v>4561600</v>
       </c>
       <c r="G47" s="3">
-        <v>3587200</v>
+        <v>3467100</v>
       </c>
       <c r="H47" s="3">
-        <v>2423100</v>
+        <v>2342000</v>
       </c>
       <c r="I47" s="3">
-        <v>2160100</v>
+        <v>2087800</v>
       </c>
       <c r="J47" s="3">
-        <v>2184500</v>
+        <v>2111300</v>
       </c>
       <c r="K47" s="3">
         <v>4811200</v>
@@ -2206,25 +2206,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9695000</v>
+        <v>9370400</v>
       </c>
       <c r="E48" s="3">
-        <v>9432900</v>
+        <v>9117100</v>
       </c>
       <c r="F48" s="3">
-        <v>9010500</v>
+        <v>8708800</v>
       </c>
       <c r="G48" s="3">
-        <v>8901500</v>
+        <v>8603500</v>
       </c>
       <c r="H48" s="3">
-        <v>9098400</v>
+        <v>8793800</v>
       </c>
       <c r="I48" s="3">
-        <v>9439800</v>
+        <v>9123800</v>
       </c>
       <c r="J48" s="3">
-        <v>9090900</v>
+        <v>8786600</v>
       </c>
       <c r="K48" s="3">
         <v>19032200</v>
@@ -2248,25 +2248,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12340100</v>
+        <v>11927000</v>
       </c>
       <c r="E49" s="3">
-        <v>11541800</v>
+        <v>11155400</v>
       </c>
       <c r="F49" s="3">
-        <v>4136000</v>
+        <v>3997600</v>
       </c>
       <c r="G49" s="3">
-        <v>4263600</v>
+        <v>4120900</v>
       </c>
       <c r="H49" s="3">
-        <v>4943400</v>
+        <v>4777900</v>
       </c>
       <c r="I49" s="3">
-        <v>5071800</v>
+        <v>4902000</v>
       </c>
       <c r="J49" s="3">
-        <v>4569500</v>
+        <v>4416500</v>
       </c>
       <c r="K49" s="3">
         <v>8025000</v>
@@ -2374,25 +2374,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2784500</v>
+        <v>2691200</v>
       </c>
       <c r="E52" s="3">
-        <v>2219600</v>
+        <v>2145300</v>
       </c>
       <c r="F52" s="3">
-        <v>2224000</v>
+        <v>2149600</v>
       </c>
       <c r="G52" s="3">
-        <v>2364700</v>
+        <v>2285500</v>
       </c>
       <c r="H52" s="3">
-        <v>2357800</v>
+        <v>2278800</v>
       </c>
       <c r="I52" s="3">
-        <v>2599900</v>
+        <v>2512900</v>
       </c>
       <c r="J52" s="3">
-        <v>3241000</v>
+        <v>3132500</v>
       </c>
       <c r="K52" s="3">
         <v>5887700</v>
@@ -2458,25 +2458,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>55369000</v>
+        <v>53515300</v>
       </c>
       <c r="E54" s="3">
-        <v>55122000</v>
+        <v>53276600</v>
       </c>
       <c r="F54" s="3">
-        <v>47039400</v>
+        <v>45464600</v>
       </c>
       <c r="G54" s="3">
-        <v>42721200</v>
+        <v>41291000</v>
       </c>
       <c r="H54" s="3">
-        <v>41315700</v>
+        <v>39932500</v>
       </c>
       <c r="I54" s="3">
-        <v>43220200</v>
+        <v>41773200</v>
       </c>
       <c r="J54" s="3">
-        <v>41102900</v>
+        <v>39726900</v>
       </c>
       <c r="K54" s="3">
         <v>40337000</v>
@@ -2536,25 +2536,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11424600</v>
+        <v>11042100</v>
       </c>
       <c r="E57" s="3">
-        <v>11432900</v>
+        <v>11050100</v>
       </c>
       <c r="F57" s="3">
-        <v>7183400</v>
+        <v>6942900</v>
       </c>
       <c r="G57" s="3">
-        <v>6661800</v>
+        <v>6438800</v>
       </c>
       <c r="H57" s="3">
-        <v>7908600</v>
+        <v>7643800</v>
       </c>
       <c r="I57" s="3">
-        <v>7876300</v>
+        <v>7612600</v>
       </c>
       <c r="J57" s="3">
-        <v>6567500</v>
+        <v>6347600</v>
       </c>
       <c r="K57" s="3">
         <v>13503200</v>
@@ -2578,25 +2578,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1505400</v>
+        <v>1455000</v>
       </c>
       <c r="E58" s="3">
-        <v>3389700</v>
+        <v>3276300</v>
       </c>
       <c r="F58" s="3">
-        <v>2536000</v>
+        <v>2451100</v>
       </c>
       <c r="G58" s="3">
-        <v>2164000</v>
+        <v>2091600</v>
       </c>
       <c r="H58" s="3">
-        <v>2679000</v>
+        <v>2589300</v>
       </c>
       <c r="I58" s="3">
-        <v>2578900</v>
+        <v>2492600</v>
       </c>
       <c r="J58" s="3">
-        <v>1216300</v>
+        <v>1175500</v>
       </c>
       <c r="K58" s="3">
         <v>319400</v>
@@ -2620,25 +2620,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6810400</v>
+        <v>6582400</v>
       </c>
       <c r="E59" s="3">
-        <v>6237100</v>
+        <v>6028300</v>
       </c>
       <c r="F59" s="3">
-        <v>9546400</v>
+        <v>9226800</v>
       </c>
       <c r="G59" s="3">
-        <v>9146800</v>
+        <v>8840600</v>
       </c>
       <c r="H59" s="3">
-        <v>9950000</v>
+        <v>9616900</v>
       </c>
       <c r="I59" s="3">
-        <v>10827600</v>
+        <v>10465100</v>
       </c>
       <c r="J59" s="3">
-        <v>10848100</v>
+        <v>10485000</v>
       </c>
       <c r="K59" s="3">
         <v>21929600</v>
@@ -2662,25 +2662,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19740400</v>
+        <v>19079500</v>
       </c>
       <c r="E60" s="3">
-        <v>21059700</v>
+        <v>20354700</v>
       </c>
       <c r="F60" s="3">
-        <v>19265700</v>
+        <v>18620700</v>
       </c>
       <c r="G60" s="3">
-        <v>17972700</v>
+        <v>17371000</v>
       </c>
       <c r="H60" s="3">
-        <v>20537500</v>
+        <v>19849900</v>
       </c>
       <c r="I60" s="3">
-        <v>21282800</v>
+        <v>20570300</v>
       </c>
       <c r="J60" s="3">
-        <v>18631900</v>
+        <v>18008100</v>
       </c>
       <c r="K60" s="3">
         <v>18252500</v>
@@ -2704,25 +2704,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8504900</v>
+        <v>8220200</v>
       </c>
       <c r="E61" s="3">
-        <v>9644600</v>
+        <v>9321700</v>
       </c>
       <c r="F61" s="3">
-        <v>7407800</v>
+        <v>7159800</v>
       </c>
       <c r="G61" s="3">
-        <v>7943900</v>
+        <v>7677900</v>
       </c>
       <c r="H61" s="3">
-        <v>4182200</v>
+        <v>4042200</v>
       </c>
       <c r="I61" s="3">
-        <v>5936000</v>
+        <v>5737300</v>
       </c>
       <c r="J61" s="3">
-        <v>6505700</v>
+        <v>6287900</v>
       </c>
       <c r="K61" s="3">
         <v>5167900</v>
@@ -2746,25 +2746,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1086600</v>
+        <v>1050200</v>
       </c>
       <c r="E62" s="3">
-        <v>1422600</v>
+        <v>1375000</v>
       </c>
       <c r="F62" s="3">
-        <v>1346200</v>
+        <v>1301100</v>
       </c>
       <c r="G62" s="3">
-        <v>1993900</v>
+        <v>1927100</v>
       </c>
       <c r="H62" s="3">
-        <v>2274700</v>
+        <v>2198500</v>
       </c>
       <c r="I62" s="3">
-        <v>3070000</v>
+        <v>2967300</v>
       </c>
       <c r="J62" s="3">
-        <v>3874700</v>
+        <v>3744900</v>
       </c>
       <c r="K62" s="3">
         <v>9642600</v>
@@ -2914,25 +2914,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>30510500</v>
+        <v>29489100</v>
       </c>
       <c r="E66" s="3">
-        <v>33378700</v>
+        <v>32261200</v>
       </c>
       <c r="F66" s="3">
-        <v>29218400</v>
+        <v>28240200</v>
       </c>
       <c r="G66" s="3">
-        <v>28992600</v>
+        <v>28021900</v>
       </c>
       <c r="H66" s="3">
-        <v>28169900</v>
+        <v>27226800</v>
       </c>
       <c r="I66" s="3">
-        <v>31489300</v>
+        <v>30435100</v>
       </c>
       <c r="J66" s="3">
-        <v>30304100</v>
+        <v>29289500</v>
       </c>
       <c r="K66" s="3">
         <v>29720300</v>
@@ -3142,25 +3142,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>17785100</v>
+        <v>17189600</v>
       </c>
       <c r="E72" s="3">
-        <v>16400600</v>
+        <v>15851600</v>
       </c>
       <c r="F72" s="3">
-        <v>14798100</v>
+        <v>14302700</v>
       </c>
       <c r="G72" s="3">
-        <v>11310800</v>
+        <v>10932100</v>
       </c>
       <c r="H72" s="3">
-        <v>10311000</v>
+        <v>9965800</v>
       </c>
       <c r="I72" s="3">
-        <v>8933300</v>
+        <v>8634200</v>
       </c>
       <c r="J72" s="3">
-        <v>7223400</v>
+        <v>6981600</v>
       </c>
       <c r="K72" s="3">
         <v>15019700</v>
@@ -3310,25 +3310,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>24858400</v>
+        <v>24026200</v>
       </c>
       <c r="E76" s="3">
-        <v>21743300</v>
+        <v>21015300</v>
       </c>
       <c r="F76" s="3">
-        <v>17821000</v>
+        <v>17224400</v>
       </c>
       <c r="G76" s="3">
-        <v>13728700</v>
+        <v>13269000</v>
       </c>
       <c r="H76" s="3">
-        <v>13145800</v>
+        <v>12705700</v>
       </c>
       <c r="I76" s="3">
-        <v>11730900</v>
+        <v>11338100</v>
       </c>
       <c r="J76" s="3">
-        <v>10798900</v>
+        <v>10437300</v>
       </c>
       <c r="K76" s="3">
         <v>10616600</v>
@@ -3441,25 +3441,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1823900</v>
+        <v>1762900</v>
       </c>
       <c r="E81" s="3">
-        <v>1754100</v>
+        <v>1695300</v>
       </c>
       <c r="F81" s="3">
-        <v>1134000</v>
+        <v>1096100</v>
       </c>
       <c r="G81" s="3">
-        <v>1550600</v>
+        <v>1498600</v>
       </c>
       <c r="H81" s="3">
-        <v>1952100</v>
+        <v>1886700</v>
       </c>
       <c r="I81" s="3">
-        <v>1621600</v>
+        <v>1567300</v>
       </c>
       <c r="J81" s="3">
-        <v>1026100</v>
+        <v>991800</v>
       </c>
       <c r="K81" s="3">
         <v>1146300</v>
@@ -3501,25 +3501,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2626300</v>
+        <v>2538400</v>
       </c>
       <c r="E83" s="3">
-        <v>2329900</v>
+        <v>2251900</v>
       </c>
       <c r="F83" s="3">
-        <v>2181700</v>
+        <v>2108700</v>
       </c>
       <c r="G83" s="3">
-        <v>2562300</v>
+        <v>2476600</v>
       </c>
       <c r="H83" s="3">
-        <v>2033800</v>
+        <v>1965700</v>
       </c>
       <c r="I83" s="3">
-        <v>1976900</v>
+        <v>1910700</v>
       </c>
       <c r="J83" s="3">
-        <v>1860200</v>
+        <v>1797900</v>
       </c>
       <c r="K83" s="3">
         <v>2046200</v>
@@ -3753,25 +3753,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3577500</v>
+        <v>3457700</v>
       </c>
       <c r="E89" s="3">
-        <v>1738700</v>
+        <v>1680500</v>
       </c>
       <c r="F89" s="3">
-        <v>3459300</v>
+        <v>3343500</v>
       </c>
       <c r="G89" s="3">
-        <v>2955200</v>
+        <v>2856300</v>
       </c>
       <c r="H89" s="3">
-        <v>1399300</v>
+        <v>1352400</v>
       </c>
       <c r="I89" s="3">
-        <v>2907300</v>
+        <v>2809900</v>
       </c>
       <c r="J89" s="3">
-        <v>2647800</v>
+        <v>2559100</v>
       </c>
       <c r="K89" s="3">
         <v>3082300</v>
@@ -3813,25 +3813,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1987900</v>
+        <v>-1921300</v>
       </c>
       <c r="E91" s="3">
-        <v>-1607400</v>
+        <v>-1553500</v>
       </c>
       <c r="F91" s="3">
-        <v>-1587800</v>
+        <v>-1534600</v>
       </c>
       <c r="G91" s="3">
-        <v>-1881800</v>
+        <v>-1818800</v>
       </c>
       <c r="H91" s="3">
-        <v>-2171500</v>
+        <v>-2098800</v>
       </c>
       <c r="I91" s="3">
-        <v>-2710100</v>
+        <v>-2619400</v>
       </c>
       <c r="J91" s="3">
-        <v>-1913900</v>
+        <v>-1849900</v>
       </c>
       <c r="K91" s="3">
         <v>-3580200</v>
@@ -3939,25 +3939,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2363500</v>
+        <v>-2284400</v>
       </c>
       <c r="E94" s="3">
-        <v>-5469500</v>
+        <v>-5286400</v>
       </c>
       <c r="F94" s="3">
-        <v>1213200</v>
+        <v>1172600</v>
       </c>
       <c r="G94" s="3">
-        <v>-1415900</v>
+        <v>-1368500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1328600</v>
+        <v>-1284100</v>
       </c>
       <c r="I94" s="3">
-        <v>-3152100</v>
+        <v>-3046600</v>
       </c>
       <c r="J94" s="3">
-        <v>-2886500</v>
+        <v>-2789800</v>
       </c>
       <c r="K94" s="3">
         <v>-2159500</v>
@@ -3999,25 +3999,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-481000</v>
+        <v>-464900</v>
       </c>
       <c r="E96" s="3">
-        <v>-400800</v>
+        <v>-387400</v>
       </c>
       <c r="F96" s="3">
-        <v>-400700</v>
+        <v>-387300</v>
       </c>
       <c r="G96" s="3">
-        <v>-480800</v>
+        <v>-464700</v>
       </c>
       <c r="H96" s="3">
-        <v>-560800</v>
+        <v>-542000</v>
       </c>
       <c r="I96" s="3">
-        <v>-400600</v>
+        <v>-387200</v>
       </c>
       <c r="J96" s="3">
-        <v>-398600</v>
+        <v>-385300</v>
       </c>
       <c r="K96" s="3">
         <v>-340500</v>
@@ -4167,25 +4167,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4170200</v>
+        <v>-4030600</v>
       </c>
       <c r="E100" s="3">
-        <v>404700</v>
+        <v>391200</v>
       </c>
       <c r="F100" s="3">
-        <v>-1220800</v>
+        <v>-1180000</v>
       </c>
       <c r="G100" s="3">
-        <v>331300</v>
+        <v>320200</v>
       </c>
       <c r="H100" s="3">
-        <v>-2347900</v>
+        <v>-2269300</v>
       </c>
       <c r="I100" s="3">
-        <v>-884600</v>
+        <v>-855000</v>
       </c>
       <c r="J100" s="3">
-        <v>2023900</v>
+        <v>1956100</v>
       </c>
       <c r="K100" s="3">
         <v>-2275300</v>
@@ -4209,25 +4209,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>301800</v>
+        <v>291700</v>
       </c>
       <c r="E101" s="3">
-        <v>665100</v>
+        <v>642800</v>
       </c>
       <c r="F101" s="3">
-        <v>510300</v>
+        <v>493200</v>
       </c>
       <c r="G101" s="3">
-        <v>-192700</v>
+        <v>-186300</v>
       </c>
       <c r="H101" s="3">
-        <v>97200</v>
+        <v>94000</v>
       </c>
       <c r="I101" s="3">
-        <v>-115400</v>
+        <v>-111500</v>
       </c>
       <c r="J101" s="3">
-        <v>-11900</v>
+        <v>-11500</v>
       </c>
       <c r="K101" s="3">
         <v>-612000</v>
@@ -4251,25 +4251,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2654400</v>
+        <v>-2565500</v>
       </c>
       <c r="E102" s="3">
-        <v>-2661100</v>
+        <v>-2572000</v>
       </c>
       <c r="F102" s="3">
-        <v>3962100</v>
+        <v>3829400</v>
       </c>
       <c r="G102" s="3">
-        <v>1677900</v>
+        <v>1621800</v>
       </c>
       <c r="H102" s="3">
-        <v>-2180000</v>
+        <v>-2107000</v>
       </c>
       <c r="I102" s="3">
-        <v>-1244900</v>
+        <v>-1203200</v>
       </c>
       <c r="J102" s="3">
-        <v>1773300</v>
+        <v>1713900</v>
       </c>
       <c r="K102" s="3">
         <v>-1964500</v>
